--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -112,9 +112,6 @@
     <t>SG Barockstadt</t>
   </si>
   <si>
-    <t>VfR Aalen</t>
-  </si>
-  <si>
     <t>SGV Freiberg</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Bahlinger SC</t>
+  </si>
+  <si>
+    <t>VfR Aalen</t>
   </si>
   <si>
     <t>FSV Frankfurt</t>
@@ -172,10 +172,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5678053</v>
+        <v>5708723</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
       </c>
       <c r="K5">
+        <v>2.1</v>
+      </c>
+      <c r="L5">
         <v>3.4</v>
       </c>
-      <c r="L5">
+      <c r="M5">
+        <v>3.1</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>1.909</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>3.5</v>
-      </c>
       <c r="P5">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.725</v>
+      </c>
+      <c r="S5">
+        <v>2.15</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
         <v>1.975</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.875</v>
-      </c>
-      <c r="AB5">
-        <v>0.825</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5708723</v>
+        <v>5678051</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
+        <v>0.25</v>
+      </c>
+      <c r="R6">
+        <v>1.8</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
+        <v>1.95</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>2.2</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>0.4</v>
+      </c>
+      <c r="AA6">
         <v>-0.5</v>
       </c>
-      <c r="R6">
-        <v>1.725</v>
-      </c>
-      <c r="S6">
-        <v>2.15</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
-      <c r="U6">
-        <v>1.975</v>
-      </c>
-      <c r="V6">
-        <v>1.875</v>
-      </c>
-      <c r="W6">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5678051</v>
+        <v>5708722</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N7">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5708722</v>
+        <v>5678055</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,73 +1183,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="N8">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
+        <v>1.75</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.95</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5678055</v>
+        <v>5678053</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,73 +1272,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
       </c>
-      <c r="M9">
-        <v>2.45</v>
-      </c>
-      <c r="N9">
-        <v>2.3</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
         <v>3.2</v>
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>2.4</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>1.65</v>
@@ -1981,7 +1981,7 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2073,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>1.6</v>
@@ -2162,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2251,7 +2251,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20">
         <v>1.5</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5233382</v>
+        <v>5233744</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2426,52 +2426,52 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="Q22">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
         <v>1.925</v>
@@ -2480,16 +2480,16 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y22">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5233744</v>
+        <v>5233382</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,49 +2518,49 @@
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
         <v>1.925</v>
@@ -2569,16 +2569,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z23">
+        <v>0.3875</v>
+      </c>
+      <c r="AA23">
         <v>-0.5</v>
-      </c>
-      <c r="AA23">
-        <v>0.45</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24">
         <v>2.7</v>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>3.2</v>
@@ -2782,10 +2782,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
         <v>2.8</v>
@@ -2960,7 +2960,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28">
         <v>4.2</v>
@@ -3141,7 +3141,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3150,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3230,7 +3230,7 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>1.55</v>
@@ -3405,7 +3405,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3506,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3586,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
         <v>4.5</v>
@@ -3761,7 +3761,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
         <v>1.85</v>
@@ -3853,7 +3853,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
         <v>1.333</v>
@@ -4028,7 +4028,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -4298,7 +4298,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>9</v>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
         <v>1.8</v>
@@ -4384,7 +4384,7 @@
         <v>45017.375</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>43</v>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -4565,7 +4565,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4651,10 +4651,10 @@
         <v>45020.5</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>6</v>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K47">
         <v>1.6</v>
@@ -4743,7 +4743,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51">
         <v>1.95</v>
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5233406</v>
+        <v>5233737</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,76 +5096,76 @@
         <v>45021.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L52">
         <v>3.8</v>
       </c>
       <c r="M52">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N52">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X52">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5233737</v>
+        <v>5233406</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,76 +5185,76 @@
         <v>45021.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K53">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L53">
         <v>3.8</v>
       </c>
       <c r="M53">
+        <v>5.5</v>
+      </c>
+      <c r="N53">
+        <v>1.533</v>
+      </c>
+      <c r="O53">
+        <v>3.75</v>
+      </c>
+      <c r="P53">
         <v>5</v>
       </c>
-      <c r="N53">
-        <v>1.333</v>
-      </c>
-      <c r="O53">
-        <v>4.5</v>
-      </c>
-      <c r="P53">
-        <v>8.5</v>
-      </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5233405</v>
+        <v>5233738</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,76 +5274,76 @@
         <v>45021.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
         <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y54">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5233738</v>
+        <v>5233405</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45021.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K55">
+        <v>3.6</v>
+      </c>
+      <c r="L55">
+        <v>3.5</v>
+      </c>
+      <c r="M55">
+        <v>1.8</v>
+      </c>
+      <c r="N55">
+        <v>6</v>
+      </c>
+      <c r="O55">
+        <v>4.2</v>
+      </c>
+      <c r="P55">
+        <v>1.444</v>
+      </c>
+      <c r="Q55">
+        <v>1.25</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>1.8</v>
+      </c>
+      <c r="T55">
         <v>3</v>
-      </c>
-      <c r="L55">
-        <v>3.1</v>
-      </c>
-      <c r="M55">
-        <v>2.2</v>
-      </c>
-      <c r="N55">
-        <v>2.625</v>
-      </c>
-      <c r="O55">
-        <v>3.1</v>
-      </c>
-      <c r="P55">
-        <v>2.5</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>1.925</v>
-      </c>
-      <c r="S55">
-        <v>1.875</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
       </c>
       <c r="U55">
         <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K56">
         <v>1.6</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K57">
         <v>3.75</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5233413</v>
+        <v>5233736</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,59 +5630,59 @@
         <v>45024.375</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L58">
+        <v>3.2</v>
+      </c>
+      <c r="M58">
+        <v>2.1</v>
+      </c>
+      <c r="N58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>5.5</v>
-      </c>
-      <c r="N58">
-        <v>1.285</v>
-      </c>
       <c r="O58">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>8.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S58">
+        <v>1.8</v>
+      </c>
+      <c r="T58">
+        <v>2.5</v>
+      </c>
+      <c r="U58">
         <v>1.95</v>
       </c>
-      <c r="T58">
+      <c r="V58">
+        <v>1.85</v>
+      </c>
+      <c r="W58">
         <v>3</v>
       </c>
-      <c r="U58">
-        <v>1.8</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
-      <c r="W58">
-        <v>0.2849999999999999</v>
-      </c>
       <c r="X58">
         <v>-1</v>
       </c>
@@ -5690,13 +5690,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5233736</v>
+        <v>5233413</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,58 +5719,58 @@
         <v>45024.375</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59">
+        <v>1.533</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>5.5</v>
+      </c>
+      <c r="N59">
+        <v>1.285</v>
+      </c>
+      <c r="O59">
+        <v>5.5</v>
+      </c>
+      <c r="P59">
+        <v>8.5</v>
+      </c>
+      <c r="Q59">
+        <v>-1.5</v>
+      </c>
+      <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
+        <v>1.95</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59">
-        <v>3</v>
-      </c>
-      <c r="L59">
-        <v>3.2</v>
-      </c>
-      <c r="M59">
-        <v>2.1</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
-      </c>
-      <c r="O59">
-        <v>3.4</v>
-      </c>
-      <c r="P59">
-        <v>1.75</v>
-      </c>
-      <c r="Q59">
-        <v>0.5</v>
-      </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
-      <c r="S59">
+      <c r="U59">
         <v>1.8</v>
       </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5779,13 +5779,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5233415</v>
+        <v>5233735</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5808,58 +5808,58 @@
         <v>45024.375</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K60">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N60">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5868,13 +5868,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5233416</v>
+        <v>5233415</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,46 +5897,46 @@
         <v>45024.375</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N61">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.75</v>
@@ -5945,28 +5945,28 @@
         <v>1.85</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5233412</v>
+        <v>5233416</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,40 +5986,40 @@
         <v>45024.375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R62">
         <v>2</v>
@@ -6028,19 +6028,19 @@
         <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6052,10 +6052,10 @@
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6063,7 +6063,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5233735</v>
+        <v>5233412</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6075,58 +6075,58 @@
         <v>45024.375</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
         <v>3.3</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>1.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6135,13 +6135,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6164,10 +6164,10 @@
         <v>45025.375</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6176,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64">
         <v>2.1</v>
@@ -6342,7 +6342,7 @@
         <v>45031.375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>37</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67">
         <v>1.615</v>
@@ -6523,7 +6523,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6698,10 +6698,10 @@
         <v>45031.375</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6790,7 +6790,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K72">
         <v>1.615</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K73">
         <v>1.571</v>
@@ -7042,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6469312</v>
+        <v>6402765</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7054,76 +7054,76 @@
         <v>45034.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74">
+        <v>2.5</v>
+      </c>
+      <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>2.375</v>
+      </c>
+      <c r="N74">
+        <v>3.1</v>
+      </c>
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
+      </c>
+      <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
+        <v>1.9</v>
+      </c>
+      <c r="T74">
         <v>3</v>
       </c>
-      <c r="J74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K74">
-        <v>4</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
-      <c r="M74">
-        <v>1.666</v>
-      </c>
-      <c r="N74">
-        <v>4.5</v>
-      </c>
-      <c r="O74">
-        <v>4</v>
-      </c>
-      <c r="P74">
-        <v>1.533</v>
-      </c>
-      <c r="Q74">
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
+        <v>1.9</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
         <v>1</v>
       </c>
-      <c r="R74">
-        <v>1.825</v>
-      </c>
-      <c r="S74">
-        <v>1.975</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
-      <c r="V74">
-        <v>1.8</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7131,7 +7131,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6402765</v>
+        <v>6469312</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7143,55 +7143,55 @@
         <v>45034.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.666</v>
+      </c>
+      <c r="N75">
+        <v>4.5</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>1.533</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>1.975</v>
+      </c>
+      <c r="T75">
         <v>2.5</v>
       </c>
-      <c r="L75">
-        <v>3.4</v>
-      </c>
-      <c r="M75">
-        <v>2.375</v>
-      </c>
-      <c r="N75">
-        <v>3.1</v>
-      </c>
-      <c r="O75">
-        <v>3.5</v>
-      </c>
-      <c r="P75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.95</v>
-      </c>
-      <c r="S75">
-        <v>1.9</v>
-      </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7200,19 +7200,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
       </c>
-      <c r="Z75">
-        <v>-1</v>
-      </c>
-      <c r="AA75">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K77">
         <v>1.5</v>
@@ -7422,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78">
         <v>1.5</v>
@@ -7499,10 +7499,10 @@
         <v>45038.375</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5233732</v>
+        <v>5233430</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,55 +7588,55 @@
         <v>45038.375</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O80">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
         <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7645,19 +7645,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5233430</v>
+        <v>5233429</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45038.375</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
         <v>2.9</v>
       </c>
       <c r="N81">
+        <v>2.8</v>
+      </c>
+      <c r="O81">
         <v>3.4</v>
       </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA81">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5233429</v>
+        <v>5233732</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,76 +7766,76 @@
         <v>45038.375</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>3.25</v>
+      </c>
+      <c r="N82">
+        <v>2.05</v>
+      </c>
+      <c r="O82">
+        <v>3.2</v>
+      </c>
+      <c r="P82">
         <v>3.3</v>
       </c>
-      <c r="M82">
-        <v>2.9</v>
-      </c>
-      <c r="N82">
-        <v>2.8</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
-      </c>
-      <c r="P82">
-        <v>2.2</v>
-      </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z82">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7855,10 +7855,10 @@
         <v>45038.375</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K83">
         <v>2.25</v>
@@ -7956,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>4.8</v>
@@ -8033,7 +8033,7 @@
         <v>45039.375</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8045,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K85">
         <v>5.5</v>
@@ -8122,10 +8122,10 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K87">
         <v>1.6</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K88">
         <v>1.65</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K89">
         <v>1.363</v>
@@ -8481,7 +8481,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8490,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8567,7 +8567,7 @@
         <v>45045.375</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K91">
         <v>3</v>
@@ -8656,7 +8656,7 @@
         <v>45045.375</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -8668,7 +8668,7 @@
         <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
         <v>2.1</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K93">
         <v>1.7</v>
@@ -8926,7 +8926,7 @@
         <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9024,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K96">
         <v>4.2</v>
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9190,7 +9190,7 @@
         <v>45052.375</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
         <v>30</v>
@@ -9202,7 +9202,7 @@
         <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K98">
         <v>3.75</v>
@@ -9267,7 +9267,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5233444</v>
+        <v>5233443</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9279,76 +9279,76 @@
         <v>45052.375</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0</v>
-      </c>
-      <c r="I99">
-        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N99">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P99">
+        <v>2.5</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1.925</v>
+      </c>
+      <c r="S99">
+        <v>1.875</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
         <v>1.85</v>
       </c>
-      <c r="Q99">
-        <v>0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.925</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.95</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9371,7 +9371,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K100">
         <v>1.333</v>
@@ -9457,7 +9457,7 @@
         <v>45052.375</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>38</v>
@@ -9469,7 +9469,7 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K101">
         <v>1.8</v>
@@ -9549,7 +9549,7 @@
         <v>46</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5233443</v>
+        <v>5233444</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,76 +9635,76 @@
         <v>45052.375</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O103">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>1.95</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <v>1.875</v>
+      </c>
+      <c r="V103">
         <v>1.925</v>
       </c>
-      <c r="S103">
-        <v>1.875</v>
-      </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.95</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.925</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9902,7 +9902,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9914,7 +9914,7 @@
         <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K106">
         <v>4.5</v>
@@ -9979,7 +9979,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5422655</v>
+        <v>5422653</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9991,76 +9991,76 @@
         <v>45059.375</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>52</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="L107">
+        <v>5.5</v>
+      </c>
+      <c r="M107">
+        <v>8</v>
+      </c>
+      <c r="N107">
+        <v>1.2</v>
+      </c>
+      <c r="O107">
+        <v>6.5</v>
+      </c>
+      <c r="P107">
+        <v>9.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.75</v>
+      </c>
+      <c r="R107">
+        <v>1.75</v>
+      </c>
+      <c r="S107">
+        <v>1.95</v>
+      </c>
+      <c r="T107">
         <v>3.25</v>
       </c>
-      <c r="M107">
-        <v>3</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
-      <c r="P107">
-        <v>2.55</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>1.825</v>
-      </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
       <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
         <v>1.925</v>
       </c>
-      <c r="V107">
-        <v>1.875</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5422653</v>
+        <v>5422655</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,76 +10080,76 @@
         <v>45059.375</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>53</v>
       </c>
       <c r="K108">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M108">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>9.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
+        <v>1.925</v>
+      </c>
+      <c r="V108">
         <v>1.875</v>
       </c>
-      <c r="V108">
-        <v>1.925</v>
-      </c>
       <c r="W108">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10169,10 +10169,10 @@
         <v>45059.375</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10181,7 +10181,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K110">
         <v>2.6</v>
@@ -10359,7 +10359,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K111">
         <v>1.45</v>
@@ -10439,7 +10439,7 @@
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K112">
         <v>1.222</v>
@@ -10528,7 +10528,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K113">
         <v>1.85</v>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K114">
         <v>3.3</v>
@@ -10703,7 +10703,7 @@
         <v>45066.375</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10780,7 +10780,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5465123</v>
+        <v>5469506</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10792,13 +10792,13 @@
         <v>45066.375</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>3</v>
@@ -10807,58 +10807,58 @@
         <v>53</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L116">
         <v>3.75</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z116">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10869,7 +10869,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5466729</v>
+        <v>5465123</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10881,40 +10881,40 @@
         <v>45066.375</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K117">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O117">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q117">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
         <v>1.875</v>
@@ -10923,16 +10923,16 @@
         <v>1.925</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
       <c r="W117">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10941,13 +10941,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10958,7 +10958,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5465125</v>
+        <v>5466729</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10970,76 +10970,76 @@
         <v>45066.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
         <v>0</v>
-      </c>
-      <c r="I118">
-        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>52</v>
       </c>
       <c r="K118">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P118">
-        <v>1.65</v>
+        <v>8</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5466730</v>
+        <v>5465125</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,76 +11059,76 @@
         <v>45066.375</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>53</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L119">
         <v>3.75</v>
       </c>
       <c r="M119">
+        <v>1.8</v>
+      </c>
+      <c r="N119">
         <v>4</v>
       </c>
-      <c r="N119">
-        <v>1.75</v>
-      </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11160,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K120">
         <v>2.4</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5469506</v>
+        <v>5466730</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,76 +11237,76 @@
         <v>45066.375</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>52</v>
       </c>
       <c r="K121">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L121">
         <v>3.75</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
         <v>1.8</v>
       </c>
-      <c r="V121">
-        <v>2</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11338,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K122">
         <v>1.909</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K123">
         <v>2.7</v>
@@ -11492,7 +11492,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5494679</v>
+        <v>5495405</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11504,19 +11504,19 @@
         <v>45073.375</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K124">
         <v>2.1</v>
@@ -11528,25 +11528,25 @@
         <v>2.9</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
         <v>1.975</v>
@@ -11555,7 +11555,7 @@
         <v>1.875</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>1.15</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11564,16 +11564,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5495405</v>
+        <v>5494679</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11593,19 +11593,19 @@
         <v>45073.375</v>
       </c>
       <c r="F125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G125" t="s">
         <v>36</v>
       </c>
-      <c r="G125" t="s">
-        <v>41</v>
-      </c>
       <c r="H125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11617,25 +11617,25 @@
         <v>2.9</v>
       </c>
       <c r="N125">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
+        <v>4.75</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.25</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.975</v>
+      </c>
+      <c r="T125">
         <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.625</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
       </c>
       <c r="U125">
         <v>1.975</v>
@@ -11644,7 +11644,7 @@
         <v>1.875</v>
       </c>
       <c r="W125">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11653,16 +11653,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11694,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11771,7 +11771,7 @@
         <v>45073.375</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>40</v>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K127">
         <v>4</v>
@@ -11860,7 +11860,7 @@
         <v>45073.375</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>46</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K128">
         <v>2.6</v>
@@ -12041,7 +12041,7 @@
         <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K130">
         <v>2.3</v>
@@ -12139,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K131">
         <v>1.55</v>
@@ -12228,7 +12228,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K132">
         <v>3.6</v>
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6898512</v>
+        <v>6898442</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,43 +12305,43 @@
         <v>45143.375</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K133">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S133">
         <v>1.85</v>
@@ -12350,22 +12350,22 @@
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X133">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12374,7 +12374,7 @@
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>45143.375</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>50</v>
@@ -12495,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -12575,7 +12575,7 @@
         <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6898442</v>
+        <v>6898512</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,43 +12661,43 @@
         <v>45143.375</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L137">
+        <v>3.75</v>
+      </c>
+      <c r="M137">
+        <v>1.909</v>
+      </c>
+      <c r="N137">
         <v>3.4</v>
       </c>
-      <c r="M137">
-        <v>2.5</v>
-      </c>
-      <c r="N137">
-        <v>2.375</v>
-      </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
         <v>1.85</v>
@@ -12706,22 +12706,22 @@
         <v>3</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12730,7 +12730,7 @@
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12753,7 +12753,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K139">
         <v>1.5</v>
@@ -12928,7 +12928,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>40</v>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K140">
         <v>3.6</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K141">
         <v>1.6</v>
@@ -13118,7 +13118,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K142">
         <v>1.25</v>
@@ -13198,7 +13198,7 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K143">
         <v>1.3</v>
@@ -13373,7 +13373,7 @@
         <v>45154.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K146">
         <v>2.15</v>
@@ -13563,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K147">
         <v>3</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K148">
         <v>3.4</v>
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K149">
         <v>2.375</v>
@@ -13818,7 +13818,7 @@
         <v>45157.375</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>31</v>
@@ -13830,7 +13830,7 @@
         <v>4</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K150">
         <v>3</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K152">
         <v>3.5</v>
@@ -14088,7 +14088,7 @@
         <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14097,7 +14097,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K153">
         <v>1.833</v>
@@ -14177,7 +14177,7 @@
         <v>47</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14186,7 +14186,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K154">
         <v>2.3</v>
@@ -14275,7 +14275,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14364,7 +14364,7 @@
         <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K156">
         <v>3.25</v>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14631,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K159">
         <v>2.1</v>
@@ -14708,7 +14708,7 @@
         <v>45164.375</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14720,7 +14720,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K160">
         <v>1.909</v>
@@ -14898,7 +14898,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K162">
         <v>2.1</v>
@@ -14975,7 +14975,7 @@
         <v>45164.375</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -15076,7 +15076,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K164">
         <v>1.727</v>
@@ -15156,7 +15156,7 @@
         <v>49</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K165">
         <v>2.25</v>
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K166">
         <v>1.533</v>
@@ -15331,10 +15331,10 @@
         <v>45167.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15343,7 +15343,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K167">
         <v>2.3</v>
@@ -15432,7 +15432,7 @@
         <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K168">
         <v>1.363</v>
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6907483</v>
+        <v>6907448</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,76 +15598,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N170">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
         <v>1.85</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y170">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15690,7 +15690,7 @@
         <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6907448</v>
+        <v>6907483</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N172">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O172">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
         <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15877,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K173">
         <v>4.25</v>
@@ -16055,7 +16055,7 @@
         <v>4</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K175">
         <v>13</v>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6907485</v>
+        <v>6898062</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,58 +16132,58 @@
         <v>45171.375</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M176">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N176">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P176">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
         <v>1.825</v>
       </c>
-      <c r="V176">
-        <v>1.975</v>
-      </c>
       <c r="W176">
-        <v>2.6</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16192,16 +16192,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6898450</v>
+        <v>6907485</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45171.375</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>2</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>52</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="L178">
         <v>3.75</v>
       </c>
       <c r="M178">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="N178">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R178">
         <v>1.875</v>
       </c>
       <c r="S178">
+        <v>1.925</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
         <v>1.975</v>
       </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
-      <c r="U178">
-        <v>2.025</v>
-      </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898062</v>
+        <v>6898450</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,43 +16399,43 @@
         <v>45171.375</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
         <v>53</v>
       </c>
       <c r="K179">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N179">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
         <v>1.975</v>
@@ -16444,28 +16444,28 @@
         <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
         <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16488,7 +16488,7 @@
         <v>45171.375</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>45</v>
@@ -16500,7 +16500,7 @@
         <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K180">
         <v>2.875</v>
@@ -16577,7 +16577,7 @@
         <v>45171.375</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16589,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K181">
         <v>2.25</v>
@@ -16678,7 +16678,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K182">
         <v>1.909</v>
@@ -16767,7 +16767,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K183">
         <v>1.3</v>
@@ -16856,7 +16856,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K184">
         <v>1.571</v>
@@ -17025,7 +17025,7 @@
         <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186">
         <v>5</v>
@@ -17034,7 +17034,7 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K186">
         <v>1.833</v>
@@ -17114,7 +17114,7 @@
         <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6898453</v>
+        <v>6898063</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,58 +17200,58 @@
         <v>45178.375</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>1.85</v>
+      </c>
+      <c r="N188">
+        <v>2.7</v>
+      </c>
+      <c r="O188">
         <v>3.5</v>
       </c>
-      <c r="M188">
-        <v>2.25</v>
-      </c>
-      <c r="N188">
-        <v>2.15</v>
-      </c>
-      <c r="O188">
-        <v>3.75</v>
-      </c>
       <c r="P188">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
         <v>1.95</v>
-      </c>
-      <c r="S188">
-        <v>1.9</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17260,16 +17260,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.95</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>0.4375</v>
-      </c>
-      <c r="AC188">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6898063</v>
+        <v>6898453</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,58 +17289,58 @@
         <v>45178.375</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.25</v>
+      </c>
+      <c r="N189">
+        <v>2.15</v>
+      </c>
+      <c r="O189">
         <v>3.75</v>
       </c>
-      <c r="M189">
-        <v>1.85</v>
-      </c>
-      <c r="N189">
-        <v>2.7</v>
-      </c>
-      <c r="O189">
-        <v>3.5</v>
-      </c>
       <c r="P189">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17349,16 +17349,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17378,7 +17378,7 @@
         <v>45178.375</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
         <v>44</v>
@@ -17390,7 +17390,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K190">
         <v>3</v>
@@ -17479,7 +17479,7 @@
         <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K191">
         <v>2.1</v>
@@ -17568,7 +17568,7 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K192">
         <v>2</v>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K193">
         <v>1.909</v>
@@ -17734,7 +17734,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K194">
         <v>2.2</v>
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K195">
         <v>1.727</v>
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6898064</v>
+        <v>6898493</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,46 +17912,46 @@
         <v>45185.375</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J196" t="s">
         <v>53</v>
       </c>
       <c r="K196">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="L196">
         <v>4</v>
       </c>
       <c r="M196">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N196">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T196">
         <v>3</v>
@@ -17963,19 +17963,19 @@
         <v>1.85</v>
       </c>
       <c r="W196">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB196">
         <v>0.95</v>
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6898757</v>
+        <v>6898064</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,13 +18001,13 @@
         <v>45185.375</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I197">
         <v>2</v>
@@ -18016,61 +18016,61 @@
         <v>52</v>
       </c>
       <c r="K197">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N197">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
         <v>3</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6898493</v>
+        <v>6898757</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,55 +18090,55 @@
         <v>45185.375</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K198">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N198">
+        <v>2.4</v>
+      </c>
+      <c r="O198">
+        <v>3.6</v>
+      </c>
+      <c r="P198">
         <v>2.375</v>
-      </c>
-      <c r="O198">
-        <v>3.5</v>
-      </c>
-      <c r="P198">
-        <v>2.45</v>
       </c>
       <c r="Q198">
         <v>0</v>
       </c>
       <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
         <v>1.875</v>
-      </c>
-      <c r="S198">
-        <v>1.925</v>
       </c>
       <c r="T198">
         <v>3</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -18147,19 +18147,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.45</v>
+        <v>1.375</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB198">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18280,7 +18280,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K200">
         <v>1.666</v>
@@ -18369,7 +18369,7 @@
         <v>5</v>
       </c>
       <c r="J201" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K201">
         <v>2.875</v>
@@ -18458,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K202">
         <v>2.875</v>
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K203">
         <v>1.4</v>
@@ -18636,7 +18636,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K204">
         <v>1.7</v>
@@ -18805,7 +18805,7 @@
         <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -18980,7 +18980,7 @@
         <v>45192.375</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>50</v>
@@ -18992,7 +18992,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K208">
         <v>2.25</v>
@@ -19081,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K209">
         <v>1.75</v>
@@ -19170,7 +19170,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K210">
         <v>4.75</v>
@@ -19250,7 +19250,7 @@
         <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K211">
         <v>1.95</v>
@@ -19348,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K212">
         <v>2.8</v>
@@ -19526,7 +19526,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K214">
         <v>2.4</v>
@@ -19603,7 +19603,7 @@
         <v>45199.375</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
         <v>43</v>
@@ -19615,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K215">
         <v>2.375</v>
@@ -19704,7 +19704,7 @@
         <v>4</v>
       </c>
       <c r="J216" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K216">
         <v>4</v>
@@ -19784,7 +19784,7 @@
         <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H217">
         <v>3</v>
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K217">
         <v>1.833</v>
@@ -19870,7 +19870,7 @@
         <v>45199.375</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K218">
         <v>2.375</v>
@@ -19971,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K219">
         <v>2</v>
@@ -20060,7 +20060,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
         <v>1.45</v>
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6898496</v>
+        <v>6907493</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,76 +20137,76 @@
         <v>45202.375</v>
       </c>
       <c r="F221" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
         <v>0</v>
-      </c>
-      <c r="I221">
-        <v>3</v>
       </c>
       <c r="J221" t="s">
         <v>52</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M221">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O221">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T221">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20214,7 +20214,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6907078</v>
+        <v>6898496</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20226,76 +20226,76 @@
         <v>45202.375</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
         <v>53</v>
       </c>
       <c r="K222">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L222">
+        <v>3.8</v>
+      </c>
+      <c r="M222">
+        <v>2.4</v>
+      </c>
+      <c r="N222">
+        <v>3.2</v>
+      </c>
+      <c r="O222">
         <v>4.2</v>
       </c>
-      <c r="M222">
-        <v>3.75</v>
-      </c>
-      <c r="N222">
-        <v>1.6</v>
-      </c>
-      <c r="O222">
-        <v>4.333</v>
-      </c>
       <c r="P222">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R222">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T222">
         <v>3.25</v>
       </c>
       <c r="U222">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z222">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20315,7 +20315,7 @@
         <v>45202.375</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K223">
         <v>2.15</v>
@@ -20392,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6907493</v>
+        <v>6907078</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20404,10 +20404,10 @@
         <v>45202.375</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20416,46 +20416,46 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K224">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L224">
         <v>4.2</v>
       </c>
       <c r="M224">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N224">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W224">
-        <v>0.7270000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -20464,7 +20464,7 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA224">
         <v>-1</v>
@@ -20473,7 +20473,7 @@
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20505,7 +20505,7 @@
         <v>5</v>
       </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20594,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K227">
         <v>1.166</v>
@@ -20772,7 +20772,7 @@
         <v>4</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K228">
         <v>3.25</v>
@@ -20861,7 +20861,7 @@
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K229">
         <v>1.833</v>
@@ -20938,7 +20938,7 @@
         <v>45206.375</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
         <v>47</v>
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K230">
         <v>1.222</v>
@@ -21015,7 +21015,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6898460</v>
+        <v>6898461</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21027,55 +21027,55 @@
         <v>45206.375</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K231">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L231">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M231">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N231">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O231">
         <v>4</v>
       </c>
       <c r="P231">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="Q231">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S231">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
         <v>3</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21084,19 +21084,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21104,7 +21104,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6898461</v>
+        <v>6898460</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21116,55 +21116,55 @@
         <v>45206.375</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K232">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M232">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O232">
         <v>4</v>
       </c>
       <c r="P232">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R232">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
         <v>3</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21173,19 +21173,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC232">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21217,7 +21217,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K233">
         <v>1.8</v>
@@ -21294,7 +21294,7 @@
         <v>45206.375</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
         <v>48</v>
@@ -21386,7 +21386,7 @@
         <v>49</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21395,7 +21395,7 @@
         <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K235">
         <v>4.75</v>
@@ -21484,7 +21484,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K236">
         <v>1.727</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K237">
         <v>2.4</v>
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K238">
         <v>1.615</v>
@@ -21831,7 +21831,7 @@
         <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -21840,7 +21840,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K240">
         <v>2.5</v>
@@ -21905,7 +21905,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6899060</v>
+        <v>6898463</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21917,52 +21917,52 @@
         <v>45213.375</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G241" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>51</v>
       </c>
       <c r="K241">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L241">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M241">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N241">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="O241">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P241">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q241">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V241">
         <v>1.95</v>
@@ -21971,7 +21971,7 @@
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y241">
         <v>-1</v>
@@ -21980,13 +21980,13 @@
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21994,7 +21994,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6907497</v>
+        <v>6899060</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22006,76 +22006,76 @@
         <v>45213.375</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242">
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K242">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M242">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N242">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O242">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P242">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R242">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U242">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V242">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y242">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22083,7 +22083,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6898759</v>
+        <v>6907497</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22095,55 +22095,55 @@
         <v>45213.375</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L243">
         <v>4</v>
       </c>
       <c r="M243">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N243">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O243">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P243">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T243">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U243">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
         <v>-1</v>
@@ -22152,19 +22152,19 @@
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>1.625</v>
+        <v>2.3</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB243">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22172,7 +22172,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6898463</v>
+        <v>6898759</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22184,76 +22184,76 @@
         <v>45213.375</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244" t="s">
+        <v>53</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>4</v>
+      </c>
+      <c r="M244">
+        <v>2.75</v>
+      </c>
+      <c r="N244">
+        <v>2.2</v>
+      </c>
+      <c r="O244">
+        <v>3.75</v>
+      </c>
+      <c r="P244">
+        <v>2.625</v>
+      </c>
+      <c r="Q244">
         <v>0</v>
       </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-      <c r="J244" t="s">
-        <v>51</v>
-      </c>
-      <c r="K244">
-        <v>1.5</v>
-      </c>
-      <c r="L244">
-        <v>4.2</v>
-      </c>
-      <c r="M244">
-        <v>4.75</v>
-      </c>
-      <c r="N244">
-        <v>1.533</v>
-      </c>
-      <c r="O244">
-        <v>4</v>
-      </c>
-      <c r="P244">
-        <v>4.75</v>
-      </c>
-      <c r="Q244">
-        <v>-1</v>
-      </c>
       <c r="R244">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T244">
         <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V244">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC244">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22285,7 +22285,7 @@
         <v>3</v>
       </c>
       <c r="J245" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K245">
         <v>2.4</v>
@@ -22439,7 +22439,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6907455</v>
+        <v>6899059</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22451,76 +22451,76 @@
         <v>45220.375</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>53</v>
+      </c>
+      <c r="K247">
+        <v>2.45</v>
+      </c>
+      <c r="L247">
+        <v>4</v>
+      </c>
+      <c r="M247">
+        <v>2.2</v>
+      </c>
+      <c r="N247">
+        <v>2.4</v>
+      </c>
+      <c r="O247">
+        <v>4</v>
+      </c>
+      <c r="P247">
+        <v>2.375</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>1.925</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
+        <v>2.75</v>
+      </c>
+      <c r="U247">
+        <v>1.8</v>
+      </c>
+      <c r="V247">
+        <v>2</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
+        <v>1.375</v>
+      </c>
+      <c r="Z247">
+        <v>-1</v>
+      </c>
+      <c r="AA247">
+        <v>0.875</v>
+      </c>
+      <c r="AB247">
+        <v>-1</v>
+      </c>
+      <c r="AC247">
         <v>1</v>
-      </c>
-      <c r="I247">
-        <v>2</v>
-      </c>
-      <c r="J247" t="s">
-        <v>52</v>
-      </c>
-      <c r="K247">
-        <v>1.5</v>
-      </c>
-      <c r="L247">
-        <v>4.2</v>
-      </c>
-      <c r="M247">
-        <v>4.75</v>
-      </c>
-      <c r="N247">
-        <v>1.85</v>
-      </c>
-      <c r="O247">
-        <v>3.75</v>
-      </c>
-      <c r="P247">
-        <v>3.3</v>
-      </c>
-      <c r="Q247">
-        <v>-0.5</v>
-      </c>
-      <c r="R247">
-        <v>1.9</v>
-      </c>
-      <c r="S247">
-        <v>1.9</v>
-      </c>
-      <c r="T247">
-        <v>3.25</v>
-      </c>
-      <c r="U247">
-        <v>2</v>
-      </c>
-      <c r="V247">
-        <v>1.8</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>-1</v>
-      </c>
-      <c r="Y247">
-        <v>2.3</v>
-      </c>
-      <c r="Z247">
-        <v>-1</v>
-      </c>
-      <c r="AA247">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB247">
-        <v>-0.5</v>
-      </c>
-      <c r="AC247">
-        <v>0.4</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22528,7 +22528,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6907456</v>
+        <v>6907455</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22540,13 +22540,13 @@
         <v>45220.375</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G248" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H248">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22555,61 +22555,61 @@
         <v>53</v>
       </c>
       <c r="K248">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L248">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N248">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O248">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P248">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V248">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W248">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB248">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22617,7 +22617,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6907499</v>
+        <v>6907456</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22629,13 +22629,13 @@
         <v>45220.375</v>
       </c>
       <c r="F249" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <v>2</v>
@@ -22644,61 +22644,61 @@
         <v>52</v>
       </c>
       <c r="K249">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M249">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N249">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O249">
         <v>4</v>
       </c>
       <c r="P249">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="Q249">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R249">
+        <v>2</v>
+      </c>
+      <c r="S249">
         <v>1.85</v>
-      </c>
-      <c r="S249">
-        <v>1.95</v>
       </c>
       <c r="T249">
         <v>3</v>
       </c>
       <c r="U249">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V249">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA249">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC249">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6899059</v>
+        <v>6907499</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,10 +22718,10 @@
         <v>45220.375</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G250" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -22730,44 +22730,44 @@
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K250">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
         <v>4</v>
       </c>
       <c r="M250">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N250">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O250">
         <v>4</v>
       </c>
       <c r="P250">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U250">
+        <v>2</v>
+      </c>
+      <c r="V250">
         <v>1.8</v>
       </c>
-      <c r="V250">
-        <v>2</v>
-      </c>
       <c r="W250">
         <v>-1</v>
       </c>
@@ -22775,19 +22775,19 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.375</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22819,7 +22819,7 @@
         <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K251">
         <v>3.4</v>
@@ -22908,7 +22908,7 @@
         <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K252">
         <v>7.5</v>
@@ -22997,7 +22997,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K253">
         <v>1.533</v>
@@ -23077,7 +23077,7 @@
         <v>37</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H254">
         <v>3</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K254">
         <v>2.25</v>
@@ -23175,7 +23175,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K255">
         <v>1.833</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K256">
         <v>1.5</v>
@@ -23353,7 +23353,7 @@
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K257">
         <v>2.3</v>
@@ -23430,7 +23430,7 @@
         <v>45227.375</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G258" t="s">
         <v>44</v>
@@ -23531,7 +23531,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K259">
         <v>1.222</v>
@@ -23700,7 +23700,7 @@
         <v>45</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K261">
         <v>1.833</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K262">
         <v>1.444</v>
@@ -23887,7 +23887,7 @@
         <v>4</v>
       </c>
       <c r="J263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K263">
         <v>3</v>
@@ -23967,7 +23967,7 @@
         <v>30</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H264">
         <v>4</v>
@@ -23976,7 +23976,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K264">
         <v>1.533</v>
@@ -24065,7 +24065,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K265">
         <v>1.615</v>
@@ -24154,7 +24154,7 @@
         <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K266">
         <v>1.727</v>
@@ -24231,7 +24231,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
         <v>31</v>
@@ -24243,7 +24243,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K267">
         <v>2.7</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K268">
         <v>2.55</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K269">
         <v>2.1</v>
@@ -24486,7 +24486,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6907501</v>
+        <v>6898467</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24498,76 +24498,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G270" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K270">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L270">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M270">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="N270">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O270">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P270">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q270">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R270">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S270">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T270">
         <v>3.25</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA270">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24575,7 +24575,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6898467</v>
+        <v>6907501</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24587,76 +24587,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G271" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K271">
+        <v>1.571</v>
+      </c>
+      <c r="L271">
+        <v>4.2</v>
+      </c>
+      <c r="M271">
+        <v>4.2</v>
+      </c>
+      <c r="N271">
+        <v>1.75</v>
+      </c>
+      <c r="O271">
+        <v>3.8</v>
+      </c>
+      <c r="P271">
         <v>3.5</v>
       </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271">
-        <v>1.727</v>
-      </c>
-      <c r="N271">
-        <v>5.25</v>
-      </c>
-      <c r="O271">
-        <v>4.75</v>
-      </c>
-      <c r="P271">
-        <v>1.4</v>
-      </c>
       <c r="Q271">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R271">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T271">
         <v>3.25</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y271">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24676,7 +24676,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
         <v>48</v>
@@ -24688,7 +24688,7 @@
         <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K272">
         <v>2.45</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K273">
         <v>3.75</v>
@@ -24857,7 +24857,7 @@
         <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -24866,7 +24866,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K274">
         <v>2.25</v>
@@ -24955,7 +24955,7 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K275">
         <v>2.2</v>
@@ -25044,7 +25044,7 @@
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K276">
         <v>1.444</v>
@@ -25124,7 +25124,7 @@
         <v>49</v>
       </c>
       <c r="G277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H277">
         <v>2</v>
@@ -25210,10 +25210,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F278" t="s">
+        <v>36</v>
+      </c>
+      <c r="G278" t="s">
         <v>32</v>
-      </c>
-      <c r="G278" t="s">
-        <v>33</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K278">
         <v>2.4</v>
@@ -25311,7 +25311,7 @@
         <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K279">
         <v>1.95</v>
@@ -25400,7 +25400,7 @@
         <v>2</v>
       </c>
       <c r="J280" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K280">
         <v>1.571</v>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K281">
         <v>1.727</v>
@@ -25756,7 +25756,7 @@
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K284">
         <v>1.833</v>
@@ -25836,7 +25836,7 @@
         <v>50</v>
       </c>
       <c r="G285" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26011,7 +26011,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F287" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G287" t="s">
         <v>29</v>
@@ -26023,7 +26023,7 @@
         <v>6</v>
       </c>
       <c r="J287" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K287">
         <v>3</v>
@@ -26088,7 +26088,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6907505</v>
+        <v>6907506</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26100,55 +26100,55 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K288">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L288">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M288">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N288">
         <v>1.8</v>
       </c>
       <c r="O288">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P288">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q288">
         <v>-0.5</v>
       </c>
       <c r="R288">
+        <v>1.95</v>
+      </c>
+      <c r="S288">
+        <v>1.9</v>
+      </c>
+      <c r="T288">
+        <v>2.75</v>
+      </c>
+      <c r="U288">
+        <v>2.025</v>
+      </c>
+      <c r="V288">
         <v>1.825</v>
-      </c>
-      <c r="S288">
-        <v>1.975</v>
-      </c>
-      <c r="T288">
-        <v>3</v>
-      </c>
-      <c r="U288">
-        <v>1.825</v>
-      </c>
-      <c r="V288">
-        <v>1.975</v>
       </c>
       <c r="W288">
         <v>0.8</v>
@@ -26160,16 +26160,16 @@
         <v>-1</v>
       </c>
       <c r="Z288">
+        <v>0.95</v>
+      </c>
+      <c r="AA288">
+        <v>-1</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+      <c r="AC288">
         <v>0.825</v>
-      </c>
-      <c r="AA288">
-        <v>-1</v>
-      </c>
-      <c r="AB288">
-        <v>-1</v>
-      </c>
-      <c r="AC288">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26177,7 +26177,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6907506</v>
+        <v>6907505</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26189,55 +26189,55 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G289" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289">
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K289">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M289">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N289">
         <v>1.8</v>
       </c>
       <c r="O289">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P289">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q289">
         <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S289">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T289">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U289">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W289">
         <v>0.8</v>
@@ -26249,7 +26249,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26258,7 +26258,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26370,7 +26370,7 @@
         <v>40</v>
       </c>
       <c r="G291" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -26379,7 +26379,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K291">
         <v>1.615</v>
@@ -26468,7 +26468,7 @@
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K292">
         <v>2.05</v>
@@ -26548,7 +26548,7 @@
         <v>37</v>
       </c>
       <c r="G293" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -26557,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K293">
         <v>2.25</v>
@@ -26646,7 +26646,7 @@
         <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K294">
         <v>3.1</v>
@@ -26723,7 +26723,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G295" t="s">
         <v>30</v>
@@ -26735,7 +26735,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K295">
         <v>3.4</v>
@@ -26824,7 +26824,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K296">
         <v>1.8</v>
@@ -26913,7 +26913,7 @@
         <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K297">
         <v>2.5</v>
@@ -27091,7 +27091,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K299">
         <v>1.25</v>
@@ -27180,7 +27180,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K300">
         <v>1.444</v>
@@ -27423,7 +27423,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6898764</v>
+        <v>6898502</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27435,76 +27435,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
         <v>51</v>
       </c>
       <c r="K303">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M303">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="N303">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O303">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P303">
+        <v>3</v>
+      </c>
+      <c r="Q303">
+        <v>-0.25</v>
+      </c>
+      <c r="R303">
         <v>1.8</v>
       </c>
-      <c r="Q303">
-        <v>0.75</v>
-      </c>
-      <c r="R303">
-        <v>1.75</v>
-      </c>
       <c r="S303">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB303">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27512,7 +27512,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6898076</v>
+        <v>6898764</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27524,73 +27524,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304" t="s">
+        <v>51</v>
+      </c>
+      <c r="K304">
+        <v>3.5</v>
+      </c>
+      <c r="L304">
+        <v>4</v>
+      </c>
+      <c r="M304">
+        <v>1.727</v>
+      </c>
+      <c r="N304">
+        <v>3.3</v>
+      </c>
+      <c r="O304">
+        <v>4</v>
+      </c>
+      <c r="P304">
+        <v>1.8</v>
+      </c>
+      <c r="Q304">
+        <v>0.75</v>
+      </c>
+      <c r="R304">
+        <v>1.75</v>
+      </c>
+      <c r="S304">
+        <v>1.95</v>
+      </c>
+      <c r="T304">
         <v>3</v>
       </c>
-      <c r="J304" t="s">
-        <v>52</v>
-      </c>
-      <c r="K304">
-        <v>1.615</v>
-      </c>
-      <c r="L304">
-        <v>3.75</v>
-      </c>
-      <c r="M304">
-        <v>4.333</v>
-      </c>
-      <c r="N304">
-        <v>1.6</v>
-      </c>
-      <c r="O304">
-        <v>3.6</v>
-      </c>
-      <c r="P304">
-        <v>4.75</v>
-      </c>
-      <c r="Q304">
-        <v>-0.75</v>
-      </c>
-      <c r="R304">
-        <v>1.8</v>
-      </c>
-      <c r="S304">
-        <v>2</v>
-      </c>
-      <c r="T304">
-        <v>2.75</v>
-      </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y304">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA304">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6898502</v>
+        <v>6898076</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,40 +27613,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G305" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K305">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L305">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M305">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N305">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O305">
         <v>3.6</v>
       </c>
       <c r="P305">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q305">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
         <v>1.8</v>
@@ -27658,31 +27658,31 @@
         <v>2.75</v>
       </c>
       <c r="U305">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27702,7 +27702,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G306" t="s">
         <v>44</v>
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45268.625</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G308" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L308">
         <v>3.75</v>
       </c>
       <c r="M308">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N308">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P308">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q308">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R308">
+        <v>1.75</v>
+      </c>
+      <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
+        <v>2.75</v>
+      </c>
+      <c r="U308">
         <v>1.825</v>
       </c>
-      <c r="S308">
+      <c r="V308">
         <v>1.975</v>
       </c>
-      <c r="T308">
-        <v>3.5</v>
-      </c>
-      <c r="U308">
-        <v>1.925</v>
-      </c>
-      <c r="V308">
-        <v>1.875</v>
-      </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y308">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA308">
+        <v>0.475</v>
+      </c>
+      <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB308">
-        <v>-1</v>
-      </c>
-      <c r="AC308">
-        <v>0.875</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,76 +27969,76 @@
         <v>45268.625</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G309" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K309">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L309">
         <v>3.75</v>
       </c>
       <c r="M309">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N309">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O309">
+        <v>4.2</v>
+      </c>
+      <c r="P309">
+        <v>4.75</v>
+      </c>
+      <c r="Q309">
+        <v>-1</v>
+      </c>
+      <c r="R309">
+        <v>1.825</v>
+      </c>
+      <c r="S309">
+        <v>1.975</v>
+      </c>
+      <c r="T309">
         <v>3.5</v>
       </c>
-      <c r="P309">
-        <v>3</v>
-      </c>
-      <c r="Q309">
-        <v>-0.25</v>
-      </c>
-      <c r="R309">
-        <v>1.75</v>
-      </c>
-      <c r="S309">
-        <v>1.95</v>
-      </c>
-      <c r="T309">
-        <v>2.75</v>
-      </c>
       <c r="U309">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V309">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28058,7 +28058,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G310" t="s">
         <v>49</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K310">
         <v>1.285</v>
@@ -28150,7 +28150,7 @@
         <v>39</v>
       </c>
       <c r="G311" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28159,7 +28159,7 @@
         <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K311">
         <v>2.1</v>
@@ -28248,7 +28248,7 @@
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K312">
         <v>2.2</v>
@@ -28426,7 +28426,7 @@
         <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K314">
         <v>1.571</v>
@@ -28515,7 +28515,7 @@
         <v>4</v>
       </c>
       <c r="J315" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K315">
         <v>2.875</v>
@@ -28693,7 +28693,7 @@
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K317">
         <v>1.45</v>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -115,7 +115,7 @@
     <t>SG Barockstadt</t>
   </si>
   <si>
-    <t>Bahlinger SC</t>
+    <t>Eintracht Trier</t>
   </si>
   <si>
     <t>RotWeiss Koblenz</t>
@@ -124,7 +124,7 @@
     <t>SGV Freiberg</t>
   </si>
   <si>
-    <t>Eintracht Trier</t>
+    <t>Bahlinger SC</t>
   </si>
   <si>
     <t>FSV Frankfurt</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC319"/>
+  <dimension ref="A1:AC324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5678055</v>
+        <v>5708722</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5708722</v>
+        <v>5678055</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,73 +1272,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
+        <v>1.75</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.95</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1981,7 +1981,7 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -2073,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2251,7 +2251,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5233385</v>
+        <v>5233387</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
         <v>1.875</v>
       </c>
-      <c r="S23">
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>1.825</v>
+      </c>
+      <c r="V23">
         <v>1.975</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2.05</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5233384</v>
+        <v>5233385</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.35</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>1.625</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W24">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.35</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5233386</v>
+        <v>5233384</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,76 +2693,76 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="N25">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P25">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>1.775</v>
+        <v>2.35</v>
       </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>1.625</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1.35</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5233387</v>
+        <v>5233386</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,55 +2782,55 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>52</v>
       </c>
       <c r="K26">
+        <v>2.8</v>
+      </c>
+      <c r="L26">
         <v>3.2</v>
       </c>
-      <c r="L26">
-        <v>3.4</v>
-      </c>
       <c r="M26">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2839,19 +2839,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3583,7 +3583,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3850,7 +3850,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -4209,7 +4209,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>9</v>
@@ -4565,7 +4565,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4651,7 +4651,7 @@
         <v>45020.5</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -5363,7 +5363,7 @@
         <v>45021.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5233412</v>
+        <v>5233416</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,40 +5630,40 @@
         <v>45024.375</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N58">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>2</v>
@@ -5672,19 +5672,19 @@
         <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5696,10 +5696,10 @@
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5233735</v>
+        <v>5233415</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,58 +5719,58 @@
         <v>45024.375</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>53</v>
       </c>
       <c r="K59">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N59">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5779,13 +5779,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5233416</v>
+        <v>5233735</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5808,76 +5808,76 @@
         <v>45024.375</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N60">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
         <v>2</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5233415</v>
+        <v>5233412</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,58 +5897,58 @@
         <v>45024.375</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S61">
+        <v>1.85</v>
+      </c>
+      <c r="T61">
+        <v>2.5</v>
+      </c>
+      <c r="U61">
+        <v>2.025</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>1.85</v>
-      </c>
-      <c r="V61">
-        <v>1.95</v>
-      </c>
       <c r="W61">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5957,13 +5957,13 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6167,7 +6167,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6787,7 +6787,7 @@
         <v>45031.375</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>35</v>
@@ -6876,7 +6876,7 @@
         <v>45031.375</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>37</v>
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5233731</v>
+        <v>5233430</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>45038.375</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K79">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
+        <v>2.9</v>
+      </c>
+      <c r="N79">
+        <v>3.4</v>
+      </c>
+      <c r="O79">
         <v>3.5</v>
       </c>
-      <c r="M79">
-        <v>3.5</v>
-      </c>
-      <c r="N79">
-        <v>1.75</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q79">
+        <v>0.5</v>
+      </c>
+      <c r="R79">
+        <v>1.825</v>
+      </c>
+      <c r="S79">
+        <v>1.975</v>
+      </c>
+      <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.85</v>
+      </c>
+      <c r="V79">
+        <v>1.95</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB79">
+        <v>0.425</v>
+      </c>
+      <c r="AC79">
         <v>-0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.85</v>
-      </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
-      <c r="T79">
-        <v>3</v>
-      </c>
-      <c r="U79">
-        <v>2.025</v>
-      </c>
-      <c r="V79">
-        <v>1.825</v>
-      </c>
-      <c r="W79">
-        <v>0.75</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>-1</v>
-      </c>
-      <c r="Z79">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5233430</v>
+        <v>5233731</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7677,76 +7677,76 @@
         <v>45038.375</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>53</v>
+      </c>
+      <c r="K81">
+        <v>1.833</v>
+      </c>
+      <c r="L81">
+        <v>3.5</v>
+      </c>
+      <c r="M81">
+        <v>3.5</v>
+      </c>
+      <c r="N81">
+        <v>1.75</v>
+      </c>
+      <c r="O81">
+        <v>3.75</v>
+      </c>
+      <c r="P81">
+        <v>3.6</v>
+      </c>
+      <c r="Q81">
+        <v>-0.5</v>
+      </c>
+      <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
+        <v>2.025</v>
+      </c>
+      <c r="V81">
+        <v>1.825</v>
+      </c>
+      <c r="W81">
+        <v>0.75</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K81">
-        <v>2.1</v>
-      </c>
-      <c r="L81">
-        <v>3.4</v>
-      </c>
-      <c r="M81">
-        <v>2.9</v>
-      </c>
-      <c r="N81">
-        <v>3.4</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>1.85</v>
-      </c>
-      <c r="Q81">
-        <v>0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>1.975</v>
-      </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
-      <c r="U81">
-        <v>1.85</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB81">
-        <v>0.425</v>
-      </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5233429</v>
+        <v>5233428</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,76 +7855,76 @@
         <v>45038.375</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K83">
+        <v>2.25</v>
+      </c>
+      <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.8</v>
+      </c>
+      <c r="N83">
         <v>2.15</v>
       </c>
-      <c r="L83">
-        <v>3.3</v>
-      </c>
-      <c r="M83">
+      <c r="O83">
+        <v>3.25</v>
+      </c>
+      <c r="P83">
         <v>2.9</v>
       </c>
-      <c r="N83">
-        <v>2.8</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
-      </c>
-      <c r="P83">
-        <v>2.2</v>
-      </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5233428</v>
+        <v>5233429</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,76 +7944,76 @@
         <v>45038.375</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K84">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
+        <v>2.9</v>
+      </c>
+      <c r="N84">
         <v>2.8</v>
       </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8122,7 +8122,7 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
@@ -8478,7 +8478,7 @@
         <v>45045.375</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8926,7 +8926,7 @@
         <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5422651</v>
+        <v>5422656</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,76 +9724,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="N104">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
       </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5422656</v>
+        <v>5422651</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
         <v>1.85</v>
       </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y105">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9991,7 +9991,7 @@
         <v>45059.375</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -10528,7 +10528,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5465122</v>
+        <v>5461543</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10614,73 +10614,73 @@
         <v>45066.375</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P114">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10691,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5461543</v>
+        <v>5465122</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10703,73 +10703,73 @@
         <v>45066.375</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>51</v>
+      </c>
+      <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.6</v>
+      </c>
+      <c r="M115">
+        <v>2.8</v>
+      </c>
+      <c r="N115">
+        <v>2.4</v>
+      </c>
+      <c r="O115">
+        <v>3.6</v>
+      </c>
+      <c r="P115">
+        <v>2.4</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>3.25</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>1.8</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>2.6</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>-0</v>
+      </c>
+      <c r="AB115">
         <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>53</v>
-      </c>
-      <c r="K115">
-        <v>3.3</v>
-      </c>
-      <c r="L115">
-        <v>3.75</v>
-      </c>
-      <c r="M115">
-        <v>1.833</v>
-      </c>
-      <c r="N115">
-        <v>5</v>
-      </c>
-      <c r="O115">
-        <v>4.5</v>
-      </c>
-      <c r="P115">
-        <v>1.5</v>
-      </c>
-      <c r="Q115">
-        <v>1.25</v>
-      </c>
-      <c r="R115">
-        <v>1.75</v>
-      </c>
-      <c r="S115">
-        <v>1.95</v>
-      </c>
-      <c r="T115">
-        <v>3.5</v>
-      </c>
-      <c r="U115">
-        <v>1.85</v>
-      </c>
-      <c r="V115">
-        <v>1.95</v>
-      </c>
-      <c r="W115">
-        <v>4</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>0.75</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10958,7 +10958,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5465124</v>
+        <v>5466729</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10970,40 +10970,40 @@
         <v>45066.375</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P118">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R118">
         <v>1.875</v>
@@ -11012,34 +11012,34 @@
         <v>1.925</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5466729</v>
+        <v>5465124</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,40 +11059,40 @@
         <v>45066.375</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K119">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L119">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>1.285</v>
+        <v>2.75</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>8</v>
+        <v>2.05</v>
       </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
         <v>1.875</v>
@@ -11101,34 +11101,34 @@
         <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11240,7 +11240,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11771,7 +11771,7 @@
         <v>45073.375</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11860,7 +11860,7 @@
         <v>45073.375</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -12575,7 +12575,7 @@
         <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>45154.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>37</v>
@@ -14177,7 +14177,7 @@
         <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -15153,7 +15153,7 @@
         <v>45164.375</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
         <v>41</v>
@@ -15334,7 +15334,7 @@
         <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15408,7 +15408,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6907074</v>
+        <v>6907448</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15420,76 +15420,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L168">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="N168">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
+        <v>3.8</v>
+      </c>
+      <c r="P168">
         <v>4</v>
-      </c>
-      <c r="P168">
-        <v>3.6</v>
       </c>
       <c r="Q168">
         <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y168">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6907447</v>
+        <v>6907074</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="M169">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P169">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
         <v>1.825</v>
-      </c>
-      <c r="S169">
-        <v>1.975</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6898491</v>
+        <v>6907447</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,61 +15598,61 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>51</v>
       </c>
       <c r="K170">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L170">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N170">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>3</v>
       </c>
       <c r="U170">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>3.333</v>
+        <v>2.75</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -15661,13 +15661,13 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6907448</v>
+        <v>6898491</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,61 +15687,61 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>51</v>
       </c>
       <c r="K171">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M171">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S171">
+        <v>1.9</v>
+      </c>
+      <c r="T171">
+        <v>3</v>
+      </c>
+      <c r="U171">
+        <v>1.75</v>
+      </c>
+      <c r="V171">
         <v>1.95</v>
       </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y171">
         <v>-1</v>
@@ -15750,13 +15750,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6907486</v>
+        <v>6907485</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,40 +16132,40 @@
         <v>45171.375</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L176">
         <v>3.75</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N176">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O176">
         <v>4</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
         <v>1.875</v>
@@ -16174,34 +16174,34 @@
         <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6907485</v>
+        <v>6907075</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,46 +16221,46 @@
         <v>45171.375</v>
       </c>
       <c r="F177" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L177">
         <v>3.75</v>
       </c>
       <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>3.4</v>
+      </c>
+      <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
         <v>1.833</v>
       </c>
-      <c r="N177">
-        <v>3.6</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>1.666</v>
-      </c>
       <c r="Q177">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
         <v>1.875</v>
-      </c>
-      <c r="S177">
-        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
@@ -16272,19 +16272,19 @@
         <v>1.975</v>
       </c>
       <c r="W177">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
         <v>0.875</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
       </c>
       <c r="AB177">
         <v>0.4125</v>
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6907075</v>
+        <v>6898062</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45171.375</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K178">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N178">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P178">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.825</v>
       </c>
-      <c r="V178">
-        <v>1.975</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898062</v>
+        <v>6898450</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,43 +16399,43 @@
         <v>45171.375</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N179">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
         <v>1.975</v>
@@ -16444,28 +16444,28 @@
         <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
         <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898450</v>
+        <v>6907486</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,73 +16488,73 @@
         <v>45171.375</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K180">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R180">
         <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y180">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16577,7 +16577,7 @@
         <v>45171.375</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -17010,7 +17010,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6898756</v>
+        <v>6898453</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17022,58 +17022,58 @@
         <v>45178.375</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>53</v>
       </c>
       <c r="K186">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N186">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q186">
         <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17082,16 +17082,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6899066</v>
+        <v>6898756</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,73 +17111,73 @@
         <v>45178.375</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I187">
         <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L187">
         <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6907487</v>
+        <v>6899066</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,73 +17289,73 @@
         <v>45178.375</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
         <v>3</v>
       </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K189">
+        <v>2.1</v>
+      </c>
+      <c r="L189">
+        <v>3.6</v>
+      </c>
+      <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
+        <v>1.615</v>
+      </c>
+      <c r="O189">
+        <v>4</v>
+      </c>
+      <c r="P189">
+        <v>4</v>
+      </c>
+      <c r="Q189">
+        <v>-0.75</v>
+      </c>
+      <c r="R189">
+        <v>1.75</v>
+      </c>
+      <c r="S189">
+        <v>1.95</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>1.75</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>3</v>
       </c>
-      <c r="L189">
-        <v>3.75</v>
-      </c>
-      <c r="M189">
-        <v>1.95</v>
-      </c>
-      <c r="N189">
-        <v>2.875</v>
-      </c>
-      <c r="O189">
-        <v>3.8</v>
-      </c>
-      <c r="P189">
-        <v>2</v>
-      </c>
-      <c r="Q189">
-        <v>0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.975</v>
-      </c>
-      <c r="S189">
-        <v>1.875</v>
-      </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>1.775</v>
-      </c>
-      <c r="V189">
-        <v>2.1</v>
-      </c>
-      <c r="W189">
-        <v>1.875</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6898453</v>
+        <v>6907487</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,13 +17378,13 @@
         <v>45178.375</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -17393,44 +17393,44 @@
         <v>53</v>
       </c>
       <c r="K190">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N190">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O190">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U190">
+        <v>1.775</v>
+      </c>
+      <c r="V190">
+        <v>2.1</v>
+      </c>
+      <c r="W190">
         <v>1.875</v>
       </c>
-      <c r="V190">
-        <v>1.975</v>
-      </c>
-      <c r="W190">
-        <v>1.15</v>
-      </c>
       <c r="X190">
         <v>-1</v>
       </c>
@@ -17438,16 +17438,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17470,7 +17470,7 @@
         <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>5</v>
@@ -18090,7 +18090,7 @@
         <v>45185.375</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
         <v>47</v>
@@ -18523,7 +18523,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6907492</v>
+        <v>6898494</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18535,73 +18535,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M203">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N203">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T203">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U203">
+        <v>1.875</v>
+      </c>
+      <c r="V203">
         <v>1.975</v>
       </c>
-      <c r="V203">
-        <v>1.825</v>
-      </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X203">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6898494</v>
+        <v>6907076</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,73 +18624,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L204">
+        <v>3.8</v>
+      </c>
+      <c r="M204">
+        <v>3.8</v>
+      </c>
+      <c r="N204">
+        <v>1.5</v>
+      </c>
+      <c r="O204">
+        <v>4.333</v>
+      </c>
+      <c r="P204">
         <v>4.5</v>
       </c>
-      <c r="M204">
-        <v>5.75</v>
-      </c>
-      <c r="N204">
-        <v>1.444</v>
-      </c>
-      <c r="O204">
-        <v>4.5</v>
-      </c>
-      <c r="P204">
-        <v>5.25</v>
-      </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
         <v>1.975</v>
-      </c>
-      <c r="S204">
-        <v>1.875</v>
       </c>
       <c r="T204">
         <v>3.25</v>
       </c>
       <c r="U204">
+        <v>1.925</v>
+      </c>
+      <c r="V204">
         <v>1.875</v>
       </c>
-      <c r="V204">
-        <v>1.975</v>
-      </c>
       <c r="W204">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6907076</v>
+        <v>6907492</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,73 +18713,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L205">
         <v>3.8</v>
       </c>
       <c r="M205">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O205">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
+        <v>1.85</v>
+      </c>
+      <c r="S205">
+        <v>1.95</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>1.975</v>
+      </c>
+      <c r="V205">
         <v>1.825</v>
       </c>
-      <c r="S205">
-        <v>1.975</v>
-      </c>
-      <c r="T205">
-        <v>3.25</v>
-      </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
-      <c r="V205">
-        <v>1.875</v>
-      </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y205">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
+        <v>0.95</v>
+      </c>
+      <c r="AB205">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB205">
-        <v>0.925</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18983,7 +18983,7 @@
         <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6898066</v>
+        <v>6907451</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,58 +19514,58 @@
         <v>45199.375</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>53</v>
       </c>
       <c r="K214">
-        <v>1.45</v>
+        <v>2.375</v>
       </c>
       <c r="L214">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M214">
-        <v>4.8</v>
+        <v>2.375</v>
       </c>
       <c r="N214">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
+        <v>1.875</v>
+      </c>
+      <c r="S214">
         <v>1.925</v>
       </c>
-      <c r="S214">
+      <c r="T214">
+        <v>3</v>
+      </c>
+      <c r="U214">
         <v>1.875</v>
       </c>
-      <c r="T214">
-        <v>3.25</v>
-      </c>
-      <c r="U214">
+      <c r="V214">
         <v>1.925</v>
       </c>
-      <c r="V214">
-        <v>1.875</v>
-      </c>
       <c r="W214">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19574,16 +19574,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6907451</v>
+        <v>6907077</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,76 +19603,76 @@
         <v>45199.375</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="N215">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z215">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6907077</v>
+        <v>6898066</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,73 +19692,73 @@
         <v>45199.375</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K216">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>1.666</v>
+        <v>4.8</v>
       </c>
       <c r="N216">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="O216">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P216">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q216">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
         <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -19769,7 +19769,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6898457</v>
+        <v>6907452</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19781,76 +19781,76 @@
         <v>45199.375</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K217">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
         <v>3.5</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N217">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O217">
         <v>3.4</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z217">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19858,7 +19858,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6907452</v>
+        <v>6898518</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19870,76 +19870,76 @@
         <v>45199.375</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K218">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L218">
         <v>3.5</v>
       </c>
       <c r="M218">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N218">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O218">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC218">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19947,7 +19947,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6898518</v>
+        <v>6898495</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19959,13 +19959,13 @@
         <v>45199.375</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -19974,43 +19974,43 @@
         <v>53</v>
       </c>
       <c r="K219">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M219">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N219">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O219">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q219">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U219">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
         <v>1.95</v>
       </c>
       <c r="W219">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20019,16 +20019,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6898495</v>
+        <v>6898457</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20048,58 +20048,58 @@
         <v>45199.375</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>53</v>
       </c>
       <c r="K220">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L220">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N220">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T220">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20108,16 +20108,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20392,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6907078</v>
+        <v>6898458</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20404,76 +20404,76 @@
         <v>45202.375</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K224">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L224">
+        <v>4.333</v>
+      </c>
+      <c r="M224">
+        <v>2.15</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224">
         <v>4.2</v>
       </c>
-      <c r="M224">
-        <v>3.75</v>
-      </c>
-      <c r="N224">
-        <v>1.6</v>
-      </c>
-      <c r="O224">
-        <v>4.333</v>
-      </c>
       <c r="P224">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z224">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC224">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20481,7 +20481,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6898458</v>
+        <v>6907078</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20493,76 +20493,76 @@
         <v>45202.375</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G225" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K225">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L225">
+        <v>4.2</v>
+      </c>
+      <c r="M225">
+        <v>3.75</v>
+      </c>
+      <c r="N225">
+        <v>1.6</v>
+      </c>
+      <c r="O225">
         <v>4.333</v>
       </c>
-      <c r="M225">
-        <v>2.15</v>
-      </c>
-      <c r="N225">
-        <v>2</v>
-      </c>
-      <c r="O225">
-        <v>4.2</v>
-      </c>
       <c r="P225">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20659,7 +20659,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6907494</v>
+        <v>6899062</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20671,58 +20671,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G227" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>53</v>
       </c>
       <c r="K227">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L227">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M227">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N227">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O227">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P227">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q227">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W227">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20731,7 +20731,7 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA227">
         <v>-1</v>
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6899062</v>
+        <v>6907494</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,58 +20760,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
         <v>53</v>
       </c>
       <c r="K228">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L228">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M228">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="N228">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P228">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
         <v>3</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20820,7 +20820,7 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA228">
         <v>-1</v>
@@ -21027,7 +21027,7 @@
         <v>45206.375</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
         <v>48</v>
@@ -21549,7 +21549,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6907454</v>
+        <v>6899061</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21561,13 +21561,13 @@
         <v>45207.375</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21576,43 +21576,43 @@
         <v>53</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M237">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N237">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O237">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
-        <v>0.909</v>
+        <v>1.55</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21621,16 +21621,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21638,7 +21638,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6899061</v>
+        <v>6907454</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21650,13 +21650,13 @@
         <v>45207.375</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21665,43 +21665,43 @@
         <v>53</v>
       </c>
       <c r="K238">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M238">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N238">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P238">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S238">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>1.55</v>
+        <v>0.909</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21710,16 +21710,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22187,7 +22187,7 @@
         <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -22451,7 +22451,7 @@
         <v>45220.375</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G247" t="s">
         <v>50</v>
@@ -24056,7 +24056,7 @@
         <v>30</v>
       </c>
       <c r="G265" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H265">
         <v>4</v>
@@ -24130,7 +24130,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6907502</v>
+        <v>6907501</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24142,76 +24142,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266">
         <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K266">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M266">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N266">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O266">
         <v>3.8</v>
       </c>
       <c r="P266">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R266">
+        <v>1.75</v>
+      </c>
+      <c r="S266">
         <v>1.95</v>
       </c>
-      <c r="S266">
-        <v>1.75</v>
-      </c>
       <c r="T266">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U266">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W266">
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y266">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC266">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24219,7 +24219,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6907501</v>
+        <v>6907502</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24231,76 +24231,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267">
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K267">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="L267">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N267">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O267">
         <v>3.8</v>
       </c>
       <c r="P267">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R267">
+        <v>1.95</v>
+      </c>
+      <c r="S267">
         <v>1.75</v>
       </c>
-      <c r="S267">
-        <v>1.95</v>
-      </c>
       <c r="T267">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V267">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB267">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24308,7 +24308,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6898467</v>
+        <v>6907458</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24320,76 +24320,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
         <v>0</v>
       </c>
-      <c r="I268">
+      <c r="J268" t="s">
+        <v>53</v>
+      </c>
+      <c r="K268">
+        <v>2.7</v>
+      </c>
+      <c r="L268">
+        <v>3.75</v>
+      </c>
+      <c r="M268">
+        <v>2.1</v>
+      </c>
+      <c r="N268">
+        <v>2.4</v>
+      </c>
+      <c r="O268">
+        <v>3.6</v>
+      </c>
+      <c r="P268">
+        <v>2.4</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>1.925</v>
+      </c>
+      <c r="S268">
+        <v>1.875</v>
+      </c>
+      <c r="T268">
+        <v>2.75</v>
+      </c>
+      <c r="U268">
+        <v>1.8</v>
+      </c>
+      <c r="V268">
+        <v>2</v>
+      </c>
+      <c r="W268">
+        <v>1.4</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
+        <v>-1</v>
+      </c>
+      <c r="Z268">
+        <v>0.925</v>
+      </c>
+      <c r="AA268">
+        <v>-1</v>
+      </c>
+      <c r="AB268">
+        <v>-1</v>
+      </c>
+      <c r="AC268">
         <v>1</v>
-      </c>
-      <c r="J268" t="s">
-        <v>52</v>
-      </c>
-      <c r="K268">
-        <v>3.5</v>
-      </c>
-      <c r="L268">
-        <v>4</v>
-      </c>
-      <c r="M268">
-        <v>1.727</v>
-      </c>
-      <c r="N268">
-        <v>5.25</v>
-      </c>
-      <c r="O268">
-        <v>4.75</v>
-      </c>
-      <c r="P268">
-        <v>1.4</v>
-      </c>
-      <c r="Q268">
-        <v>1.25</v>
-      </c>
-      <c r="R268">
-        <v>1.9</v>
-      </c>
-      <c r="S268">
-        <v>1.9</v>
-      </c>
-      <c r="T268">
-        <v>3.25</v>
-      </c>
-      <c r="U268">
-        <v>2</v>
-      </c>
-      <c r="V268">
-        <v>1.8</v>
-      </c>
-      <c r="W268">
-        <v>-1</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Z268">
-        <v>0.45</v>
-      </c>
-      <c r="AA268">
-        <v>-0.5</v>
-      </c>
-      <c r="AB268">
-        <v>-1</v>
-      </c>
-      <c r="AC268">
-        <v>0.8</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24397,7 +24397,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6907458</v>
+        <v>6907459</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24409,76 +24409,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K269">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L269">
+        <v>4</v>
+      </c>
+      <c r="M269">
+        <v>3.5</v>
+      </c>
+      <c r="N269">
+        <v>1.7</v>
+      </c>
+      <c r="O269">
+        <v>4</v>
+      </c>
+      <c r="P269">
         <v>3.75</v>
       </c>
-      <c r="M269">
-        <v>2.1</v>
-      </c>
-      <c r="N269">
-        <v>2.4</v>
-      </c>
-      <c r="O269">
-        <v>3.6</v>
-      </c>
-      <c r="P269">
-        <v>2.4</v>
-      </c>
       <c r="Q269">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R269">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
+        <v>3</v>
+      </c>
+      <c r="U269">
+        <v>2</v>
+      </c>
+      <c r="V269">
+        <v>1.8</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
         <v>2.75</v>
       </c>
-      <c r="U269">
-        <v>1.8</v>
-      </c>
-      <c r="V269">
-        <v>2</v>
-      </c>
-      <c r="W269">
-        <v>1.4</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
-      <c r="Y269">
-        <v>-1</v>
-      </c>
       <c r="Z269">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24486,7 +24486,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6907459</v>
+        <v>6899057</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24498,40 +24498,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G270" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I270">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K270">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M270">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N270">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O270">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P270">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q270">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R270">
         <v>1.95</v>
@@ -24540,31 +24540,31 @@
         <v>1.85</v>
       </c>
       <c r="T270">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U270">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V270">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA270">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24575,7 +24575,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6899057</v>
+        <v>6898499</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24587,13 +24587,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G271" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H271">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -24602,25 +24602,25 @@
         <v>53</v>
       </c>
       <c r="K271">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L271">
         <v>3.75</v>
       </c>
       <c r="M271">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N271">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O271">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P271">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q271">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R271">
         <v>1.95</v>
@@ -24629,16 +24629,16 @@
         <v>1.85</v>
       </c>
       <c r="T271">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24653,10 +24653,10 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24664,7 +24664,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6898499</v>
+        <v>6898467</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24676,76 +24676,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K272">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L272">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="N272">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O272">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P272">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q272">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R272">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S272">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T272">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U272">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V272">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z272">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -25035,7 +25035,7 @@
         <v>49</v>
       </c>
       <c r="G276" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H276">
         <v>2</v>
@@ -25198,7 +25198,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6899056</v>
+        <v>6898073</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25210,76 +25210,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G278" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K278">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M278">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N278">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P278">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q278">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R278">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S278">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T278">
         <v>3</v>
       </c>
       <c r="U278">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA278">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC278">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25287,7 +25287,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6907081</v>
+        <v>6899056</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25299,13 +25299,13 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279">
         <v>2</v>
@@ -25314,40 +25314,40 @@
         <v>52</v>
       </c>
       <c r="K279">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L279">
         <v>4</v>
       </c>
       <c r="M279">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N279">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O279">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q279">
         <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T279">
         <v>3</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V279">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
         <v>-1</v>
@@ -25356,19 +25356,19 @@
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25376,7 +25376,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6898073</v>
+        <v>6907081</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25388,70 +25388,70 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F280" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G280" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L280">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M280">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N280">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O280">
         <v>4.2</v>
       </c>
       <c r="P280">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q280">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R280">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
         <v>3</v>
       </c>
       <c r="U280">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W280">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
         <v>0</v>
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6907506</v>
+        <v>6898501</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,76 +25833,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G285" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J285" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K285">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L285">
         <v>4</v>
       </c>
       <c r="M285">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285">
+        <v>3.8</v>
+      </c>
+      <c r="P285">
+        <v>1.95</v>
+      </c>
+      <c r="Q285">
+        <v>0.5</v>
+      </c>
+      <c r="R285">
+        <v>1.75</v>
+      </c>
+      <c r="S285">
+        <v>1.95</v>
+      </c>
+      <c r="T285">
+        <v>3</v>
+      </c>
+      <c r="U285">
+        <v>2</v>
+      </c>
+      <c r="V285">
         <v>1.8</v>
       </c>
-      <c r="O285">
-        <v>3.6</v>
-      </c>
-      <c r="P285">
-        <v>3.5</v>
-      </c>
-      <c r="Q285">
-        <v>-0.5</v>
-      </c>
-      <c r="R285">
-        <v>1.95</v>
-      </c>
-      <c r="S285">
-        <v>1.9</v>
-      </c>
-      <c r="T285">
-        <v>2.75</v>
-      </c>
-      <c r="U285">
-        <v>2.025</v>
-      </c>
-      <c r="V285">
-        <v>1.825</v>
-      </c>
       <c r="W285">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z285">
+        <v>-1</v>
+      </c>
+      <c r="AA285">
         <v>0.95</v>
       </c>
-      <c r="AA285">
-        <v>-1</v>
-      </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC285">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6898501</v>
+        <v>6898074</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,40 +25922,40 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F286" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G286" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286" t="s">
+        <v>51</v>
+      </c>
+      <c r="K286">
+        <v>1.25</v>
+      </c>
+      <c r="L286">
+        <v>5.5</v>
+      </c>
+      <c r="M286">
+        <v>7.5</v>
+      </c>
+      <c r="N286">
+        <v>1.222</v>
+      </c>
+      <c r="O286">
         <v>6</v>
       </c>
-      <c r="J286" t="s">
-        <v>52</v>
-      </c>
-      <c r="K286">
-        <v>3</v>
-      </c>
-      <c r="L286">
-        <v>4</v>
-      </c>
-      <c r="M286">
-        <v>1.909</v>
-      </c>
-      <c r="N286">
-        <v>3</v>
-      </c>
-      <c r="O286">
-        <v>3.8</v>
-      </c>
       <c r="P286">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q286">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R286">
         <v>1.75</v>
@@ -25964,22 +25964,22 @@
         <v>1.95</v>
       </c>
       <c r="T286">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U286">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V286">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W286">
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y286">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
         <v>-1</v>
@@ -25988,10 +25988,10 @@
         <v>0.95</v>
       </c>
       <c r="AB286">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25999,7 +25999,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6898074</v>
+        <v>6899055</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26011,10 +26011,10 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G287" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26026,61 +26026,61 @@
         <v>51</v>
       </c>
       <c r="K287">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="L287">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M287">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N287">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="O287">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P287">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q287">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S287">
         <v>1.95</v>
       </c>
       <c r="T287">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U287">
+        <v>1.875</v>
+      </c>
+      <c r="V287">
         <v>1.925</v>
       </c>
-      <c r="V287">
-        <v>1.875</v>
-      </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB287">
         <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26088,7 +26088,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6899055</v>
+        <v>6907506</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26100,76 +26100,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L288">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M288">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N288">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O288">
         <v>3.6</v>
       </c>
       <c r="P288">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S288">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T288">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U288">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V288">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X288">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA288">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
         <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26189,7 +26189,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G289" t="s">
         <v>46</v>
@@ -26726,7 +26726,7 @@
         <v>37</v>
       </c>
       <c r="G295" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6898764</v>
+        <v>6898076</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27524,73 +27524,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G304" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K304">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M304">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="N304">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="O304">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
+        <v>4.75</v>
+      </c>
+      <c r="Q304">
+        <v>-0.75</v>
+      </c>
+      <c r="R304">
         <v>1.8</v>
       </c>
-      <c r="Q304">
-        <v>0.75</v>
-      </c>
-      <c r="R304">
-        <v>1.75</v>
-      </c>
       <c r="S304">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T304">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z304">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB304">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27601,7 +27601,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6907509</v>
+        <v>6898764</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27613,73 +27613,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F305" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>51</v>
       </c>
       <c r="K305">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L305">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M305">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N305">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P305">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q305">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R305">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S305">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U305">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6898076</v>
+        <v>6907509</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,40 +27702,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G306" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I306">
         <v>3</v>
       </c>
       <c r="J306" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K306">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L306">
         <v>3.75</v>
       </c>
       <c r="M306">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N306">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="O306">
         <v>3.6</v>
       </c>
       <c r="P306">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q306">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R306">
         <v>1.8</v>
@@ -27747,28 +27747,28 @@
         <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V306">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y306">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA306">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC306">
         <v>-1</v>
@@ -27972,7 +27972,7 @@
         <v>41</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7666935</v>
+        <v>6907084</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28767,49 +28767,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45346.41666666666</v>
+        <v>45353.41666666666</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G318" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K318">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L318">
+        <v>3.6</v>
+      </c>
+      <c r="M318">
+        <v>3.6</v>
+      </c>
+      <c r="N318">
+        <v>1.85</v>
+      </c>
+      <c r="O318">
+        <v>3.6</v>
+      </c>
+      <c r="P318">
         <v>3.5</v>
       </c>
-      <c r="M318">
-        <v>2.8</v>
-      </c>
-      <c r="N318">
-        <v>2</v>
-      </c>
-      <c r="O318">
-        <v>3.5</v>
-      </c>
-      <c r="P318">
-        <v>2.9</v>
-      </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T318">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U318">
+        <v>1.95</v>
+      </c>
+      <c r="V318">
         <v>1.9</v>
-      </c>
-      <c r="V318">
-        <v>1.95</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28832,7 +28832,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7666936</v>
+        <v>6907464</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28841,49 +28841,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45346.41666666666</v>
+        <v>45353.41666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K319">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L319">
         <v>3.75</v>
       </c>
       <c r="M319">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N319">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="O319">
         <v>3.75</v>
       </c>
       <c r="P319">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q319">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R319">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S319">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T319">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U319">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V319">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28898,6 +28898,376 @@
         <v>0</v>
       </c>
       <c r="AA319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>6907512</v>
+      </c>
+      <c r="C320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" t="s">
+        <v>28</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F320" t="s">
+        <v>36</v>
+      </c>
+      <c r="G320" t="s">
+        <v>35</v>
+      </c>
+      <c r="K320">
+        <v>2.4</v>
+      </c>
+      <c r="L320">
+        <v>3.4</v>
+      </c>
+      <c r="M320">
+        <v>2.5</v>
+      </c>
+      <c r="N320">
+        <v>2.45</v>
+      </c>
+      <c r="O320">
+        <v>3.4</v>
+      </c>
+      <c r="P320">
+        <v>2.45</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>1.925</v>
+      </c>
+      <c r="S320">
+        <v>1.925</v>
+      </c>
+      <c r="T320">
+        <v>3</v>
+      </c>
+      <c r="U320">
+        <v>1.925</v>
+      </c>
+      <c r="V320">
+        <v>1.925</v>
+      </c>
+      <c r="W320">
+        <v>0</v>
+      </c>
+      <c r="X320">
+        <v>0</v>
+      </c>
+      <c r="Y320">
+        <v>0</v>
+      </c>
+      <c r="Z320">
+        <v>0</v>
+      </c>
+      <c r="AA320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>6898504</v>
+      </c>
+      <c r="C321" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F321" t="s">
+        <v>49</v>
+      </c>
+      <c r="G321" t="s">
+        <v>29</v>
+      </c>
+      <c r="K321">
+        <v>5</v>
+      </c>
+      <c r="L321">
+        <v>4</v>
+      </c>
+      <c r="M321">
+        <v>1.5</v>
+      </c>
+      <c r="N321">
+        <v>4.75</v>
+      </c>
+      <c r="O321">
+        <v>4</v>
+      </c>
+      <c r="P321">
+        <v>1.533</v>
+      </c>
+      <c r="Q321">
+        <v>1</v>
+      </c>
+      <c r="R321">
+        <v>1.925</v>
+      </c>
+      <c r="S321">
+        <v>1.925</v>
+      </c>
+      <c r="T321">
+        <v>3</v>
+      </c>
+      <c r="U321">
+        <v>1.875</v>
+      </c>
+      <c r="V321">
+        <v>1.975</v>
+      </c>
+      <c r="W321">
+        <v>0</v>
+      </c>
+      <c r="X321">
+        <v>0</v>
+      </c>
+      <c r="Y321">
+        <v>0</v>
+      </c>
+      <c r="Z321">
+        <v>0</v>
+      </c>
+      <c r="AA321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>6899051</v>
+      </c>
+      <c r="C322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F322" t="s">
+        <v>50</v>
+      </c>
+      <c r="G322" t="s">
+        <v>39</v>
+      </c>
+      <c r="K322">
+        <v>2.1</v>
+      </c>
+      <c r="L322">
+        <v>3.5</v>
+      </c>
+      <c r="M322">
+        <v>2.8</v>
+      </c>
+      <c r="N322">
+        <v>2.05</v>
+      </c>
+      <c r="O322">
+        <v>3.5</v>
+      </c>
+      <c r="P322">
+        <v>2.9</v>
+      </c>
+      <c r="Q322">
+        <v>-0.25</v>
+      </c>
+      <c r="R322">
+        <v>1.875</v>
+      </c>
+      <c r="S322">
+        <v>1.975</v>
+      </c>
+      <c r="T322">
+        <v>2.75</v>
+      </c>
+      <c r="U322">
+        <v>1.85</v>
+      </c>
+      <c r="V322">
+        <v>2</v>
+      </c>
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>6898077</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F323" t="s">
+        <v>30</v>
+      </c>
+      <c r="G323" t="s">
+        <v>47</v>
+      </c>
+      <c r="K323">
+        <v>1.166</v>
+      </c>
+      <c r="L323">
+        <v>7</v>
+      </c>
+      <c r="M323">
+        <v>9</v>
+      </c>
+      <c r="N323">
+        <v>1.181</v>
+      </c>
+      <c r="O323">
+        <v>6.5</v>
+      </c>
+      <c r="P323">
+        <v>9</v>
+      </c>
+      <c r="Q323">
+        <v>-2</v>
+      </c>
+      <c r="R323">
+        <v>1.925</v>
+      </c>
+      <c r="S323">
+        <v>1.925</v>
+      </c>
+      <c r="T323">
+        <v>3.5</v>
+      </c>
+      <c r="U323">
+        <v>2.025</v>
+      </c>
+      <c r="V323">
+        <v>1.825</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>6898478</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F324" t="s">
+        <v>37</v>
+      </c>
+      <c r="G324" t="s">
+        <v>41</v>
+      </c>
+      <c r="K324">
+        <v>2.1</v>
+      </c>
+      <c r="L324">
+        <v>3.5</v>
+      </c>
+      <c r="M324">
+        <v>2.8</v>
+      </c>
+      <c r="N324">
+        <v>2.05</v>
+      </c>
+      <c r="O324">
+        <v>3.5</v>
+      </c>
+      <c r="P324">
+        <v>2.9</v>
+      </c>
+      <c r="Q324">
+        <v>-0.25</v>
+      </c>
+      <c r="R324">
+        <v>1.875</v>
+      </c>
+      <c r="S324">
+        <v>1.975</v>
+      </c>
+      <c r="T324">
+        <v>3</v>
+      </c>
+      <c r="U324">
+        <v>1.925</v>
+      </c>
+      <c r="V324">
+        <v>1.925</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45268.625</v>
       </c>
       <c r="F308" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G308" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K308">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L308">
         <v>3.75</v>
       </c>
       <c r="M308">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O308">
+        <v>4.2</v>
+      </c>
+      <c r="P308">
+        <v>4.75</v>
+      </c>
+      <c r="Q308">
+        <v>-1</v>
+      </c>
+      <c r="R308">
+        <v>1.825</v>
+      </c>
+      <c r="S308">
+        <v>1.975</v>
+      </c>
+      <c r="T308">
         <v>3.5</v>
       </c>
-      <c r="P308">
-        <v>3</v>
-      </c>
-      <c r="Q308">
-        <v>-0.25</v>
-      </c>
-      <c r="R308">
-        <v>1.75</v>
-      </c>
-      <c r="S308">
-        <v>1.95</v>
-      </c>
-      <c r="T308">
-        <v>2.75</v>
-      </c>
       <c r="U308">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V308">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB308">
         <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,76 +27969,76 @@
         <v>45268.625</v>
       </c>
       <c r="F309" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G309" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K309">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L309">
         <v>3.75</v>
       </c>
       <c r="M309">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N309">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O309">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P309">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
+        <v>1.75</v>
+      </c>
+      <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
+        <v>2.75</v>
+      </c>
+      <c r="U309">
         <v>1.825</v>
       </c>
-      <c r="S309">
+      <c r="V309">
         <v>1.975</v>
       </c>
-      <c r="T309">
-        <v>3.5</v>
-      </c>
-      <c r="U309">
-        <v>1.925</v>
-      </c>
-      <c r="V309">
-        <v>1.875</v>
-      </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y309">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA309">
+        <v>0.475</v>
+      </c>
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB309">
-        <v>-1</v>
-      </c>
-      <c r="AC309">
-        <v>0.875</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28580,7 +28580,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7556542</v>
+        <v>7557018</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28592,76 +28592,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J316" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K316">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L316">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M316">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N316">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O316">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P316">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q316">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S316">
         <v>1.925</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U316">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V316">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W316">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB316">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28669,7 +28669,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7557018</v>
+        <v>7556542</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28681,76 +28681,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G317" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K317">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L317">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M317">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N317">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O317">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P317">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R317">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S317">
         <v>1.925</v>
       </c>
       <c r="T317">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V317">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X317">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB317">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="318" spans="1:29">

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -115,10 +115,10 @@
     <t>Hessen Kassel</t>
   </si>
   <si>
-    <t>VfB Stuttgart II</t>
+    <t>TSG Balingen</t>
   </si>
   <si>
-    <t>TSG Balingen</t>
+    <t>VfB Stuttgart II</t>
   </si>
   <si>
     <t>SGV Freiberg</t>
@@ -133,10 +133,10 @@
     <t>VfR Aalen</t>
   </si>
   <si>
-    <t>TSV Steinbach</t>
+    <t>Stuttgarter Kickers</t>
   </si>
   <si>
-    <t>Stuttgarter Kickers</t>
+    <t>TSV Steinbach</t>
   </si>
   <si>
     <t>TSG 1899 Hoffenheim II</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6907443</v>
+        <v>6907478</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,31 +993,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="N6">
         <v>2.1</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
         <v>2.9</v>
@@ -1026,40 +1026,40 @@
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.975</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6907478</v>
+        <v>6907443</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,31 +1082,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="N7">
         <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
         <v>2.9</v>
@@ -1115,40 +1115,40 @@
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.95</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>0.4875</v>
+      </c>
+      <c r="AC7">
         <v>-0.5</v>
-      </c>
-      <c r="AA7">
-        <v>0.4625</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
-      <c r="AC7">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6898443</v>
+        <v>6898059</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,55 +1527,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N12">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O12">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1584,13 +1584,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6898059</v>
+        <v>6898443</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,55 +1616,55 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>49</v>
       </c>
       <c r="K13">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W13">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6907445</v>
+        <v>6898445</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,56 +2058,56 @@
         <v>45157.375</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N18">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
+        <v>1.75</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2115,16 +2115,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6898445</v>
+        <v>6898446</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45157.375</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
+        <v>3.4</v>
+      </c>
+      <c r="L19">
+        <v>4.2</v>
+      </c>
+      <c r="M19">
+        <v>1.727</v>
+      </c>
+      <c r="N19">
+        <v>2.3</v>
+      </c>
+      <c r="O19">
+        <v>3.8</v>
+      </c>
+      <c r="P19">
         <v>2.375</v>
       </c>
-      <c r="L19">
-        <v>3.25</v>
-      </c>
-      <c r="M19">
-        <v>2.6</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.875</v>
-      </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6898446</v>
+        <v>6898489</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45157.375</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.75</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>1.6</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.75</v>
+      </c>
+      <c r="AB20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>1.9</v>
-      </c>
-      <c r="S20">
-        <v>1.9</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>1.3</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>0.4375</v>
-      </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6898489</v>
+        <v>6907445</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,16 +2325,16 @@
         <v>45157.375</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -2349,31 +2349,31 @@
         <v>2</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2382,19 +2382,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.6</v>
+        <v>1.375</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6898060</v>
+        <v>6898753</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,52 +2414,52 @@
         <v>45158.375</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
+        <v>2.875</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.875</v>
+      </c>
+      <c r="S22">
+        <v>1.925</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="O22">
-        <v>3.4</v>
-      </c>
-      <c r="P22">
-        <v>2.05</v>
-      </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
         <v>1.975</v>
@@ -2468,22 +2468,22 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6907072</v>
+        <v>6898060</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45158.375</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <v>2.3</v>
+      </c>
+      <c r="L23">
+        <v>3.6</v>
+      </c>
+      <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>3.5</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>1.727</v>
-      </c>
-      <c r="N23">
-        <v>3.2</v>
-      </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
         <v>1.875</v>
       </c>
-      <c r="S23">
-        <v>1.925</v>
-      </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.875</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6898753</v>
+        <v>6907072</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,40 +2592,40 @@
         <v>45158.375</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
         <v>1.875</v>
@@ -2637,31 +2637,31 @@
         <v>3</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,7 +2681,7 @@
         <v>45158.375</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2862,7 +2862,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6898447</v>
+        <v>6898448</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45164.375</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
         <v>1.875</v>
-      </c>
-      <c r="S29">
-        <v>1.925</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6898448</v>
+        <v>6898447</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45164.375</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
         <v>1.925</v>
-      </c>
-      <c r="S30">
-        <v>1.875</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6898754</v>
+        <v>6898514</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45164.375</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
         <v>3.4</v>
       </c>
       <c r="N32">
+        <v>2.4</v>
+      </c>
+      <c r="O32">
+        <v>3.75</v>
+      </c>
+      <c r="P32">
+        <v>2.3</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1.95</v>
+      </c>
+      <c r="S32">
         <v>1.85</v>
       </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>3.5</v>
-      </c>
-      <c r="Q32">
+      <c r="T32">
+        <v>2.75</v>
+      </c>
+      <c r="U32">
+        <v>1.8</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>1.3</v>
+      </c>
+      <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB32">
+        <v>0.4</v>
+      </c>
+      <c r="AC32">
         <v>-0.5</v>
-      </c>
-      <c r="R32">
-        <v>1.925</v>
-      </c>
-      <c r="S32">
-        <v>1.925</v>
-      </c>
-      <c r="T32">
-        <v>3.25</v>
-      </c>
-      <c r="U32">
-        <v>2.05</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
-      <c r="W32">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.925</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>-0.5</v>
-      </c>
-      <c r="AC32">
-        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6907073</v>
+        <v>6898754</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45164.375</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X33">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6907446</v>
+        <v>6907073</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,70 +3485,70 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6898514</v>
+        <v>6907446</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45164.375</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
+        <v>2.875</v>
+      </c>
+      <c r="N35">
+        <v>2.15</v>
+      </c>
+      <c r="O35">
         <v>3.4</v>
       </c>
-      <c r="N35">
-        <v>2.4</v>
-      </c>
-      <c r="O35">
-        <v>3.75</v>
-      </c>
       <c r="P35">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6907074</v>
+        <v>6898491</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,73 +4016,73 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L40">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N40">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y40">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6898491</v>
+        <v>6907074</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,73 +4105,73 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L41">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="M41">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N41">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB41">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4283,10 +4283,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
         <v>34</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6898061</v>
+        <v>6898449</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,46 +4372,46 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>13</v>
+        <v>4.25</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>1.1</v>
+        <v>1.666</v>
       </c>
       <c r="N44">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q44">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
         <v>3</v>
@@ -4423,25 +4423,25 @@
         <v>2</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6898449</v>
+        <v>6898061</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,46 +4550,46 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>4.25</v>
+        <v>13</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>1.666</v>
+        <v>1.1</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>3</v>
@@ -4601,25 +4601,25 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,10 +4639,10 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6898062</v>
+        <v>6907485</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>45171.375</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>49</v>
       </c>
       <c r="K48">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="N48">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q48">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R48">
+        <v>1.875</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
         <v>1.825</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.975</v>
       </c>
-      <c r="T48">
-        <v>3.25</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>0.2849999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,16 +4788,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6907485</v>
+        <v>6898492</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45171.375</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
+        <v>2.375</v>
+      </c>
+      <c r="O50">
         <v>3.6</v>
       </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
       <c r="P50">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.875</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6898450</v>
+        <v>6898062</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,43 +4995,43 @@
         <v>45171.375</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P51">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
         <v>1.975</v>
@@ -5040,28 +5040,28 @@
         <v>3.25</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB51">
-        <v>1.025</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6898492</v>
+        <v>6898450</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,40 +5084,40 @@
         <v>45171.375</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N52">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
         <v>1.875</v>
@@ -5129,10 +5129,10 @@
         <v>3.25</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5141,7 +5141,7 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="Z52">
         <v>-1</v>
@@ -5150,10 +5150,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>45172.375</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
         <v>31</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6898453</v>
+        <v>6898063</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>45178.375</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L57">
+        <v>3.75</v>
+      </c>
+      <c r="M57">
+        <v>1.85</v>
+      </c>
+      <c r="N57">
+        <v>2.7</v>
+      </c>
+      <c r="O57">
         <v>3.5</v>
       </c>
-      <c r="M57">
-        <v>2.25</v>
-      </c>
-      <c r="N57">
-        <v>2.15</v>
-      </c>
-      <c r="O57">
-        <v>3.75</v>
-      </c>
       <c r="P57">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
         <v>1.95</v>
-      </c>
-      <c r="S57">
-        <v>1.9</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.95</v>
-      </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>0.4375</v>
-      </c>
-      <c r="AC57">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>45178.375</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6898063</v>
+        <v>6898453</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45178.375</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L60">
+        <v>3.5</v>
+      </c>
+      <c r="M60">
+        <v>2.25</v>
+      </c>
+      <c r="N60">
+        <v>2.15</v>
+      </c>
+      <c r="O60">
         <v>3.75</v>
       </c>
-      <c r="M60">
-        <v>1.85</v>
-      </c>
-      <c r="N60">
-        <v>2.7</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
       <c r="P60">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>45178.375</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6907487</v>
+        <v>6907489</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45178.375</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
         <v>3.75</v>
       </c>
       <c r="M62">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W62">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6907489</v>
+        <v>6907487</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45178.375</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <v>3.75</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V63">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X63">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC63">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6899065</v>
+        <v>6907490</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,10 +6152,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6167,43 +6167,43 @@
         <v>49</v>
       </c>
       <c r="K64">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
+        <v>3.75</v>
+      </c>
+      <c r="M64">
+        <v>2.55</v>
+      </c>
+      <c r="N64">
+        <v>2.1</v>
+      </c>
+      <c r="O64">
         <v>4</v>
       </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
+      <c r="P64">
         <v>2.55</v>
       </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>2.3</v>
-      </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6212,7 +6212,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6221,7 +6221,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6907490</v>
+        <v>6899065</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,10 +6241,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6256,53 +6256,53 @@
         <v>49</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
         <v>2.55</v>
       </c>
-      <c r="N65">
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.3</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <v>2.1</v>
       </c>
-      <c r="O65">
-        <v>4</v>
-      </c>
-      <c r="P65">
-        <v>2.55</v>
-      </c>
-      <c r="Q65">
-        <v>-0.25</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
+        <v>1.55</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
         <v>1.1</v>
       </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA65">
         <v>-1</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>45185.375</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>36</v>
@@ -6778,7 +6778,7 @@
         <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6898494</v>
+        <v>6907491</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,73 +7042,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M74">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB74">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6907491</v>
+        <v>6898494</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,73 +7131,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L75">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
         <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
         <v>3.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7223,7 +7223,7 @@
         <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7309,7 +7309,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
         <v>44</v>
@@ -7665,7 +7665,7 @@
         <v>45192.375</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -7935,7 +7935,7 @@
         <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8199,7 +8199,7 @@
         <v>45199.375</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8380,7 +8380,7 @@
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8558,7 +8558,7 @@
         <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>45202.375</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -9000,7 +9000,7 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -9178,7 +9178,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6898067</v>
+        <v>6899062</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K99">
+        <v>1.833</v>
+      </c>
+      <c r="L99">
+        <v>3.8</v>
+      </c>
+      <c r="M99">
+        <v>3.25</v>
+      </c>
+      <c r="N99">
+        <v>2.625</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
+        <v>2.2</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
+        <v>1.75</v>
+      </c>
+      <c r="W99">
+        <v>1.625</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>4</v>
-      </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>3.25</v>
-      </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>1.8</v>
-      </c>
-      <c r="N99">
-        <v>3.75</v>
-      </c>
-      <c r="O99">
-        <v>4.2</v>
-      </c>
-      <c r="P99">
-        <v>1.666</v>
-      </c>
-      <c r="Q99">
-        <v>0.75</v>
-      </c>
-      <c r="R99">
-        <v>1.925</v>
-      </c>
-      <c r="S99">
-        <v>1.875</v>
-      </c>
-      <c r="T99">
-        <v>3.25</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.875</v>
-      </c>
-      <c r="AB99">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6899062</v>
+        <v>6898067</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M100">
+        <v>1.8</v>
+      </c>
+      <c r="N100">
+        <v>3.75</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>1.666</v>
+      </c>
+      <c r="Q100">
+        <v>0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.925</v>
+      </c>
+      <c r="S100">
+        <v>1.875</v>
+      </c>
+      <c r="T100">
         <v>3.25</v>
       </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>3.5</v>
-      </c>
-      <c r="P100">
-        <v>2.2</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.775</v>
-      </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9715,7 +9715,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>45207.375</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>42</v>
@@ -10160,7 +10160,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10335,7 +10335,7 @@
         <v>45213.375</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -10780,7 +10780,7 @@
         <v>45213.375</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>29</v>
@@ -10958,10 +10958,10 @@
         <v>45220.375</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>6</v>
@@ -11317,7 +11317,7 @@
         <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11670,10 +11670,10 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11940,7 +11940,7 @@
         <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12115,7 +12115,7 @@
         <v>45227.375</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
         <v>31</v>
@@ -12204,7 +12204,7 @@
         <v>45227.375</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12293,7 +12293,7 @@
         <v>45227.375</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6898522</v>
+        <v>6899058</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,58 +12471,58 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L135">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O135">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
         <v>1.95</v>
       </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
       <c r="W135">
-        <v>0.363</v>
+        <v>0.75</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12531,13 +12531,13 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6899058</v>
+        <v>6898522</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,58 +12560,58 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>49</v>
       </c>
       <c r="K136">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="V136">
-        <v>1.95</v>
-      </c>
       <c r="W136">
-        <v>0.75</v>
+        <v>0.363</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12620,13 +12620,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12827,7 +12827,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
         <v>45</v>
@@ -13008,7 +13008,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13094,7 +13094,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
         <v>46</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6898762</v>
+        <v>6898072</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,40 +13272,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N144">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
         <v>1.825</v>
@@ -13314,16 +13314,16 @@
         <v>1.975</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>1.05</v>
+        <v>2.8</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13338,10 +13338,10 @@
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6898072</v>
+        <v>6898762</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>49</v>
       </c>
       <c r="K145">
+        <v>2.25</v>
+      </c>
+      <c r="L145">
         <v>3.75</v>
       </c>
-      <c r="L145">
-        <v>4</v>
-      </c>
       <c r="M145">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q145">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
         <v>1.825</v>
@@ -13403,16 +13403,16 @@
         <v>1.975</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
-        <v>2.8</v>
+        <v>1.05</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13427,10 +13427,10 @@
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13809,7 +13809,7 @@
         <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -14073,7 +14073,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>36</v>
@@ -14165,7 +14165,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
         <v>30</v>
@@ -14521,7 +14521,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14696,7 +14696,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>29</v>
@@ -15055,7 +15055,7 @@
         <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15408,7 +15408,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>42</v>
@@ -15497,7 +15497,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
         <v>45</v>
@@ -15589,7 +15589,7 @@
         <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15767,7 +15767,7 @@
         <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15856,7 +15856,7 @@
         <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16387,7 +16387,7 @@
         <v>45268.625</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>37</v>
@@ -17013,7 +17013,7 @@
         <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
         <v>42</v>
@@ -17188,7 +17188,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
         <v>32</v>
@@ -17277,10 +17277,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17900,10 +17900,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F196" t="s">
+        <v>39</v>
+      </c>
+      <c r="G196" t="s">
         <v>40</v>
-      </c>
-      <c r="G196" t="s">
-        <v>39</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -18167,10 +18167,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F199" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" t="s">
         <v>33</v>
-      </c>
-      <c r="G199" t="s">
-        <v>34</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6898766</v>
+        <v>6907514</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M200">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N200">
-        <v>2.9</v>
+        <v>1.222</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P200">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R200">
+        <v>1.825</v>
+      </c>
+      <c r="S200">
+        <v>1.975</v>
+      </c>
+      <c r="T200">
+        <v>3.25</v>
+      </c>
+      <c r="U200">
         <v>1.95</v>
       </c>
-      <c r="S200">
-        <v>1.85</v>
-      </c>
-      <c r="T200">
-        <v>3</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
       <c r="V200">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC200">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6898505</v>
+        <v>6898766</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,55 +18345,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>47</v>
       </c>
       <c r="K201">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N201">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="O201">
         <v>3.6</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18434,10 +18434,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6907085</v>
+        <v>6898505</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,55 +18523,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J203" t="s">
         <v>47</v>
       </c>
       <c r="K203">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L203">
         <v>4</v>
       </c>
       <c r="M203">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N203">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O203">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T203">
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18580,19 +18580,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB203">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6907514</v>
+        <v>6907085</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,40 +18612,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H204">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="N204">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="O204">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P204">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q204">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
         <v>1.825</v>
@@ -18654,31 +18654,31 @@
         <v>1.975</v>
       </c>
       <c r="T204">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -19149,7 +19149,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19235,7 +19235,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
         <v>35</v>
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6898481</v>
+        <v>6899049</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K212">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
         <v>3.6</v>
       </c>
       <c r="P212">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U212">
         <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA212">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6899049</v>
+        <v>6898481</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M213">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
         <v>3.6</v>
       </c>
       <c r="P213">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
         <v>1.95</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>31</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19861,7 +19861,7 @@
         <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20303,7 +20303,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
         <v>38</v>
@@ -20481,7 +20481,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G225" t="s">
         <v>46</v>
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20914,7 +20914,7 @@
         <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K230">
         <v>2.2</v>
@@ -20932,16 +20932,16 @@
         <v>3.8</v>
       </c>
       <c r="P230">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
         <v>2.75</v>
@@ -21000,22 +21000,22 @@
         <v>3.4</v>
       </c>
       <c r="N231">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O231">
         <v>3.5</v>
       </c>
       <c r="P231">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T231">
         <v>2.75</v>
@@ -21133,7 +21133,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>29</v>
@@ -21210,7 +21210,7 @@
         <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K234">
         <v>1.8</v>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>TuS Koblenz</t>
   </si>
   <si>
-    <t>FC Astoria Walldorf</t>
+    <t>Hessen Kassel</t>
   </si>
   <si>
-    <t>Hessen Kassel</t>
+    <t>FC Astoria Walldorf</t>
   </si>
   <si>
     <t>TSG Balingen</t>
@@ -133,10 +133,10 @@
     <t>VfR Aalen</t>
   </si>
   <si>
-    <t>Stuttgarter Kickers</t>
+    <t>TSV Steinbach</t>
   </si>
   <si>
-    <t>TSV Steinbach</t>
+    <t>Stuttgarter Kickers</t>
   </si>
   <si>
     <t>TSG 1899 Hoffenheim II</t>
@@ -160,10 +160,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6898512</v>
+        <v>6898442</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,40 +815,40 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>1.85</v>
@@ -857,22 +857,22 @@
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -881,7 +881,7 @@
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6898442</v>
+        <v>6898512</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,40 +904,40 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>1.909</v>
+      </c>
+      <c r="N5">
         <v>3.4</v>
       </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.375</v>
-      </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
         <v>1.85</v>
@@ -946,22 +946,22 @@
         <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -970,7 +970,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>1.7</v>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>1.4</v>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1.5</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>3.6</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6898059</v>
+        <v>6898443</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,55 +1527,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12">
+        <v>1.25</v>
+      </c>
+      <c r="L12">
+        <v>5.75</v>
+      </c>
+      <c r="M12">
         <v>7</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12">
-        <v>1.6</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>4.2</v>
-      </c>
       <c r="N12">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P12">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W12">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1584,13 +1584,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6898443</v>
+        <v>6898059</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,55 +1616,55 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="L13">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N13">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O13">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>1.3</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2.2</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>2.15</v>
@@ -2147,10 +2147,10 @@
         <v>45157.375</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>3.4</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6898753</v>
+        <v>6898060</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,52 +2414,52 @@
         <v>45158.375</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3.4</v>
+      </c>
+      <c r="P22">
         <v>2.05</v>
       </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>2.875</v>
-      </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
         <v>1.875</v>
       </c>
-      <c r="S22">
-        <v>1.925</v>
-      </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
         <v>1.975</v>
@@ -2468,22 +2468,22 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6898060</v>
+        <v>6907481</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>45158.375</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
+        <v>3.8</v>
+      </c>
+      <c r="M23">
+        <v>3.25</v>
+      </c>
+      <c r="N23">
+        <v>2.1</v>
+      </c>
+      <c r="O23">
         <v>3.6</v>
       </c>
-      <c r="M23">
-        <v>2.5</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>2.7</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
-      <c r="P23">
-        <v>2.05</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
+      <c r="U23">
+        <v>1.925</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.875</v>
-      </c>
-      <c r="V23">
-        <v>1.975</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2595,7 +2595,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6907481</v>
+        <v>6898753</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45158.375</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
         <v>3.6</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>3</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2782,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3227,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3396,7 +3396,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3482,7 +3482,7 @@
         <v>45164.375</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3494,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3571,7 +3571,7 @@
         <v>45164.375</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>2.1</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>1.533</v>
@@ -3850,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>2.3</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>1.444</v>
@@ -4028,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>1.333</v>
@@ -4105,10 +4105,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
         <v>40</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>1.615</v>
@@ -4372,7 +4372,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>37</v>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>4.25</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6899068</v>
+        <v>6898061</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,73 +4461,73 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="L45">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
+        <v>1.975</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
         <v>1.8</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.875</v>
-      </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6898061</v>
+        <v>6899068</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,73 +4550,73 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y46">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4639,7 +4639,7 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4651,7 +4651,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>1.666</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6907485</v>
+        <v>6898062</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,58 +4728,58 @@
         <v>45171.375</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N48">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P48">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="Q48">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
+        <v>1.975</v>
+      </c>
+      <c r="V48">
         <v>1.825</v>
       </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
       <c r="W48">
-        <v>2.6</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,16 +4788,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6898492</v>
+        <v>6907485</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45171.375</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R50">
         <v>1.875</v>
       </c>
       <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>2.75</v>
+      </c>
+      <c r="U50">
+        <v>1.825</v>
+      </c>
+      <c r="V50">
         <v>1.975</v>
       </c>
-      <c r="T50">
-        <v>3.25</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-      <c r="V50">
-        <v>1.85</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6898062</v>
+        <v>6898450</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,43 +4995,43 @@
         <v>45171.375</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
         <v>1.975</v>
@@ -5040,28 +5040,28 @@
         <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6898450</v>
+        <v>6898492</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,40 +5084,40 @@
         <v>45171.375</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N52">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.875</v>
@@ -5129,10 +5129,10 @@
         <v>3.25</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5141,7 +5141,7 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="Z52">
         <v>-1</v>
@@ -5150,10 +5150,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5265,7 +5265,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.571</v>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6898063</v>
+        <v>6898453</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>45178.375</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L57">
+        <v>3.5</v>
+      </c>
+      <c r="M57">
+        <v>2.25</v>
+      </c>
+      <c r="N57">
+        <v>2.15</v>
+      </c>
+      <c r="O57">
         <v>3.75</v>
       </c>
-      <c r="M57">
-        <v>1.85</v>
-      </c>
-      <c r="N57">
-        <v>2.7</v>
-      </c>
-      <c r="O57">
-        <v>3.5</v>
-      </c>
       <c r="P57">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>1.833</v>
@@ -5707,7 +5707,7 @@
         <v>45178.375</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6898453</v>
+        <v>6898063</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45178.375</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L60">
+        <v>3.75</v>
+      </c>
+      <c r="M60">
+        <v>1.85</v>
+      </c>
+      <c r="N60">
+        <v>2.7</v>
+      </c>
+      <c r="O60">
         <v>3.5</v>
       </c>
-      <c r="M60">
-        <v>2.25</v>
-      </c>
-      <c r="N60">
-        <v>2.15</v>
-      </c>
-      <c r="O60">
-        <v>3.75</v>
-      </c>
       <c r="P60">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
         <v>1.95</v>
-      </c>
-      <c r="S60">
-        <v>1.9</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.95</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.4375</v>
-      </c>
-      <c r="AC60">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>6</v>
@@ -5897,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6907489</v>
+        <v>6907487</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45178.375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <v>3.75</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V62">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X62">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6907487</v>
+        <v>6907489</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45178.375</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L63">
         <v>3.75</v>
       </c>
       <c r="M63">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W63">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.2</v>
@@ -6244,7 +6244,7 @@
         <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.909</v>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>1.727</v>
@@ -6419,7 +6419,7 @@
         <v>45185.375</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
@@ -6609,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>1.6</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>2.25</v>
@@ -6778,7 +6778,7 @@
         <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>2.875</v>
@@ -7054,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.15</v>
@@ -7134,7 +7134,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>1.4</v>
@@ -7232,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>1.75</v>
@@ -7309,7 +7309,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
         <v>44</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>1.75</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.25</v>
@@ -7665,7 +7665,7 @@
         <v>45192.375</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
         <v>41</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7754,7 +7754,7 @@
         <v>45192.375</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>43</v>
@@ -7843,7 +7843,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.8</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>1.727</v>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>1.833</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8211,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>1.45</v>
@@ -8291,7 +8291,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8380,7 +8380,7 @@
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.375</v>
@@ -8558,7 +8558,7 @@
         <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>45202.375</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>34</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>2.15</v>
@@ -8911,7 +8911,7 @@
         <v>45202.375</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>1.65</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2.3</v>
@@ -9178,7 +9178,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>1.166</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6899062</v>
+        <v>6898067</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M99">
+        <v>1.8</v>
+      </c>
+      <c r="N99">
+        <v>3.75</v>
+      </c>
+      <c r="O99">
+        <v>4.2</v>
+      </c>
+      <c r="P99">
+        <v>1.666</v>
+      </c>
+      <c r="Q99">
+        <v>0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.925</v>
+      </c>
+      <c r="S99">
+        <v>1.875</v>
+      </c>
+      <c r="T99">
         <v>3.25</v>
       </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>2.2</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.775</v>
-      </c>
-      <c r="S99">
-        <v>2.025</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6898067</v>
+        <v>6899062</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>1.833</v>
+      </c>
+      <c r="L100">
+        <v>3.8</v>
+      </c>
+      <c r="M100">
+        <v>3.25</v>
+      </c>
+      <c r="N100">
+        <v>2.625</v>
+      </c>
+      <c r="O100">
+        <v>3.5</v>
+      </c>
+      <c r="P100">
+        <v>2.2</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
+        <v>1.75</v>
+      </c>
+      <c r="W100">
+        <v>1.625</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>4</v>
-      </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>3.25</v>
-      </c>
-      <c r="L100">
-        <v>4</v>
-      </c>
-      <c r="M100">
-        <v>1.8</v>
-      </c>
-      <c r="N100">
-        <v>3.75</v>
-      </c>
-      <c r="O100">
-        <v>4.2</v>
-      </c>
-      <c r="P100">
-        <v>1.666</v>
-      </c>
-      <c r="Q100">
-        <v>0.75</v>
-      </c>
-      <c r="R100">
-        <v>1.925</v>
-      </c>
-      <c r="S100">
-        <v>1.875</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.875</v>
-      </c>
-      <c r="AB100">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>3</v>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>1.8</v>
@@ -9623,10 +9623,10 @@
         <v>45206.375</v>
       </c>
       <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
         <v>31</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.222</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>1.727</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2.4</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K109">
         <v>1.615</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>9</v>
@@ -10335,7 +10335,7 @@
         <v>45213.375</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>1.5</v>
@@ -10424,7 +10424,7 @@
         <v>45213.375</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10516,7 +10516,7 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10614,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.2</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>1.222</v>
@@ -10961,7 +10961,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>1.444</v>
@@ -11314,10 +11314,10 @@
         <v>45220.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>2.25</v>
@@ -11584,7 +11584,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>1.533</v>
@@ -11670,7 +11670,7 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>1.833</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.5</v>
@@ -11848,7 +11848,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11949,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
         <v>2.75</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>1.222</v>
@@ -12115,10 +12115,10 @@
         <v>45227.375</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12127,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>1.363</v>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>1.444</v>
@@ -12293,7 +12293,7 @@
         <v>45227.375</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>1.615</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
         <v>1.533</v>
@@ -12652,7 +12652,7 @@
         <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6907459</v>
+        <v>6907501</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,73 +12738,73 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M138">
+        <v>4.2</v>
+      </c>
+      <c r="N138">
+        <v>1.75</v>
+      </c>
+      <c r="O138">
+        <v>3.8</v>
+      </c>
+      <c r="P138">
         <v>3.5</v>
       </c>
-      <c r="N138">
-        <v>1.7</v>
-      </c>
-      <c r="O138">
-        <v>4</v>
-      </c>
-      <c r="P138">
-        <v>3.75</v>
-      </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
+        <v>1.75</v>
+      </c>
+      <c r="S138">
         <v>1.95</v>
       </c>
-      <c r="S138">
-        <v>1.85</v>
-      </c>
       <c r="T138">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y138">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6907501</v>
+        <v>6907458</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>48</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M139">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N139">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6898467</v>
+        <v>6907459</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,49 +12916,49 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>47</v>
       </c>
       <c r="K140">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>4</v>
       </c>
       <c r="M140">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N140">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O140">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q140">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
         <v>2</v>
@@ -12973,19 +12973,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.3999999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Z140">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6898499</v>
+        <v>6898467</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z141">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6899057</v>
+        <v>6898499</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,40 +13094,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
         <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
         <v>1.95</v>
@@ -13136,16 +13136,16 @@
         <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13160,10 +13160,10 @@
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6907458</v>
+        <v>6899057</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,58 +13183,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13243,16 +13243,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC143">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6898072</v>
+        <v>6898762</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,40 +13272,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
+        <v>2.25</v>
+      </c>
+      <c r="L144">
         <v>3.75</v>
       </c>
-      <c r="L144">
-        <v>4</v>
-      </c>
       <c r="M144">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q144">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
         <v>1.825</v>
@@ -13314,16 +13314,16 @@
         <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
-        <v>2.8</v>
+        <v>1.05</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13338,10 +13338,10 @@
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6898762</v>
+        <v>6898072</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F145" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
         <v>31</v>
       </c>
-      <c r="G145" t="s">
-        <v>38</v>
-      </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N145">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R145">
         <v>1.825</v>
@@ -13403,16 +13403,16 @@
         <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>1.05</v>
+        <v>2.8</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13427,10 +13427,10 @@
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13462,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>3.5</v>
@@ -13539,7 +13539,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13631,7 +13631,7 @@
         <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>1.444</v>
@@ -13806,7 +13806,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>33</v>
@@ -13818,7 +13818,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>2.2</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.4</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14073,7 +14073,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
         <v>36</v>
@@ -14085,7 +14085,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>2.1</v>
@@ -14174,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>1.75</v>
@@ -14254,7 +14254,7 @@
         <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>1.833</v>
@@ -14340,7 +14340,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>30</v>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>1.25</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>1.909</v>
@@ -14619,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>1.95</v>
@@ -14696,7 +14696,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
         <v>29</v>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>1.5</v>
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>2.875</v>
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.615</v>
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
         <v>3.4</v>
@@ -15052,10 +15052,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15064,7 +15064,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K164">
         <v>3.1</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>2.25</v>
@@ -15230,7 +15230,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
         <v>44</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.05</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.8</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>1.25</v>
@@ -15589,7 +15589,7 @@
         <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>6</v>
@@ -15678,7 +15678,7 @@
         <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>1.444</v>
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>1.8</v>
@@ -15954,7 +15954,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>2.55</v>
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6898076</v>
+        <v>6898502</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,40 +16031,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N175">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O175">
         <v>3.6</v>
       </c>
       <c r="P175">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
         <v>1.8</v>
@@ -16076,31 +16076,31 @@
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y175">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
+        <v>0.5</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>1</v>
-      </c>
-      <c r="AB175">
-        <v>0.925</v>
-      </c>
-      <c r="AC175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6898502</v>
+        <v>6898076</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,40 +16120,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O176">
         <v>3.6</v>
       </c>
       <c r="P176">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
         <v>1.8</v>
@@ -16165,31 +16165,31 @@
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>3.5</v>
@@ -16310,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.2</v>
@@ -16476,7 +16476,7 @@
         <v>45268.625</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>43</v>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K181">
         <v>1.285</v>
@@ -16654,7 +16654,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
         <v>38</v>
@@ -16666,7 +16666,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2.1</v>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>3.75</v>
@@ -17013,7 +17013,7 @@
         <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
         <v>42</v>
@@ -17111,7 +17111,7 @@
         <v>4</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>1.833</v>
@@ -17188,10 +17188,10 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>1.45</v>
@@ -17280,7 +17280,7 @@
         <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>4.333</v>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>2.1</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>2.5</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>1.166</v>
@@ -17636,7 +17636,7 @@
         <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K193">
         <v>2.1</v>
@@ -17814,7 +17814,7 @@
         <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>2.1</v>
@@ -17900,10 +17900,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F196" t="s">
+        <v>40</v>
+      </c>
+      <c r="G196" t="s">
         <v>39</v>
-      </c>
-      <c r="G196" t="s">
-        <v>40</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>1.8</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
         <v>2.4</v>
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>2.1</v>
@@ -18179,7 +18179,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>1.4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6907514</v>
+        <v>6898766</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L200">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N200">
-        <v>1.222</v>
+        <v>2.9</v>
       </c>
       <c r="O200">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q200">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.85</v>
+      </c>
+      <c r="T200">
+        <v>3</v>
+      </c>
+      <c r="U200">
+        <v>1.975</v>
+      </c>
+      <c r="V200">
         <v>1.825</v>
       </c>
-      <c r="S200">
-        <v>1.975</v>
-      </c>
-      <c r="T200">
-        <v>3.25</v>
-      </c>
-      <c r="U200">
-        <v>1.95</v>
-      </c>
-      <c r="V200">
-        <v>1.75</v>
-      </c>
       <c r="W200">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.825</v>
-      </c>
-      <c r="AA200">
-        <v>-1</v>
-      </c>
-      <c r="AB200">
-        <v>0.95</v>
-      </c>
-      <c r="AC200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6898766</v>
+        <v>6898505</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,56 +18345,56 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
         <v>47</v>
       </c>
       <c r="K201">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N201">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O201">
         <v>3.6</v>
       </c>
       <c r="P201">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>1.85</v>
+      </c>
+      <c r="V201">
         <v>1.95</v>
       </c>
-      <c r="S201">
-        <v>1.85</v>
-      </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>1.975</v>
-      </c>
-      <c r="V201">
-        <v>1.825</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6898505</v>
+        <v>6907085</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,55 +18523,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J203" t="s">
         <v>47</v>
       </c>
       <c r="K203">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L203">
         <v>4</v>
       </c>
       <c r="M203">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N203">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18580,19 +18580,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6907085</v>
+        <v>6907514</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,40 +18612,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M204">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="N204">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P204">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R204">
         <v>1.825</v>
@@ -18654,31 +18654,31 @@
         <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA204">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18701,7 +18701,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
         <v>41</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2.75</v>
@@ -18980,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K208">
         <v>1.85</v>
@@ -19060,7 +19060,7 @@
         <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19069,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>1.833</v>
@@ -19149,7 +19149,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>4.333</v>
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K211">
         <v>1.8</v>
@@ -19327,7 +19327,7 @@
         <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>1.95</v>
@@ -19603,7 +19603,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>2.15</v>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K216">
         <v>1.444</v>
@@ -19769,7 +19769,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -19950,7 +19950,7 @@
         <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19959,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
         <v>1.666</v>
@@ -20125,7 +20125,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
         <v>45</v>
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
         <v>1.363</v>
@@ -20315,7 +20315,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>1.95</v>
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K224">
         <v>1.8</v>
@@ -20481,7 +20481,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>46</v>
@@ -20570,7 +20570,7 @@
         <v>45379.625</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
         <v>36</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>3.75</v>
@@ -20671,7 +20671,7 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>1.571</v>
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20818,450 +20818,6 @@
       </c>
       <c r="AC228">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:29">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>6899047</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F229" t="s">
-        <v>46</v>
-      </c>
-      <c r="G229" t="s">
-        <v>38</v>
-      </c>
-      <c r="K229">
-        <v>1.6</v>
-      </c>
-      <c r="L229">
-        <v>3.75</v>
-      </c>
-      <c r="M229">
-        <v>4.5</v>
-      </c>
-      <c r="N229">
-        <v>2</v>
-      </c>
-      <c r="O229">
-        <v>3.3</v>
-      </c>
-      <c r="P229">
-        <v>3.2</v>
-      </c>
-      <c r="Q229">
-        <v>-0.25</v>
-      </c>
-      <c r="R229">
-        <v>1.875</v>
-      </c>
-      <c r="S229">
-        <v>1.975</v>
-      </c>
-      <c r="T229">
-        <v>2.75</v>
-      </c>
-      <c r="U229">
-        <v>1.85</v>
-      </c>
-      <c r="V229">
-        <v>2</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-      <c r="AA229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:29">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230">
-        <v>6898529</v>
-      </c>
-      <c r="C230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" t="s">
-        <v>28</v>
-      </c>
-      <c r="E230" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F230" t="s">
-        <v>41</v>
-      </c>
-      <c r="G230" t="s">
-        <v>39</v>
-      </c>
-      <c r="K230">
-        <v>2.2</v>
-      </c>
-      <c r="L230">
-        <v>3.75</v>
-      </c>
-      <c r="M230">
-        <v>2.55</v>
-      </c>
-      <c r="N230">
-        <v>1.909</v>
-      </c>
-      <c r="O230">
-        <v>3.8</v>
-      </c>
-      <c r="P230">
-        <v>3.1</v>
-      </c>
-      <c r="Q230">
-        <v>-0.5</v>
-      </c>
-      <c r="R230">
-        <v>1.975</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
-      </c>
-      <c r="T230">
-        <v>2.75</v>
-      </c>
-      <c r="U230">
-        <v>1.925</v>
-      </c>
-      <c r="V230">
-        <v>1.925</v>
-      </c>
-      <c r="W230">
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <v>0</v>
-      </c>
-      <c r="Y230">
-        <v>0</v>
-      </c>
-      <c r="Z230">
-        <v>0</v>
-      </c>
-      <c r="AA230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>6898485</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F231" t="s">
-        <v>43</v>
-      </c>
-      <c r="G231" t="s">
-        <v>32</v>
-      </c>
-      <c r="K231">
-        <v>1.8</v>
-      </c>
-      <c r="L231">
-        <v>3.75</v>
-      </c>
-      <c r="M231">
-        <v>3.4</v>
-      </c>
-      <c r="N231">
-        <v>2.3</v>
-      </c>
-      <c r="O231">
-        <v>3.5</v>
-      </c>
-      <c r="P231">
-        <v>2.625</v>
-      </c>
-      <c r="Q231">
-        <v>0</v>
-      </c>
-      <c r="R231">
-        <v>1.8</v>
-      </c>
-      <c r="S231">
-        <v>2.05</v>
-      </c>
-      <c r="T231">
-        <v>2.75</v>
-      </c>
-      <c r="U231">
-        <v>1.95</v>
-      </c>
-      <c r="V231">
-        <v>1.9</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
-      </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-      <c r="AA231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>6907467</v>
-      </c>
-      <c r="C232" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F232" t="s">
-        <v>45</v>
-      </c>
-      <c r="G232" t="s">
-        <v>42</v>
-      </c>
-      <c r="K232">
-        <v>2.7</v>
-      </c>
-      <c r="L232">
-        <v>3.75</v>
-      </c>
-      <c r="M232">
-        <v>2.1</v>
-      </c>
-      <c r="N232">
-        <v>3.1</v>
-      </c>
-      <c r="O232">
-        <v>3.8</v>
-      </c>
-      <c r="P232">
-        <v>1.909</v>
-      </c>
-      <c r="Q232">
-        <v>0.5</v>
-      </c>
-      <c r="R232">
-        <v>1.875</v>
-      </c>
-      <c r="S232">
-        <v>1.975</v>
-      </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>1.925</v>
-      </c>
-      <c r="V232">
-        <v>1.925</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-      <c r="AA232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>6907520</v>
-      </c>
-      <c r="C233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" t="s">
-        <v>28</v>
-      </c>
-      <c r="E233" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F233" t="s">
-        <v>34</v>
-      </c>
-      <c r="G233" t="s">
-        <v>29</v>
-      </c>
-      <c r="K233">
-        <v>1.727</v>
-      </c>
-      <c r="L233">
-        <v>3.75</v>
-      </c>
-      <c r="M233">
-        <v>3.75</v>
-      </c>
-      <c r="N233">
-        <v>2.55</v>
-      </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>2.45</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233">
-        <v>2</v>
-      </c>
-      <c r="S233">
-        <v>1.85</v>
-      </c>
-      <c r="T233">
-        <v>3</v>
-      </c>
-      <c r="U233">
-        <v>1.975</v>
-      </c>
-      <c r="V233">
-        <v>1.875</v>
-      </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-      <c r="X233">
-        <v>0</v>
-      </c>
-      <c r="Y233">
-        <v>0</v>
-      </c>
-      <c r="Z233">
-        <v>0</v>
-      </c>
-      <c r="AA233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:29">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234">
-        <v>6907519</v>
-      </c>
-      <c r="C234" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F234" t="s">
-        <v>35</v>
-      </c>
-      <c r="G234" t="s">
-        <v>33</v>
-      </c>
-      <c r="K234">
-        <v>1.8</v>
-      </c>
-      <c r="L234">
-        <v>3.75</v>
-      </c>
-      <c r="M234">
-        <v>3.4</v>
-      </c>
-      <c r="N234">
-        <v>1.6</v>
-      </c>
-      <c r="O234">
-        <v>3.8</v>
-      </c>
-      <c r="P234">
-        <v>4.2</v>
-      </c>
-      <c r="Q234">
-        <v>-0.75</v>
-      </c>
-      <c r="R234">
-        <v>1.85</v>
-      </c>
-      <c r="S234">
-        <v>2</v>
-      </c>
-      <c r="T234">
-        <v>2.75</v>
-      </c>
-      <c r="U234">
-        <v>1.85</v>
-      </c>
-      <c r="V234">
-        <v>2</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6907461</v>
+        <v>6898525</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,73 +15141,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N165">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6898525</v>
+        <v>6907461</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,73 +15230,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>3</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N166">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7556542</v>
+        <v>7557018</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N187">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
         <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7557018</v>
+        <v>7556542</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M188">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N188">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P188">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
         <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X188">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB188">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6907512</v>
+        <v>6898077</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
-        <v>2.4</v>
+        <v>1.166</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M195">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N195">
-        <v>2.5</v>
+        <v>1.222</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P195">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U195">
         <v>1.925</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X195">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC195">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6907464</v>
+        <v>6907512</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,10 +17900,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17915,22 +17915,22 @@
         <v>48</v>
       </c>
       <c r="K196">
+        <v>2.4</v>
+      </c>
+      <c r="L196">
+        <v>3.4</v>
+      </c>
+      <c r="M196">
         <v>2.5</v>
       </c>
-      <c r="L196">
-        <v>3.75</v>
-      </c>
-      <c r="M196">
-        <v>2.25</v>
-      </c>
       <c r="N196">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -17945,16 +17945,16 @@
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17969,7 +17969,7 @@
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6898077</v>
+        <v>6907464</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>1.166</v>
+        <v>2.5</v>
       </c>
       <c r="L197">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M197">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N197">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="O197">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P197">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6898079</v>
+        <v>6898481</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K211">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="L211">
         <v>3.75</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N211">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R211">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z211">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6898481</v>
+        <v>6899049</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K212">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
         <v>3.6</v>
       </c>
       <c r="P212">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U212">
         <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA212">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6899049</v>
+        <v>6898079</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,58 +19413,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>49</v>
       </c>
       <c r="K213">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M213">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N213">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S213">
         <v>1.8</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19473,16 +19473,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6898080</v>
+        <v>6898484</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H221">
+        <v>3</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>2</v>
-      </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
         <v>4</v>
       </c>
       <c r="M221">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="N221">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P221">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6898484</v>
+        <v>6898080</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L222">
         <v>4</v>
       </c>
       <c r="M222">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N222">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W222">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.925</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
         <v>1</v>
-      </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
-      <c r="AB222">
-        <v>0</v>
-      </c>
-      <c r="AC222">
-        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6907086</v>
+        <v>6898507</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,46 +20570,46 @@
         <v>45379.625</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>2</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K226">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L226">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N226">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="O226">
         <v>3.8</v>
       </c>
       <c r="P226">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T226">
         <v>2.75</v>
@@ -20621,25 +20621,25 @@
         <v>1.85</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6898507</v>
+        <v>6907086</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,46 +20659,46 @@
         <v>45379.625</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M227">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N227">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O227">
         <v>3.8</v>
       </c>
       <c r="P227">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
         <v>2.75</v>
@@ -20710,25 +20710,25 @@
         <v>1.85</v>
       </c>
       <c r="W227">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21886,228 +21886,6 @@
       </c>
       <c r="AC240">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>6899046</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45385.58333333334</v>
-      </c>
-      <c r="F241" t="s">
-        <v>35</v>
-      </c>
-      <c r="G241" t="s">
-        <v>46</v>
-      </c>
-      <c r="K241">
-        <v>3.25</v>
-      </c>
-      <c r="L241">
-        <v>3.8</v>
-      </c>
-      <c r="M241">
-        <v>1.85</v>
-      </c>
-      <c r="N241">
-        <v>3.25</v>
-      </c>
-      <c r="O241">
-        <v>4</v>
-      </c>
-      <c r="P241">
-        <v>1.833</v>
-      </c>
-      <c r="Q241">
-        <v>0.5</v>
-      </c>
-      <c r="R241">
-        <v>1.95</v>
-      </c>
-      <c r="S241">
-        <v>1.9</v>
-      </c>
-      <c r="T241">
-        <v>3</v>
-      </c>
-      <c r="U241">
-        <v>2</v>
-      </c>
-      <c r="V241">
-        <v>1.85</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>6907470</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45385.58333333334</v>
-      </c>
-      <c r="F242" t="s">
-        <v>39</v>
-      </c>
-      <c r="G242" t="s">
-        <v>44</v>
-      </c>
-      <c r="K242">
-        <v>1.65</v>
-      </c>
-      <c r="L242">
-        <v>3.5</v>
-      </c>
-      <c r="M242">
-        <v>4.5</v>
-      </c>
-      <c r="N242">
-        <v>1.727</v>
-      </c>
-      <c r="O242">
-        <v>3.4</v>
-      </c>
-      <c r="P242">
-        <v>4.2</v>
-      </c>
-      <c r="Q242">
-        <v>-0.75</v>
-      </c>
-      <c r="R242">
-        <v>2</v>
-      </c>
-      <c r="S242">
-        <v>1.85</v>
-      </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>1.9</v>
-      </c>
-      <c r="V242">
-        <v>1.95</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>6907468</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45385.58333333334</v>
-      </c>
-      <c r="F243" t="s">
-        <v>36</v>
-      </c>
-      <c r="G243" t="s">
-        <v>30</v>
-      </c>
-      <c r="K243">
-        <v>1.85</v>
-      </c>
-      <c r="L243">
-        <v>3.6</v>
-      </c>
-      <c r="M243">
-        <v>3.4</v>
-      </c>
-      <c r="N243">
-        <v>1.666</v>
-      </c>
-      <c r="O243">
-        <v>3.8</v>
-      </c>
-      <c r="P243">
-        <v>4.2</v>
-      </c>
-      <c r="Q243">
-        <v>-0.75</v>
-      </c>
-      <c r="R243">
-        <v>1.95</v>
-      </c>
-      <c r="S243">
-        <v>1.9</v>
-      </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>1.8</v>
-      </c>
-      <c r="V243">
-        <v>2.05</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6898525</v>
+        <v>6907461</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,73 +15141,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>3</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N165">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB165">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6907461</v>
+        <v>6898525</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,73 +15230,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N166">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7557018</v>
+        <v>7556542</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M187">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N187">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P187">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
         <v>1.925</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB187">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7556542</v>
+        <v>7557018</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L188">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N188">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O188">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
         <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6898077</v>
+        <v>6907512</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>1.166</v>
+        <v>2.4</v>
       </c>
       <c r="L195">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N195">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="O195">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q195">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
         <v>1.925</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6907512</v>
+        <v>6907464</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,10 +17900,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17915,22 +17915,22 @@
         <v>48</v>
       </c>
       <c r="K196">
+        <v>2.5</v>
+      </c>
+      <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>2.25</v>
+      </c>
+      <c r="N196">
         <v>2.4</v>
       </c>
-      <c r="L196">
-        <v>3.4</v>
-      </c>
-      <c r="M196">
-        <v>2.5</v>
-      </c>
-      <c r="N196">
-        <v>2.5</v>
-      </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -17945,16 +17945,16 @@
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17969,7 +17969,7 @@
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6907464</v>
+        <v>6898077</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>2.5</v>
+        <v>1.166</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M197">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="N197">
-        <v>2.4</v>
+        <v>1.222</v>
       </c>
       <c r="O197">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P197">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X197">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6898481</v>
+        <v>6898079</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
         <v>0</v>
       </c>
-      <c r="I211">
-        <v>1</v>
-      </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K211">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L211">
         <v>3.75</v>
       </c>
       <c r="M211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N211">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="O211">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q211">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB211">
-        <v>-1</v>
-      </c>
-      <c r="AC211">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6899049</v>
+        <v>6898481</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K212">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N212">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O212">
         <v>3.6</v>
       </c>
       <c r="P212">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
         <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6898079</v>
+        <v>6899049</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,58 +19413,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H213">
+        <v>4</v>
+      </c>
+      <c r="I213">
         <v>1</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>49</v>
       </c>
       <c r="K213">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S213">
         <v>1.8</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W213">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19473,16 +19473,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6898484</v>
+        <v>6898080</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L221">
         <v>4</v>
       </c>
       <c r="M221">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N221">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O221">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W221">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.925</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
         <v>1</v>
-      </c>
-      <c r="AA221">
-        <v>-1</v>
-      </c>
-      <c r="AB221">
-        <v>0</v>
-      </c>
-      <c r="AC221">
-        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6898080</v>
+        <v>6898484</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>2</v>
-      </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
         <v>4</v>
       </c>
       <c r="M222">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="N222">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P222">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA222">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6898507</v>
+        <v>6907086</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,46 +20570,46 @@
         <v>45379.625</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H226">
         <v>2</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M226">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N226">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O226">
         <v>3.8</v>
       </c>
       <c r="P226">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
         <v>2.75</v>
@@ -20621,25 +20621,25 @@
         <v>1.85</v>
       </c>
       <c r="W226">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6907086</v>
+        <v>6898507</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,46 +20659,46 @@
         <v>45379.625</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L227">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M227">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N227">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="O227">
         <v>3.8</v>
       </c>
       <c r="P227">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T227">
         <v>2.75</v>
@@ -20710,25 +20710,25 @@
         <v>1.85</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6907469</v>
+        <v>6898530</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,49 +21371,49 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L235">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N235">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O235">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
         <v>1.9</v>
@@ -21422,25 +21422,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z235">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC235">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6898530</v>
+        <v>6907469</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,49 +21460,49 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q236">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
         <v>1.9</v>
@@ -21511,25 +21511,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6898082</v>
+        <v>6898769</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,46 +21549,46 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L237">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M237">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="N237">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="O237">
         <v>4</v>
       </c>
       <c r="P237">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="Q237">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
         <v>3</v>
@@ -21597,22 +21597,22 @@
         <v>2</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>1</v>
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6898486</v>
+        <v>6898082</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,76 +21727,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N239">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="O239">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P239">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R239">
+        <v>1.9</v>
+      </c>
+      <c r="S239">
         <v>1.95</v>
       </c>
-      <c r="S239">
+      <c r="T239">
+        <v>3</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
         <v>1.85</v>
       </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.85</v>
-      </c>
-      <c r="V239">
-        <v>1.95</v>
-      </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6898769</v>
+        <v>6898486</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,76 +21816,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H240">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K240">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N240">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q240">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,13 +106,13 @@
     <t>Kickers Offenbach</t>
   </si>
   <si>
+    <t>SGV Freiberg</t>
+  </si>
+  <si>
     <t>VfB Stuttgart II</t>
   </si>
   <si>
-    <t>SGV Freiberg</t>
-  </si>
-  <si>
-    <t>TuS Koblenz</t>
+    <t>Hessen Kassel</t>
   </si>
   <si>
     <t>FC Astoria Walldorf</t>
@@ -121,7 +121,7 @@
     <t>TSG Balingen</t>
   </si>
   <si>
-    <t>Hessen Kassel</t>
+    <t>TuS Koblenz</t>
   </si>
   <si>
     <t>FC 08 Homburg</t>
@@ -160,10 +160,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC250"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6907443</v>
+        <v>6899072</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>1.95</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.85</v>
       </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.975</v>
-      </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6899072</v>
+        <v>6907443</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
         <v>3.1</v>
       </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6898058</v>
+        <v>6898442</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.85</v>
       </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>3.1</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6898442</v>
+        <v>6898058</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1.4</v>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>1.5</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>3.6</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>1.6</v>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>1.25</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>1.3</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>2.2</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>2.15</v>
@@ -2058,7 +2058,7 @@
         <v>45157.375</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -2236,7 +2236,7 @@
         <v>45157.375</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>3.4</v>
@@ -2414,7 +2414,7 @@
         <v>45158.375</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>1.833</v>
@@ -2503,7 +2503,7 @@
         <v>45158.375</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>3.5</v>
@@ -2782,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -2862,7 +2862,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3040,7 +3040,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6907482</v>
+        <v>6907073</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,52 +3126,52 @@
         <v>45164.375</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
+        <v>1.85</v>
+      </c>
+      <c r="T30">
+        <v>3.25</v>
+      </c>
+      <c r="U30">
         <v>1.975</v>
-      </c>
-      <c r="S30">
-        <v>1.875</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>2.025</v>
       </c>
       <c r="V30">
         <v>1.825</v>
@@ -3180,19 +3180,19 @@
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6907073</v>
+        <v>6898514</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,40 +3215,40 @@
         <v>45164.375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L31">
+        <v>4.2</v>
+      </c>
+      <c r="M31">
+        <v>3.4</v>
+      </c>
+      <c r="N31">
+        <v>2.4</v>
+      </c>
+      <c r="O31">
         <v>3.75</v>
       </c>
-      <c r="M31">
-        <v>4.75</v>
-      </c>
-      <c r="N31">
-        <v>1.363</v>
-      </c>
-      <c r="O31">
-        <v>4.2</v>
-      </c>
       <c r="P31">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q31">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>1.95</v>
@@ -3257,22 +3257,22 @@
         <v>1.85</v>
       </c>
       <c r="T31">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
@@ -3281,10 +3281,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6898514</v>
+        <v>6898447</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45164.375</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>2.4</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y32">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6898447</v>
+        <v>6907446</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,13 +3393,13 @@
         <v>45164.375</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3411,58 +3411,58 @@
         <v>2.1</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N33">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
         <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X33">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6907446</v>
+        <v>6898490</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,73 +3482,73 @@
         <v>45164.375</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6898490</v>
+        <v>6898754</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45164.375</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
       </c>
       <c r="K35">
+        <v>1.909</v>
+      </c>
+      <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
+        <v>3.4</v>
+      </c>
+      <c r="N35">
+        <v>1.85</v>
+      </c>
+      <c r="O35">
+        <v>3.5</v>
+      </c>
+      <c r="P35">
+        <v>3.5</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.925</v>
+      </c>
+      <c r="T35">
+        <v>3.25</v>
+      </c>
+      <c r="U35">
+        <v>2.05</v>
+      </c>
+      <c r="V35">
         <v>1.8</v>
       </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>3.6</v>
-      </c>
-      <c r="N35">
-        <v>2.25</v>
-      </c>
-      <c r="O35">
-        <v>3.6</v>
-      </c>
-      <c r="P35">
-        <v>2.625</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>1.725</v>
-      </c>
-      <c r="S35">
-        <v>1.975</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6898754</v>
+        <v>6907482</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45164.375</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>1.533</v>
@@ -3838,7 +3838,7 @@
         <v>45167.52083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -3850,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2.3</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6907074</v>
+        <v>6907447</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L39">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N39">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
         <v>1.975</v>
-      </c>
-      <c r="S39">
-        <v>1.825</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.825</v>
-      </c>
-      <c r="AB39">
-        <v>0.925</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6907447</v>
+        <v>6907074</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N40">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
+        <v>1.975</v>
+      </c>
+      <c r="S40">
         <v>1.825</v>
-      </c>
-      <c r="S40">
-        <v>1.975</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4108,7 +4108,7 @@
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6907448</v>
+        <v>6898491</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,61 +4194,61 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M42">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N42">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
+        <v>1.9</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="T42">
-        <v>2.75</v>
-      </c>
-      <c r="U42">
-        <v>1.95</v>
-      </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y42">
         <v>-1</v>
@@ -4257,13 +4257,13 @@
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6898491</v>
+        <v>6907448</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,61 +4283,61 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="L43">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N43">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4346,13 +4346,13 @@
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.1</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>4.25</v>
@@ -4550,7 +4550,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6898450</v>
+        <v>6898062</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,43 +4639,43 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K47">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
         <v>1.975</v>
@@ -4684,28 +4684,28 @@
         <v>3.25</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
         <v>1.825</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB47">
-        <v>1.025</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6907075</v>
+        <v>6898450</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,13 +4817,13 @@
         <v>45171.375</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -4832,41 +4832,41 @@
         <v>47</v>
       </c>
       <c r="K49">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L49">
         <v>3.75</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
+        <v>2.025</v>
+      </c>
+      <c r="V49">
         <v>1.825</v>
       </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
@@ -4874,19 +4874,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.833</v>
+        <v>1.9</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6907485</v>
+        <v>6907075</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,46 +4906,46 @@
         <v>45171.375</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L50">
         <v>3.75</v>
       </c>
       <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>3.4</v>
+      </c>
+      <c r="O50">
+        <v>3.75</v>
+      </c>
+      <c r="P50">
         <v>1.833</v>
       </c>
-      <c r="N50">
-        <v>3.6</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
-      <c r="P50">
-        <v>1.666</v>
-      </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
         <v>1.875</v>
-      </c>
-      <c r="S50">
-        <v>1.925</v>
       </c>
       <c r="T50">
         <v>2.75</v>
@@ -4957,19 +4957,19 @@
         <v>1.975</v>
       </c>
       <c r="W50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>0.875</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
       </c>
       <c r="AB50">
         <v>0.4125</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6907486</v>
+        <v>6907485</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,40 +4995,40 @@
         <v>45171.375</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L51">
         <v>3.75</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
         <v>4</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
         <v>1.875</v>
@@ -5037,34 +5037,34 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6898062</v>
+        <v>6907486</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,73 +5084,73 @@
         <v>45171.375</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>48</v>
       </c>
       <c r="K52">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L52">
+        <v>3.75</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>1.533</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
         <v>5</v>
       </c>
-      <c r="M52">
-        <v>7.5</v>
-      </c>
-      <c r="N52">
-        <v>1.285</v>
-      </c>
-      <c r="O52">
-        <v>5</v>
-      </c>
-      <c r="P52">
-        <v>7.5</v>
-      </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5173,7 +5173,7 @@
         <v>45172.375</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5265,7 +5265,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>1.571</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>1.909</v>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6907489</v>
+        <v>6907488</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45178.375</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
         <v>3.75</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O57">
         <v>4.2</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
         <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC57">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6907487</v>
+        <v>6907489</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45178.375</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>48</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L58">
         <v>3.75</v>
       </c>
       <c r="M58">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6898756</v>
+        <v>6907487</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,59 +5707,59 @@
         <v>45178.375</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59">
         <v>3</v>
       </c>
-      <c r="J59" t="s">
-        <v>48</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
+        <v>2.1</v>
+      </c>
+      <c r="W59">
         <v>1.875</v>
       </c>
-      <c r="W59">
-        <v>1.2</v>
-      </c>
       <c r="X59">
         <v>-1</v>
       </c>
@@ -5767,13 +5767,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6899066</v>
+        <v>6898756</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,73 +5796,73 @@
         <v>45178.375</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>3.6</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6907488</v>
+        <v>6899066</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,73 +5885,73 @@
         <v>45178.375</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N61">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
+        <v>3.25</v>
+      </c>
+      <c r="U61">
+        <v>1.75</v>
+      </c>
+      <c r="V61">
+        <v>1.95</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
         <v>3</v>
       </c>
-      <c r="U61">
-        <v>1.9</v>
-      </c>
-      <c r="V61">
-        <v>1.9</v>
-      </c>
-      <c r="W61">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5974,7 +5974,7 @@
         <v>45178.375</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>3.3</v>
@@ -6063,7 +6063,7 @@
         <v>45178.375</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2.2</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.909</v>
@@ -6333,7 +6333,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>1.6</v>
@@ -6419,7 +6419,7 @@
         <v>45185.375</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>36</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6600,7 +6600,7 @@
         <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>2.25</v>
@@ -6867,7 +6867,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>2.875</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>1.4</v>
@@ -7223,7 +7223,7 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>4</v>
@@ -7232,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
         <v>2.15</v>
@@ -7312,7 +7312,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7321,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>1.75</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6898456</v>
+        <v>6898065</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,52 +7401,52 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N78">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P78">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7455,19 +7455,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6898065</v>
+        <v>6898456</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,52 +7490,52 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="Q79">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7544,19 +7544,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.75</v>
@@ -7766,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83">
         <v>2.8</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.727</v>
@@ -8021,10 +8021,10 @@
         <v>45199.375</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>7</v>
@@ -8033,7 +8033,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>1.45</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8288,7 +8288,7 @@
         <v>45199.375</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>36</v>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2.375</v>
@@ -8380,7 +8380,7 @@
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>1.833</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6907453</v>
+        <v>6907493</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,10 +8644,10 @@
         <v>45202.375</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8656,46 +8656,46 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M92">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N92">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,7 +8704,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8713,7 +8713,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6907078</v>
+        <v>6907453</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,10 +8733,10 @@
         <v>45202.375</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8745,46 +8745,46 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L93">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O93">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.6000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8793,7 +8793,7 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6898496</v>
+        <v>6907078</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45202.375</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L94">
+        <v>4.2</v>
+      </c>
+      <c r="M94">
+        <v>3.75</v>
+      </c>
+      <c r="N94">
+        <v>1.6</v>
+      </c>
+      <c r="O94">
+        <v>4.333</v>
+      </c>
+      <c r="P94">
         <v>3.8</v>
       </c>
-      <c r="M94">
-        <v>2.4</v>
-      </c>
-      <c r="N94">
-        <v>3.2</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>1.75</v>
-      </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6898458</v>
+        <v>6898496</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,56 +8911,56 @@
         <v>45202.375</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
+        <v>2.3</v>
+      </c>
+      <c r="L95">
+        <v>3.8</v>
+      </c>
+      <c r="M95">
         <v>2.4</v>
       </c>
-      <c r="L95">
-        <v>4.333</v>
-      </c>
-      <c r="M95">
-        <v>2.15</v>
-      </c>
       <c r="N95">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
         <v>4.2</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
+        <v>1.825</v>
+      </c>
+      <c r="T95">
+        <v>3.25</v>
+      </c>
+      <c r="U95">
         <v>1.875</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.975</v>
       </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
@@ -8968,19 +8968,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.7</v>
+        <v>0.75</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6907493</v>
+        <v>6898458</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
+        <v>4.333</v>
+      </c>
+      <c r="M96">
+        <v>2.15</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96">
         <v>4.2</v>
       </c>
-      <c r="M96">
-        <v>3.1</v>
-      </c>
-      <c r="N96">
-        <v>1.727</v>
-      </c>
-      <c r="O96">
-        <v>4</v>
-      </c>
       <c r="P96">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.3</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6907494</v>
+        <v>6898067</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N98">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
+        <v>1.925</v>
+      </c>
+      <c r="S98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>1.925</v>
-      </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.875</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>1.833</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6898067</v>
+        <v>6907494</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>4</v>
-      </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P100">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q100">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
         <v>1.925</v>
       </c>
-      <c r="S100">
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
         <v>1.875</v>
       </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6898068</v>
+        <v>6907495</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,67 +9534,67 @@
         <v>45206.375</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N102">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q102">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
         <v>1.85</v>
       </c>
-      <c r="S102">
-        <v>1.95</v>
-      </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9603,7 +9603,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6907495</v>
+        <v>6898068</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,67 +9623,67 @@
         <v>45206.375</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>49</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N103">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P103">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
         <v>1.95</v>
       </c>
-      <c r="S103">
+      <c r="T103">
+        <v>3.5</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.975</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9692,7 +9692,7 @@
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6898497</v>
+        <v>6898460</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45206.375</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L104">
+        <v>3.75</v>
+      </c>
+      <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
+        <v>3.75</v>
+      </c>
+      <c r="O104">
         <v>4</v>
       </c>
-      <c r="M104">
-        <v>3.25</v>
-      </c>
-      <c r="N104">
-        <v>2.05</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6898460</v>
+        <v>6898497</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45206.375</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>3.25</v>
+      </c>
+      <c r="N105">
+        <v>2.05</v>
+      </c>
+      <c r="O105">
         <v>3.75</v>
       </c>
-      <c r="M105">
-        <v>2.5</v>
-      </c>
-      <c r="N105">
-        <v>3.75</v>
-      </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
       <c r="P105">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9979,7 +9979,7 @@
         <v>45207.375</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
         <v>42</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.727</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>2.4</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>1.615</v>
@@ -10246,7 +10246,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>9</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6898462</v>
+        <v>6907497</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,13 +10335,13 @@
         <v>45213.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -10350,40 +10350,40 @@
         <v>47</v>
       </c>
       <c r="K111">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
         <v>3.75</v>
       </c>
-      <c r="M111">
-        <v>2.25</v>
-      </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
         <v>1.925</v>
       </c>
-      <c r="S111">
-        <v>1.925</v>
-      </c>
-      <c r="T111">
-        <v>3.25</v>
-      </c>
-      <c r="U111">
-        <v>2.05</v>
-      </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10392,19 +10392,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6907497</v>
+        <v>6899060</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45213.375</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M112">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N112">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6899060</v>
+        <v>6898759</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45213.375</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q113">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R113">
+        <v>1.725</v>
+      </c>
+      <c r="S113">
         <v>1.975</v>
       </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6907498</v>
+        <v>6898463</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45213.375</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>48</v>
+      </c>
+      <c r="K114">
+        <v>1.5</v>
+      </c>
+      <c r="L114">
+        <v>4.2</v>
+      </c>
+      <c r="M114">
+        <v>4.75</v>
+      </c>
+      <c r="N114">
+        <v>1.533</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>4.75</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.75</v>
+      </c>
+      <c r="V114">
+        <v>1.95</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
         <v>3</v>
       </c>
-      <c r="J114" t="s">
-        <v>47</v>
-      </c>
-      <c r="K114">
-        <v>2.4</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>2.25</v>
-      </c>
-      <c r="N114">
-        <v>3.3</v>
-      </c>
-      <c r="O114">
-        <v>4.5</v>
-      </c>
-      <c r="P114">
-        <v>1.727</v>
-      </c>
-      <c r="Q114">
-        <v>0.75</v>
-      </c>
-      <c r="R114">
-        <v>1.825</v>
-      </c>
-      <c r="S114">
-        <v>1.975</v>
-      </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
       <c r="Y114">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6898759</v>
+        <v>6898462</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,10 +10691,10 @@
         <v>45213.375</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10706,41 +10706,41 @@
         <v>47</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O115">
         <v>3.75</v>
       </c>
       <c r="P115">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
+        <v>2.05</v>
+      </c>
+      <c r="V115">
         <v>1.8</v>
       </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
@@ -10748,19 +10748,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
+        <v>-0.5</v>
+      </c>
+      <c r="AC115">
         <v>0.4</v>
-      </c>
-      <c r="AC115">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6898463</v>
+        <v>6907498</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45213.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N116">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.222</v>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>2.25</v>
@@ -11314,7 +11314,7 @@
         <v>45220.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>42</v>
@@ -11415,7 +11415,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>1.444</v>
@@ -11492,7 +11492,7 @@
         <v>45220.375</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11584,7 +11584,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>1.533</v>
@@ -11673,7 +11673,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>1.833</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>1.5</v>
@@ -11848,7 +11848,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11940,7 +11940,7 @@
         <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
         <v>1.444</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6898498</v>
+        <v>6898761</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,73 +12026,73 @@
         <v>45227.375</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N130">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
+        <v>1.925</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2</v>
-      </c>
-      <c r="T130">
-        <v>3</v>
-      </c>
-      <c r="U130">
-        <v>1.975</v>
-      </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6898761</v>
+        <v>6898498</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,73 +12115,73 @@
         <v>45227.375</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>1.222</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6907500</v>
+        <v>6907080</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45227.375</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
         <v>1.8</v>
       </c>
-      <c r="T133">
-        <v>3</v>
-      </c>
-      <c r="U133">
-        <v>1.975</v>
-      </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6907080</v>
+        <v>6907500</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
         <v>31</v>
       </c>
       <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>48</v>
+      </c>
+      <c r="K134">
+        <v>2.75</v>
+      </c>
+      <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>2.15</v>
+      </c>
+      <c r="N134">
+        <v>2.5</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
+        <v>2.375</v>
+      </c>
+      <c r="Q134">
         <v>0</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>47</v>
-      </c>
-      <c r="K134">
-        <v>1.833</v>
-      </c>
-      <c r="L134">
-        <v>4</v>
-      </c>
-      <c r="M134">
-        <v>3.1</v>
-      </c>
-      <c r="N134">
-        <v>1.727</v>
-      </c>
-      <c r="O134">
-        <v>4.333</v>
-      </c>
-      <c r="P134">
-        <v>3.3</v>
-      </c>
-      <c r="Q134">
-        <v>-0.75</v>
-      </c>
       <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>1.8</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
         <v>1.975</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="T134">
-        <v>3.25</v>
-      </c>
-      <c r="U134">
-        <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>1.533</v>
@@ -12572,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
         <v>1.615</v>
@@ -12738,7 +12738,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>1.571</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2.7</v>
@@ -13094,7 +13094,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>46</v>
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>2.55</v>
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>2.1</v>
@@ -13272,10 +13272,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F144" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" t="s">
         <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>3.75</v>
@@ -13373,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.25</v>
@@ -13462,7 +13462,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>3.5</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6898469</v>
+        <v>6898073</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,58 +13539,58 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F147" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
         <v>35</v>
       </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N147">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>0.6499999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,16 +13599,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6899056</v>
+        <v>6898469</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
+        <v>3.75</v>
+      </c>
+      <c r="M148">
+        <v>2.55</v>
+      </c>
+      <c r="N148">
+        <v>1.65</v>
+      </c>
+      <c r="O148">
         <v>4</v>
       </c>
-      <c r="M148">
-        <v>4.5</v>
-      </c>
-      <c r="N148">
+      <c r="P148">
+        <v>3.8</v>
+      </c>
+      <c r="Q148">
+        <v>-0.75</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
         <v>1.95</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
-      <c r="P148">
-        <v>3.25</v>
-      </c>
-      <c r="Q148">
-        <v>-0.5</v>
-      </c>
-      <c r="R148">
-        <v>1.975</v>
-      </c>
-      <c r="S148">
-        <v>1.825</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6907081</v>
+        <v>6899056</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,13 +13717,13 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -13732,40 +13732,40 @@
         <v>47</v>
       </c>
       <c r="K149">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
         <v>4</v>
       </c>
       <c r="M149">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q149">
         <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13774,19 +13774,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6907503</v>
+        <v>6907081</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,70 +13806,70 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L150">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
         <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
       </c>
       <c r="T150">
         <v>3</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
         <v>0.95</v>
-      </c>
-      <c r="AA150">
-        <v>-1</v>
       </c>
       <c r="AB150">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6898073</v>
+        <v>6907503</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,10 +13895,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13907,46 +13907,46 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L151">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N151">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O151">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P151">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q151">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
         <v>3</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13955,10 +13955,10 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA151">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6898523</v>
+        <v>6898500</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,49 +13984,49 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
         <v>4</v>
       </c>
       <c r="M152">
+        <v>2.6</v>
+      </c>
+      <c r="N152">
+        <v>2.05</v>
+      </c>
+      <c r="O152">
         <v>3.4</v>
       </c>
-      <c r="N152">
-        <v>1.65</v>
-      </c>
-      <c r="O152">
-        <v>4.333</v>
-      </c>
       <c r="P152">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
         <v>1.75</v>
@@ -14038,22 +14038,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>3.333</v>
+        <v>2.4</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6898500</v>
+        <v>6898523</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,49 +14073,49 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L153">
         <v>4</v>
       </c>
       <c r="M153">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N153">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
         <v>1.75</v>
@@ -14127,22 +14127,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB153">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14254,7 +14254,7 @@
         <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>1.833</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>1.909</v>
@@ -14432,7 +14432,7 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>1.25</v>
@@ -14521,7 +14521,7 @@
         <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14530,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>1.95</v>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>1.5</v>
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2.875</v>
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>1.615</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6898472</v>
+        <v>6907461</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N163">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
         <v>3</v>
       </c>
       <c r="U163">
+        <v>1.85</v>
+      </c>
+      <c r="V163">
         <v>1.95</v>
       </c>
-      <c r="V163">
-        <v>1.75</v>
-      </c>
       <c r="W163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6907461</v>
+        <v>6899054</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
+        <v>1.95</v>
+      </c>
+      <c r="V164">
         <v>1.85</v>
       </c>
-      <c r="V164">
-        <v>1.95</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC164">
-        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6899054</v>
+        <v>6898763</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K165">
+        <v>2.05</v>
+      </c>
+      <c r="L165">
+        <v>3.6</v>
+      </c>
+      <c r="M165">
+        <v>2.875</v>
+      </c>
+      <c r="N165">
+        <v>2.2</v>
+      </c>
+      <c r="O165">
+        <v>3.5</v>
+      </c>
+      <c r="P165">
+        <v>2.7</v>
+      </c>
+      <c r="Q165">
+        <v>-0.25</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
         <v>1.8</v>
       </c>
-      <c r="L165">
-        <v>3.75</v>
-      </c>
-      <c r="M165">
-        <v>3.4</v>
-      </c>
-      <c r="N165">
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
         <v>1.75</v>
       </c>
-      <c r="O165">
-        <v>3.8</v>
-      </c>
-      <c r="P165">
-        <v>3.5</v>
-      </c>
-      <c r="Q165">
-        <v>-0.5</v>
-      </c>
-      <c r="R165">
-        <v>1.8</v>
-      </c>
-      <c r="S165">
-        <v>2</v>
-      </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
+      <c r="V165">
         <v>1.95</v>
       </c>
-      <c r="V165">
-        <v>1.85</v>
-      </c>
       <c r="W165">
+        <v>1.2</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>1</v>
+      </c>
+      <c r="AA165">
+        <v>-1</v>
+      </c>
+      <c r="AB165">
         <v>0.75</v>
       </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.8</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6898763</v>
+        <v>6898525</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,58 +15230,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15290,13 +15290,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6898525</v>
+        <v>6898473</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,58 +15319,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L167">
         <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q167">
         <v>0.5</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,13 +15379,13 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6898473</v>
+        <v>6898472</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,58 +15408,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L168">
         <v>3.75</v>
       </c>
       <c r="M168">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N168">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q168">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W168">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15468,16 +15468,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6898075</v>
+        <v>6907508</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,13 +15497,13 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15512,61 +15512,61 @@
         <v>49</v>
       </c>
       <c r="K169">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="L169">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M169">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="N169">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="O169">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P169">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="Q169">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R169">
+        <v>1.75</v>
+      </c>
+      <c r="S169">
         <v>1.95</v>
       </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X169">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6907508</v>
+        <v>6898075</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,13 +15586,13 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -15601,61 +15601,61 @@
         <v>48</v>
       </c>
       <c r="K170">
+        <v>6</v>
+      </c>
+      <c r="L170">
+        <v>4.75</v>
+      </c>
+      <c r="M170">
+        <v>1.363</v>
+      </c>
+      <c r="N170">
+        <v>7</v>
+      </c>
+      <c r="O170">
+        <v>4.333</v>
+      </c>
+      <c r="P170">
+        <v>1.363</v>
+      </c>
+      <c r="Q170">
         <v>1.25</v>
       </c>
-      <c r="L170">
-        <v>5</v>
-      </c>
-      <c r="M170">
-        <v>8.5</v>
-      </c>
-      <c r="N170">
-        <v>1.222</v>
-      </c>
-      <c r="O170">
-        <v>5.5</v>
-      </c>
-      <c r="P170">
-        <v>9.5</v>
-      </c>
-      <c r="Q170">
-        <v>-1.75</v>
-      </c>
       <c r="R170">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K171">
         <v>1.444</v>
@@ -15767,7 +15767,7 @@
         <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>1.8</v>
@@ -15945,7 +15945,7 @@
         <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16034,7 +16034,7 @@
         <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16043,7 +16043,7 @@
         <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
         <v>2.55</v>
@@ -16132,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>3.5</v>
@@ -16221,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2.2</v>
@@ -16310,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
         <v>2.2</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,76 +16387,76 @@
         <v>45268.625</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>1.75</v>
+      </c>
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.75</v>
+      </c>
+      <c r="U179">
         <v>1.825</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="T179">
-        <v>3.5</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y179">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
+        <v>0.475</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45268.625</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N180">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
+        <v>4.2</v>
+      </c>
+      <c r="P180">
+        <v>4.75</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
         <v>3.5</v>
       </c>
-      <c r="P180">
-        <v>3</v>
-      </c>
-      <c r="Q180">
-        <v>-0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.75</v>
-      </c>
-      <c r="S180">
-        <v>1.95</v>
-      </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>1.285</v>
@@ -16743,7 +16743,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -16755,7 +16755,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>2.1</v>
@@ -16832,7 +16832,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>3.75</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7556542</v>
+        <v>7557018</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N187">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
         <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7557018</v>
+        <v>7556542</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>49</v>
       </c>
       <c r="K188">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M188">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N188">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P188">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
         <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X188">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB188">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>2.1</v>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.5</v>
@@ -17645,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K193">
         <v>2.1</v>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17814,7 +17814,7 @@
         <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17823,7 +17823,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>2.1</v>
@@ -17903,7 +17903,7 @@
         <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>1.166</v>
@@ -17992,7 +17992,7 @@
         <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
         <v>2.4</v>
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K198">
         <v>2.1</v>
@@ -18167,7 +18167,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
         <v>34</v>
@@ -18179,7 +18179,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>1.4</v>
@@ -18256,7 +18256,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
         <v>44</v>
@@ -18345,7 +18345,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
         <v>37</v>
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>1.85</v>
@@ -18434,7 +18434,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>2.75</v>
@@ -18615,7 +18615,7 @@
         <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18891,7 +18891,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K207">
         <v>1.3</v>
@@ -19060,7 +19060,7 @@
         <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19069,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>1.833</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>4.333</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6907517</v>
+        <v>6898079</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,10 +19413,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19425,34 +19425,34 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
         <v>3.75</v>
       </c>
       <c r="M213">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
+        <v>2.05</v>
+      </c>
+      <c r="S213">
         <v>1.8</v>
-      </c>
-      <c r="S213">
-        <v>2</v>
       </c>
       <c r="T213">
         <v>2.75</v>
@@ -19461,10 +19461,10 @@
         <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19473,7 +19473,7 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA213">
         <v>-1</v>
@@ -19482,7 +19482,7 @@
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6898079</v>
+        <v>6907517</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19514,34 +19514,34 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
         <v>3.75</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T214">
         <v>2.75</v>
@@ -19550,10 +19550,10 @@
         <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19562,7 +19562,7 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
         <v>-1</v>
@@ -19571,7 +19571,7 @@
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K215">
         <v>1.444</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>2.15</v>
@@ -19861,7 +19861,7 @@
         <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20125,7 +20125,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
         <v>45</v>
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
         <v>1.363</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>1.8</v>
@@ -20303,7 +20303,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
         <v>33</v>
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>1.666</v>
@@ -20392,7 +20392,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
         <v>43</v>
@@ -20493,7 +20493,7 @@
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>1.95</v>
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6898081</v>
+        <v>6898507</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,58 +20659,58 @@
         <v>45379.625</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>49</v>
+      </c>
+      <c r="K227">
+        <v>3.75</v>
+      </c>
+      <c r="L227">
+        <v>3.75</v>
+      </c>
+      <c r="M227">
+        <v>1.727</v>
+      </c>
+      <c r="N227">
+        <v>4.75</v>
+      </c>
+      <c r="O227">
+        <v>3.8</v>
+      </c>
+      <c r="P227">
+        <v>1.571</v>
+      </c>
+      <c r="Q227">
         <v>1</v>
       </c>
-      <c r="J227" t="s">
-        <v>48</v>
-      </c>
-      <c r="K227">
-        <v>1.571</v>
-      </c>
-      <c r="L227">
-        <v>4</v>
-      </c>
-      <c r="M227">
-        <v>4.5</v>
-      </c>
-      <c r="N227">
-        <v>1.55</v>
-      </c>
-      <c r="O227">
-        <v>3.6</v>
-      </c>
-      <c r="P227">
-        <v>5.25</v>
-      </c>
-      <c r="Q227">
-        <v>-1</v>
-      </c>
       <c r="R227">
+        <v>1.8</v>
+      </c>
+      <c r="S227">
+        <v>2</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
         <v>1.95</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.85</v>
       </c>
-      <c r="T227">
-        <v>2.5</v>
-      </c>
-      <c r="U227">
-        <v>1.75</v>
-      </c>
-      <c r="V227">
-        <v>1.95</v>
-      </c>
       <c r="W227">
-        <v>0.55</v>
+        <v>3.75</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20719,16 +20719,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6898507</v>
+        <v>6898081</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,58 +20748,58 @@
         <v>45379.625</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K228">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M228">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N228">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="O228">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="Q228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
+        <v>1.75</v>
+      </c>
+      <c r="V228">
         <v>1.95</v>
       </c>
-      <c r="V228">
-        <v>1.85</v>
-      </c>
       <c r="W228">
-        <v>3.75</v>
+        <v>0.55</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20808,16 +20808,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20849,7 +20849,7 @@
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>1.8</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>1.6</v>
@@ -21104,7 +21104,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
         <v>34</v>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>1.8</v>
@@ -21193,7 +21193,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G233" t="s">
         <v>29</v>
@@ -21294,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K234">
         <v>2.2</v>
@@ -21371,7 +21371,7 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
         <v>37</v>
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K235">
         <v>2.15</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K237">
         <v>2.25</v>
@@ -21739,7 +21739,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K239">
         <v>1.6</v>
@@ -21816,10 +21816,10 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K241">
         <v>1.65</v>
@@ -21997,7 +21997,7 @@
         <v>36</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6898487</v>
+        <v>6899045</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22169,49 +22169,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45388.375</v>
+        <v>45389.29166666666</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K244">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L244">
         <v>3.6</v>
       </c>
       <c r="M244">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N244">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="O244">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q244">
         <v>-1</v>
       </c>
       <c r="R244">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S244">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U244">
+        <v>2</v>
+      </c>
+      <c r="V244">
         <v>1.85</v>
-      </c>
-      <c r="V244">
-        <v>2</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22234,7 +22234,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6907471</v>
+        <v>6907523</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22243,49 +22243,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45388.375</v>
+        <v>45389.375</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K245">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M245">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="N245">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P245">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R245">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S245">
+        <v>1.875</v>
+      </c>
+      <c r="T245">
+        <v>3</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
         <v>1.85</v>
-      </c>
-      <c r="T245">
-        <v>2.75</v>
-      </c>
-      <c r="U245">
-        <v>1.925</v>
-      </c>
-      <c r="V245">
-        <v>1.925</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22308,7 +22308,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6907472</v>
+        <v>6907521</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22317,49 +22317,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45388.375</v>
+        <v>45389.375</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K246">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M246">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N246">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O246">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P246">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q246">
         <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22382,7 +22382,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6907522</v>
+        <v>6898083</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22391,49 +22391,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45388.375</v>
+        <v>45389.375</v>
       </c>
       <c r="F247" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L247">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M247">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N247">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P247">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R247">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2.75</v>
       </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22448,228 +22448,6 @@
         <v>0</v>
       </c>
       <c r="AA247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>6907088</v>
-      </c>
-      <c r="C248" t="s">
-        <v>28</v>
-      </c>
-      <c r="D248" t="s">
-        <v>28</v>
-      </c>
-      <c r="E248" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F248" t="s">
-        <v>43</v>
-      </c>
-      <c r="G248" t="s">
-        <v>40</v>
-      </c>
-      <c r="K248">
-        <v>2.4</v>
-      </c>
-      <c r="L248">
-        <v>3.25</v>
-      </c>
-      <c r="M248">
-        <v>2.6</v>
-      </c>
-      <c r="N248">
-        <v>2.375</v>
-      </c>
-      <c r="O248">
-        <v>3.3</v>
-      </c>
-      <c r="P248">
-        <v>2.6</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>1.8</v>
-      </c>
-      <c r="S248">
-        <v>2.05</v>
-      </c>
-      <c r="T248">
-        <v>2.75</v>
-      </c>
-      <c r="U248">
-        <v>1.925</v>
-      </c>
-      <c r="V248">
-        <v>1.925</v>
-      </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>6899045</v>
-      </c>
-      <c r="C249" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45389.29166666666</v>
-      </c>
-      <c r="F249" t="s">
-        <v>41</v>
-      </c>
-      <c r="G249" t="s">
-        <v>46</v>
-      </c>
-      <c r="K249">
-        <v>2</v>
-      </c>
-      <c r="L249">
-        <v>3.6</v>
-      </c>
-      <c r="M249">
-        <v>3</v>
-      </c>
-      <c r="N249">
-        <v>1.55</v>
-      </c>
-      <c r="O249">
-        <v>3.75</v>
-      </c>
-      <c r="P249">
-        <v>4.75</v>
-      </c>
-      <c r="Q249">
-        <v>-1</v>
-      </c>
-      <c r="R249">
-        <v>2.05</v>
-      </c>
-      <c r="S249">
-        <v>1.8</v>
-      </c>
-      <c r="T249">
-        <v>3</v>
-      </c>
-      <c r="U249">
-        <v>2.025</v>
-      </c>
-      <c r="V249">
-        <v>1.825</v>
-      </c>
-      <c r="W249">
-        <v>0</v>
-      </c>
-      <c r="X249">
-        <v>0</v>
-      </c>
-      <c r="Y249">
-        <v>0</v>
-      </c>
-      <c r="Z249">
-        <v>0</v>
-      </c>
-      <c r="AA249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>6898083</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45389.375</v>
-      </c>
-      <c r="F250" t="s">
-        <v>33</v>
-      </c>
-      <c r="G250" t="s">
-        <v>32</v>
-      </c>
-      <c r="K250">
-        <v>1.5</v>
-      </c>
-      <c r="L250">
-        <v>4</v>
-      </c>
-      <c r="M250">
-        <v>5</v>
-      </c>
-      <c r="N250">
-        <v>1.533</v>
-      </c>
-      <c r="O250">
-        <v>4</v>
-      </c>
-      <c r="P250">
-        <v>4.75</v>
-      </c>
-      <c r="Q250">
-        <v>-1</v>
-      </c>
-      <c r="R250">
-        <v>1.975</v>
-      </c>
-      <c r="S250">
-        <v>1.875</v>
-      </c>
-      <c r="T250">
-        <v>2.75</v>
-      </c>
-      <c r="U250">
-        <v>1.9</v>
-      </c>
-      <c r="V250">
-        <v>1.95</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6898755</v>
+        <v>6898451</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45172.375</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P54">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6898451</v>
+        <v>6898755</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45172.375</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M55">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6907491</v>
+        <v>6907076</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,73 +7042,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="L74">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P74">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R74">
+        <v>1.825</v>
+      </c>
+      <c r="S74">
         <v>1.975</v>
-      </c>
-      <c r="S74">
-        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6907076</v>
+        <v>6898494</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,73 +7220,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N76">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
         <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6898494</v>
+        <v>6907491</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,73 +7309,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L77">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M77">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
         <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
         <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6898518</v>
+        <v>6907452</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45199.375</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
         <v>3.5</v>
       </c>
       <c r="M85">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N85">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6907077</v>
+        <v>6898518</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,73 +8110,73 @@
         <v>45199.375</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>1.65</v>
+        <v>5</v>
       </c>
       <c r="Q86">
+        <v>-1</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.75</v>
+      </c>
+      <c r="V86">
+        <v>1.95</v>
+      </c>
+      <c r="W86">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>0.925</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
         <v>0.75</v>
-      </c>
-      <c r="R86">
-        <v>1.975</v>
-      </c>
-      <c r="S86">
-        <v>1.825</v>
-      </c>
-      <c r="T86">
-        <v>3.25</v>
-      </c>
-      <c r="U86">
-        <v>1.975</v>
-      </c>
-      <c r="V86">
-        <v>1.825</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z86">
-        <v>-1</v>
-      </c>
-      <c r="AA86">
-        <v>0.825</v>
-      </c>
-      <c r="AB86">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6898495</v>
+        <v>6907077</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45199.375</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="N87">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6907452</v>
+        <v>6898495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,34 +8288,34 @@
         <v>45199.375</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
         <v>2.1</v>
@@ -8327,37 +8327,37 @@
         <v>1.9</v>
       </c>
       <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
         <v>1.9</v>
       </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.8</v>
-      </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6898496</v>
+        <v>6898458</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,55 +8911,55 @@
         <v>45202.375</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O95">
         <v>4.2</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,19 +8968,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6898458</v>
+        <v>6898496</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,56 +9000,56 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
         <v>47</v>
       </c>
       <c r="K96">
+        <v>2.3</v>
+      </c>
+      <c r="L96">
+        <v>3.8</v>
+      </c>
+      <c r="M96">
         <v>2.4</v>
       </c>
-      <c r="L96">
-        <v>4.333</v>
-      </c>
-      <c r="M96">
-        <v>2.15</v>
-      </c>
       <c r="N96">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
         <v>4.2</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
+        <v>1.825</v>
+      </c>
+      <c r="T96">
+        <v>3.25</v>
+      </c>
+      <c r="U96">
         <v>1.875</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
@@ -9057,19 +9057,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.7</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6907494</v>
+        <v>6899062</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>48</v>
       </c>
       <c r="K98">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N98">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W98">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,7 +9238,7 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6899062</v>
+        <v>6907494</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>48</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P99">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,7 +9327,7 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
         <v>-1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6907498</v>
+        <v>6907497</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,55 +10335,55 @@
         <v>45213.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>47</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L111">
         <v>4</v>
       </c>
       <c r="M111">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
+        <v>1.8</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
         <v>3.3</v>
       </c>
-      <c r="O111">
-        <v>4.5</v>
-      </c>
-      <c r="P111">
-        <v>1.727</v>
-      </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10392,19 +10392,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.7270000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6907497</v>
+        <v>6907498</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,55 +10424,55 @@
         <v>45213.375</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L112">
         <v>4</v>
       </c>
       <c r="M112">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N112">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,19 +10481,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6899054</v>
+        <v>6907461</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N163">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
         <v>3</v>
       </c>
       <c r="U163">
+        <v>1.85</v>
+      </c>
+      <c r="V163">
         <v>1.95</v>
       </c>
-      <c r="V163">
-        <v>1.85</v>
-      </c>
       <c r="W163">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6898763</v>
+        <v>6899054</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O164">
+        <v>3.8</v>
+      </c>
+      <c r="P164">
         <v>3.5</v>
       </c>
-      <c r="P164">
-        <v>2.7</v>
-      </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,16 +15112,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6898472</v>
+        <v>6898763</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,58 +15141,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>1</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N165">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
         <v>1.8</v>
       </c>
-      <c r="S165">
-        <v>2</v>
-      </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
+        <v>1.75</v>
+      </c>
+      <c r="V165">
         <v>1.95</v>
       </c>
-      <c r="V165">
-        <v>1.75</v>
-      </c>
       <c r="W165">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15201,16 +15201,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC165">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6898473</v>
+        <v>6898472</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,58 +15230,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L166">
         <v>3.75</v>
       </c>
       <c r="M166">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W166">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15290,16 +15290,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6898525</v>
+        <v>6898473</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,58 +15319,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>48</v>
       </c>
       <c r="K167">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L167">
         <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q167">
         <v>0.5</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15379,13 +15379,13 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6907461</v>
+        <v>6898525</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,73 +15408,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N168">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA168">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,76 +16387,76 @@
         <v>45268.625</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>1.75</v>
+      </c>
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.75</v>
+      </c>
+      <c r="U179">
         <v>1.825</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="T179">
-        <v>3.5</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y179">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
+        <v>0.475</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45268.625</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N180">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
+        <v>4.2</v>
+      </c>
+      <c r="P180">
+        <v>4.75</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
         <v>3.5</v>
       </c>
-      <c r="P180">
-        <v>3</v>
-      </c>
-      <c r="Q180">
-        <v>-0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.75</v>
-      </c>
-      <c r="S180">
-        <v>1.95</v>
-      </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6907510</v>
+        <v>6899052</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,67 +16565,67 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K181">
+        <v>3.75</v>
+      </c>
+      <c r="L181">
+        <v>4</v>
+      </c>
+      <c r="M181">
+        <v>1.666</v>
+      </c>
+      <c r="N181">
+        <v>3.75</v>
+      </c>
+      <c r="O181">
+        <v>4</v>
+      </c>
+      <c r="P181">
+        <v>1.7</v>
+      </c>
+      <c r="Q181">
+        <v>0.75</v>
+      </c>
+      <c r="R181">
+        <v>1.875</v>
+      </c>
+      <c r="S181">
+        <v>1.975</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.85</v>
+      </c>
+      <c r="V181">
+        <v>2</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
         <v>3</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181" t="s">
-        <v>48</v>
-      </c>
-      <c r="K181">
-        <v>1.285</v>
-      </c>
-      <c r="L181">
-        <v>5</v>
-      </c>
-      <c r="M181">
-        <v>7.5</v>
-      </c>
-      <c r="N181">
-        <v>1.363</v>
-      </c>
-      <c r="O181">
-        <v>5.25</v>
-      </c>
-      <c r="P181">
-        <v>5.5</v>
-      </c>
-      <c r="Q181">
-        <v>-1.25</v>
-      </c>
-      <c r="R181">
-        <v>1.75</v>
-      </c>
-      <c r="S181">
-        <v>1.95</v>
-      </c>
-      <c r="T181">
-        <v>3.5</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
-      <c r="W181">
-        <v>0.363</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA181">
         <v>-1</v>
@@ -16634,7 +16634,7 @@
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6898526</v>
+        <v>6907510</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H182">
+        <v>3</v>
+      </c>
+      <c r="I182">
         <v>0</v>
       </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M182">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="N182">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P182">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U182">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6899052</v>
+        <v>6898526</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K183">
+        <v>2.2</v>
+      </c>
+      <c r="L183">
         <v>3.75</v>
       </c>
-      <c r="L183">
-        <v>4</v>
-      </c>
       <c r="M183">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="N183">
+        <v>2.7</v>
+      </c>
+      <c r="O183">
         <v>3.75</v>
       </c>
-      <c r="O183">
-        <v>4</v>
-      </c>
       <c r="P183">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7556542</v>
+        <v>7557018</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N187">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
         <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7557018</v>
+        <v>7556542</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M188">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N188">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P188">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
         <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X188">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB188">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6898768</v>
+        <v>6907518</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N220">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O220">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC220">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6898483</v>
+        <v>6898768</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L221">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N221">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O221">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q221">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X221">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6907466</v>
+        <v>6898483</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>49</v>
+      </c>
+      <c r="K223">
+        <v>1.363</v>
+      </c>
+      <c r="L223">
+        <v>4.75</v>
+      </c>
+      <c r="M223">
+        <v>6</v>
+      </c>
+      <c r="N223">
+        <v>1.444</v>
+      </c>
+      <c r="O223">
+        <v>4.75</v>
+      </c>
+      <c r="P223">
+        <v>5.25</v>
+      </c>
+      <c r="Q223">
+        <v>-1.25</v>
+      </c>
+      <c r="R223">
+        <v>1.925</v>
+      </c>
+      <c r="S223">
+        <v>1.875</v>
+      </c>
+      <c r="T223">
         <v>3</v>
       </c>
-      <c r="J223" t="s">
-        <v>47</v>
-      </c>
-      <c r="K223">
-        <v>3</v>
-      </c>
-      <c r="L223">
-        <v>3.6</v>
-      </c>
-      <c r="M223">
-        <v>2</v>
-      </c>
-      <c r="N223">
-        <v>2.55</v>
-      </c>
-      <c r="O223">
-        <v>3.2</v>
-      </c>
-      <c r="P223">
-        <v>2.45</v>
-      </c>
-      <c r="Q223">
-        <v>0</v>
-      </c>
-      <c r="R223">
-        <v>1.9</v>
-      </c>
-      <c r="S223">
-        <v>1.9</v>
-      </c>
-      <c r="T223">
-        <v>2.5</v>
-      </c>
       <c r="U223">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V223">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y223">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6898080</v>
+        <v>6907466</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,55 +20392,55 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J224" t="s">
         <v>47</v>
       </c>
       <c r="K224">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="N224">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="Q224">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T224">
         <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W224">
         <v>-1</v>
@@ -20449,19 +20449,19 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6907518</v>
+        <v>6898080</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K225">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N225">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="O225">
         <v>3.5</v>
       </c>
       <c r="P225">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R225">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
         <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z225">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,6 +109,9 @@
     <t>VfB Stuttgart II</t>
   </si>
   <si>
+    <t>Hessen Kassel</t>
+  </si>
+  <si>
     <t>FC Astoria Walldorf</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>TSG Balingen</t>
-  </si>
-  <si>
-    <t>Hessen Kassel</t>
   </si>
   <si>
     <t>FC 08 Homburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC268"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6898512</v>
+        <v>6898442</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,40 +815,40 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>1.85</v>
@@ -857,22 +857,22 @@
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -881,7 +881,7 @@
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6899072</v>
+        <v>6898512</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
         <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6898058</v>
+        <v>6899072</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6">
+        <v>1.909</v>
+      </c>
+      <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>3.1</v>
+      </c>
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="L6">
-        <v>3.6</v>
-      </c>
-      <c r="M6">
+      <c r="P6">
+        <v>2.3</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
         <v>1.8</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>4.333</v>
-      </c>
-      <c r="P6">
-        <v>1.363</v>
-      </c>
-      <c r="Q6">
-        <v>1.25</v>
-      </c>
-      <c r="R6">
-        <v>1.975</v>
-      </c>
-      <c r="S6">
-        <v>1.825</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6907478</v>
+        <v>6898058</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6898442</v>
+        <v>6907478</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2058,7 +2058,7 @@
         <v>45157.375</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -2147,7 +2147,7 @@
         <v>45157.375</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
@@ -2236,7 +2236,7 @@
         <v>45157.375</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2592,7 +2592,7 @@
         <v>45158.375</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2681,7 +2681,7 @@
         <v>45158.375</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6898514</v>
+        <v>6898754</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45164.375</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
         <v>3.4</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
+        <v>2.05</v>
+      </c>
+      <c r="V29">
         <v>1.8</v>
       </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
+        <v>-0.5</v>
+      </c>
+      <c r="AC29">
         <v>0.4</v>
-      </c>
-      <c r="AC29">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6898490</v>
+        <v>6898514</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45164.375</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6898448</v>
+        <v>6898490</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>45164.375</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>1.8</v>
+      </c>
+      <c r="L31">
+        <v>3.6</v>
+      </c>
+      <c r="M31">
+        <v>3.6</v>
+      </c>
+      <c r="N31">
+        <v>2.25</v>
+      </c>
+      <c r="O31">
+        <v>3.6</v>
+      </c>
+      <c r="P31">
+        <v>2.625</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1.725</v>
+      </c>
+      <c r="S31">
+        <v>1.975</v>
+      </c>
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <v>2.1</v>
-      </c>
-      <c r="L31">
-        <v>3.4</v>
-      </c>
-      <c r="M31">
-        <v>2.875</v>
-      </c>
-      <c r="N31">
-        <v>2.1</v>
-      </c>
-      <c r="O31">
-        <v>3.4</v>
-      </c>
-      <c r="P31">
-        <v>2.875</v>
-      </c>
-      <c r="Q31">
-        <v>-0.25</v>
-      </c>
-      <c r="R31">
+      <c r="U31">
         <v>1.925</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.875</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6898754</v>
+        <v>6898448</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45164.375</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
         <v>3.4</v>
       </c>
       <c r="M32">
+        <v>2.875</v>
+      </c>
+      <c r="N32">
+        <v>2.1</v>
+      </c>
+      <c r="O32">
         <v>3.4</v>
       </c>
-      <c r="N32">
-        <v>1.85</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
         <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3574,7 +3574,7 @@
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3752,7 +3752,7 @@
         <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>45167.52083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6907448</v>
+        <v>6907483</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
         <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6907447</v>
+        <v>6907448</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,10 +4016,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4031,46 +4031,46 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N40">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4079,13 +4079,13 @@
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6907483</v>
+        <v>6907447</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>1.975</v>
+      </c>
+      <c r="V41">
+        <v>1.825</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
         <v>2.75</v>
       </c>
-      <c r="U41">
-        <v>1.825</v>
-      </c>
-      <c r="V41">
-        <v>2.025</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
       <c r="Y41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>37</v>
@@ -4461,7 +4461,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>41</v>
@@ -4550,7 +4550,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6907486</v>
+        <v>6907485</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,40 +4639,40 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L47">
         <v>3.75</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R47">
         <v>1.875</v>
@@ -4681,34 +4681,34 @@
         <v>1.925</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6907485</v>
+        <v>6907075</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,46 +4728,46 @@
         <v>45171.375</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
         <v>3.75</v>
       </c>
       <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3.4</v>
+      </c>
+      <c r="O48">
+        <v>3.75</v>
+      </c>
+      <c r="P48">
         <v>1.833</v>
       </c>
-      <c r="N48">
-        <v>3.6</v>
-      </c>
-      <c r="O48">
-        <v>4</v>
-      </c>
-      <c r="P48">
-        <v>1.666</v>
-      </c>
       <c r="Q48">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
         <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.925</v>
       </c>
       <c r="T48">
         <v>2.75</v>
@@ -4779,19 +4779,19 @@
         <v>1.975</v>
       </c>
       <c r="W48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
         <v>0.875</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
       </c>
       <c r="AB48">
         <v>0.4125</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6907075</v>
+        <v>6898492</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,55 +4817,55 @@
         <v>45171.375</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
       </c>
       <c r="K49">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4874,19 +4874,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6898492</v>
+        <v>6898450</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,40 +4906,40 @@
         <v>45171.375</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O50">
         <v>3.6</v>
       </c>
       <c r="P50">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
         <v>1.875</v>
@@ -4951,10 +4951,10 @@
         <v>3.25</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4963,7 +4963,7 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="Z50">
         <v>-1</v>
@@ -4972,10 +4972,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6898450</v>
+        <v>6898062</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,43 +4995,43 @@
         <v>45171.375</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P51">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
         <v>1.975</v>
@@ -5040,28 +5040,28 @@
         <v>3.25</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB51">
-        <v>1.025</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6898062</v>
+        <v>6907486</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,73 +5084,73 @@
         <v>45171.375</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52">
+        <v>1.666</v>
+      </c>
+      <c r="L52">
+        <v>3.75</v>
+      </c>
+      <c r="M52">
         <v>4</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K52">
-        <v>1.285</v>
-      </c>
-      <c r="L52">
+      <c r="N52">
+        <v>1.533</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
         <v>5</v>
       </c>
-      <c r="M52">
-        <v>7.5</v>
-      </c>
-      <c r="N52">
-        <v>1.285</v>
-      </c>
-      <c r="O52">
-        <v>5</v>
-      </c>
-      <c r="P52">
-        <v>7.5</v>
-      </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5176,7 +5176,7 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45178.375</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>43</v>
@@ -5618,7 +5618,7 @@
         <v>45178.375</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5974,7 +5974,7 @@
         <v>45178.375</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>30</v>
@@ -6063,10 +6063,10 @@
         <v>45178.375</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6899065</v>
+        <v>6907490</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,10 +6152,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6167,43 +6167,43 @@
         <v>48</v>
       </c>
       <c r="K64">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
+        <v>3.75</v>
+      </c>
+      <c r="M64">
+        <v>2.55</v>
+      </c>
+      <c r="N64">
+        <v>2.1</v>
+      </c>
+      <c r="O64">
         <v>4</v>
       </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
+      <c r="P64">
         <v>2.55</v>
       </c>
-      <c r="O64">
-        <v>3.6</v>
-      </c>
-      <c r="P64">
-        <v>2.3</v>
-      </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6212,7 +6212,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6221,7 +6221,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6907490</v>
+        <v>6899065</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,10 +6241,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6256,53 +6256,53 @@
         <v>48</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
         <v>2.55</v>
       </c>
-      <c r="N65">
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.3</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <v>2.1</v>
       </c>
-      <c r="O65">
-        <v>4</v>
-      </c>
-      <c r="P65">
-        <v>2.55</v>
-      </c>
-      <c r="Q65">
-        <v>-0.25</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
+        <v>1.55</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
         <v>1.1</v>
       </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA65">
         <v>-1</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6419,10 +6419,10 @@
         <v>45185.375</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6600,7 +6600,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6867,7 +6867,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -7131,10 +7131,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7398,7 +7398,7 @@
         <v>45192.375</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7576,7 +7576,7 @@
         <v>45192.375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
@@ -7843,7 +7843,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -7935,7 +7935,7 @@
         <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>7</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6907452</v>
+        <v>6898495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,34 +8288,34 @@
         <v>45199.375</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
         <v>2.1</v>
@@ -8327,37 +8327,37 @@
         <v>1.9</v>
       </c>
       <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
         <v>1.9</v>
       </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.8</v>
-      </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6907451</v>
+        <v>6907452</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,76 +8377,76 @@
         <v>45199.375</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89">
+        <v>2.4</v>
+      </c>
+      <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
+        <v>2.4</v>
+      </c>
+      <c r="N89">
+        <v>2.8</v>
+      </c>
+      <c r="O89">
+        <v>3.4</v>
+      </c>
+      <c r="P89">
+        <v>2.1</v>
+      </c>
+      <c r="Q89">
+        <v>0.25</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
+        <v>1.8</v>
+      </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1</v>
-      </c>
-      <c r="J89" t="s">
-        <v>48</v>
-      </c>
-      <c r="K89">
-        <v>2.375</v>
-      </c>
-      <c r="L89">
-        <v>3.6</v>
-      </c>
-      <c r="M89">
-        <v>2.375</v>
-      </c>
-      <c r="N89">
-        <v>2.3</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
-      <c r="P89">
-        <v>2.45</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>3</v>
-      </c>
-      <c r="U89">
-        <v>1.875</v>
-      </c>
-      <c r="V89">
-        <v>1.925</v>
-      </c>
-      <c r="W89">
-        <v>1.3</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>0.875</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>0</v>
-      </c>
-      <c r="AC89">
-        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6907077</v>
+        <v>6907451</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,76 +8466,76 @@
         <v>45199.375</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="N90">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6898495</v>
+        <v>6907077</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45199.375</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="N91">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6907493</v>
+        <v>6907453</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,10 +8644,10 @@
         <v>45202.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8659,43 +8659,43 @@
         <v>48</v>
       </c>
       <c r="K92">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L92">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,7 +8704,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8713,7 +8713,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6907453</v>
+        <v>6907078</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,10 +8733,10 @@
         <v>45202.375</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8748,43 +8748,43 @@
         <v>48</v>
       </c>
       <c r="K93">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M93">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N93">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P93">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V93">
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8793,7 +8793,7 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6907078</v>
+        <v>6898496</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45202.375</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L94">
+        <v>3.8</v>
+      </c>
+      <c r="M94">
+        <v>2.4</v>
+      </c>
+      <c r="N94">
+        <v>3.2</v>
+      </c>
+      <c r="O94">
         <v>4.2</v>
       </c>
-      <c r="M94">
-        <v>3.75</v>
-      </c>
-      <c r="N94">
-        <v>1.6</v>
-      </c>
-      <c r="O94">
-        <v>4.333</v>
-      </c>
       <c r="P94">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
         <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6898496</v>
+        <v>6898458</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,55 +8911,55 @@
         <v>45202.375</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O95">
         <v>4.2</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,19 +8968,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6898458</v>
+        <v>6907493</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6898067</v>
+        <v>6907494</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>4</v>
-      </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M98">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N98">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P98">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
         <v>1.925</v>
       </c>
-      <c r="S98">
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
         <v>1.875</v>
       </c>
-      <c r="T98">
-        <v>3.25</v>
-      </c>
-      <c r="U98">
-        <v>1.975</v>
-      </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6907494</v>
+        <v>6899062</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>48</v>
       </c>
       <c r="K99">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N99">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W99">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,7 +9327,7 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6899062</v>
+        <v>6898067</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M100">
+        <v>1.8</v>
+      </c>
+      <c r="N100">
+        <v>3.75</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>1.666</v>
+      </c>
+      <c r="Q100">
+        <v>0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.925</v>
+      </c>
+      <c r="S100">
+        <v>1.875</v>
+      </c>
+      <c r="T100">
         <v>3.25</v>
       </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>3.5</v>
-      </c>
-      <c r="P100">
-        <v>2.2</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.775</v>
-      </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,10 +9445,10 @@
         <v>45206.375</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9801,10 +9801,10 @@
         <v>45206.375</v>
       </c>
       <c r="F105" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
         <v>31</v>
-      </c>
-      <c r="G105" t="s">
-        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10246,7 +10246,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10335,7 +10335,7 @@
         <v>45213.375</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10424,10 +10424,10 @@
         <v>45213.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10605,7 +10605,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10872,7 +10872,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11139,7 +11139,7 @@
         <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11314,7 +11314,7 @@
         <v>45220.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>40</v>
@@ -11403,7 +11403,7 @@
         <v>45220.375</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>42</v>
@@ -11495,7 +11495,7 @@
         <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>6</v>
@@ -11848,7 +11848,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11937,10 +11937,10 @@
         <v>45227.375</v>
       </c>
       <c r="F129" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" t="s">
         <v>34</v>
-      </c>
-      <c r="G129" t="s">
-        <v>33</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12029,7 +12029,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6899058</v>
+        <v>6898522</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,58 +12471,58 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>48</v>
       </c>
       <c r="K135">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N135">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P135">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
         <v>1.85</v>
       </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>0.75</v>
+        <v>0.363</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12531,13 +12531,13 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6898522</v>
+        <v>6899058</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,58 +12560,58 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>48</v>
       </c>
       <c r="K136">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
         <v>1.95</v>
       </c>
-      <c r="V136">
-        <v>1.85</v>
-      </c>
       <c r="W136">
-        <v>0.363</v>
+        <v>0.75</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12620,13 +12620,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -13005,7 +13005,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
         <v>45</v>
@@ -13183,7 +13183,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
@@ -13272,10 +13272,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13361,7 +13361,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>38</v>
@@ -13631,7 +13631,7 @@
         <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13720,7 +13720,7 @@
         <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13809,7 +13809,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13895,10 +13895,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F151" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
         <v>35</v>
-      </c>
-      <c r="G151" t="s">
-        <v>34</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -14254,7 +14254,7 @@
         <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14343,7 +14343,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14521,7 +14521,7 @@
         <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14699,7 +14699,7 @@
         <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6898473</v>
+        <v>6898525</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,58 +15052,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>3</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L164">
         <v>3.75</v>
       </c>
       <c r="M164">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="Q164">
         <v>0.5</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,13 +15112,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6898525</v>
+        <v>6898473</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,58 +15141,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L165">
         <v>3.75</v>
       </c>
       <c r="M165">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N165">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q165">
         <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15201,13 +15201,13 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15230,7 +15230,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>42</v>
@@ -15408,7 +15408,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15586,7 +15586,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15678,7 +15678,7 @@
         <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15856,7 +15856,7 @@
         <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15945,7 +15945,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,76 +16387,76 @@
         <v>45268.625</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
+        <v>4.2</v>
+      </c>
+      <c r="P179">
+        <v>4.75</v>
+      </c>
+      <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="R179">
+        <v>1.825</v>
+      </c>
+      <c r="S179">
+        <v>1.975</v>
+      </c>
+      <c r="T179">
         <v>3.5</v>
       </c>
-      <c r="P179">
-        <v>3</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.75</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45268.625</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P180">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
+        <v>1.75</v>
+      </c>
+      <c r="S180">
+        <v>1.95</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
         <v>1.825</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.975</v>
       </c>
-      <c r="T180">
-        <v>3.5</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.875</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y180">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
+        <v>0.475</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
-      <c r="AC180">
-        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16565,7 +16565,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16654,7 +16654,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
         <v>46</v>
@@ -16832,7 +16832,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
         <v>38</v>
@@ -17102,7 +17102,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17280,7 +17280,7 @@
         <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17366,7 +17366,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>40</v>
@@ -17636,7 +17636,7 @@
         <v>46</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17814,7 +17814,7 @@
         <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17903,7 +17903,7 @@
         <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -17992,7 +17992,7 @@
         <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>30</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18256,7 +18256,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>30</v>
@@ -18434,7 +18434,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>39</v>
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6898480</v>
+        <v>6898505</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L204">
         <v>4</v>
       </c>
       <c r="M204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N204">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P204">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q204">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6898479</v>
+        <v>6898480</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N205">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>2.75</v>
+      </c>
+      <c r="U205">
         <v>1.825</v>
       </c>
-      <c r="S205">
+      <c r="V205">
         <v>1.975</v>
       </c>
-      <c r="T205">
+      <c r="W205">
         <v>2.5</v>
       </c>
-      <c r="U205">
-        <v>1.75</v>
-      </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
-      <c r="W205">
-        <v>-1</v>
-      </c>
       <c r="X205">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA205">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6898078</v>
+        <v>6898479</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,73 +18793,73 @@
         <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N206">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
+        <v>0.4875</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
         <v>0.95</v>
-      </c>
-      <c r="AB206">
-        <v>0.925</v>
-      </c>
-      <c r="AC206">
-        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6898505</v>
+        <v>6898078</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,13 +18879,13 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18894,40 +18894,40 @@
         <v>47</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L207">
         <v>4</v>
       </c>
       <c r="M207">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N207">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="O207">
         <v>3.6</v>
       </c>
       <c r="P207">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18936,19 +18936,19 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>3.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19149,7 +19149,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19416,7 +19416,7 @@
         <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19505,7 +19505,7 @@
         <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19769,10 +19769,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19947,7 +19947,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>38</v>
@@ -20214,10 +20214,10 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F222" t="s">
+        <v>33</v>
+      </c>
+      <c r="G222" t="s">
         <v>32</v>
-      </c>
-      <c r="G222" t="s">
-        <v>31</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20392,7 +20392,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
         <v>44</v>
@@ -20481,7 +20481,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
         <v>45</v>
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6907086</v>
+        <v>6898507</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,46 +20570,46 @@
         <v>45379.625</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>2</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L226">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N226">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="O226">
         <v>3.8</v>
       </c>
       <c r="P226">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T226">
         <v>2.75</v>
@@ -20621,25 +20621,25 @@
         <v>1.85</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6898507</v>
+        <v>6907086</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,46 +20659,46 @@
         <v>45379.625</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M227">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N227">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O227">
         <v>3.8</v>
       </c>
       <c r="P227">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
         <v>2.75</v>
@@ -20710,25 +20710,25 @@
         <v>1.85</v>
       </c>
       <c r="W227">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -20926,10 +20926,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>4</v>
@@ -21107,7 +21107,7 @@
         <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6907087</v>
+        <v>6898082</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,10 +21371,10 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21386,40 +21386,40 @@
         <v>47</v>
       </c>
       <c r="K235">
-        <v>1.285</v>
+        <v>4.5</v>
       </c>
       <c r="L235">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M235">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="N235">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="O235">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q235">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R235">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21428,16 +21428,16 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>4.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6898082</v>
+        <v>6898530</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,55 +21460,55 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>47</v>
       </c>
       <c r="K236">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L236">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="N236">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P236">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q236">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R236">
+        <v>1.825</v>
+      </c>
+      <c r="S236">
+        <v>1.975</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
         <v>1.9</v>
       </c>
-      <c r="S236">
-        <v>1.95</v>
-      </c>
-      <c r="T236">
-        <v>3</v>
-      </c>
-      <c r="U236">
-        <v>2</v>
-      </c>
       <c r="V236">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21517,19 +21517,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.3999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB236">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6898530</v>
+        <v>6898486</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,76 +21549,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="N237">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q237">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y237">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6898486</v>
+        <v>6907087</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,76 +21638,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M238">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N238">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P238">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R238">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21730,7 +21730,7 @@
         <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H239">
         <v>5</v>
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6899046</v>
+        <v>6907468</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,13 +21905,13 @@
         <v>45385.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241">
         <v>3</v>
@@ -21920,40 +21920,40 @@
         <v>47</v>
       </c>
       <c r="K241">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="L241">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q241">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V241">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21962,19 +21962,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB241">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6907468</v>
+        <v>6899046</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,13 +22083,13 @@
         <v>45385.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243">
         <v>3</v>
@@ -22098,41 +22098,41 @@
         <v>47</v>
       </c>
       <c r="K243">
+        <v>3.25</v>
+      </c>
+      <c r="L243">
+        <v>3.8</v>
+      </c>
+      <c r="M243">
         <v>1.85</v>
       </c>
-      <c r="L243">
-        <v>3.6</v>
-      </c>
-      <c r="M243">
-        <v>3.4</v>
-      </c>
       <c r="N243">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="O243">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P243">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>1.875</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>1.825</v>
+      </c>
+      <c r="V243">
         <v>1.975</v>
       </c>
-      <c r="S243">
-        <v>1.825</v>
-      </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>1.75</v>
-      </c>
-      <c r="V243">
-        <v>1.95</v>
-      </c>
       <c r="W243">
         <v>-1</v>
       </c>
@@ -22140,19 +22140,19 @@
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
+        <v>0.875</v>
+      </c>
+      <c r="AB243">
         <v>0.825</v>
       </c>
-      <c r="AB243">
-        <v>0.375</v>
-      </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6907472</v>
+        <v>6907522</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45388.375</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G244" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
         <v>49</v>
       </c>
       <c r="K244">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M244">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N244">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
+        <v>2.15</v>
+      </c>
+      <c r="Q244">
+        <v>0.25</v>
+      </c>
+      <c r="R244">
+        <v>1.825</v>
+      </c>
+      <c r="S244">
+        <v>1.975</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
+        <v>1.95</v>
+      </c>
+      <c r="V244">
+        <v>1.85</v>
+      </c>
+      <c r="W244">
+        <v>-1</v>
+      </c>
+      <c r="X244">
         <v>2.6</v>
       </c>
-      <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244">
-        <v>1.775</v>
-      </c>
-      <c r="S244">
-        <v>2.025</v>
-      </c>
-      <c r="T244">
-        <v>2.5</v>
-      </c>
-      <c r="U244">
-        <v>1.8</v>
-      </c>
-      <c r="V244">
-        <v>2</v>
-      </c>
-      <c r="W244">
-        <v>-1</v>
-      </c>
-      <c r="X244">
-        <v>2.5</v>
-      </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC244">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>30</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6907522</v>
+        <v>6907472</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,76 +22528,76 @@
         <v>45388.375</v>
       </c>
       <c r="F248" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G248" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
         <v>49</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L248">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M248">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N248">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="Q248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T248">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA248">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22694,7 +22694,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6898083</v>
+        <v>6907521</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22706,76 +22706,76 @@
         <v>45389.375</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G250" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250" t="s">
+        <v>48</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>3.4</v>
+      </c>
+      <c r="M250">
+        <v>3.2</v>
+      </c>
+      <c r="N250">
+        <v>1.5</v>
+      </c>
+      <c r="O250">
+        <v>4</v>
+      </c>
+      <c r="P250">
+        <v>5.25</v>
+      </c>
+      <c r="Q250">
+        <v>-1</v>
+      </c>
+      <c r="R250">
+        <v>1.8</v>
+      </c>
+      <c r="S250">
+        <v>2</v>
+      </c>
+      <c r="T250">
+        <v>3.25</v>
+      </c>
+      <c r="U250">
+        <v>1.95</v>
+      </c>
+      <c r="V250">
+        <v>1.85</v>
+      </c>
+      <c r="W250">
+        <v>0.5</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>-1</v>
+      </c>
+      <c r="Z250">
         <v>0</v>
       </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
-      <c r="J250" t="s">
-        <v>49</v>
-      </c>
-      <c r="K250">
-        <v>1.5</v>
-      </c>
-      <c r="L250">
-        <v>4</v>
-      </c>
-      <c r="M250">
-        <v>5</v>
-      </c>
-      <c r="N250">
-        <v>1.7</v>
-      </c>
-      <c r="O250">
-        <v>3.75</v>
-      </c>
-      <c r="P250">
-        <v>4</v>
-      </c>
-      <c r="Q250">
-        <v>-0.75</v>
-      </c>
-      <c r="R250">
-        <v>1.95</v>
-      </c>
-      <c r="S250">
-        <v>1.85</v>
-      </c>
-      <c r="T250">
-        <v>2.75</v>
-      </c>
-      <c r="U250">
-        <v>1.9</v>
-      </c>
-      <c r="V250">
-        <v>1.9</v>
-      </c>
-      <c r="W250">
-        <v>-1</v>
-      </c>
-      <c r="X250">
-        <v>2.75</v>
-      </c>
-      <c r="Y250">
-        <v>-1</v>
-      </c>
-      <c r="Z250">
-        <v>-1</v>
-      </c>
       <c r="AA250">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC250">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6907521</v>
+        <v>6907523</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45389.375</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251">
+        <v>3</v>
+      </c>
+      <c r="J251" t="s">
+        <v>47</v>
+      </c>
+      <c r="K251">
+        <v>4.2</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>1.6</v>
+      </c>
+      <c r="N251">
+        <v>4.75</v>
+      </c>
+      <c r="O251">
+        <v>4.2</v>
+      </c>
+      <c r="P251">
+        <v>1.5</v>
+      </c>
+      <c r="Q251">
         <v>1</v>
       </c>
-      <c r="J251" t="s">
-        <v>48</v>
-      </c>
-      <c r="K251">
-        <v>2</v>
-      </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.2</v>
-      </c>
-      <c r="N251">
-        <v>1.5</v>
-      </c>
-      <c r="O251">
-        <v>4</v>
-      </c>
-      <c r="P251">
-        <v>5.25</v>
-      </c>
-      <c r="Q251">
-        <v>-1</v>
-      </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U251">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V251">
         <v>1.85</v>
       </c>
       <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
         <v>0.5</v>
       </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
       <c r="Z251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC251">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6907523</v>
+        <v>6898083</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45389.375</v>
       </c>
       <c r="F252" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K252">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L252">
         <v>4</v>
       </c>
       <c r="M252">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O252">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R252">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y252">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23151,10 +23151,10 @@
         <v>45395.375</v>
       </c>
       <c r="F255" t="s">
+        <v>34</v>
+      </c>
+      <c r="G255" t="s">
         <v>33</v>
-      </c>
-      <c r="G255" t="s">
-        <v>32</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23240,7 +23240,7 @@
         <v>45395.375</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G256" t="s">
         <v>41</v>
@@ -23329,10 +23329,10 @@
         <v>45395.375</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G257" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23844,450 +23844,6 @@
       </c>
       <c r="AC262">
         <v>0.9750000000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:29">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263">
-        <v>6907527</v>
-      </c>
-      <c r="C263" t="s">
-        <v>28</v>
-      </c>
-      <c r="D263" t="s">
-        <v>28</v>
-      </c>
-      <c r="E263" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F263" t="s">
-        <v>44</v>
-      </c>
-      <c r="G263" t="s">
-        <v>38</v>
-      </c>
-      <c r="K263">
-        <v>1.727</v>
-      </c>
-      <c r="L263">
-        <v>4</v>
-      </c>
-      <c r="M263">
-        <v>3.5</v>
-      </c>
-      <c r="N263">
-        <v>2.15</v>
-      </c>
-      <c r="O263">
-        <v>3.75</v>
-      </c>
-      <c r="P263">
-        <v>2.625</v>
-      </c>
-      <c r="Q263">
-        <v>-0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.975</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.9</v>
-      </c>
-      <c r="V263">
-        <v>1.95</v>
-      </c>
-      <c r="W263">
-        <v>0</v>
-      </c>
-      <c r="X263">
-        <v>0</v>
-      </c>
-      <c r="Y263">
-        <v>0</v>
-      </c>
-      <c r="Z263">
-        <v>0</v>
-      </c>
-      <c r="AA263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:29">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>6907475</v>
-      </c>
-      <c r="C264" t="s">
-        <v>28</v>
-      </c>
-      <c r="D264" t="s">
-        <v>28</v>
-      </c>
-      <c r="E264" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F264" t="s">
-        <v>31</v>
-      </c>
-      <c r="G264" t="s">
-        <v>42</v>
-      </c>
-      <c r="K264">
-        <v>2.625</v>
-      </c>
-      <c r="L264">
-        <v>3.75</v>
-      </c>
-      <c r="M264">
-        <v>2.15</v>
-      </c>
-      <c r="N264">
-        <v>2.55</v>
-      </c>
-      <c r="O264">
-        <v>3.75</v>
-      </c>
-      <c r="P264">
-        <v>2.25</v>
-      </c>
-      <c r="Q264">
-        <v>0</v>
-      </c>
-      <c r="R264">
-        <v>2.05</v>
-      </c>
-      <c r="S264">
-        <v>1.8</v>
-      </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>2.025</v>
-      </c>
-      <c r="V264">
-        <v>1.825</v>
-      </c>
-      <c r="W264">
-        <v>0</v>
-      </c>
-      <c r="X264">
-        <v>0</v>
-      </c>
-      <c r="Y264">
-        <v>0</v>
-      </c>
-      <c r="Z264">
-        <v>0</v>
-      </c>
-      <c r="AA264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:29">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>6907528</v>
-      </c>
-      <c r="C265" t="s">
-        <v>28</v>
-      </c>
-      <c r="D265" t="s">
-        <v>28</v>
-      </c>
-      <c r="E265" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F265" t="s">
-        <v>32</v>
-      </c>
-      <c r="G265" t="s">
-        <v>35</v>
-      </c>
-      <c r="K265">
-        <v>1.533</v>
-      </c>
-      <c r="L265">
-        <v>4</v>
-      </c>
-      <c r="M265">
-        <v>4.75</v>
-      </c>
-      <c r="N265">
-        <v>1.65</v>
-      </c>
-      <c r="O265">
-        <v>3.8</v>
-      </c>
-      <c r="P265">
-        <v>4.2</v>
-      </c>
-      <c r="Q265">
-        <v>-0.75</v>
-      </c>
-      <c r="R265">
-        <v>1.875</v>
-      </c>
-      <c r="S265">
-        <v>1.975</v>
-      </c>
-      <c r="T265">
-        <v>2.75</v>
-      </c>
-      <c r="U265">
-        <v>1.95</v>
-      </c>
-      <c r="V265">
-        <v>1.9</v>
-      </c>
-      <c r="W265">
-        <v>0</v>
-      </c>
-      <c r="X265">
-        <v>0</v>
-      </c>
-      <c r="Y265">
-        <v>0</v>
-      </c>
-      <c r="Z265">
-        <v>0</v>
-      </c>
-      <c r="AA265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:29">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>6916483</v>
-      </c>
-      <c r="C266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D266" t="s">
-        <v>28</v>
-      </c>
-      <c r="E266" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F266" t="s">
-        <v>36</v>
-      </c>
-      <c r="G266" t="s">
-        <v>33</v>
-      </c>
-      <c r="K266">
-        <v>1.2</v>
-      </c>
-      <c r="L266">
-        <v>6</v>
-      </c>
-      <c r="M266">
-        <v>9</v>
-      </c>
-      <c r="N266">
-        <v>1.285</v>
-      </c>
-      <c r="O266">
-        <v>5.25</v>
-      </c>
-      <c r="P266">
-        <v>7</v>
-      </c>
-      <c r="Q266">
-        <v>-1.5</v>
-      </c>
-      <c r="R266">
-        <v>1.825</v>
-      </c>
-      <c r="S266">
-        <v>2.025</v>
-      </c>
-      <c r="T266">
-        <v>3.5</v>
-      </c>
-      <c r="U266">
-        <v>2</v>
-      </c>
-      <c r="V266">
-        <v>1.85</v>
-      </c>
-      <c r="W266">
-        <v>0</v>
-      </c>
-      <c r="X266">
-        <v>0</v>
-      </c>
-      <c r="Y266">
-        <v>0</v>
-      </c>
-      <c r="Z266">
-        <v>0</v>
-      </c>
-      <c r="AA266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>6957175</v>
-      </c>
-      <c r="C267" t="s">
-        <v>28</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F267" t="s">
-        <v>43</v>
-      </c>
-      <c r="G267" t="s">
-        <v>41</v>
-      </c>
-      <c r="K267">
-        <v>4.75</v>
-      </c>
-      <c r="L267">
-        <v>4</v>
-      </c>
-      <c r="M267">
-        <v>1.533</v>
-      </c>
-      <c r="N267">
-        <v>4.75</v>
-      </c>
-      <c r="O267">
-        <v>3.8</v>
-      </c>
-      <c r="P267">
-        <v>1.55</v>
-      </c>
-      <c r="Q267">
-        <v>1</v>
-      </c>
-      <c r="R267">
-        <v>1.825</v>
-      </c>
-      <c r="S267">
-        <v>2.025</v>
-      </c>
-      <c r="T267">
-        <v>3</v>
-      </c>
-      <c r="U267">
-        <v>2.05</v>
-      </c>
-      <c r="V267">
-        <v>1.8</v>
-      </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-      <c r="X267">
-        <v>0</v>
-      </c>
-      <c r="Y267">
-        <v>0</v>
-      </c>
-      <c r="Z267">
-        <v>0</v>
-      </c>
-      <c r="AA267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:29">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>6990267</v>
-      </c>
-      <c r="C268" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" t="s">
-        <v>28</v>
-      </c>
-      <c r="E268" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F268" t="s">
-        <v>29</v>
-      </c>
-      <c r="G268" t="s">
-        <v>34</v>
-      </c>
-      <c r="K268">
-        <v>1.444</v>
-      </c>
-      <c r="L268">
-        <v>4.5</v>
-      </c>
-      <c r="M268">
-        <v>5</v>
-      </c>
-      <c r="N268">
-        <v>1.363</v>
-      </c>
-      <c r="O268">
-        <v>5</v>
-      </c>
-      <c r="P268">
-        <v>5.5</v>
-      </c>
-      <c r="Q268">
-        <v>-1.25</v>
-      </c>
-      <c r="R268">
-        <v>1.825</v>
-      </c>
-      <c r="S268">
-        <v>2.025</v>
-      </c>
-      <c r="T268">
-        <v>3.25</v>
-      </c>
-      <c r="U268">
-        <v>1.975</v>
-      </c>
-      <c r="V268">
-        <v>1.875</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
-        <v>0</v>
-      </c>
-      <c r="Y268">
-        <v>0</v>
-      </c>
-      <c r="Z268">
-        <v>0</v>
-      </c>
-      <c r="AA268">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -103,13 +103,13 @@
     <t>Kickers Offenbach</t>
   </si>
   <si>
-    <t>FC Astoria Walldorf</t>
-  </si>
-  <si>
     <t>TSG Balingen</t>
   </si>
   <si>
     <t>VfB Stuttgart II</t>
+  </si>
+  <si>
+    <t>FC Astoria Walldorf</t>
   </si>
   <si>
     <t>Hessen Kassel</t>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6898512</v>
+        <v>6907478</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -714,73 +714,73 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
       </c>
       <c r="J3">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="K3">
         <v>3.75</v>
       </c>
       <c r="L3">
-        <v>1.909</v>
+        <v>3.9</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="P3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
         <v>-1</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6907478</v>
+        <v>6907443</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -800,31 +800,31 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
         <v>2.1</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
         <v>2.9</v>
@@ -833,40 +833,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
+        <v>1.975</v>
+      </c>
+      <c r="U4">
         <v>1.825</v>
       </c>
-      <c r="U4">
-        <v>1.975</v>
-      </c>
       <c r="V4">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
+        <v>0.95</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>0.4875</v>
+      </c>
+      <c r="AB4">
         <v>-0.5</v>
-      </c>
-      <c r="Z4">
-        <v>0.4625</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6907443</v>
+        <v>6898512</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -886,37 +886,37 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="M5">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="P5">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>1.95</v>
@@ -925,19 +925,19 @@
         <v>1.85</v>
       </c>
       <c r="S5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -949,10 +949,10 @@
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1992,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6898489</v>
+        <v>6898445</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2001,37 +2001,37 @@
         <v>45157.375</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>46</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="P18">
         <v>-0.25</v>
@@ -2040,16 +2040,16 @@
         <v>1.95</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>2.75</v>
+      </c>
+      <c r="T18">
         <v>1.75</v>
       </c>
-      <c r="S18">
-        <v>3</v>
-      </c>
-      <c r="T18">
-        <v>1.8</v>
-      </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
         <v>-1</v>
@@ -2058,19 +2058,19 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>1.6</v>
+        <v>1.875</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA18">
         <v>0.75</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2078,7 +2078,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6898446</v>
+        <v>6898489</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2087,76 +2087,76 @@
         <v>45157.375</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="P19">
+        <v>-0.25</v>
+      </c>
+      <c r="Q19">
+        <v>1.95</v>
+      </c>
+      <c r="R19">
+        <v>1.75</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>1.8</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>1.6</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.75</v>
+      </c>
+      <c r="AA19">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>1.9</v>
-      </c>
-      <c r="R19">
-        <v>1.9</v>
-      </c>
-      <c r="S19">
-        <v>2.75</v>
-      </c>
-      <c r="T19">
-        <v>1.875</v>
-      </c>
-      <c r="U19">
-        <v>1.925</v>
-      </c>
-      <c r="V19">
-        <v>1.3</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.4375</v>
-      </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2164,7 +2164,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6898445</v>
+        <v>6898446</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2173,76 +2173,76 @@
         <v>45157.375</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J20">
+        <v>3.4</v>
+      </c>
+      <c r="K20">
+        <v>4.2</v>
+      </c>
+      <c r="L20">
+        <v>1.727</v>
+      </c>
+      <c r="M20">
+        <v>2.3</v>
+      </c>
+      <c r="N20">
+        <v>3.8</v>
+      </c>
+      <c r="O20">
         <v>2.375</v>
       </c>
-      <c r="K20">
-        <v>3.25</v>
-      </c>
-      <c r="L20">
-        <v>2.6</v>
-      </c>
-      <c r="M20">
-        <v>2.15</v>
-      </c>
-      <c r="N20">
-        <v>3.3</v>
-      </c>
-      <c r="O20">
-        <v>2.875</v>
-      </c>
       <c r="P20">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
         <v>2.75</v>
       </c>
       <c r="T20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2345,7 +2345,7 @@
         <v>45158.375</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
@@ -2422,7 +2422,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6907072</v>
+        <v>6898060</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2431,76 +2431,76 @@
         <v>45158.375</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23">
+        <v>2.3</v>
+      </c>
+      <c r="K23">
+        <v>3.6</v>
+      </c>
+      <c r="L23">
+        <v>2.5</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23">
-        <v>3.5</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>1.727</v>
-      </c>
-      <c r="M23">
-        <v>3.2</v>
-      </c>
       <c r="N23">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q23">
+        <v>1.975</v>
+      </c>
+      <c r="R23">
         <v>1.875</v>
       </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
       <c r="S23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
         <v>0.875</v>
       </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
       <c r="AA23">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2508,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6898060</v>
+        <v>6907072</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2517,76 +2517,76 @@
         <v>45158.375</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J24">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="M24">
+        <v>3.2</v>
+      </c>
+      <c r="N24">
+        <v>3.8</v>
+      </c>
+      <c r="O24">
+        <v>1.85</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.875</v>
+      </c>
+      <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="N24">
-        <v>3.4</v>
-      </c>
-      <c r="O24">
-        <v>2.05</v>
-      </c>
-      <c r="P24">
-        <v>0.25</v>
-      </c>
-      <c r="Q24">
-        <v>1.975</v>
-      </c>
-      <c r="R24">
-        <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>2.5</v>
-      </c>
       <c r="T24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2603,7 +2603,7 @@
         <v>45158.375</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2778,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3208,7 +3208,7 @@
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3798,7 +3798,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6907074</v>
+        <v>6898491</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3807,73 +3807,73 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="K39">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M39">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
         <v>3</v>
       </c>
       <c r="T39">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -3884,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6898491</v>
+        <v>6907483</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3893,76 +3893,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K40">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="L40">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="M40">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="N40">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="P40">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T40">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
         <v>-1</v>
       </c>
       <c r="W40">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3970,7 +3970,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6907483</v>
+        <v>6907448</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -3979,76 +3979,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="K41">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="M41">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="N41">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O41">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
         <v>1.85</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
         <v>2.75</v>
       </c>
       <c r="T41">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
         <v>-1</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4056,7 +4056,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6907448</v>
+        <v>6907074</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4065,76 +4065,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="K42">
+        <v>4.6</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>1.7</v>
+      </c>
+      <c r="N42">
         <v>4</v>
       </c>
-      <c r="L42">
-        <v>5.75</v>
-      </c>
-      <c r="M42">
-        <v>1.65</v>
-      </c>
-      <c r="N42">
-        <v>3.8</v>
-      </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
         <v>-0.75</v>
       </c>
       <c r="Q42">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4314,7 +4314,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6898449</v>
+        <v>6899068</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -4323,37 +4323,37 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
-        <v>4.25</v>
+        <v>2.1</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M45">
         <v>2.2</v>
       </c>
       <c r="N45">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O45">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="P45">
         <v>-0.25</v>
@@ -4365,34 +4365,34 @@
         <v>1.8</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4400,7 +4400,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6899068</v>
+        <v>6898449</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4409,37 +4409,37 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46">
-        <v>2.1</v>
+        <v>4.25</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L46">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="M46">
         <v>2.2</v>
       </c>
       <c r="N46">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O46">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="P46">
         <v>-0.25</v>
@@ -4451,34 +4451,34 @@
         <v>1.8</v>
       </c>
       <c r="S46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T46">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4584,7 +4584,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5097,10 +5097,10 @@
         <v>45172.375</v>
       </c>
       <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
         <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>29</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5441,10 +5441,10 @@
         <v>45178.375</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5788,7 +5788,7 @@
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5960,7 +5960,7 @@
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>45185.375</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
@@ -6292,7 +6292,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6898757</v>
+        <v>6907449</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6301,70 +6301,70 @@
         <v>45185.375</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
         <v>1</v>
       </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J68">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O68">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q68">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
         <v>3</v>
       </c>
       <c r="T68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6907449</v>
+        <v>6898757</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6387,70 +6387,70 @@
         <v>45185.375</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J69">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M69">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="P69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
         <v>3</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -6906,7 +6906,7 @@
         <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6989,7 +6989,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
         <v>33</v>
@@ -7591,7 +7591,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
         <v>28</v>
@@ -7680,7 +7680,7 @@
         <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>45199.375</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
         <v>34</v>
@@ -8442,7 +8442,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6907078</v>
+        <v>6907453</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8451,10 +8451,10 @@
         <v>45202.375</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8466,43 +8466,43 @@
         <v>48</v>
       </c>
       <c r="J93">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="K93">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M93">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P93">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
         <v>1.95</v>
       </c>
       <c r="V93">
-        <v>0.6000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8511,7 +8511,7 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z93">
         <v>-1</v>
@@ -8528,7 +8528,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6898496</v>
+        <v>6907078</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8537,76 +8537,76 @@
         <v>45202.375</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J94">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="K94">
+        <v>4.2</v>
+      </c>
+      <c r="L94">
+        <v>3.75</v>
+      </c>
+      <c r="M94">
+        <v>1.6</v>
+      </c>
+      <c r="N94">
+        <v>4.333</v>
+      </c>
+      <c r="O94">
         <v>3.8</v>
       </c>
-      <c r="L94">
-        <v>2.4</v>
-      </c>
-      <c r="M94">
-        <v>3.2</v>
-      </c>
-      <c r="N94">
-        <v>4.2</v>
-      </c>
-      <c r="O94">
-        <v>1.75</v>
-      </c>
       <c r="P94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
         <v>3.25</v>
       </c>
       <c r="T94">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8614,7 +8614,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6898458</v>
+        <v>6898496</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8623,56 +8623,56 @@
         <v>45202.375</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I95" t="s">
         <v>46</v>
       </c>
       <c r="J95">
+        <v>2.3</v>
+      </c>
+      <c r="K95">
+        <v>3.8</v>
+      </c>
+      <c r="L95">
         <v>2.4</v>
       </c>
-      <c r="K95">
-        <v>4.333</v>
-      </c>
-      <c r="L95">
-        <v>2.15</v>
-      </c>
       <c r="M95">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
         <v>4.2</v>
       </c>
       <c r="O95">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="P95">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q95">
+        <v>2.025</v>
+      </c>
+      <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
+        <v>3.25</v>
+      </c>
+      <c r="T95">
         <v>1.875</v>
       </c>
-      <c r="R95">
+      <c r="U95">
         <v>1.975</v>
       </c>
-      <c r="S95">
-        <v>3</v>
-      </c>
-      <c r="T95">
-        <v>1.925</v>
-      </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
       <c r="V95">
         <v>-1</v>
       </c>
@@ -8680,19 +8680,19 @@
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.7</v>
+        <v>0.75</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8700,7 +8700,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6907453</v>
+        <v>6898458</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8709,76 +8709,76 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J96">
+        <v>2.4</v>
+      </c>
+      <c r="K96">
+        <v>4.333</v>
+      </c>
+      <c r="L96">
         <v>2.15</v>
       </c>
-      <c r="K96">
-        <v>3.5</v>
-      </c>
-      <c r="L96">
-        <v>2.75</v>
-      </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O96">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P96">
         <v>-0.25</v>
       </c>
       <c r="Q96">
+        <v>1.875</v>
+      </c>
+      <c r="R96">
         <v>1.975</v>
       </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
       <c r="S96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z96">
-        <v>-1</v>
-      </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8872,7 +8872,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6907494</v>
+        <v>6898067</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8881,76 +8881,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J98">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="K98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="M98">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="N98">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O98">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="P98">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q98">
+        <v>1.925</v>
+      </c>
+      <c r="R98">
         <v>1.875</v>
       </c>
-      <c r="R98">
-        <v>1.925</v>
-      </c>
       <c r="S98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T98">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>0.875</v>
       </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
       <c r="AA98">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -9044,7 +9044,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6898067</v>
+        <v>6907494</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9053,76 +9053,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
         <v>0</v>
       </c>
-      <c r="H100">
-        <v>4</v>
-      </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J100">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L100">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="N100">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="O100">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
+        <v>1.875</v>
+      </c>
+      <c r="R100">
         <v>1.925</v>
       </c>
-      <c r="R100">
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
         <v>1.875</v>
       </c>
-      <c r="S100">
-        <v>3.25</v>
-      </c>
-      <c r="T100">
-        <v>1.975</v>
-      </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9225,7 +9225,7 @@
         <v>45206.375</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
         <v>32</v>
@@ -9569,7 +9569,7 @@
         <v>45207.375</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
         <v>41</v>
@@ -9658,7 +9658,7 @@
         <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -10171,7 +10171,7 @@
         <v>45213.375</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
         <v>28</v>
@@ -10346,7 +10346,7 @@
         <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10776,7 +10776,7 @@
         <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120">
         <v>6</v>
@@ -10859,7 +10859,7 @@
         <v>45220.375</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
         <v>38</v>
@@ -10945,7 +10945,7 @@
         <v>45220.375</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
         <v>39</v>
@@ -11292,7 +11292,7 @@
         <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11636,7 +11636,7 @@
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11722,7 +11722,7 @@
         <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11891,7 +11891,7 @@
         <v>45227.375</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
         <v>34</v>
@@ -12321,7 +12321,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
         <v>45</v>
@@ -12665,7 +12665,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
         <v>44</v>
@@ -12923,7 +12923,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
         <v>37</v>
@@ -13270,7 +13270,7 @@
         <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13356,7 +13356,7 @@
         <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13700,7 +13700,7 @@
         <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13872,7 +13872,7 @@
         <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -14471,7 +14471,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
         <v>41</v>
@@ -14729,7 +14729,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
         <v>43</v>
@@ -15073,7 +15073,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F170" t="s">
         <v>44</v>
@@ -15162,7 +15162,7 @@
         <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15248,7 +15248,7 @@
         <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15334,7 +15334,7 @@
         <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15506,7 +15506,7 @@
         <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15678,7 +15678,7 @@
         <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15838,7 +15838,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15850,73 +15850,73 @@
         <v>31</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J179">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K179">
         <v>3.75</v>
       </c>
       <c r="L179">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M179">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q179">
+        <v>1.75</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
         <v>1.825</v>
       </c>
-      <c r="R179">
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="S179">
-        <v>3.5</v>
-      </c>
-      <c r="T179">
-        <v>1.925</v>
-      </c>
-      <c r="U179">
-        <v>1.875</v>
-      </c>
       <c r="V179">
         <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X179">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z179">
+        <v>0.475</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15924,7 +15924,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15933,76 +15933,76 @@
         <v>45268.625</v>
       </c>
       <c r="E180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J180">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K180">
         <v>3.75</v>
       </c>
       <c r="L180">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N180">
+        <v>4.2</v>
+      </c>
+      <c r="O180">
+        <v>4.75</v>
+      </c>
+      <c r="P180">
+        <v>-1</v>
+      </c>
+      <c r="Q180">
+        <v>1.825</v>
+      </c>
+      <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
         <v>3.5</v>
       </c>
-      <c r="O180">
-        <v>3</v>
-      </c>
-      <c r="P180">
-        <v>-0.25</v>
-      </c>
-      <c r="Q180">
-        <v>1.75</v>
-      </c>
-      <c r="R180">
-        <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>2.75</v>
-      </c>
       <c r="T180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16793,7 +16793,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
         <v>39</v>
@@ -16968,7 +16968,7 @@
         <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17481,10 +17481,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17653,10 +17653,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -18255,7 +18255,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F207" t="s">
         <v>38</v>
@@ -18857,7 +18857,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
         <v>33</v>
@@ -19029,10 +19029,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E216" t="s">
+        <v>31</v>
+      </c>
+      <c r="F216" t="s">
         <v>29</v>
-      </c>
-      <c r="F216" t="s">
-        <v>30</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>35</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19548,7 +19548,7 @@
         <v>33</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19717,7 +19717,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F224" t="s">
         <v>37</v>
@@ -20061,7 +20061,7 @@
         <v>45379.625</v>
       </c>
       <c r="E228" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F228" t="s">
         <v>35</v>
@@ -20236,7 +20236,7 @@
         <v>33</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G230">
         <v>4</v>
@@ -20491,7 +20491,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F233" t="s">
         <v>28</v>
@@ -20752,7 +20752,7 @@
         <v>28</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G236">
         <v>5</v>
@@ -21010,7 +21010,7 @@
         <v>34</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21179,7 +21179,7 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F241" t="s">
         <v>45</v>
@@ -21437,7 +21437,7 @@
         <v>45388.375</v>
       </c>
       <c r="E244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F244" t="s">
         <v>32</v>
@@ -21953,7 +21953,7 @@
         <v>45389.375</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F250" t="s">
         <v>34</v>
@@ -22042,7 +22042,7 @@
         <v>35</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22386,7 +22386,7 @@
         <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22727,7 +22727,7 @@
         <v>45395.375</v>
       </c>
       <c r="E259" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F259" t="s">
         <v>40</v>
@@ -22902,7 +22902,7 @@
         <v>41</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -23062,7 +23062,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6907527</v>
+        <v>6907475</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
@@ -23071,13 +23071,13 @@
         <v>45402.375</v>
       </c>
       <c r="E263" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -23086,43 +23086,43 @@
         <v>48</v>
       </c>
       <c r="J263">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="K263">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L263">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="M263">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N263">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O263">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P263">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
         <v>2.75</v>
       </c>
       <c r="T263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="W263">
         <v>-1</v>
@@ -23131,16 +23131,16 @@
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23148,7 +23148,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6907475</v>
+        <v>6907527</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23157,13 +23157,13 @@
         <v>45402.375</v>
       </c>
       <c r="E264" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -23172,43 +23172,43 @@
         <v>48</v>
       </c>
       <c r="J264">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K264">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L264">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="M264">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N264">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O264">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="P264">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q264">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S264">
         <v>2.75</v>
       </c>
       <c r="T264">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="W264">
         <v>-1</v>
@@ -23217,16 +23217,16 @@
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z264">
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23234,7 +23234,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6907528</v>
+        <v>6990267</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23243,76 +23243,76 @@
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F265" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J265">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="K265">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L265">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M265">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N265">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O265">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P265">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q265">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R265">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T265">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U265">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V265">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W265">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z265">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB265">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23320,7 +23320,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6990267</v>
+        <v>6957175</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23329,13 +23329,13 @@
         <v>45402.375</v>
       </c>
       <c r="E266" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G266">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -23344,43 +23344,43 @@
         <v>48</v>
       </c>
       <c r="J266">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="K266">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L266">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="M266">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="N266">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O266">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="P266">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q266">
+        <v>1.95</v>
+      </c>
+      <c r="R266">
         <v>1.85</v>
       </c>
-      <c r="R266">
-        <v>1.95</v>
-      </c>
       <c r="S266">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T266">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V266">
-        <v>0.333</v>
+        <v>2.75</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -23389,16 +23389,16 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23406,7 +23406,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6957175</v>
+        <v>6916483</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23415,13 +23415,13 @@
         <v>45402.375</v>
       </c>
       <c r="E267" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -23430,43 +23430,43 @@
         <v>48</v>
       </c>
       <c r="J267">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="K267">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L267">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="M267">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="N267">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O267">
+        <v>8.5</v>
+      </c>
+      <c r="P267">
+        <v>-1.75</v>
+      </c>
+      <c r="Q267">
+        <v>1.825</v>
+      </c>
+      <c r="R267">
+        <v>1.975</v>
+      </c>
+      <c r="S267">
+        <v>3.25</v>
+      </c>
+      <c r="T267">
         <v>1.8</v>
       </c>
-      <c r="P267">
-        <v>0.5</v>
-      </c>
-      <c r="Q267">
-        <v>1.95</v>
-      </c>
-      <c r="R267">
-        <v>1.85</v>
-      </c>
-      <c r="S267">
-        <v>2.75</v>
-      </c>
-      <c r="T267">
-        <v>1.825</v>
-      </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V267">
-        <v>2.75</v>
+        <v>0.222</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -23475,16 +23475,16 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -23492,7 +23492,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6916483</v>
+        <v>6907528</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23501,76 +23501,76 @@
         <v>45402.375</v>
       </c>
       <c r="E268" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J268">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="K268">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L268">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="M268">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="N268">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="O268">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P268">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q268">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R268">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S268">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U268">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V268">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -23759,7 +23759,7 @@
         <v>45403.375</v>
       </c>
       <c r="E271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F271" t="s">
         <v>39</v>
@@ -23845,7 +23845,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E272" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F272" t="s">
         <v>43</v>
@@ -23934,7 +23934,7 @@
         <v>38</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -24020,7 +24020,7 @@
         <v>39</v>
       </c>
       <c r="F274" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G274">
         <v>2</v>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -109,7 +109,7 @@
     <t>7129153</t>
   </si>
   <si>
-    <t>7128506</t>
+    <t>7129152</t>
   </si>
   <si>
     <t>7128686</t>
@@ -121,7 +121,7 @@
     <t>7128507</t>
   </si>
   <si>
-    <t>7129152</t>
+    <t>7128506</t>
   </si>
   <si>
     <t>Germany Regionalliga South West</t>
@@ -136,13 +136,13 @@
     <t>TSG Balingen</t>
   </si>
   <si>
+    <t>Hessen Kassel</t>
+  </si>
+  <si>
     <t>SGV Freiberg</t>
   </si>
   <si>
     <t>FC Astoria Walldorf</t>
-  </si>
-  <si>
-    <t>Hessen Kassel</t>
   </si>
   <si>
     <t>TuS Koblenz</t>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6899072</v>
+        <v>6898442</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -913,34 +913,34 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -949,31 +949,31 @@
         <v>2</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>1.85</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W5">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6898512</v>
+        <v>6899072</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -999,73 +999,73 @@
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="K6">
         <v>3.75</v>
       </c>
       <c r="L6">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
+        <v>2.3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
         <v>1.8</v>
-      </c>
-      <c r="P6">
-        <v>0.5</v>
-      </c>
-      <c r="Q6">
-        <v>1.95</v>
-      </c>
-      <c r="R6">
-        <v>1.85</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6898442</v>
+        <v>6898512</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1085,40 +1085,40 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="K7">
+        <v>3.75</v>
+      </c>
+      <c r="L7">
+        <v>1.909</v>
+      </c>
+      <c r="M7">
         <v>3.4</v>
       </c>
-      <c r="L7">
-        <v>2.5</v>
-      </c>
-      <c r="M7">
-        <v>2.375</v>
-      </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R7">
         <v>1.85</v>
@@ -1127,22 +1127,22 @@
         <v>3</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1151,7 +1151,7 @@
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1601,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1859,7 +1859,7 @@
         <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2028,7 +2028,7 @@
         <v>45157.375</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
@@ -2200,7 +2200,7 @@
         <v>45157.375</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
         <v>47</v>
@@ -2544,7 +2544,7 @@
         <v>45158.375</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
         <v>53</v>
@@ -3235,7 +3235,7 @@
         <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3407,7 +3407,7 @@
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3579,7 +3579,7 @@
         <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>45167.52083333334</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
         <v>52</v>
@@ -3825,7 +3825,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6907483</v>
+        <v>6907448</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
@@ -3834,76 +3834,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J39">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="M39">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O39">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q39">
         <v>1.85</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
         <v>2.75</v>
       </c>
       <c r="T39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X39">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3911,7 +3911,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6907448</v>
+        <v>6907447</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -3920,10 +3920,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3935,47 +3935,47 @@
         <v>57</v>
       </c>
       <c r="J40">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L40">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M40">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="N40">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>1.975</v>
+      </c>
+      <c r="U40">
+        <v>1.825</v>
+      </c>
+      <c r="V40">
+        <v>-1</v>
+      </c>
+      <c r="W40">
         <v>2.75</v>
       </c>
-      <c r="T40">
-        <v>1.95</v>
-      </c>
-      <c r="U40">
-        <v>1.85</v>
-      </c>
-      <c r="V40">
-        <v>-1</v>
-      </c>
-      <c r="W40">
-        <v>2.8</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
@@ -3983,13 +3983,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3997,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6907447</v>
+        <v>6907074</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
@@ -4006,76 +4006,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J41">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="K41">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L41">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
+        <v>1.975</v>
+      </c>
+      <c r="R41">
         <v>1.825</v>
-      </c>
-      <c r="R41">
-        <v>1.975</v>
       </c>
       <c r="S41">
         <v>3</v>
       </c>
       <c r="T41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
         <v>-1</v>
       </c>
       <c r="W41">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4083,7 +4083,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6907074</v>
+        <v>6898491</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
@@ -4092,73 +4092,73 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J42">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="K42">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M42">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
         <v>3</v>
       </c>
       <c r="T42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
         <v>-1</v>
@@ -4169,7 +4169,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6898491</v>
+        <v>6907483</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
@@ -4178,76 +4178,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J43">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K43">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="L43">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="M43">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="N43">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="P43">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T43">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V43">
         <v>-1</v>
       </c>
       <c r="W43">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4264,7 +4264,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
         <v>54</v>
@@ -4350,7 +4350,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -4513,7 +4513,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6907075</v>
+        <v>6907485</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
@@ -4522,46 +4522,46 @@
         <v>45171.375</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J47">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="K47">
         <v>3.75</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="P47">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q47">
+        <v>1.875</v>
+      </c>
+      <c r="R47">
         <v>1.925</v>
-      </c>
-      <c r="R47">
-        <v>1.875</v>
       </c>
       <c r="S47">
         <v>2.75</v>
@@ -4573,19 +4573,19 @@
         <v>1.975</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0.4125</v>
@@ -4599,7 +4599,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6907485</v>
+        <v>6907075</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -4608,46 +4608,46 @@
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="K48">
         <v>3.75</v>
       </c>
       <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>3.4</v>
+      </c>
+      <c r="N48">
+        <v>3.75</v>
+      </c>
+      <c r="O48">
         <v>1.833</v>
       </c>
-      <c r="M48">
-        <v>3.6</v>
-      </c>
-      <c r="N48">
-        <v>4</v>
-      </c>
-      <c r="O48">
-        <v>1.666</v>
-      </c>
       <c r="P48">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q48">
+        <v>1.925</v>
+      </c>
+      <c r="R48">
         <v>1.875</v>
-      </c>
-      <c r="R48">
-        <v>1.925</v>
       </c>
       <c r="S48">
         <v>2.75</v>
@@ -4659,19 +4659,19 @@
         <v>1.975</v>
       </c>
       <c r="V48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
         <v>0.875</v>
-      </c>
-      <c r="Z48">
-        <v>-1</v>
       </c>
       <c r="AA48">
         <v>0.4125</v>
@@ -4869,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5127,7 +5127,7 @@
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5213,7 +5213,7 @@
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5459,7 +5459,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6907487</v>
+        <v>6907488</v>
       </c>
       <c r="C58" t="s">
         <v>36</v>
@@ -5468,43 +5468,43 @@
         <v>45178.375</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
         <v>56</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="K58">
         <v>3.75</v>
       </c>
       <c r="L58">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="N58">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O58">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R58">
         <v>1.875</v>
@@ -5513,13 +5513,13 @@
         <v>3</v>
       </c>
       <c r="T58">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U58">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5528,13 +5528,13 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
         <v>-1</v>
@@ -5545,7 +5545,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6899066</v>
+        <v>6907487</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
@@ -5554,73 +5554,73 @@
         <v>45178.375</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
         <v>1</v>
       </c>
-      <c r="H59">
+      <c r="I59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59">
         <v>3</v>
       </c>
-      <c r="I59" t="s">
-        <v>55</v>
-      </c>
-      <c r="J59">
+      <c r="K59">
+        <v>3.75</v>
+      </c>
+      <c r="L59">
+        <v>1.95</v>
+      </c>
+      <c r="M59">
+        <v>2.875</v>
+      </c>
+      <c r="N59">
+        <v>3.8</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>0.25</v>
+      </c>
+      <c r="Q59">
+        <v>1.975</v>
+      </c>
+      <c r="R59">
+        <v>1.875</v>
+      </c>
+      <c r="S59">
+        <v>3</v>
+      </c>
+      <c r="T59">
+        <v>1.775</v>
+      </c>
+      <c r="U59">
         <v>2.1</v>
       </c>
-      <c r="K59">
-        <v>3.6</v>
-      </c>
-      <c r="L59">
-        <v>2.8</v>
-      </c>
-      <c r="M59">
-        <v>1.615</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
-      </c>
-      <c r="O59">
-        <v>4</v>
-      </c>
-      <c r="P59">
-        <v>-0.75</v>
-      </c>
-      <c r="Q59">
-        <v>1.75</v>
-      </c>
-      <c r="R59">
-        <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>3.25</v>
-      </c>
-      <c r="T59">
-        <v>1.75</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
       <c r="V59">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB59">
         <v>-1</v>
@@ -5631,7 +5631,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6898756</v>
+        <v>6898453</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -5640,58 +5640,58 @@
         <v>45178.375</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
         <v>56</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K60">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O60">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P60">
         <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T60">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5700,16 +5700,16 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5717,7 +5717,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6898453</v>
+        <v>6898756</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
@@ -5726,58 +5726,58 @@
         <v>45178.375</v>
       </c>
       <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s">
         <v>42</v>
       </c>
-      <c r="F61" t="s">
-        <v>51</v>
-      </c>
       <c r="G61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" t="s">
         <v>56</v>
       </c>
       <c r="J61">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K61">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L61">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O61">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P61">
         <v>-0.25</v>
       </c>
       <c r="Q61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T61">
+        <v>1.925</v>
+      </c>
+      <c r="U61">
         <v>1.875</v>
       </c>
-      <c r="U61">
-        <v>1.975</v>
-      </c>
       <c r="V61">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5786,16 +5786,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5889,7 +5889,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6907488</v>
+        <v>6899066</v>
       </c>
       <c r="C63" t="s">
         <v>36</v>
@@ -5898,73 +5898,73 @@
         <v>45178.375</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J63">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="N63">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q63">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
+        <v>3.25</v>
+      </c>
+      <c r="T63">
+        <v>1.75</v>
+      </c>
+      <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
+        <v>-1</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>3</v>
       </c>
-      <c r="T63">
-        <v>1.9</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -6147,7 +6147,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6898757</v>
+        <v>6898064</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -6156,76 +6156,76 @@
         <v>45185.375</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J66">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="K66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="N66">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
         <v>3</v>
       </c>
       <c r="T66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6233,7 +6233,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6907449</v>
+        <v>6898757</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -6242,70 +6242,70 @@
         <v>45185.375</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J67">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M67">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="P67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
         <v>3</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6898493</v>
+        <v>6907449</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -6328,76 +6328,76 @@
         <v>45185.375</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
         <v>1</v>
       </c>
-      <c r="H68">
-        <v>8</v>
-      </c>
       <c r="I68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J68">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K68">
         <v>4</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N68">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O68">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
         <v>3</v>
       </c>
       <c r="T68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6405,7 +6405,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6898064</v>
+        <v>6898493</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -6414,46 +6414,46 @@
         <v>45185.375</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J69">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="K69">
         <v>4</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O69">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="P69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -6465,19 +6465,19 @@
         <v>1.85</v>
       </c>
       <c r="V69">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
         <v>0.95</v>
@@ -6675,7 +6675,7 @@
         <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6898494</v>
+        <v>6907076</v>
       </c>
       <c r="C74" t="s">
         <v>36</v>
@@ -6844,73 +6844,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J74">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K74">
+        <v>3.8</v>
+      </c>
+      <c r="L74">
+        <v>3.8</v>
+      </c>
+      <c r="M74">
+        <v>1.5</v>
+      </c>
+      <c r="N74">
+        <v>4.333</v>
+      </c>
+      <c r="O74">
         <v>4.5</v>
       </c>
-      <c r="L74">
-        <v>5.75</v>
-      </c>
-      <c r="M74">
-        <v>1.444</v>
-      </c>
-      <c r="N74">
-        <v>4.5</v>
-      </c>
-      <c r="O74">
-        <v>5.25</v>
-      </c>
       <c r="P74">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q74">
+        <v>1.825</v>
+      </c>
+      <c r="R74">
         <v>1.975</v>
-      </c>
-      <c r="R74">
-        <v>1.875</v>
       </c>
       <c r="S74">
         <v>3.25</v>
       </c>
       <c r="T74">
+        <v>1.925</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
       <c r="V74">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z74">
-        <v>-1</v>
-      </c>
       <c r="AA74">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6921,7 +6921,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6907491</v>
+        <v>6898494</v>
       </c>
       <c r="C75" t="s">
         <v>36</v>
@@ -6930,73 +6930,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J75">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="K75">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L75">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q75">
         <v>1.975</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
         <v>3.25</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -7093,7 +7093,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6907076</v>
+        <v>6907491</v>
       </c>
       <c r="C77" t="s">
         <v>36</v>
@@ -7102,73 +7102,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J77">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="K77">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L77">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="M77">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N77">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="P77">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
+        <v>1.975</v>
+      </c>
+      <c r="R77">
         <v>1.825</v>
-      </c>
-      <c r="R77">
-        <v>1.975</v>
       </c>
       <c r="S77">
         <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X77">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7179,7 +7179,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6898065</v>
+        <v>6898456</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -7188,55 +7188,55 @@
         <v>45192.375</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
         <v>55</v>
       </c>
       <c r="J78">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="K78">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N78">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O78">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
         <v>3</v>
       </c>
       <c r="T78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
         <v>-1</v>
@@ -7245,19 +7245,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Y78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7351,7 +7351,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6898456</v>
+        <v>6898065</v>
       </c>
       <c r="C80" t="s">
         <v>36</v>
@@ -7360,55 +7360,55 @@
         <v>45192.375</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80" t="s">
         <v>55</v>
       </c>
       <c r="J80">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="M80">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="P80">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
         <v>3</v>
       </c>
       <c r="T80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
         <v>-1</v>
@@ -7417,19 +7417,19 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7618,7 +7618,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -7879,7 +7879,7 @@
         <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7962,7 +7962,7 @@
         <v>45199.375</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
         <v>44</v>
@@ -8125,7 +8125,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6907077</v>
+        <v>6907451</v>
       </c>
       <c r="C89" t="s">
         <v>36</v>
@@ -8134,76 +8134,76 @@
         <v>45199.375</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J89">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M89">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="P89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T89">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8211,7 +8211,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6907451</v>
+        <v>6907077</v>
       </c>
       <c r="C90" t="s">
         <v>36</v>
@@ -8220,76 +8220,76 @@
         <v>45199.375</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J90">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="K90">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L90">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="M90">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O90">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8395,7 +8395,7 @@
         <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8736,7 +8736,7 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
         <v>38</v>
@@ -8899,7 +8899,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6899062</v>
+        <v>6907494</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -8908,58 +8908,58 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>56</v>
       </c>
       <c r="J98">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="K98">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="M98">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="N98">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O98">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="P98">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
         <v>3</v>
       </c>
       <c r="T98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -8968,7 +8968,7 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z98">
         <v>-1</v>
@@ -8985,7 +8985,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6898067</v>
+        <v>6899062</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
@@ -8994,76 +8994,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J99">
+        <v>1.833</v>
+      </c>
+      <c r="K99">
+        <v>3.8</v>
+      </c>
+      <c r="L99">
         <v>3.25</v>
       </c>
-      <c r="K99">
-        <v>4</v>
-      </c>
-      <c r="L99">
-        <v>1.8</v>
-      </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N99">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O99">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="P99">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q99">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V99">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9071,7 +9071,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6907494</v>
+        <v>6898067</v>
       </c>
       <c r="C100" t="s">
         <v>36</v>
@@ -9080,76 +9080,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J100">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="K100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="M100">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O100">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q100">
+        <v>1.925</v>
+      </c>
+      <c r="R100">
         <v>1.875</v>
       </c>
-      <c r="R100">
-        <v>1.925</v>
-      </c>
       <c r="S100">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>0.875</v>
       </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
       <c r="AA100">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9157,7 +9157,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6898461</v>
+        <v>6898497</v>
       </c>
       <c r="C101" t="s">
         <v>36</v>
@@ -9166,76 +9166,76 @@
         <v>45206.375</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J101">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K101">
         <v>4</v>
       </c>
       <c r="L101">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O101">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R101">
         <v>1.95</v>
       </c>
       <c r="S101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9243,7 +9243,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6907495</v>
+        <v>6898461</v>
       </c>
       <c r="C102" t="s">
         <v>36</v>
@@ -9252,49 +9252,49 @@
         <v>45206.375</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K102">
         <v>4</v>
       </c>
       <c r="L102">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M102">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N102">
         <v>4</v>
       </c>
       <c r="O102">
+        <v>2.5</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
         <v>1.75</v>
       </c>
-      <c r="P102">
-        <v>0.5</v>
-      </c>
-      <c r="Q102">
+      <c r="R102">
         <v>1.95</v>
       </c>
-      <c r="R102">
-        <v>1.85</v>
-      </c>
       <c r="S102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T102">
         <v>1.975</v>
@@ -9306,16 +9306,16 @@
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>0.95</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9329,7 +9329,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6898497</v>
+        <v>6907495</v>
       </c>
       <c r="C103" t="s">
         <v>36</v>
@@ -9338,76 +9338,76 @@
         <v>45206.375</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J103">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K103">
         <v>4</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O103">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="P103">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q103">
+        <v>1.95</v>
+      </c>
+      <c r="R103">
         <v>1.85</v>
-      </c>
-      <c r="R103">
-        <v>1.95</v>
       </c>
       <c r="S103">
         <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9415,7 +9415,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6898068</v>
+        <v>6898460</v>
       </c>
       <c r="C104" t="s">
         <v>36</v>
@@ -9424,76 +9424,76 @@
         <v>45206.375</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J104">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="K104">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="M104">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="P104">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9501,7 +9501,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6898460</v>
+        <v>6898068</v>
       </c>
       <c r="C105" t="s">
         <v>36</v>
@@ -9510,76 +9510,76 @@
         <v>45206.375</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J105">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L105">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O105">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="P105">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10287,7 +10287,7 @@
         <v>50</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10361,7 +10361,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6898463</v>
+        <v>6898462</v>
       </c>
       <c r="C115" t="s">
         <v>36</v>
@@ -10370,76 +10370,76 @@
         <v>45213.375</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J115">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K115">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M115">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="P115">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T115">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
         <v>-1</v>
       </c>
       <c r="W115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10447,7 +10447,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6898462</v>
+        <v>6898463</v>
       </c>
       <c r="C116" t="s">
         <v>36</v>
@@ -10456,76 +10456,76 @@
         <v>45213.375</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J116">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K116">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L116">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M116">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="N116">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O116">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T116">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
         <v>-1</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X116">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10619,7 +10619,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6898760</v>
+        <v>6898465</v>
       </c>
       <c r="C118" t="s">
         <v>36</v>
@@ -10628,76 +10628,76 @@
         <v>45220.375</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J118">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L118">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
         <v>3.75</v>
       </c>
       <c r="O118">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="P118">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T118">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
+        <v>0.95</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.4</v>
+      </c>
+      <c r="AB118">
         <v>-0.5</v>
-      </c>
-      <c r="Z118">
-        <v>0.4375</v>
-      </c>
-      <c r="AA118">
-        <v>0</v>
-      </c>
-      <c r="AB118">
-        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10705,7 +10705,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6898465</v>
+        <v>6898760</v>
       </c>
       <c r="C119" t="s">
         <v>36</v>
@@ -10714,76 +10714,76 @@
         <v>45220.375</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J119">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="K119">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
         <v>3.75</v>
       </c>
       <c r="O119">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q119">
+        <v>1.925</v>
+      </c>
+      <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
+        <v>3</v>
+      </c>
+      <c r="T119">
         <v>1.95</v>
       </c>
-      <c r="R119">
+      <c r="U119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>2.75</v>
-      </c>
-      <c r="T119">
-        <v>1.8</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
       <c r="V119">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y119">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA119">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10803,7 +10803,7 @@
         <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -11058,7 +11058,7 @@
         <v>45220.375</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
         <v>50</v>
@@ -11488,7 +11488,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
         <v>37</v>
@@ -11749,7 +11749,7 @@
         <v>47</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11921,7 +11921,7 @@
         <v>48</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>47</v>
@@ -12864,7 +12864,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
         <v>46</v>
@@ -12953,7 +12953,7 @@
         <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13039,7 +13039,7 @@
         <v>46</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13211,7 +13211,7 @@
         <v>54</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13294,7 +13294,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
         <v>39</v>
@@ -13813,7 +13813,7 @@
         <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>4</v>
@@ -13899,7 +13899,7 @@
         <v>54</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14584,7 +14584,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
         <v>48</v>
@@ -14670,7 +14670,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
         <v>49</v>
@@ -14756,7 +14756,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F166" t="s">
         <v>51</v>
@@ -15189,7 +15189,7 @@
         <v>49</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15521,7 +15521,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6898076</v>
+        <v>6907509</v>
       </c>
       <c r="C175" t="s">
         <v>36</v>
@@ -15530,40 +15530,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175">
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J175">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="K175">
         <v>3.75</v>
       </c>
       <c r="L175">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="M175">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="N175">
         <v>3.6</v>
       </c>
       <c r="O175">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="P175">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q175">
         <v>1.8</v>
@@ -15575,28 +15575,28 @@
         <v>2.75</v>
       </c>
       <c r="T175">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
         <v>-1</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X175">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB175">
         <v>-1</v>
@@ -15607,7 +15607,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6907509</v>
+        <v>6898076</v>
       </c>
       <c r="C176" t="s">
         <v>36</v>
@@ -15616,40 +15616,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J176">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="K176">
         <v>3.75</v>
       </c>
       <c r="L176">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M176">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="N176">
         <v>3.6</v>
       </c>
       <c r="O176">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="P176">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q176">
         <v>1.8</v>
@@ -15661,28 +15661,28 @@
         <v>2.75</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
         <v>-1</v>
       </c>
       <c r="W176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y176">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA176">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
         <v>-1</v>
@@ -15705,7 +15705,7 @@
         <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15960,7 +15960,7 @@
         <v>45268.625</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s">
         <v>52</v>
@@ -16046,7 +16046,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
         <v>53</v>
@@ -16132,7 +16132,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F182" t="s">
         <v>46</v>
@@ -16553,7 +16553,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7556542</v>
+        <v>7557018</v>
       </c>
       <c r="C187" t="s">
         <v>36</v>
@@ -16562,76 +16562,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I187" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J187">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="K187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L187">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="N187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q187">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R187">
         <v>1.925</v>
       </c>
       <c r="S187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA187">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16639,7 +16639,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7557018</v>
+        <v>7556542</v>
       </c>
       <c r="C188" t="s">
         <v>36</v>
@@ -16648,76 +16648,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J188">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="K188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L188">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M188">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="N188">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O188">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P188">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R188">
         <v>1.925</v>
       </c>
       <c r="S188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W188">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z188">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA188">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -16737,7 +16737,7 @@
         <v>51</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16909,7 +16909,7 @@
         <v>52</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -17253,7 +17253,7 @@
         <v>54</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17425,7 +17425,7 @@
         <v>45</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6899050</v>
+        <v>6898078</v>
       </c>
       <c r="C201" t="s">
         <v>36</v>
@@ -17766,55 +17766,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F201" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="s">
         <v>55</v>
       </c>
       <c r="J201">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="K201">
         <v>4</v>
       </c>
       <c r="L201">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N201">
         <v>3.6</v>
       </c>
       <c r="O201">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q201">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R201">
         <v>1.95</v>
       </c>
       <c r="S201">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
         <v>-1</v>
@@ -17823,7 +17823,7 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>1.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -17832,10 +17832,10 @@
         <v>0.95</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17843,7 +17843,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6898078</v>
+        <v>6899050</v>
       </c>
       <c r="C202" t="s">
         <v>36</v>
@@ -17852,55 +17852,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F202" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
         <v>1</v>
-      </c>
-      <c r="H202">
-        <v>2</v>
       </c>
       <c r="I202" t="s">
         <v>55</v>
       </c>
       <c r="J202">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="K202">
         <v>4</v>
       </c>
       <c r="L202">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="M202">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N202">
         <v>3.6</v>
       </c>
       <c r="O202">
+        <v>2.5</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
         <v>1.85</v>
-      </c>
-      <c r="P202">
-        <v>0.5</v>
-      </c>
-      <c r="Q202">
-        <v>1.9</v>
       </c>
       <c r="R202">
         <v>1.95</v>
       </c>
       <c r="S202">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
         <v>-1</v>
@@ -17909,7 +17909,7 @@
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>0.8500000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -17918,10 +17918,10 @@
         <v>0.95</v>
       </c>
       <c r="AA202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -18024,7 +18024,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F204" t="s">
         <v>49</v>
@@ -18110,7 +18110,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
         <v>38</v>
@@ -18196,7 +18196,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
         <v>45</v>
@@ -18543,7 +18543,7 @@
         <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18629,7 +18629,7 @@
         <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -19056,7 +19056,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
         <v>39</v>
@@ -19400,10 +19400,10 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19658,7 +19658,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F223" t="s">
         <v>53</v>
@@ -20088,7 +20088,7 @@
         <v>45379.625</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F228" t="s">
         <v>44</v>
@@ -20177,7 +20177,7 @@
         <v>52</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20337,7 +20337,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6907467</v>
+        <v>6907519</v>
       </c>
       <c r="C231" t="s">
         <v>36</v>
@@ -20346,76 +20346,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F231" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J231">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="K231">
         <v>3.75</v>
       </c>
       <c r="L231">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="N231">
         <v>3.75</v>
       </c>
       <c r="O231">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P231">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q231">
+        <v>1.95</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
+        <v>3</v>
+      </c>
+      <c r="T231">
+        <v>1.95</v>
+      </c>
+      <c r="U231">
         <v>1.75</v>
       </c>
-      <c r="R231">
-        <v>1.95</v>
-      </c>
-      <c r="S231">
-        <v>2.75</v>
-      </c>
-      <c r="T231">
-        <v>1.75</v>
-      </c>
-      <c r="U231">
-        <v>1.95</v>
-      </c>
       <c r="V231">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z231">
+        <v>-1</v>
+      </c>
+      <c r="AA231">
         <v>0.95</v>
       </c>
-      <c r="AA231">
-        <v>0.375</v>
-      </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20423,7 +20423,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6899047</v>
+        <v>6907467</v>
       </c>
       <c r="C232" t="s">
         <v>36</v>
@@ -20432,76 +20432,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G232">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J232">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="K232">
         <v>3.75</v>
       </c>
       <c r="L232">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M232">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N232">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P232">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q232">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T232">
+        <v>1.75</v>
+      </c>
+      <c r="U232">
         <v>1.95</v>
       </c>
-      <c r="U232">
-        <v>1.85</v>
-      </c>
       <c r="V232">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="233" spans="1:28">
@@ -20509,7 +20509,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6898529</v>
+        <v>6899047</v>
       </c>
       <c r="C233" t="s">
         <v>36</v>
@@ -20518,13 +20518,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G233">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -20533,43 +20533,43 @@
         <v>56</v>
       </c>
       <c r="J233">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="K233">
         <v>3.75</v>
       </c>
       <c r="L233">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="M233">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N233">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P233">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -20578,16 +20578,16 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20595,7 +20595,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6907519</v>
+        <v>6898529</v>
       </c>
       <c r="C234" t="s">
         <v>36</v>
@@ -20604,13 +20604,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E234" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -20619,43 +20619,43 @@
         <v>56</v>
       </c>
       <c r="J234">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K234">
         <v>3.75</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M234">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N234">
         <v>3.75</v>
       </c>
       <c r="O234">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P234">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q234">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R234">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T234">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U234">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -20664,13 +20664,13 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB234">
         <v>-1</v>
@@ -20951,7 +20951,7 @@
         <v>37</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G238">
         <v>5</v>
@@ -21120,7 +21120,7 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F240" t="s">
         <v>45</v>
@@ -21381,7 +21381,7 @@
         <v>44</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -21639,7 +21639,7 @@
         <v>38</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21808,7 +21808,7 @@
         <v>45388.375</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
         <v>37</v>
@@ -22152,7 +22152,7 @@
         <v>45389.375</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F252" t="s">
         <v>43</v>
@@ -22582,10 +22582,10 @@
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
+        <v>40</v>
+      </c>
+      <c r="F257" t="s">
         <v>42</v>
-      </c>
-      <c r="F257" t="s">
-        <v>41</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22757,7 +22757,7 @@
         <v>43</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F265" t="s">
         <v>50</v>
@@ -23528,10 +23528,10 @@
         <v>45402.375</v>
       </c>
       <c r="E268" t="s">
+        <v>41</v>
+      </c>
+      <c r="F268" t="s">
         <v>40</v>
-      </c>
-      <c r="F268" t="s">
-        <v>42</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -24133,7 +24133,7 @@
         <v>48</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G275">
         <v>2</v>
@@ -24219,7 +24219,7 @@
         <v>50</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>45409.375</v>
       </c>
       <c r="E277" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F277" t="s">
         <v>44</v>
@@ -24379,7 +24379,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7023667</v>
+        <v>7021656</v>
       </c>
       <c r="C278" t="s">
         <v>36</v>
@@ -24388,46 +24388,46 @@
         <v>45409.375</v>
       </c>
       <c r="E278" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F278" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J278">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K278">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L278">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M278">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N278">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O278">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P278">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q278">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S278">
         <v>2.75</v>
@@ -24436,28 +24436,28 @@
         <v>1.825</v>
       </c>
       <c r="U278">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
+        <v>-0.5</v>
+      </c>
+      <c r="Z278">
+        <v>0.4625</v>
+      </c>
+      <c r="AA278">
         <v>0.825</v>
       </c>
-      <c r="Z278">
-        <v>-1</v>
-      </c>
-      <c r="AA278">
-        <v>-1</v>
-      </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -24465,7 +24465,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7021656</v>
+        <v>7023667</v>
       </c>
       <c r="C279" t="s">
         <v>36</v>
@@ -24474,46 +24474,46 @@
         <v>45409.375</v>
       </c>
       <c r="E279" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J279">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K279">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L279">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M279">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N279">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O279">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P279">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q279">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R279">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S279">
         <v>2.75</v>
@@ -24522,28 +24522,28 @@
         <v>1.825</v>
       </c>
       <c r="U279">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W279">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z279">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -24649,7 +24649,7 @@
         <v>37</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24732,7 +24732,7 @@
         <v>45416.375</v>
       </c>
       <c r="E282" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F282" t="s">
         <v>48</v>
@@ -25162,7 +25162,7 @@
         <v>45417.375</v>
       </c>
       <c r="E287" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F287" t="s">
         <v>47</v>
@@ -25423,7 +25423,7 @@
         <v>46</v>
       </c>
       <c r="F290" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -26025,7 +26025,7 @@
         <v>47</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26108,7 +26108,7 @@
         <v>45423.375</v>
       </c>
       <c r="E298" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F298" t="s">
         <v>43</v>
@@ -26212,7 +26212,7 @@
         <v>2.1</v>
       </c>
       <c r="N299">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O299">
         <v>2.7</v>
@@ -26221,19 +26221,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q299">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R299">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S299">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T299">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -26259,7 +26259,7 @@
         <v>45430.375</v>
       </c>
       <c r="E300" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F300" t="s">
         <v>54</v>
@@ -26274,31 +26274,31 @@
         <v>2.15</v>
       </c>
       <c r="M300">
+        <v>2.75</v>
+      </c>
+      <c r="N300">
+        <v>3.75</v>
+      </c>
+      <c r="O300">
+        <v>2.05</v>
+      </c>
+      <c r="P300">
+        <v>0.25</v>
+      </c>
+      <c r="Q300">
+        <v>1.925</v>
+      </c>
+      <c r="R300">
+        <v>1.925</v>
+      </c>
+      <c r="S300">
         <v>3</v>
       </c>
-      <c r="N300">
-        <v>3.8</v>
-      </c>
-      <c r="O300">
-        <v>1.909</v>
-      </c>
-      <c r="P300">
-        <v>0.5</v>
-      </c>
-      <c r="Q300">
-        <v>1.9</v>
-      </c>
-      <c r="R300">
-        <v>1.95</v>
-      </c>
-      <c r="S300">
-        <v>2.75</v>
-      </c>
       <c r="T300">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U300">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -26339,31 +26339,31 @@
         <v>4.2</v>
       </c>
       <c r="M301">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="N301">
         <v>3.9</v>
       </c>
       <c r="O301">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P301">
         <v>-0.75</v>
       </c>
       <c r="Q301">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R301">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S301">
         <v>3</v>
       </c>
       <c r="T301">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -26404,31 +26404,31 @@
         <v>1.833</v>
       </c>
       <c r="M302">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N302">
-        <v>4.1</v>
+        <v>4.333</v>
       </c>
       <c r="O302">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P302">
         <v>0.75</v>
       </c>
       <c r="Q302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S302">
         <v>3</v>
       </c>
       <c r="T302">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -26454,46 +26454,46 @@
         <v>45430.375</v>
       </c>
       <c r="E303" t="s">
+        <v>39</v>
+      </c>
+      <c r="F303" t="s">
         <v>40</v>
       </c>
-      <c r="F303" t="s">
-        <v>46</v>
-      </c>
       <c r="J303">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="K303">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L303">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="M303">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="N303">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O303">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="P303">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T303">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V303">
         <v>0</v>
@@ -26534,31 +26534,31 @@
         <v>3.6</v>
       </c>
       <c r="M304">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="N304">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O304">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P304">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S304">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
         <v>0</v>
@@ -26599,31 +26599,31 @@
         <v>3.4</v>
       </c>
       <c r="M305">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N305">
         <v>4</v>
       </c>
       <c r="O305">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P305">
         <v>-0.5</v>
       </c>
       <c r="Q305">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R305">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S305">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T305">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V305">
         <v>0</v>
@@ -26664,31 +26664,31 @@
         <v>1.727</v>
       </c>
       <c r="M306">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N306">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O306">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="P306">
         <v>0.75</v>
       </c>
       <c r="Q306">
+        <v>2.025</v>
+      </c>
+      <c r="R306">
         <v>1.825</v>
       </c>
-      <c r="R306">
-        <v>2.025</v>
-      </c>
       <c r="S306">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T306">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V306">
         <v>0</v>
@@ -26714,31 +26714,31 @@
         <v>45430.375</v>
       </c>
       <c r="E307" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J307">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="K307">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L307">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="M307">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="N307">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O307">
-        <v>1.727</v>
+        <v>3.9</v>
       </c>
       <c r="P307">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q307">
         <v>1.825</v>
@@ -26750,10 +26750,10 @@
         <v>2.75</v>
       </c>
       <c r="T307">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U307">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
         <v>0</v>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -106,19 +106,19 @@
     <t>SGV Freiberg</t>
   </si>
   <si>
-    <t>Hessen Kassel</t>
+    <t>TuS Koblenz</t>
   </si>
   <si>
     <t>FC Astoria Walldorf</t>
+  </si>
+  <si>
+    <t>Hessen Kassel</t>
   </si>
   <si>
     <t>TSG Balingen</t>
   </si>
   <si>
     <t>VfB Stuttgart II</t>
-  </si>
-  <si>
-    <t>TuS Koblenz</t>
   </si>
   <si>
     <t>FC 08 Homburg</t>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6898442</v>
+        <v>6898058</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -800,73 +800,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6907478</v>
+        <v>6898442</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -972,73 +972,73 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="K6">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="P6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6907443</v>
+        <v>6907478</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1058,31 +1058,31 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="M7">
         <v>2.1</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O7">
         <v>2.9</v>
@@ -1091,40 +1091,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T7">
+        <v>1.825</v>
+      </c>
+      <c r="U7">
         <v>1.975</v>
       </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
       <c r="V7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6898058</v>
+        <v>6907443</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1144,73 +1144,73 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="P8">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q8">
+        <v>1.95</v>
+      </c>
+      <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
+        <v>2.75</v>
+      </c>
+      <c r="T8">
         <v>1.975</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>1.825</v>
       </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>1.85</v>
-      </c>
-      <c r="U8">
-        <v>1.95</v>
-      </c>
       <c r="V8">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1488,7 +1488,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1574,7 +1574,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>45157.375</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
@@ -2087,7 +2087,7 @@
         <v>45157.375</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -2517,7 +2517,7 @@
         <v>45158.375</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>43</v>
@@ -2603,7 +2603,7 @@
         <v>45158.375</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -2778,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3208,7 +3208,7 @@
         <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3282,7 +3282,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6898448</v>
+        <v>6898490</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3291,73 +3291,73 @@
         <v>45164.375</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33">
+        <v>1.8</v>
+      </c>
+      <c r="K33">
+        <v>3.6</v>
+      </c>
+      <c r="L33">
+        <v>3.6</v>
+      </c>
+      <c r="M33">
+        <v>2.25</v>
+      </c>
+      <c r="N33">
+        <v>3.6</v>
+      </c>
+      <c r="O33">
+        <v>2.625</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1.725</v>
+      </c>
+      <c r="R33">
+        <v>1.975</v>
+      </c>
+      <c r="S33">
         <v>3</v>
       </c>
-      <c r="I33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33">
-        <v>2.1</v>
-      </c>
-      <c r="K33">
-        <v>3.4</v>
-      </c>
-      <c r="L33">
-        <v>2.875</v>
-      </c>
-      <c r="M33">
-        <v>2.1</v>
-      </c>
-      <c r="N33">
-        <v>3.4</v>
-      </c>
-      <c r="O33">
-        <v>2.875</v>
-      </c>
-      <c r="P33">
-        <v>-0.25</v>
-      </c>
-      <c r="Q33">
+      <c r="T33">
         <v>1.925</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>1.875</v>
       </c>
-      <c r="S33">
-        <v>2.75</v>
-      </c>
-      <c r="T33">
-        <v>1.825</v>
-      </c>
-      <c r="U33">
-        <v>1.975</v>
-      </c>
       <c r="V33">
         <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X33">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -3368,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6898514</v>
+        <v>6898448</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3377,55 +3377,55 @@
         <v>45164.375</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="s">
         <v>46</v>
       </c>
       <c r="J34">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K34">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L34">
+        <v>2.875</v>
+      </c>
+      <c r="M34">
+        <v>2.1</v>
+      </c>
+      <c r="N34">
         <v>3.4</v>
       </c>
-      <c r="M34">
-        <v>2.4</v>
-      </c>
-      <c r="N34">
-        <v>3.75</v>
-      </c>
       <c r="O34">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
         <v>2.75</v>
       </c>
       <c r="T34">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
         <v>-1</v>
@@ -3434,19 +3434,19 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>1.3</v>
+        <v>1.875</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3454,7 +3454,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6898490</v>
+        <v>6898514</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3463,76 +3463,76 @@
         <v>45164.375</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35">
+        <v>1.727</v>
+      </c>
+      <c r="K35">
+        <v>4.2</v>
+      </c>
+      <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
+        <v>2.4</v>
+      </c>
+      <c r="N35">
+        <v>3.75</v>
+      </c>
+      <c r="O35">
+        <v>2.3</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1.95</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>2.75</v>
+      </c>
+      <c r="T35">
         <v>1.8</v>
       </c>
-      <c r="K35">
-        <v>3.6</v>
-      </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>2.25</v>
-      </c>
-      <c r="N35">
-        <v>3.6</v>
-      </c>
-      <c r="O35">
-        <v>2.625</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>1.725</v>
-      </c>
-      <c r="R35">
-        <v>1.975</v>
-      </c>
-      <c r="S35">
-        <v>3</v>
-      </c>
-      <c r="T35">
-        <v>1.925</v>
-      </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3638,7 +3638,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3893,10 +3893,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
         <v>40</v>
@@ -4409,7 +4409,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
         <v>45</v>
@@ -4572,7 +4572,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6898062</v>
+        <v>6898450</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4581,43 +4581,43 @@
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J48">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L48">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O48">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="P48">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R48">
         <v>1.975</v>
@@ -4626,28 +4626,28 @@
         <v>3.25</v>
       </c>
       <c r="T48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U48">
         <v>1.825</v>
       </c>
       <c r="V48">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
         <v>-1</v>
@@ -4658,7 +4658,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6898450</v>
+        <v>6898062</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4667,43 +4667,43 @@
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J49">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="K49">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M49">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O49">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="P49">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R49">
         <v>1.975</v>
@@ -4712,28 +4712,28 @@
         <v>3.25</v>
       </c>
       <c r="T49">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U49">
         <v>1.825</v>
       </c>
       <c r="V49">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA49">
-        <v>1.025</v>
       </c>
       <c r="AB49">
         <v>-1</v>
@@ -4756,7 +4756,7 @@
         <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5097,7 +5097,7 @@
         <v>45172.375</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
@@ -5186,7 +5186,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5355,7 +5355,7 @@
         <v>45178.375</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
         <v>44</v>
@@ -5432,7 +5432,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6898756</v>
+        <v>6898453</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5444,55 +5444,55 @@
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M58">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O58">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P58">
         <v>-0.25</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T58">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5501,16 +5501,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5518,7 +5518,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6898453</v>
+        <v>6898756</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5527,58 +5527,58 @@
         <v>45178.375</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" t="s">
         <v>48</v>
       </c>
       <c r="J59">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L59">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P59">
         <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T59">
+        <v>1.925</v>
+      </c>
+      <c r="U59">
         <v>1.875</v>
       </c>
-      <c r="U59">
-        <v>1.975</v>
-      </c>
       <c r="V59">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5587,16 +5587,16 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5604,7 +5604,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6907489</v>
+        <v>6907487</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5613,76 +5613,76 @@
         <v>45178.375</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J60">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <v>3.75</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="N60">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O60">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T60">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U60">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V60">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB60">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5776,7 +5776,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6907487</v>
+        <v>6899066</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5785,73 +5785,73 @@
         <v>45178.375</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>3</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J62">
+        <v>2.1</v>
+      </c>
+      <c r="K62">
+        <v>3.6</v>
+      </c>
+      <c r="L62">
+        <v>2.8</v>
+      </c>
+      <c r="M62">
+        <v>1.615</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>-0.75</v>
+      </c>
+      <c r="Q62">
+        <v>1.75</v>
+      </c>
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
+        <v>3.25</v>
+      </c>
+      <c r="T62">
+        <v>1.75</v>
+      </c>
+      <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
+        <v>-1</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>3</v>
       </c>
-      <c r="K62">
-        <v>3.75</v>
-      </c>
-      <c r="L62">
-        <v>1.95</v>
-      </c>
-      <c r="M62">
-        <v>2.875</v>
-      </c>
-      <c r="N62">
-        <v>3.8</v>
-      </c>
-      <c r="O62">
-        <v>2</v>
-      </c>
-      <c r="P62">
-        <v>0.25</v>
-      </c>
-      <c r="Q62">
-        <v>1.975</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>3</v>
-      </c>
-      <c r="T62">
-        <v>1.775</v>
-      </c>
-      <c r="U62">
-        <v>2.1</v>
-      </c>
-      <c r="V62">
-        <v>1.875</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -5862,7 +5862,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6899066</v>
+        <v>6907489</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5871,76 +5871,76 @@
         <v>45178.375</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63">
+        <v>1.666</v>
+      </c>
+      <c r="K63">
+        <v>3.75</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>1.5</v>
+      </c>
+      <c r="N63">
+        <v>4.2</v>
+      </c>
+      <c r="O63">
+        <v>4.75</v>
+      </c>
+      <c r="P63">
+        <v>-1</v>
+      </c>
+      <c r="Q63">
+        <v>1.85</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>2.75</v>
+      </c>
+      <c r="T63">
+        <v>1.8</v>
+      </c>
+      <c r="U63">
+        <v>2.05</v>
+      </c>
+      <c r="V63">
+        <v>-1</v>
+      </c>
+      <c r="W63">
+        <v>3.2</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>1</v>
       </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63" t="s">
-        <v>46</v>
-      </c>
-      <c r="J63">
-        <v>2.1</v>
-      </c>
-      <c r="K63">
-        <v>3.6</v>
-      </c>
-      <c r="L63">
-        <v>2.8</v>
-      </c>
-      <c r="M63">
-        <v>1.615</v>
-      </c>
-      <c r="N63">
-        <v>4</v>
-      </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
-      <c r="P63">
-        <v>-0.75</v>
-      </c>
-      <c r="Q63">
-        <v>1.75</v>
-      </c>
-      <c r="R63">
-        <v>1.95</v>
-      </c>
-      <c r="S63">
-        <v>3.25</v>
-      </c>
-      <c r="T63">
-        <v>1.75</v>
-      </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>-1</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>3</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.95</v>
-      </c>
       <c r="AA63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5948,7 +5948,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6907490</v>
+        <v>6899065</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5957,10 +5957,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5972,53 +5972,53 @@
         <v>48</v>
       </c>
       <c r="J64">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K64">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
         <v>2.55</v>
       </c>
-      <c r="M64">
+      <c r="N64">
+        <v>3.6</v>
+      </c>
+      <c r="O64">
+        <v>2.3</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>2.1</v>
       </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64">
-        <v>2.55</v>
-      </c>
-      <c r="P64">
-        <v>-0.25</v>
-      </c>
-      <c r="Q64">
-        <v>1.975</v>
-      </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T64">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
+        <v>1.55</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>1.1</v>
       </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="Z64">
         <v>-1</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6034,7 +6034,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6899065</v>
+        <v>6907490</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6043,10 +6043,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6058,43 +6058,43 @@
         <v>48</v>
       </c>
       <c r="J65">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="K65">
+        <v>3.75</v>
+      </c>
+      <c r="L65">
+        <v>2.55</v>
+      </c>
+      <c r="M65">
+        <v>2.1</v>
+      </c>
+      <c r="N65">
         <v>4</v>
       </c>
-      <c r="L65">
-        <v>3</v>
-      </c>
-      <c r="M65">
+      <c r="O65">
         <v>2.55</v>
       </c>
-      <c r="N65">
-        <v>3.6</v>
-      </c>
-      <c r="O65">
-        <v>2.3</v>
-      </c>
       <c r="P65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q65">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6103,7 +6103,7 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z65">
         <v>-1</v>
@@ -6112,7 +6112,7 @@
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6132,7 +6132,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -6215,7 +6215,7 @@
         <v>45185.375</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
@@ -6648,7 +6648,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6989,7 +6989,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
         <v>29</v>
@@ -7152,7 +7152,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6898456</v>
+        <v>6898065</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7164,52 +7164,52 @@
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78" t="s">
         <v>46</v>
       </c>
       <c r="J78">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="M78">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="P78">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q78">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
         <v>3</v>
       </c>
       <c r="T78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
         <v>-1</v>
@@ -7218,19 +7218,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7238,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6898065</v>
+        <v>6898456</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7247,55 +7247,55 @@
         <v>45192.375</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
       </c>
       <c r="J79">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="K79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N79">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
         <v>3</v>
       </c>
       <c r="T79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
         <v>-1</v>
@@ -7304,19 +7304,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7410,7 +7410,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6907450</v>
+        <v>6899064</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7419,58 +7419,58 @@
         <v>45192.375</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
         <v>48</v>
       </c>
       <c r="J81">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="K81">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M81">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="P81">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q81">
+        <v>1.8</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>2.75</v>
+      </c>
+      <c r="T81">
         <v>1.85</v>
       </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.95</v>
       </c>
-      <c r="S81">
-        <v>3</v>
-      </c>
-      <c r="T81">
-        <v>1.875</v>
-      </c>
-      <c r="U81">
-        <v>1.925</v>
-      </c>
       <c r="V81">
-        <v>0.615</v>
+        <v>2.1</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7479,16 +7479,16 @@
         <v>-1</v>
       </c>
       <c r="Y81">
+        <v>0.8</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
       <c r="AB81">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7496,7 +7496,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6899064</v>
+        <v>6907450</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7505,58 +7505,58 @@
         <v>45192.375</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
         <v>48</v>
       </c>
       <c r="J82">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="K82">
+        <v>3.9</v>
+      </c>
+      <c r="L82">
         <v>3.5</v>
       </c>
-      <c r="L82">
-        <v>2.6</v>
-      </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="N82">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O82">
+        <v>4.2</v>
+      </c>
+      <c r="P82">
+        <v>-0.75</v>
+      </c>
+      <c r="Q82">
+        <v>1.85</v>
+      </c>
+      <c r="R82">
         <v>1.95</v>
       </c>
-      <c r="P82">
-        <v>0.5</v>
-      </c>
-      <c r="Q82">
-        <v>1.8</v>
-      </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
       <c r="S82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>2.1</v>
+        <v>0.615</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7565,16 +7565,16 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7680,7 +7680,7 @@
         <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7935,10 +7935,10 @@
         <v>45199.375</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -8098,7 +8098,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6898495</v>
+        <v>6907452</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8107,34 +8107,34 @@
         <v>45199.375</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J89">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L89">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O89">
         <v>2.1</v>
@@ -8146,37 +8146,37 @@
         <v>1.9</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8184,7 +8184,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6907452</v>
+        <v>6898518</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8193,76 +8193,76 @@
         <v>45199.375</v>
       </c>
       <c r="E90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J90">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="K90">
         <v>3.5</v>
       </c>
       <c r="L90">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="N90">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O90">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8270,7 +8270,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6898518</v>
+        <v>6898495</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8279,13 +8279,13 @@
         <v>45199.375</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8294,43 +8294,43 @@
         <v>48</v>
       </c>
       <c r="J91">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="K91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="M91">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="P91">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U91">
         <v>1.95</v>
       </c>
       <c r="V91">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8339,16 +8339,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8365,10 +8365,10 @@
         <v>45202.375</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
         <v>35</v>
@@ -8967,7 +8967,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
         <v>31</v>
@@ -9142,7 +9142,7 @@
         <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9486,7 +9486,7 @@
         <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6898519</v>
+        <v>6907454</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9569,10 +9569,10 @@
         <v>45207.375</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9584,43 +9584,43 @@
         <v>48</v>
       </c>
       <c r="J106">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="K106">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="N106">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O106">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T106">
+        <v>1.925</v>
+      </c>
+      <c r="U106">
         <v>1.875</v>
       </c>
-      <c r="U106">
-        <v>1.925</v>
-      </c>
       <c r="V106">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9629,13 +9629,13 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9646,7 +9646,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6899061</v>
+        <v>6898519</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9655,13 +9655,13 @@
         <v>45207.375</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -9670,43 +9670,43 @@
         <v>48</v>
       </c>
       <c r="J107">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K107">
+        <v>4.333</v>
+      </c>
+      <c r="L107">
         <v>3.75</v>
       </c>
-      <c r="L107">
-        <v>2.3</v>
-      </c>
       <c r="M107">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="N107">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O107">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q107">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -9715,16 +9715,16 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9732,7 +9732,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6907454</v>
+        <v>6899061</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9741,13 +9741,13 @@
         <v>45207.375</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -9756,43 +9756,43 @@
         <v>48</v>
       </c>
       <c r="J108">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="K108">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M108">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="P108">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q108">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T108">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>0.909</v>
+        <v>1.55</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -9801,16 +9801,16 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9913,7 +9913,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
         <v>35</v>
@@ -10085,7 +10085,7 @@
         <v>45213.375</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
         <v>29</v>
@@ -10162,7 +10162,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6907498</v>
+        <v>6899060</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10171,73 +10171,73 @@
         <v>45213.375</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>2</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J113">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L113">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="M113">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N113">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O113">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="P113">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q113">
+        <v>1.975</v>
+      </c>
+      <c r="R113">
         <v>1.825</v>
       </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
       <c r="S113">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X113">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
         <v>-1</v>
@@ -10248,7 +10248,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6899060</v>
+        <v>6907498</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10257,73 +10257,73 @@
         <v>45213.375</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G114">
         <v>2</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J114">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="K114">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="M114">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N114">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O114">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="P114">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q114">
+        <v>1.825</v>
+      </c>
+      <c r="R114">
         <v>1.975</v>
       </c>
-      <c r="R114">
+      <c r="S114">
+        <v>3</v>
+      </c>
+      <c r="T114">
         <v>1.825</v>
       </c>
-      <c r="S114">
-        <v>3.5</v>
-      </c>
-      <c r="T114">
-        <v>1.85</v>
-      </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z114">
+        <v>0.4875</v>
+      </c>
+      <c r="AA114">
         <v>0.825</v>
-      </c>
-      <c r="AA114">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
         <v>-1</v>
@@ -10334,7 +10334,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6907497</v>
+        <v>6898759</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10343,13 +10343,13 @@
         <v>45213.375</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10358,61 +10358,61 @@
         <v>46</v>
       </c>
       <c r="J115">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K115">
         <v>4</v>
       </c>
       <c r="L115">
+        <v>2.75</v>
+      </c>
+      <c r="M115">
+        <v>2.2</v>
+      </c>
+      <c r="N115">
         <v>3.75</v>
       </c>
-      <c r="M115">
+      <c r="O115">
+        <v>2.625</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>1.725</v>
+      </c>
+      <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>2.75</v>
+      </c>
+      <c r="T115">
         <v>1.8</v>
       </c>
-      <c r="N115">
-        <v>4</v>
-      </c>
-      <c r="O115">
-        <v>3.3</v>
-      </c>
-      <c r="P115">
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>-1</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.625</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>0.4</v>
+      </c>
+      <c r="AB115">
         <v>-0.5</v>
-      </c>
-      <c r="Q115">
-        <v>1.8</v>
-      </c>
-      <c r="R115">
-        <v>2</v>
-      </c>
-      <c r="S115">
-        <v>3</v>
-      </c>
-      <c r="T115">
-        <v>1.925</v>
-      </c>
-      <c r="U115">
-        <v>1.875</v>
-      </c>
-      <c r="V115">
-        <v>-1</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>2.3</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10420,7 +10420,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6898759</v>
+        <v>6907497</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10429,13 +10429,13 @@
         <v>45213.375</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10444,40 +10444,40 @@
         <v>46</v>
       </c>
       <c r="J116">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K116">
         <v>4</v>
       </c>
       <c r="L116">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N116">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O116">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q116">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
         <v>-1</v>
@@ -10486,19 +10486,19 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.625</v>
+        <v>2.3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10518,7 +10518,7 @@
         <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10601,7 +10601,7 @@
         <v>45220.375</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
         <v>39</v>
@@ -10862,7 +10862,7 @@
         <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11206,7 +11206,7 @@
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11292,7 +11292,7 @@
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11461,7 +11461,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
         <v>28</v>
@@ -11796,7 +11796,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6907500</v>
+        <v>7386980</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -11805,49 +11805,49 @@
         <v>45227.375</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J132">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="K132">
+        <v>5.5</v>
+      </c>
+      <c r="L132">
+        <v>9</v>
+      </c>
+      <c r="M132">
+        <v>1.444</v>
+      </c>
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132">
+        <v>5.25</v>
+      </c>
+      <c r="P132">
+        <v>-1.25</v>
+      </c>
+      <c r="Q132">
+        <v>1.925</v>
+      </c>
+      <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
         <v>3.5</v>
-      </c>
-      <c r="L132">
-        <v>2.15</v>
-      </c>
-      <c r="M132">
-        <v>2.5</v>
-      </c>
-      <c r="N132">
-        <v>3.4</v>
-      </c>
-      <c r="O132">
-        <v>2.375</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>2</v>
-      </c>
-      <c r="R132">
-        <v>1.8</v>
-      </c>
-      <c r="S132">
-        <v>3</v>
       </c>
       <c r="T132">
         <v>1.975</v>
@@ -11856,25 +11856,25 @@
         <v>1.825</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11882,7 +11882,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7386980</v>
+        <v>6907500</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11891,49 +11891,49 @@
         <v>45227.375</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="K133">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="M133">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O133">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="P133">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T133">
         <v>1.975</v>
@@ -11942,25 +11942,25 @@
         <v>1.825</v>
       </c>
       <c r="V133">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11977,10 +11977,10 @@
         <v>45227.375</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12226,7 +12226,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6907502</v>
+        <v>6907501</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12235,76 +12235,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J137">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L137">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N137">
         <v>3.8</v>
       </c>
       <c r="O137">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q137">
+        <v>1.75</v>
+      </c>
+      <c r="R137">
         <v>1.95</v>
       </c>
-      <c r="R137">
-        <v>1.75</v>
-      </c>
       <c r="S137">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
         <v>-1</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X137">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12493,7 +12493,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
         <v>45</v>
@@ -12742,7 +12742,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6907501</v>
+        <v>6907502</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12751,76 +12751,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J143">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="K143">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="M143">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N143">
         <v>3.8</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="P143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q143">
+        <v>1.95</v>
+      </c>
+      <c r="R143">
         <v>1.75</v>
       </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
       <c r="S143">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
         <v>-1</v>
       </c>
       <c r="W143">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12837,10 +12837,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -13172,7 +13172,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6899056</v>
+        <v>6907081</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13181,13 +13181,13 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13196,40 +13196,40 @@
         <v>46</v>
       </c>
       <c r="J148">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="K148">
         <v>4</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M148">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N148">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
         <v>-0.5</v>
       </c>
       <c r="Q148">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
         <v>3</v>
       </c>
       <c r="T148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13238,19 +13238,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13258,7 +13258,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6907081</v>
+        <v>6899056</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13267,13 +13267,13 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13282,40 +13282,40 @@
         <v>46</v>
       </c>
       <c r="J149">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="K149">
         <v>4</v>
       </c>
       <c r="L149">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N149">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P149">
         <v>-0.5</v>
       </c>
       <c r="Q149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
         <v>3</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
         <v>-1</v>
@@ -13324,19 +13324,19 @@
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13353,10 +13353,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13442,7 +13442,7 @@
         <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13700,7 +13700,7 @@
         <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13786,7 +13786,7 @@
         <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>4</v>
@@ -13860,7 +13860,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6907506</v>
+        <v>6899055</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13869,76 +13869,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J156">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N156">
         <v>3.6</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P156">
+        <v>-0.25</v>
+      </c>
+      <c r="Q156">
+        <v>1.85</v>
+      </c>
+      <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
+        <v>3</v>
+      </c>
+      <c r="T156">
+        <v>1.875</v>
+      </c>
+      <c r="U156">
+        <v>1.925</v>
+      </c>
+      <c r="V156">
+        <v>-1</v>
+      </c>
+      <c r="W156">
+        <v>2.6</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
         <v>-0.5</v>
       </c>
-      <c r="Q156">
-        <v>1.95</v>
-      </c>
-      <c r="R156">
-        <v>1.9</v>
-      </c>
-      <c r="S156">
-        <v>2.75</v>
-      </c>
-      <c r="T156">
-        <v>2.025</v>
-      </c>
-      <c r="U156">
-        <v>1.825</v>
-      </c>
-      <c r="V156">
-        <v>0.8</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>0.95</v>
-      </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13946,7 +13946,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6899055</v>
+        <v>6907505</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13955,76 +13955,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J157">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="K157">
         <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q157">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
         <v>3</v>
       </c>
       <c r="T157">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z157">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14130,7 +14130,7 @@
         <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14204,7 +14204,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6907505</v>
+        <v>6907506</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14213,13 +14213,13 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14228,40 +14228,40 @@
         <v>48</v>
       </c>
       <c r="J160">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="K160">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L160">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M160">
         <v>1.8</v>
       </c>
       <c r="N160">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O160">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P160">
         <v>-0.5</v>
       </c>
       <c r="Q160">
+        <v>1.95</v>
+      </c>
+      <c r="R160">
+        <v>1.9</v>
+      </c>
+      <c r="S160">
+        <v>2.75</v>
+      </c>
+      <c r="T160">
+        <v>2.025</v>
+      </c>
+      <c r="U160">
         <v>1.825</v>
-      </c>
-      <c r="R160">
-        <v>1.975</v>
-      </c>
-      <c r="S160">
-        <v>3</v>
-      </c>
-      <c r="T160">
-        <v>1.825</v>
-      </c>
-      <c r="U160">
-        <v>1.975</v>
       </c>
       <c r="V160">
         <v>0.8</v>
@@ -14273,16 +14273,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
+        <v>0.95</v>
+      </c>
+      <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
         <v>0.825</v>
-      </c>
-      <c r="Z160">
-        <v>-1</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14557,7 +14557,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
         <v>41</v>
@@ -14901,7 +14901,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
         <v>38</v>
@@ -14987,7 +14987,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F169" t="s">
         <v>44</v>
@@ -15073,7 +15073,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F170" t="s">
         <v>39</v>
@@ -15248,7 +15248,7 @@
         <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15334,7 +15334,7 @@
         <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>43</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15678,7 +15678,7 @@
         <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15838,7 +15838,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15847,76 +15847,76 @@
         <v>45268.625</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J179">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K179">
         <v>3.75</v>
       </c>
       <c r="L179">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M179">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q179">
+        <v>1.75</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
         <v>1.825</v>
       </c>
-      <c r="R179">
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="S179">
-        <v>3.5</v>
-      </c>
-      <c r="T179">
-        <v>1.925</v>
-      </c>
-      <c r="U179">
-        <v>1.875</v>
-      </c>
       <c r="V179">
         <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X179">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z179">
+        <v>0.475</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15924,7 +15924,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15933,76 +15933,76 @@
         <v>45268.625</v>
       </c>
       <c r="E180" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J180">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K180">
         <v>3.75</v>
       </c>
       <c r="L180">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N180">
+        <v>4.2</v>
+      </c>
+      <c r="O180">
+        <v>4.75</v>
+      </c>
+      <c r="P180">
+        <v>-1</v>
+      </c>
+      <c r="Q180">
+        <v>1.825</v>
+      </c>
+      <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
         <v>3.5</v>
       </c>
-      <c r="O180">
-        <v>3</v>
-      </c>
-      <c r="P180">
-        <v>-0.25</v>
-      </c>
-      <c r="Q180">
-        <v>1.75</v>
-      </c>
-      <c r="R180">
-        <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>2.75</v>
-      </c>
       <c r="T180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16010,7 +16010,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6898476</v>
+        <v>6898526</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -16019,76 +16019,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J181">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K181">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="M181">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N181">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="P181">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q181">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16096,7 +16096,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6898526</v>
+        <v>6898476</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -16105,76 +16105,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J182">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K182">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L182">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="M182">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N182">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O182">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q182">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16191,7 +16191,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
         <v>45</v>
@@ -16624,7 +16624,7 @@
         <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16707,7 +16707,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
         <v>38</v>
@@ -16956,7 +16956,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6898504</v>
+        <v>6898077</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -16965,76 +16965,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J192">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="K192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L192">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="M192">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="N192">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O192">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="P192">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T192">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB192">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17042,7 +17042,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6907084</v>
+        <v>6898504</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -17051,76 +17051,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="I193" t="s">
+        <v>46</v>
+      </c>
+      <c r="J193">
+        <v>5</v>
+      </c>
+      <c r="K193">
         <v>4</v>
       </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193" t="s">
-        <v>48</v>
-      </c>
-      <c r="J193">
-        <v>1.8</v>
-      </c>
-      <c r="K193">
-        <v>3.6</v>
-      </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="M193">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="N193">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O193">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="P193">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q193">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T193">
         <v>1.85</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y193">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17128,7 +17128,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6899051</v>
+        <v>6907084</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17137,73 +17137,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J194">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K194">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L194">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="N194">
         <v>3.4</v>
       </c>
       <c r="O194">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="P194">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q194">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R194">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T194">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W194">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17214,7 +17214,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6898478</v>
+        <v>6899051</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17223,16 +17223,16 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
@@ -17247,19 +17247,19 @@
         <v>2.8</v>
       </c>
       <c r="M195">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N195">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O195">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P195">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q195">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R195">
         <v>2.025</v>
@@ -17268,31 +17268,31 @@
         <v>2.75</v>
       </c>
       <c r="T195">
+        <v>1.925</v>
+      </c>
+      <c r="U195">
         <v>1.875</v>
       </c>
-      <c r="U195">
-        <v>1.975</v>
-      </c>
       <c r="V195">
         <v>-1</v>
       </c>
       <c r="W195">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z195">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17300,7 +17300,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6898077</v>
+        <v>6898478</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17309,76 +17309,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J196">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="K196">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L196">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="M196">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="N196">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O196">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P196">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q196">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17481,10 +17481,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E198" t="s">
+        <v>34</v>
+      </c>
+      <c r="F198" t="s">
         <v>33</v>
-      </c>
-      <c r="F198" t="s">
-        <v>32</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17653,7 +17653,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F200" t="s">
         <v>40</v>
@@ -17825,7 +17825,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F202" t="s">
         <v>42</v>
@@ -18000,7 +18000,7 @@
         <v>31</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18169,7 +18169,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
         <v>39</v>
@@ -18418,7 +18418,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6898482</v>
+        <v>6907515</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18427,76 +18427,76 @@
         <v>45366.625</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
       </c>
       <c r="J209">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="K209">
         <v>3.75</v>
       </c>
       <c r="L209">
+        <v>1.615</v>
+      </c>
+      <c r="M209">
+        <v>3.75</v>
+      </c>
+      <c r="N209">
         <v>3.3</v>
       </c>
-      <c r="M209">
-        <v>2.2</v>
-      </c>
-      <c r="N209">
-        <v>3.4</v>
-      </c>
       <c r="O209">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="P209">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q209">
+        <v>1.85</v>
+      </c>
+      <c r="R209">
         <v>1.95</v>
-      </c>
-      <c r="R209">
-        <v>1.85</v>
       </c>
       <c r="S209">
         <v>2.5</v>
       </c>
       <c r="T209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V209">
         <v>-1</v>
       </c>
       <c r="W209">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z209">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18504,7 +18504,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6907515</v>
+        <v>6898482</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18513,76 +18513,76 @@
         <v>45366.625</v>
       </c>
       <c r="E210" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
       </c>
       <c r="J210">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="K210">
         <v>3.75</v>
       </c>
       <c r="L210">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="M210">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O210">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="P210">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q210">
+        <v>1.95</v>
+      </c>
+      <c r="R210">
         <v>1.85</v>
-      </c>
-      <c r="R210">
-        <v>1.95</v>
       </c>
       <c r="S210">
         <v>2.5</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
+        <v>-0.5</v>
+      </c>
+      <c r="Z210">
+        <v>0.425</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z210">
-        <v>-1</v>
-      </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
-      <c r="AB210">
-        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18590,7 +18590,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6898481</v>
+        <v>6898079</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18599,76 +18599,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J211">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="K211">
         <v>3.75</v>
       </c>
       <c r="L211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M211">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O211">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="P211">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q211">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S211">
         <v>2.75</v>
       </c>
       <c r="T211">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA211">
-        <v>-1</v>
-      </c>
-      <c r="AB211">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18676,7 +18676,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6898079</v>
+        <v>6898481</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18685,76 +18685,76 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
         <v>1</v>
       </c>
-      <c r="H212">
-        <v>0</v>
-      </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J212">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="K212">
         <v>3.75</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M212">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N212">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O212">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="P212">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q212">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
         <v>2.75</v>
       </c>
       <c r="T212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18771,7 +18771,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F213" t="s">
         <v>29</v>
@@ -19032,7 +19032,7 @@
         <v>31</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>35</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19287,7 +19287,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F219" t="s">
         <v>43</v>
@@ -19373,7 +19373,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F220" t="s">
         <v>44</v>
@@ -19459,7 +19459,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
         <v>37</v>
@@ -19536,7 +19536,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6898768</v>
+        <v>6898484</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19545,13 +19545,13 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -19560,43 +19560,43 @@
         <v>48</v>
       </c>
       <c r="J222">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="K222">
         <v>4</v>
       </c>
       <c r="L222">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M222">
+        <v>1.571</v>
+      </c>
+      <c r="N222">
+        <v>4.2</v>
+      </c>
+      <c r="O222">
+        <v>4.5</v>
+      </c>
+      <c r="P222">
+        <v>-1</v>
+      </c>
+      <c r="Q222">
+        <v>2</v>
+      </c>
+      <c r="R222">
         <v>1.8</v>
       </c>
-      <c r="N222">
-        <v>3.8</v>
-      </c>
-      <c r="O222">
-        <v>3.3</v>
-      </c>
-      <c r="P222">
-        <v>-0.5</v>
-      </c>
-      <c r="Q222">
-        <v>1.8</v>
-      </c>
-      <c r="R222">
-        <v>2</v>
-      </c>
       <c r="S222">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T222">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V222">
-        <v>0.8</v>
+        <v>0.571</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -19605,16 +19605,16 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB222">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19622,7 +19622,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6907466</v>
+        <v>6898768</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -19631,76 +19631,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G223">
         <v>2</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J223">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="K223">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L223">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M223">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="N223">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O223">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q223">
+        <v>1.8</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>2.75</v>
+      </c>
+      <c r="T223">
         <v>1.9</v>
       </c>
-      <c r="R223">
+      <c r="U223">
         <v>1.9</v>
       </c>
-      <c r="S223">
-        <v>2.5</v>
-      </c>
-      <c r="T223">
-        <v>2</v>
-      </c>
-      <c r="U223">
-        <v>1.8</v>
-      </c>
       <c r="V223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>-1</v>
+      </c>
+      <c r="AB223">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA223">
-        <v>1</v>
-      </c>
-      <c r="AB223">
-        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19708,7 +19708,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6899048</v>
+        <v>6907466</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19717,13 +19717,13 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -19732,40 +19732,40 @@
         <v>46</v>
       </c>
       <c r="J224">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="K224">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L224">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="M224">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="N224">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O224">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R224">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
         <v>2.5</v>
       </c>
       <c r="T224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
         <v>-1</v>
@@ -19774,16 +19774,16 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA224">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB224">
         <v>-1</v>
@@ -19794,7 +19794,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6898484</v>
+        <v>6899048</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19803,76 +19803,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
         <v>3</v>
       </c>
-      <c r="H225">
-        <v>0</v>
-      </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J225">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="K225">
         <v>4</v>
       </c>
       <c r="L225">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M225">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N225">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O225">
+        <v>5.5</v>
+      </c>
+      <c r="P225">
+        <v>-1</v>
+      </c>
+      <c r="Q225">
+        <v>1.875</v>
+      </c>
+      <c r="R225">
+        <v>1.925</v>
+      </c>
+      <c r="S225">
+        <v>2.5</v>
+      </c>
+      <c r="T225">
+        <v>1.825</v>
+      </c>
+      <c r="U225">
+        <v>1.975</v>
+      </c>
+      <c r="V225">
+        <v>-1</v>
+      </c>
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
         <v>4.5</v>
       </c>
-      <c r="P225">
-        <v>-1</v>
-      </c>
-      <c r="Q225">
-        <v>2</v>
-      </c>
-      <c r="R225">
-        <v>1.8</v>
-      </c>
-      <c r="S225">
-        <v>3</v>
-      </c>
-      <c r="T225">
-        <v>1.95</v>
-      </c>
-      <c r="U225">
-        <v>1.75</v>
-      </c>
-      <c r="V225">
-        <v>0.571</v>
-      </c>
-      <c r="W225">
-        <v>-1</v>
-      </c>
-      <c r="X225">
-        <v>-1</v>
-      </c>
       <c r="Y225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA225">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB225">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19880,7 +19880,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6898081</v>
+        <v>6898507</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
@@ -19889,58 +19889,58 @@
         <v>45379.625</v>
       </c>
       <c r="E226" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="s">
         <v>48</v>
       </c>
       <c r="J226">
+        <v>3.75</v>
+      </c>
+      <c r="K226">
+        <v>3.75</v>
+      </c>
+      <c r="L226">
+        <v>1.727</v>
+      </c>
+      <c r="M226">
+        <v>4.75</v>
+      </c>
+      <c r="N226">
+        <v>3.8</v>
+      </c>
+      <c r="O226">
         <v>1.571</v>
       </c>
-      <c r="K226">
-        <v>4</v>
-      </c>
-      <c r="L226">
-        <v>4.5</v>
-      </c>
-      <c r="M226">
-        <v>1.55</v>
-      </c>
-      <c r="N226">
-        <v>3.6</v>
-      </c>
-      <c r="O226">
-        <v>5.25</v>
-      </c>
       <c r="P226">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q226">
+        <v>1.8</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>2.75</v>
+      </c>
+      <c r="T226">
         <v>1.95</v>
       </c>
-      <c r="R226">
+      <c r="U226">
         <v>1.85</v>
       </c>
-      <c r="S226">
-        <v>2.5</v>
-      </c>
-      <c r="T226">
-        <v>1.75</v>
-      </c>
-      <c r="U226">
-        <v>1.95</v>
-      </c>
       <c r="V226">
-        <v>0.55</v>
+        <v>3.75</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -19949,16 +19949,16 @@
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -20052,7 +20052,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6898507</v>
+        <v>6898081</v>
       </c>
       <c r="C228" t="s">
         <v>27</v>
@@ -20061,58 +20061,58 @@
         <v>45379.625</v>
       </c>
       <c r="E228" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="s">
         <v>48</v>
       </c>
       <c r="J228">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="K228">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L228">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="M228">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="N228">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O228">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="P228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T228">
+        <v>1.75</v>
+      </c>
+      <c r="U228">
         <v>1.95</v>
       </c>
-      <c r="U228">
-        <v>1.85</v>
-      </c>
       <c r="V228">
-        <v>3.75</v>
+        <v>0.55</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20121,16 +20121,16 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20150,7 +20150,7 @@
         <v>43</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20408,7 +20408,7 @@
         <v>29</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G232">
         <v>4</v>
@@ -20491,7 +20491,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
         <v>28</v>
@@ -20654,7 +20654,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6898486</v>
+        <v>6907087</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20663,76 +20663,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J235">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="K235">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L235">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="N235">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P235">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
         <v>-1</v>
       </c>
       <c r="W235">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20835,10 +20835,10 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E237" t="s">
+        <v>30</v>
+      </c>
+      <c r="F237" t="s">
         <v>34</v>
-      </c>
-      <c r="F237" t="s">
-        <v>33</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20912,7 +20912,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6907087</v>
+        <v>6898486</v>
       </c>
       <c r="C238" t="s">
         <v>27</v>
@@ -20921,76 +20921,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J238">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="K238">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L238">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="M238">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O238">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q238">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T238">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
         <v>-1</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X238">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21265,7 +21265,7 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
         <v>45</v>
@@ -21437,10 +21437,10 @@
         <v>45388.375</v>
       </c>
       <c r="E244" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21686,7 +21686,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6907472</v>
+        <v>6907522</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
@@ -21695,76 +21695,76 @@
         <v>45388.375</v>
       </c>
       <c r="E247" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="s">
         <v>47</v>
       </c>
       <c r="J247">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="K247">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L247">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M247">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N247">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O247">
+        <v>2.15</v>
+      </c>
+      <c r="P247">
+        <v>0.25</v>
+      </c>
+      <c r="Q247">
+        <v>1.825</v>
+      </c>
+      <c r="R247">
+        <v>1.975</v>
+      </c>
+      <c r="S247">
+        <v>2.75</v>
+      </c>
+      <c r="T247">
+        <v>1.95</v>
+      </c>
+      <c r="U247">
+        <v>1.85</v>
+      </c>
+      <c r="V247">
+        <v>-1</v>
+      </c>
+      <c r="W247">
         <v>2.6</v>
       </c>
-      <c r="P247">
-        <v>0</v>
-      </c>
-      <c r="Q247">
-        <v>1.775</v>
-      </c>
-      <c r="R247">
-        <v>2.025</v>
-      </c>
-      <c r="S247">
-        <v>2.5</v>
-      </c>
-      <c r="T247">
-        <v>1.8</v>
-      </c>
-      <c r="U247">
-        <v>2</v>
-      </c>
-      <c r="V247">
-        <v>-1</v>
-      </c>
-      <c r="W247">
-        <v>2.5</v>
-      </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21772,7 +21772,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6907522</v>
+        <v>6907472</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21781,76 +21781,76 @@
         <v>45388.375</v>
       </c>
       <c r="E248" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F248" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="s">
         <v>47</v>
       </c>
       <c r="J248">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="K248">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L248">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M248">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N248">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O248">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="P248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S248">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T248">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V248">
         <v>-1</v>
       </c>
       <c r="W248">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21956,7 +21956,7 @@
         <v>35</v>
       </c>
       <c r="F250" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -22042,7 +22042,7 @@
         <v>31</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22202,7 +22202,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6907526</v>
+        <v>6907525</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22211,70 +22211,70 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F253" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I253" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J253">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="K253">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L253">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="M253">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="N253">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O253">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P253">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q253">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T253">
         <v>1.825</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y253">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA253">
         <v>0.825</v>
@@ -22288,7 +22288,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6907525</v>
+        <v>6907526</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22297,70 +22297,70 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H254">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J254">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="K254">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L254">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="M254">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="N254">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O254">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q254">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R254">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S254">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T254">
         <v>1.825</v>
       </c>
       <c r="U254">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V254">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z254">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
         <v>0.825</v>
@@ -22383,7 +22383,7 @@
         <v>45395.375</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F255" t="s">
         <v>40</v>
@@ -22469,7 +22469,7 @@
         <v>45395.375</v>
       </c>
       <c r="E256" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F256" t="s">
         <v>31</v>
@@ -22727,7 +22727,7 @@
         <v>45395.375</v>
       </c>
       <c r="E259" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F259" t="s">
         <v>29</v>
@@ -22902,7 +22902,7 @@
         <v>41</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -23062,7 +23062,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6957175</v>
+        <v>6907475</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
@@ -23071,58 +23071,58 @@
         <v>45402.375</v>
       </c>
       <c r="E263" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G263">
+        <v>4</v>
+      </c>
+      <c r="H263">
         <v>1</v>
-      </c>
-      <c r="H263">
-        <v>0</v>
       </c>
       <c r="I263" t="s">
         <v>48</v>
       </c>
       <c r="J263">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="K263">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L263">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="M263">
+        <v>2.625</v>
+      </c>
+      <c r="N263">
         <v>3.75</v>
       </c>
-      <c r="N263">
-        <v>3.6</v>
-      </c>
       <c r="O263">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P263">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q263">
+        <v>1.85</v>
+      </c>
+      <c r="R263">
         <v>1.95</v>
-      </c>
-      <c r="R263">
-        <v>1.85</v>
       </c>
       <c r="S263">
         <v>2.75</v>
       </c>
       <c r="T263">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>2.75</v>
+        <v>1.625</v>
       </c>
       <c r="W263">
         <v>-1</v>
@@ -23131,16 +23131,16 @@
         <v>-1</v>
       </c>
       <c r="Y263">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z263">
+        <v>-1</v>
+      </c>
+      <c r="AA263">
         <v>0.95</v>
       </c>
-      <c r="Z263">
-        <v>-1</v>
-      </c>
-      <c r="AA263">
-        <v>-1</v>
-      </c>
       <c r="AB263">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23148,7 +23148,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6907475</v>
+        <v>6916483</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23157,58 +23157,58 @@
         <v>45402.375</v>
       </c>
       <c r="E264" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="s">
         <v>48</v>
       </c>
       <c r="J264">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="K264">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L264">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="M264">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="N264">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="O264">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="P264">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q264">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T264">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>1.625</v>
+        <v>0.222</v>
       </c>
       <c r="W264">
         <v>-1</v>
@@ -23217,16 +23217,16 @@
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23234,7 +23234,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6916483</v>
+        <v>6907527</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23243,58 +23243,58 @@
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G265">
         <v>2</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="s">
         <v>48</v>
       </c>
       <c r="J265">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="K265">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L265">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M265">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="N265">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O265">
-        <v>8.5</v>
+        <v>2.375</v>
       </c>
       <c r="P265">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q265">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S265">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T265">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>0.222</v>
+        <v>1.375</v>
       </c>
       <c r="W265">
         <v>-1</v>
@@ -23303,16 +23303,16 @@
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z265">
+        <v>-1</v>
+      </c>
+      <c r="AA265">
+        <v>0.45</v>
+      </c>
+      <c r="AB265">
         <v>-0.5</v>
-      </c>
-      <c r="AA265">
-        <v>-1</v>
-      </c>
-      <c r="AB265">
-        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23320,7 +23320,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6907527</v>
+        <v>6957175</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23329,58 +23329,58 @@
         <v>45402.375</v>
       </c>
       <c r="E266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="s">
         <v>48</v>
       </c>
       <c r="J266">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="K266">
         <v>4</v>
       </c>
       <c r="L266">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="M266">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N266">
         <v>3.6</v>
       </c>
       <c r="O266">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="P266">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q266">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R266">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S266">
         <v>2.75</v>
       </c>
       <c r="T266">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U266">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V266">
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -23389,16 +23389,16 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23418,7 +23418,7 @@
         <v>29</v>
       </c>
       <c r="F267" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23504,7 +23504,7 @@
         <v>28</v>
       </c>
       <c r="F268" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G268">
         <v>5</v>
@@ -23759,7 +23759,7 @@
         <v>45403.375</v>
       </c>
       <c r="E271" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F271" t="s">
         <v>38</v>
@@ -23845,7 +23845,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F272" t="s">
         <v>42</v>
@@ -23931,7 +23931,7 @@
         <v>45409.375</v>
       </c>
       <c r="E273" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F273" t="s">
         <v>28</v>
@@ -24189,7 +24189,7 @@
         <v>45409.375</v>
       </c>
       <c r="E276" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F276" t="s">
         <v>35</v>
@@ -24278,7 +24278,7 @@
         <v>39</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -24619,10 +24619,10 @@
         <v>45416.375</v>
       </c>
       <c r="E281" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F281" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G281">
         <v>2</v>
@@ -24966,7 +24966,7 @@
         <v>28</v>
       </c>
       <c r="F285" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7074957</v>
+        <v>7060354</v>
       </c>
       <c r="C286" t="s">
         <v>27</v>
@@ -25049,76 +25049,76 @@
         <v>45417.375</v>
       </c>
       <c r="E286" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F286" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H286">
         <v>2</v>
       </c>
       <c r="I286" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J286">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="K286">
         <v>4</v>
       </c>
       <c r="L286">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="M286">
+        <v>4.2</v>
+      </c>
+      <c r="N286">
+        <v>3.8</v>
+      </c>
+      <c r="O286">
         <v>1.65</v>
       </c>
-      <c r="N286">
-        <v>4.333</v>
-      </c>
-      <c r="O286">
-        <v>3.5</v>
-      </c>
       <c r="P286">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q286">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R286">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S286">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T286">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U286">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V286">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W286">
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z286">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB286">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
@@ -25126,7 +25126,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7060354</v>
+        <v>7074957</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -25135,76 +25135,76 @@
         <v>45417.375</v>
       </c>
       <c r="E287" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H287">
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J287">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="K287">
         <v>4</v>
       </c>
       <c r="L287">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="M287">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="N287">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O287">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="P287">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q287">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R287">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T287">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y287">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA287">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="288" spans="1:28">
@@ -25221,7 +25221,7 @@
         <v>45417.375</v>
       </c>
       <c r="E288" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F288" t="s">
         <v>37</v>
@@ -25470,7 +25470,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7091855</v>
+        <v>7091856</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -25479,10 +25479,10 @@
         <v>45423.375</v>
       </c>
       <c r="E291" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25494,34 +25494,34 @@
         <v>48</v>
       </c>
       <c r="J291">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="K291">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L291">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="M291">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O291">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P291">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q291">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R291">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S291">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T291">
         <v>1.85</v>
@@ -25530,7 +25530,7 @@
         <v>1.95</v>
       </c>
       <c r="V291">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -25539,10 +25539,10 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z291">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA291">
         <v>-1</v>
@@ -25556,7 +25556,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7091854</v>
+        <v>7091855</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -25565,13 +25565,13 @@
         <v>45423.375</v>
       </c>
       <c r="E292" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F292" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -25580,43 +25580,43 @@
         <v>48</v>
       </c>
       <c r="J292">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="K292">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L292">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M292">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="N292">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="O292">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P292">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q292">
+        <v>1.975</v>
+      </c>
+      <c r="R292">
+        <v>1.825</v>
+      </c>
+      <c r="S292">
+        <v>3.25</v>
+      </c>
+      <c r="T292">
         <v>1.85</v>
       </c>
-      <c r="R292">
+      <c r="U292">
         <v>1.95</v>
       </c>
-      <c r="S292">
-        <v>3</v>
-      </c>
-      <c r="T292">
-        <v>1.875</v>
-      </c>
-      <c r="U292">
-        <v>1.925</v>
-      </c>
       <c r="V292">
-        <v>0.8</v>
+        <v>0.333</v>
       </c>
       <c r="W292">
         <v>-1</v>
@@ -25625,16 +25625,16 @@
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -25642,7 +25642,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7091858</v>
+        <v>7091854</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -25651,13 +25651,13 @@
         <v>45423.375</v>
       </c>
       <c r="E293" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F293" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G293">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -25666,40 +25666,40 @@
         <v>48</v>
       </c>
       <c r="J293">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="K293">
         <v>3.75</v>
       </c>
       <c r="L293">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M293">
         <v>1.8</v>
       </c>
       <c r="N293">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O293">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q293">
+        <v>1.85</v>
+      </c>
+      <c r="R293">
+        <v>1.95</v>
+      </c>
+      <c r="S293">
+        <v>3</v>
+      </c>
+      <c r="T293">
+        <v>1.875</v>
+      </c>
+      <c r="U293">
         <v>1.925</v>
-      </c>
-      <c r="R293">
-        <v>1.775</v>
-      </c>
-      <c r="S293">
-        <v>3.75</v>
-      </c>
-      <c r="T293">
-        <v>1.95</v>
-      </c>
-      <c r="U293">
-        <v>1.85</v>
       </c>
       <c r="V293">
         <v>0.8</v>
@@ -25711,16 +25711,16 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25728,7 +25728,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7091856</v>
+        <v>7091858</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25737,13 +25737,13 @@
         <v>45423.375</v>
       </c>
       <c r="E294" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F294" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -25752,43 +25752,43 @@
         <v>48</v>
       </c>
       <c r="J294">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K294">
         <v>3.75</v>
       </c>
       <c r="L294">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M294">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N294">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O294">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P294">
         <v>-0.75</v>
       </c>
       <c r="Q294">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S294">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T294">
+        <v>1.95</v>
+      </c>
+      <c r="U294">
         <v>1.85</v>
       </c>
-      <c r="U294">
-        <v>1.95</v>
-      </c>
       <c r="V294">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -25797,16 +25797,16 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="Z294">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB294">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -25998,7 +25998,7 @@
         <v>45</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26339,10 +26339,10 @@
         <v>45430.375</v>
       </c>
       <c r="E301" t="s">
+        <v>33</v>
+      </c>
+      <c r="F301" t="s">
         <v>32</v>
-      </c>
-      <c r="F301" t="s">
-        <v>30</v>
       </c>
       <c r="G301">
         <v>4</v>
@@ -26597,7 +26597,7 @@
         <v>45430.375</v>
       </c>
       <c r="E304" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F304" t="s">
         <v>40</v>
@@ -26769,7 +26769,7 @@
         <v>45430.375</v>
       </c>
       <c r="E306" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F306" t="s">
         <v>41</v>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -130,10 +130,10 @@
     <t>VfR Aalen</t>
   </si>
   <si>
-    <t>TSV Steinbach</t>
+    <t>Stuttgarter Kickers</t>
   </si>
   <si>
-    <t>Stuttgarter Kickers</t>
+    <t>TSV Steinbach</t>
   </si>
   <si>
     <t>TSG 1899 Hoffenheim II</t>
@@ -628,7 +628,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6898443</v>
+        <v>6898059</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1488,55 +1488,55 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="K12">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="N12">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P12">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1545,13 +1545,13 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1562,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6898059</v>
+        <v>6898443</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1574,55 +1574,55 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1631,13 +1631,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -2176,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2606,7 +2606,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2938,7 +2938,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6907446</v>
+        <v>6907073</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2950,70 +2950,70 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="N29">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O29">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q29">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3024,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6907482</v>
+        <v>6907446</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3033,73 +3033,73 @@
         <v>45164.375</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J30">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="M30">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O30">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P30">
         <v>-0.25</v>
       </c>
       <c r="Q30">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T30">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3110,7 +3110,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6907073</v>
+        <v>6898754</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3119,76 +3119,76 @@
         <v>45164.375</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="N31">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
         <v>3.25</v>
       </c>
       <c r="T31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3196,7 +3196,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6898754</v>
+        <v>6907482</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3205,76 +3205,76 @@
         <v>45164.375</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J32">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="M32">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="P32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U32">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB32">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3798,7 +3798,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6898491</v>
+        <v>6907074</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3807,73 +3807,73 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J39">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="K39">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L39">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="N39">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
         <v>3</v>
       </c>
       <c r="T39">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -3884,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6907447</v>
+        <v>6907483</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3893,76 +3893,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40">
+        <v>2.25</v>
+      </c>
+      <c r="K40">
+        <v>3.3</v>
+      </c>
+      <c r="L40">
+        <v>2.7</v>
+      </c>
+      <c r="M40">
+        <v>2.9</v>
+      </c>
+      <c r="N40">
+        <v>3.3</v>
+      </c>
+      <c r="O40">
+        <v>2.2</v>
+      </c>
+      <c r="P40">
+        <v>0.25</v>
+      </c>
+      <c r="Q40">
+        <v>1.85</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>2.75</v>
+      </c>
+      <c r="T40">
+        <v>1.825</v>
+      </c>
+      <c r="U40">
+        <v>2.025</v>
+      </c>
+      <c r="V40">
+        <v>-1</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>1.2</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40">
-        <v>1.615</v>
-      </c>
-      <c r="K40">
-        <v>3.75</v>
-      </c>
-      <c r="L40">
-        <v>4.333</v>
-      </c>
-      <c r="M40">
-        <v>1.8</v>
-      </c>
-      <c r="N40">
-        <v>3.75</v>
-      </c>
-      <c r="O40">
-        <v>3.5</v>
-      </c>
-      <c r="P40">
+      <c r="AA40">
+        <v>0.4125</v>
+      </c>
+      <c r="AB40">
         <v>-0.5</v>
-      </c>
-      <c r="Q40">
-        <v>1.825</v>
-      </c>
-      <c r="R40">
-        <v>1.975</v>
-      </c>
-      <c r="S40">
-        <v>3</v>
-      </c>
-      <c r="T40">
-        <v>1.975</v>
-      </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
-      <c r="V40">
-        <v>-1</v>
-      </c>
-      <c r="W40">
-        <v>2.75</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4056,7 +4056,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6907483</v>
+        <v>6898491</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4065,76 +4065,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K42">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="L42">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="M42">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="N42">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O42">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U42">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4142,7 +4142,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6907074</v>
+        <v>6907447</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4151,76 +4151,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="K43">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M43">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q43">
+        <v>1.825</v>
+      </c>
+      <c r="R43">
         <v>1.975</v>
-      </c>
-      <c r="R43">
-        <v>1.825</v>
       </c>
       <c r="S43">
         <v>3</v>
       </c>
       <c r="T43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
         <v>-1</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.825</v>
-      </c>
-      <c r="AA43">
-        <v>0.925</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4753,7 +4753,7 @@
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
         <v>29</v>
@@ -4842,7 +4842,7 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>45178.375</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
         <v>45</v>
@@ -5699,7 +5699,7 @@
         <v>45178.375</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -6046,7 +6046,7 @@
         <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6562,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6898494</v>
+        <v>6907076</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6817,73 +6817,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J74">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K74">
+        <v>3.8</v>
+      </c>
+      <c r="L74">
+        <v>3.8</v>
+      </c>
+      <c r="M74">
+        <v>1.5</v>
+      </c>
+      <c r="N74">
+        <v>4.333</v>
+      </c>
+      <c r="O74">
         <v>4.5</v>
       </c>
-      <c r="L74">
-        <v>5.75</v>
-      </c>
-      <c r="M74">
-        <v>1.444</v>
-      </c>
-      <c r="N74">
-        <v>4.5</v>
-      </c>
-      <c r="O74">
-        <v>5.25</v>
-      </c>
       <c r="P74">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q74">
+        <v>1.825</v>
+      </c>
+      <c r="R74">
         <v>1.975</v>
-      </c>
-      <c r="R74">
-        <v>1.875</v>
       </c>
       <c r="S74">
         <v>3.25</v>
       </c>
       <c r="T74">
+        <v>1.925</v>
+      </c>
+      <c r="U74">
         <v>1.875</v>
       </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
       <c r="V74">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z74">
-        <v>-1</v>
-      </c>
       <c r="AA74">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6894,7 +6894,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6907491</v>
+        <v>6898494</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6903,73 +6903,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J75">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="K75">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L75">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q75">
         <v>1.975</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
         <v>3.25</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -6980,7 +6980,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6907076</v>
+        <v>6907492</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6989,73 +6989,73 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J76">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K76">
         <v>3.8</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="N76">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q76">
+        <v>1.85</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>1.975</v>
+      </c>
+      <c r="U76">
         <v>1.825</v>
       </c>
-      <c r="R76">
-        <v>1.975</v>
-      </c>
-      <c r="S76">
-        <v>3.25</v>
-      </c>
-      <c r="T76">
-        <v>1.925</v>
-      </c>
-      <c r="U76">
-        <v>1.875</v>
-      </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X76">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
+        <v>0.95</v>
+      </c>
+      <c r="AA76">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA76">
-        <v>0.925</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7066,7 +7066,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6907492</v>
+        <v>6907491</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7075,55 +7075,55 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
         <v>47</v>
       </c>
       <c r="J77">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="K77">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="N77">
         <v>4</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
         <v>-1</v>
@@ -7135,13 +7135,13 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7333,7 +7333,7 @@
         <v>45192.375</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
         <v>40</v>
@@ -8024,7 +8024,7 @@
         <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8356,7 +8356,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6898496</v>
+        <v>6898458</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8365,55 +8365,55 @@
         <v>45202.375</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I92" t="s">
         <v>46</v>
       </c>
       <c r="J92">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L92">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N92">
         <v>4.2</v>
       </c>
       <c r="O92">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="P92">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q92">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T92">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
         <v>-1</v>
@@ -8422,19 +8422,19 @@
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8442,7 +8442,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6907078</v>
+        <v>6898496</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8451,76 +8451,76 @@
         <v>45202.375</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J93">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="K93">
+        <v>3.8</v>
+      </c>
+      <c r="L93">
+        <v>2.4</v>
+      </c>
+      <c r="M93">
+        <v>3.2</v>
+      </c>
+      <c r="N93">
         <v>4.2</v>
       </c>
-      <c r="L93">
-        <v>3.75</v>
-      </c>
-      <c r="M93">
-        <v>1.6</v>
-      </c>
-      <c r="N93">
-        <v>4.333</v>
-      </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="P93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
         <v>3.25</v>
       </c>
       <c r="T93">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8528,7 +8528,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6898458</v>
+        <v>6907493</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8537,76 +8537,76 @@
         <v>45202.375</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J94">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K94">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="L94">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N94">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O94">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
         <v>3</v>
       </c>
       <c r="T94">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8614,7 +8614,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6907493</v>
+        <v>6907078</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8623,10 +8623,10 @@
         <v>45202.375</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8638,43 +8638,43 @@
         <v>48</v>
       </c>
       <c r="J95">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K95">
         <v>4.2</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q95">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T95">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U95">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>0.7270000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8683,7 +8683,7 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8692,7 +8692,7 @@
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8967,7 +8967,7 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
         <v>44</v>
@@ -9314,7 +9314,7 @@
         <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10257,7 +10257,7 @@
         <v>45213.375</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
         <v>36</v>
@@ -10862,7 +10862,7 @@
         <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6898465</v>
+        <v>6907456</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10945,58 +10945,58 @@
         <v>45220.375</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
         <v>48</v>
       </c>
       <c r="J122">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="K122">
+        <v>4.5</v>
+      </c>
+      <c r="L122">
+        <v>5</v>
+      </c>
+      <c r="M122">
+        <v>1.727</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
         <v>3.75</v>
       </c>
-      <c r="L122">
-        <v>2.5</v>
-      </c>
-      <c r="M122">
-        <v>2.4</v>
-      </c>
-      <c r="N122">
-        <v>3.75</v>
-      </c>
-      <c r="O122">
-        <v>2.4</v>
-      </c>
       <c r="P122">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R122">
         <v>1.85</v>
       </c>
       <c r="S122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U122">
         <v>2</v>
       </c>
       <c r="V122">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11005,16 +11005,16 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11022,7 +11022,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6898760</v>
+        <v>6898465</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11031,76 +11031,76 @@
         <v>45220.375</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J123">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="K123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L123">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N123">
         <v>3.75</v>
       </c>
       <c r="O123">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="P123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T123">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
+        <v>0.95</v>
+      </c>
+      <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.4</v>
+      </c>
+      <c r="AB123">
         <v>-0.5</v>
-      </c>
-      <c r="Z123">
-        <v>0.4375</v>
-      </c>
-      <c r="AA123">
-        <v>0</v>
-      </c>
-      <c r="AB123">
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11108,7 +11108,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6899059</v>
+        <v>6898760</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11117,13 +11117,13 @@
         <v>45220.375</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11132,25 +11132,25 @@
         <v>46</v>
       </c>
       <c r="J124">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="K124">
         <v>4</v>
       </c>
       <c r="L124">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="M124">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="P124">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q124">
         <v>1.925</v>
@@ -11159,13 +11159,13 @@
         <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
         <v>-1</v>
@@ -11174,19 +11174,19 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>1.375</v>
+        <v>0.615</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11194,7 +11194,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6907456</v>
+        <v>6899059</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11203,76 +11203,76 @@
         <v>45220.375</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J125">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="K125">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="M125">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N125">
         <v>4</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="P125">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U125">
         <v>2</v>
       </c>
       <c r="V125">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.875</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>1</v>
-      </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11289,7 +11289,7 @@
         <v>45223.58333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
         <v>30</v>
@@ -11547,7 +11547,7 @@
         <v>45227.375</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
         <v>31</v>
@@ -11977,7 +11977,7 @@
         <v>45227.375</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
         <v>34</v>
@@ -12312,7 +12312,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6907502</v>
+        <v>6907458</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12321,76 +12321,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J138">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="K138">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L138">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M138">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N138">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O138">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P138">
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z138">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12398,7 +12398,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6907458</v>
+        <v>6907501</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12407,76 +12407,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="K139">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L139">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N139">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O139">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q139">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12484,7 +12484,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6907501</v>
+        <v>6907502</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12493,76 +12493,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J140">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="K140">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="M140">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N140">
         <v>3.8</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="P140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q140">
+        <v>1.95</v>
+      </c>
+      <c r="R140">
         <v>1.75</v>
       </c>
-      <c r="R140">
-        <v>1.95</v>
-      </c>
       <c r="S140">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
         <v>-1</v>
       </c>
       <c r="W140">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12570,7 +12570,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6898467</v>
+        <v>6899057</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12579,76 +12579,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J141">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="K141">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N141">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O141">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q141">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
         <v>3.25</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12656,7 +12656,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6899057</v>
+        <v>6898499</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12665,13 +12665,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -12680,25 +12680,25 @@
         <v>48</v>
       </c>
       <c r="J142">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="K142">
         <v>3.75</v>
       </c>
       <c r="L142">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="M142">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N142">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
         <v>1.95</v>
@@ -12707,16 +12707,16 @@
         <v>1.85</v>
       </c>
       <c r="S142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12731,10 +12731,10 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12742,7 +12742,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6898499</v>
+        <v>6898467</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12751,76 +12751,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J143">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L143">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="M143">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="N143">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O143">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y143">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13000,7 +13000,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6907081</v>
+        <v>6907504</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13009,76 +13009,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J146">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="K146">
         <v>4</v>
       </c>
       <c r="L146">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="M146">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N146">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P146">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S146">
         <v>3</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
         <v>-1</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X146">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
         <v>0.95</v>
       </c>
-      <c r="AA146">
-        <v>0</v>
-      </c>
       <c r="AB146">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13086,7 +13086,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6907504</v>
+        <v>6907081</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13095,76 +13095,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J147">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="K147">
         <v>4</v>
       </c>
       <c r="L147">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="M147">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="N147">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O147">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
         <v>3</v>
       </c>
       <c r="T147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
         <v>-1</v>
       </c>
       <c r="W147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13525,7 +13525,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
         <v>35</v>
@@ -13946,7 +13946,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6899055</v>
+        <v>6898074</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13955,10 +13955,10 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13970,61 +13970,61 @@
         <v>47</v>
       </c>
       <c r="J157">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M157">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O157">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="P157">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q157">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R157">
         <v>1.95</v>
       </c>
       <c r="S157">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T157">
+        <v>1.925</v>
+      </c>
+      <c r="U157">
         <v>1.875</v>
       </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
       <c r="V157">
         <v>-1</v>
       </c>
       <c r="W157">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14032,7 +14032,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6907505</v>
+        <v>6899055</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14041,76 +14041,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J158">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="K158">
         <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O158">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
         <v>3</v>
       </c>
       <c r="T158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14118,7 +14118,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6907506</v>
+        <v>6907505</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14127,13 +14127,13 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14142,40 +14142,40 @@
         <v>48</v>
       </c>
       <c r="J159">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L159">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
         <v>1.8</v>
       </c>
       <c r="N159">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
         <v>-0.5</v>
       </c>
       <c r="Q159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T159">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
         <v>0.8</v>
@@ -14187,7 +14187,7 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z159">
         <v>-1</v>
@@ -14196,7 +14196,7 @@
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14204,7 +14204,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6898074</v>
+        <v>6907506</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14216,73 +14216,73 @@
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J160">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="K160">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L160">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="N160">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O160">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="P160">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W160">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14462,7 +14462,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6898763</v>
+        <v>6907461</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14471,73 +14471,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>2</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J163">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="K163">
         <v>3.6</v>
       </c>
       <c r="L163">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="M163">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N163">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O163">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="P163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q163">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T163">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U163">
         <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA163">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -14548,7 +14548,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6907461</v>
+        <v>6899054</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14557,76 +14557,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G164">
         <v>2</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J164">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L164">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="N164">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O164">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q164">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S164">
         <v>3</v>
       </c>
       <c r="T164">
+        <v>1.95</v>
+      </c>
+      <c r="U164">
         <v>1.85</v>
       </c>
-      <c r="U164">
-        <v>1.95</v>
-      </c>
       <c r="V164">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14634,7 +14634,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6899054</v>
+        <v>6898472</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14643,13 +14643,13 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -14658,25 +14658,25 @@
         <v>48</v>
       </c>
       <c r="J165">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K165">
         <v>3.75</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M165">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N165">
         <v>3.8</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P165">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -14691,10 +14691,10 @@
         <v>1.95</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V165">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -14712,7 +14712,7 @@
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14720,7 +14720,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6898472</v>
+        <v>6898473</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
@@ -14729,58 +14729,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="s">
         <v>48</v>
       </c>
       <c r="J166">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K166">
         <v>3.75</v>
       </c>
       <c r="L166">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>3.75</v>
+      </c>
+      <c r="O166">
         <v>1.95</v>
       </c>
-      <c r="N166">
-        <v>3.8</v>
-      </c>
-      <c r="O166">
-        <v>2.9</v>
-      </c>
       <c r="P166">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
         <v>3</v>
       </c>
       <c r="T166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V166">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -14789,16 +14789,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB166">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:28">
@@ -14806,7 +14806,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6898525</v>
+        <v>6898763</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
@@ -14815,13 +14815,13 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -14830,43 +14830,43 @@
         <v>48</v>
       </c>
       <c r="J167">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="K167">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L167">
+        <v>2.875</v>
+      </c>
+      <c r="M167">
+        <v>2.2</v>
+      </c>
+      <c r="N167">
+        <v>3.5</v>
+      </c>
+      <c r="O167">
+        <v>2.7</v>
+      </c>
+      <c r="P167">
+        <v>-0.25</v>
+      </c>
+      <c r="Q167">
+        <v>2</v>
+      </c>
+      <c r="R167">
         <v>1.8</v>
       </c>
-      <c r="M167">
-        <v>3.4</v>
-      </c>
-      <c r="N167">
-        <v>3.8</v>
-      </c>
-      <c r="O167">
-        <v>1.8</v>
-      </c>
-      <c r="P167">
-        <v>0.5</v>
-      </c>
-      <c r="Q167">
-        <v>1.9</v>
-      </c>
-      <c r="R167">
-        <v>1.9</v>
-      </c>
       <c r="S167">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T167">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -14875,13 +14875,13 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -14892,7 +14892,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6898473</v>
+        <v>6898525</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
@@ -14901,58 +14901,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="s">
         <v>48</v>
       </c>
       <c r="J168">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K168">
         <v>3.75</v>
       </c>
       <c r="L168">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M168">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="P168">
         <v>0.5</v>
       </c>
       <c r="Q168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
         <v>3</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -14961,13 +14961,13 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15076,7 +15076,7 @@
         <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -16010,7 +16010,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6907510</v>
+        <v>6898476</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -16019,58 +16019,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G181">
         <v>3</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="s">
         <v>48</v>
       </c>
       <c r="J181">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="K181">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M181">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O181">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T181">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16079,16 +16079,16 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16096,7 +16096,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6899052</v>
+        <v>6907510</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -16105,68 +16105,68 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J182">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="K182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L182">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="M182">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="N182">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="O182">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="P182">
+        <v>-1.25</v>
+      </c>
+      <c r="Q182">
+        <v>1.75</v>
+      </c>
+      <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>3.5</v>
+      </c>
+      <c r="T182">
+        <v>1.975</v>
+      </c>
+      <c r="U182">
+        <v>1.825</v>
+      </c>
+      <c r="V182">
+        <v>0.363</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
         <v>0.75</v>
       </c>
-      <c r="Q182">
-        <v>1.875</v>
-      </c>
-      <c r="R182">
-        <v>1.975</v>
-      </c>
-      <c r="S182">
-        <v>2.75</v>
-      </c>
-      <c r="T182">
-        <v>1.85</v>
-      </c>
-      <c r="U182">
-        <v>2</v>
-      </c>
-      <c r="V182">
-        <v>-1</v>
-      </c>
-      <c r="W182">
-        <v>3</v>
-      </c>
-      <c r="X182">
-        <v>-1</v>
-      </c>
-      <c r="Y182">
-        <v>0.875</v>
-      </c>
       <c r="Z182">
         <v>-1</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16182,7 +16182,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6898526</v>
+        <v>6899052</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16191,76 +16191,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J183">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K183">
+        <v>4</v>
+      </c>
+      <c r="L183">
+        <v>1.666</v>
+      </c>
+      <c r="M183">
         <v>3.75</v>
       </c>
-      <c r="L183">
-        <v>2.55</v>
-      </c>
-      <c r="M183">
-        <v>2.7</v>
-      </c>
       <c r="N183">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O183">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="P183">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q183">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T183">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X183">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16268,7 +16268,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6898476</v>
+        <v>6898526</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16277,76 +16277,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J184">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K184">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L184">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="M184">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N184">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="P184">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q184">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T184">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16452,7 +16452,7 @@
         <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16535,7 +16535,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
         <v>32</v>
@@ -16621,7 +16621,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
         <v>41</v>
@@ -16698,7 +16698,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7666936</v>
+        <v>7666935</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16707,10 +16707,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16722,43 +16722,43 @@
         <v>48</v>
       </c>
       <c r="J189">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="K189">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L189">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="M189">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N189">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O189">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="P189">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T189">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>3.333</v>
+        <v>1.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -16767,7 +16767,7 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z189">
         <v>-1</v>
@@ -16776,7 +16776,7 @@
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16784,7 +16784,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7666935</v>
+        <v>7666936</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16793,10 +16793,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16808,43 +16808,43 @@
         <v>48</v>
       </c>
       <c r="J190">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="K190">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L190">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="M190">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N190">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O190">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="P190">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.05</v>
+        <v>3.333</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -16853,7 +16853,7 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z190">
         <v>-1</v>
@@ -16862,7 +16862,7 @@
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -17137,10 +17137,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E194" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" t="s">
         <v>39</v>
-      </c>
-      <c r="F194" t="s">
-        <v>38</v>
       </c>
       <c r="G194">
         <v>4</v>
@@ -17911,7 +17911,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
         <v>37</v>
@@ -18000,7 +18000,7 @@
         <v>29</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18430,7 +18430,7 @@
         <v>37</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18774,7 +18774,7 @@
         <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G213">
         <v>4</v>
@@ -19020,7 +19020,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6907516</v>
+        <v>6898527</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19029,58 +19029,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F216" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G216">
         <v>2</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="s">
         <v>48</v>
       </c>
       <c r="J216">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="K216">
+        <v>4.333</v>
+      </c>
+      <c r="L216">
+        <v>5.25</v>
+      </c>
+      <c r="M216">
+        <v>1.6</v>
+      </c>
+      <c r="N216">
         <v>3.75</v>
       </c>
-      <c r="L216">
-        <v>2.625</v>
-      </c>
-      <c r="M216">
-        <v>3</v>
-      </c>
-      <c r="N216">
-        <v>3.6</v>
-      </c>
       <c r="O216">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="P216">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q216">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S216">
         <v>2.75</v>
       </c>
       <c r="T216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19089,16 +19089,16 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19106,7 +19106,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6898527</v>
+        <v>6907516</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19115,58 +19115,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G217">
         <v>2</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="s">
         <v>48</v>
       </c>
       <c r="J217">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="K217">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L217">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="M217">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="N217">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="P217">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q217">
+        <v>2</v>
+      </c>
+      <c r="R217">
         <v>1.8</v>
-      </c>
-      <c r="R217">
-        <v>2</v>
       </c>
       <c r="S217">
         <v>2.75</v>
       </c>
       <c r="T217">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19175,16 +19175,16 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB217">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19278,7 +19278,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6898483</v>
+        <v>6907518</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19287,52 +19287,52 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
       </c>
       <c r="J219">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="K219">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L219">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N219">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O219">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="P219">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q219">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R219">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T219">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U219">
         <v>1.95</v>
@@ -19341,22 +19341,22 @@
         <v>-1</v>
       </c>
       <c r="W219">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="Z219">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB219">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19364,7 +19364,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6898080</v>
+        <v>6899048</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19373,43 +19373,43 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220" t="s">
         <v>46</v>
       </c>
       <c r="J220">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="K220">
         <v>4</v>
       </c>
       <c r="L220">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N220">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O220">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="P220">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R220">
         <v>1.925</v>
@@ -19418,10 +19418,10 @@
         <v>2.5</v>
       </c>
       <c r="T220">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
         <v>-1</v>
@@ -19430,7 +19430,7 @@
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>0.833</v>
+        <v>4.5</v>
       </c>
       <c r="Y220">
         <v>-1</v>
@@ -19439,10 +19439,10 @@
         <v>0.925</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB220">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19450,7 +19450,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6907518</v>
+        <v>6898768</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19459,76 +19459,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G221">
         <v>2</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J221">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="K221">
+        <v>4</v>
+      </c>
+      <c r="L221">
         <v>3.75</v>
       </c>
-      <c r="L221">
-        <v>3</v>
-      </c>
       <c r="M221">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N221">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O221">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q221">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S221">
         <v>2.75</v>
       </c>
       <c r="T221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W221">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="Z221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19536,7 +19536,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6907466</v>
+        <v>6898484</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19545,76 +19545,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222" t="s">
+        <v>48</v>
+      </c>
+      <c r="J222">
+        <v>1.8</v>
+      </c>
+      <c r="K222">
+        <v>4</v>
+      </c>
+      <c r="L222">
+        <v>3.25</v>
+      </c>
+      <c r="M222">
+        <v>1.571</v>
+      </c>
+      <c r="N222">
+        <v>4.2</v>
+      </c>
+      <c r="O222">
+        <v>4.5</v>
+      </c>
+      <c r="P222">
+        <v>-1</v>
+      </c>
+      <c r="Q222">
+        <v>2</v>
+      </c>
+      <c r="R222">
+        <v>1.8</v>
+      </c>
+      <c r="S222">
         <v>3</v>
       </c>
-      <c r="I222" t="s">
-        <v>46</v>
-      </c>
-      <c r="J222">
-        <v>3</v>
-      </c>
-      <c r="K222">
-        <v>3.6</v>
-      </c>
-      <c r="L222">
-        <v>2</v>
-      </c>
-      <c r="M222">
-        <v>2.55</v>
-      </c>
-      <c r="N222">
-        <v>3.2</v>
-      </c>
-      <c r="O222">
-        <v>2.45</v>
-      </c>
-      <c r="P222">
-        <v>0</v>
-      </c>
-      <c r="Q222">
-        <v>1.9</v>
-      </c>
-      <c r="R222">
-        <v>1.9</v>
-      </c>
-      <c r="S222">
-        <v>2.5</v>
-      </c>
       <c r="T222">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U222">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V222">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19622,7 +19622,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6898768</v>
+        <v>6907466</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -19631,76 +19631,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G223">
         <v>2</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J223">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K223">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L223">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M223">
+        <v>2.55</v>
+      </c>
+      <c r="N223">
+        <v>3.2</v>
+      </c>
+      <c r="O223">
+        <v>2.45</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>1.9</v>
+      </c>
+      <c r="R223">
+        <v>1.9</v>
+      </c>
+      <c r="S223">
+        <v>2.5</v>
+      </c>
+      <c r="T223">
+        <v>2</v>
+      </c>
+      <c r="U223">
         <v>1.8</v>
       </c>
-      <c r="N223">
-        <v>3.8</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>-0.5</v>
-      </c>
-      <c r="Q223">
-        <v>1.8</v>
-      </c>
-      <c r="R223">
-        <v>2</v>
-      </c>
-      <c r="S223">
-        <v>2.75</v>
-      </c>
-      <c r="T223">
-        <v>1.9</v>
-      </c>
-      <c r="U223">
-        <v>1.9</v>
-      </c>
       <c r="V223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB223">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19708,7 +19708,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6898484</v>
+        <v>6898080</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19717,76 +19717,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J224">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="K224">
         <v>4</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="M224">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="N224">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O224">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="P224">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S224">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T224">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U224">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>0.925</v>
+      </c>
+      <c r="AA224">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
         <v>1</v>
-      </c>
-      <c r="Z224">
-        <v>-1</v>
-      </c>
-      <c r="AA224">
-        <v>0</v>
-      </c>
-      <c r="AB224">
-        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19794,7 +19794,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6899048</v>
+        <v>6898483</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19803,76 +19803,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225" t="s">
+        <v>47</v>
+      </c>
+      <c r="J225">
+        <v>1.363</v>
+      </c>
+      <c r="K225">
+        <v>4.75</v>
+      </c>
+      <c r="L225">
+        <v>6</v>
+      </c>
+      <c r="M225">
+        <v>1.444</v>
+      </c>
+      <c r="N225">
+        <v>4.75</v>
+      </c>
+      <c r="O225">
+        <v>5.25</v>
+      </c>
+      <c r="P225">
+        <v>-1.25</v>
+      </c>
+      <c r="Q225">
+        <v>1.925</v>
+      </c>
+      <c r="R225">
+        <v>1.875</v>
+      </c>
+      <c r="S225">
         <v>3</v>
       </c>
-      <c r="I225" t="s">
-        <v>46</v>
-      </c>
-      <c r="J225">
-        <v>1.571</v>
-      </c>
-      <c r="K225">
-        <v>4</v>
-      </c>
-      <c r="L225">
-        <v>4.5</v>
-      </c>
-      <c r="M225">
-        <v>1.5</v>
-      </c>
-      <c r="N225">
-        <v>3.8</v>
-      </c>
-      <c r="O225">
-        <v>5.5</v>
-      </c>
-      <c r="P225">
-        <v>-1</v>
-      </c>
-      <c r="Q225">
-        <v>1.875</v>
-      </c>
-      <c r="R225">
-        <v>1.925</v>
-      </c>
-      <c r="S225">
-        <v>2.5</v>
-      </c>
       <c r="T225">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
         <v>-1</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X225">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA225">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -20064,7 +20064,7 @@
         <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20408,7 +20408,7 @@
         <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G232">
         <v>5</v>
@@ -20740,7 +20740,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6898486</v>
+        <v>6898082</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
@@ -20749,76 +20749,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J236">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="K236">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L236">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="M236">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N236">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="P236">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q236">
+        <v>1.9</v>
+      </c>
+      <c r="R236">
         <v>1.95</v>
       </c>
-      <c r="R236">
+      <c r="S236">
+        <v>3</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
         <v>1.85</v>
       </c>
-      <c r="S236">
-        <v>2.5</v>
-      </c>
-      <c r="T236">
-        <v>1.85</v>
-      </c>
-      <c r="U236">
-        <v>1.95</v>
-      </c>
       <c r="V236">
         <v>-1</v>
       </c>
       <c r="W236">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20826,7 +20826,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6898082</v>
+        <v>6898486</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
@@ -20835,76 +20835,76 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J237">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L237">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="M237">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N237">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O237">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q237">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R237">
+        <v>1.85</v>
+      </c>
+      <c r="S237">
+        <v>2.5</v>
+      </c>
+      <c r="T237">
+        <v>1.85</v>
+      </c>
+      <c r="U237">
         <v>1.95</v>
       </c>
-      <c r="S237">
-        <v>3</v>
-      </c>
-      <c r="T237">
-        <v>2</v>
-      </c>
-      <c r="U237">
-        <v>1.85</v>
-      </c>
       <c r="V237">
         <v>-1</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X237">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
         <v>0.95</v>
-      </c>
-      <c r="AA237">
-        <v>1</v>
-      </c>
-      <c r="AB237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -21007,7 +21007,7 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
         <v>44</v>
@@ -21170,7 +21170,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6907468</v>
+        <v>6907470</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
@@ -21179,76 +21179,76 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J241">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="K241">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L241">
+        <v>4.5</v>
+      </c>
+      <c r="M241">
+        <v>1.75</v>
+      </c>
+      <c r="N241">
         <v>3.4</v>
       </c>
-      <c r="M241">
-        <v>1.95</v>
-      </c>
-      <c r="N241">
-        <v>3.6</v>
-      </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P241">
         <v>-0.5</v>
       </c>
       <c r="Q241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R241">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T241">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U241">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z241">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21342,7 +21342,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6907470</v>
+        <v>6907468</v>
       </c>
       <c r="C243" t="s">
         <v>27</v>
@@ -21351,76 +21351,76 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J243">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="K243">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L243">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M243">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N243">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O243">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P243">
         <v>-0.5</v>
       </c>
       <c r="Q243">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R243">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S243">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T243">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V243">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y243">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB243">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21784,7 +21784,7 @@
         <v>42</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21944,7 +21944,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6898083</v>
+        <v>6907523</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21953,76 +21953,76 @@
         <v>45389.375</v>
       </c>
       <c r="E250" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J250">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="K250">
         <v>4</v>
       </c>
       <c r="L250">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="M250">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="N250">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O250">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="P250">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
+        <v>3</v>
+      </c>
+      <c r="T250">
+        <v>2</v>
+      </c>
+      <c r="U250">
         <v>1.85</v>
       </c>
-      <c r="S250">
-        <v>2.75</v>
-      </c>
-      <c r="T250">
-        <v>1.9</v>
-      </c>
-      <c r="U250">
-        <v>1.9</v>
-      </c>
       <c r="V250">
         <v>-1</v>
       </c>
       <c r="W250">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB250">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22030,7 +22030,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6907523</v>
+        <v>6898083</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22039,76 +22039,76 @@
         <v>45389.375</v>
       </c>
       <c r="E251" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J251">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="K251">
         <v>4</v>
       </c>
       <c r="L251">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="M251">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="N251">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O251">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q251">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S251">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
         <v>-1</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X251">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22297,7 +22297,7 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F254" t="s">
         <v>42</v>
@@ -22460,7 +22460,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6899044</v>
+        <v>6898770</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22469,13 +22469,13 @@
         <v>45395.375</v>
       </c>
       <c r="E256" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G256">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -22484,43 +22484,43 @@
         <v>48</v>
       </c>
       <c r="J256">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K256">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L256">
         <v>3.6</v>
       </c>
       <c r="M256">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N256">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P256">
         <v>-0.5</v>
       </c>
       <c r="Q256">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R256">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S256">
         <v>2.5</v>
       </c>
       <c r="T256">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -22529,16 +22529,16 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22546,7 +22546,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6898084</v>
+        <v>6899044</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22555,76 +22555,76 @@
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257" t="s">
+        <v>48</v>
+      </c>
+      <c r="J257">
+        <v>1.8</v>
+      </c>
+      <c r="K257">
+        <v>3.6</v>
+      </c>
+      <c r="L257">
+        <v>3.6</v>
+      </c>
+      <c r="M257">
+        <v>1.909</v>
+      </c>
+      <c r="N257">
+        <v>3.3</v>
+      </c>
+      <c r="O257">
+        <v>3.4</v>
+      </c>
+      <c r="P257">
+        <v>-0.5</v>
+      </c>
+      <c r="Q257">
+        <v>2</v>
+      </c>
+      <c r="R257">
+        <v>1.8</v>
+      </c>
+      <c r="S257">
+        <v>2.5</v>
+      </c>
+      <c r="T257">
+        <v>1.825</v>
+      </c>
+      <c r="U257">
+        <v>1.975</v>
+      </c>
+      <c r="V257">
+        <v>0.909</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
         <v>1</v>
       </c>
-      <c r="I257" t="s">
-        <v>46</v>
-      </c>
-      <c r="J257">
-        <v>4.8</v>
-      </c>
-      <c r="K257">
-        <v>4.2</v>
-      </c>
-      <c r="L257">
-        <v>1.5</v>
-      </c>
-      <c r="M257">
-        <v>5</v>
-      </c>
-      <c r="N257">
-        <v>4.333</v>
-      </c>
-      <c r="O257">
-        <v>1.45</v>
-      </c>
-      <c r="P257">
-        <v>1.25</v>
-      </c>
-      <c r="Q257">
-        <v>1.75</v>
-      </c>
-      <c r="R257">
-        <v>1.95</v>
-      </c>
-      <c r="S257">
-        <v>3</v>
-      </c>
-      <c r="T257">
-        <v>1.95</v>
-      </c>
-      <c r="U257">
-        <v>1.75</v>
-      </c>
-      <c r="V257">
-        <v>-1</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
-      <c r="X257">
-        <v>0.45</v>
-      </c>
-      <c r="Y257">
-        <v>0.375</v>
-      </c>
       <c r="Z257">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB257">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22632,7 +22632,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6898770</v>
+        <v>6898084</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22641,76 +22641,76 @@
         <v>45395.375</v>
       </c>
       <c r="E258" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
         <v>1</v>
       </c>
-      <c r="H258">
-        <v>0</v>
-      </c>
       <c r="I258" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J258">
-        <v>1.85</v>
+        <v>4.8</v>
       </c>
       <c r="K258">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L258">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="M258">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O258">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="P258">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q258">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R258">
         <v>1.95</v>
       </c>
       <c r="S258">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T258">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W258">
         <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y258">
-        <v>0.8500000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -22813,7 +22813,7 @@
         <v>45395.375</v>
       </c>
       <c r="E260" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F260" t="s">
         <v>36</v>
@@ -22985,7 +22985,7 @@
         <v>45399.58333333334</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
         <v>40</v>
@@ -23062,7 +23062,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6907527</v>
+        <v>6907475</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
@@ -23071,13 +23071,13 @@
         <v>45402.375</v>
       </c>
       <c r="E263" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -23086,43 +23086,43 @@
         <v>48</v>
       </c>
       <c r="J263">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="K263">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L263">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="M263">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N263">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O263">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P263">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
         <v>2.75</v>
       </c>
       <c r="T263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="W263">
         <v>-1</v>
@@ -23131,16 +23131,16 @@
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23148,7 +23148,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6907475</v>
+        <v>6907528</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23157,46 +23157,46 @@
         <v>45402.375</v>
       </c>
       <c r="E264" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J264">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="K264">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L264">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="M264">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="N264">
         <v>3.75</v>
       </c>
       <c r="O264">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="P264">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q264">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S264">
         <v>2.75</v>
@@ -23208,25 +23208,25 @@
         <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
+        <v>-1</v>
+      </c>
+      <c r="Z264">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z264">
-        <v>-1</v>
-      </c>
-      <c r="AA264">
-        <v>0.95</v>
-      </c>
-      <c r="AB264">
-        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23234,7 +23234,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6907528</v>
+        <v>6957175</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23243,76 +23243,76 @@
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F265" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G265">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J265">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="K265">
         <v>4</v>
       </c>
       <c r="L265">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="M265">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N265">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O265">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P265">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q265">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R265">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S265">
         <v>2.75</v>
       </c>
       <c r="T265">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U265">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W265">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z265">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23320,7 +23320,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6957175</v>
+        <v>6916483</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23329,13 +23329,13 @@
         <v>45402.375</v>
       </c>
       <c r="E266" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -23344,43 +23344,43 @@
         <v>48</v>
       </c>
       <c r="J266">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="K266">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L266">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="M266">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="N266">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O266">
+        <v>8.5</v>
+      </c>
+      <c r="P266">
+        <v>-1.75</v>
+      </c>
+      <c r="Q266">
+        <v>1.825</v>
+      </c>
+      <c r="R266">
+        <v>1.975</v>
+      </c>
+      <c r="S266">
+        <v>3.25</v>
+      </c>
+      <c r="T266">
         <v>1.8</v>
       </c>
-      <c r="P266">
-        <v>0.5</v>
-      </c>
-      <c r="Q266">
-        <v>1.95</v>
-      </c>
-      <c r="R266">
-        <v>1.85</v>
-      </c>
-      <c r="S266">
-        <v>2.75</v>
-      </c>
-      <c r="T266">
-        <v>1.825</v>
-      </c>
       <c r="U266">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V266">
-        <v>2.75</v>
+        <v>0.222</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -23389,16 +23389,16 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23406,7 +23406,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6916483</v>
+        <v>6990267</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23415,13 +23415,13 @@
         <v>45402.375</v>
       </c>
       <c r="E267" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F267" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G267">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -23430,43 +23430,43 @@
         <v>48</v>
       </c>
       <c r="J267">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="K267">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L267">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M267">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="N267">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="O267">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="P267">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q267">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S267">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T267">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U267">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -23475,16 +23475,16 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB267">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -23492,7 +23492,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6990267</v>
+        <v>6907527</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23501,58 +23501,58 @@
         <v>45402.375</v>
       </c>
       <c r="E268" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F268" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G268">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="s">
         <v>48</v>
       </c>
       <c r="J268">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="K268">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L268">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="N268">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O268">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="P268">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q268">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R268">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S268">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T268">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U268">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -23561,16 +23561,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -23590,7 +23590,7 @@
         <v>36</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G269">
         <v>3</v>
@@ -23676,7 +23676,7 @@
         <v>30</v>
       </c>
       <c r="F270" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G270">
         <v>4</v>
@@ -24180,7 +24180,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7021657</v>
+        <v>7023669</v>
       </c>
       <c r="C276" t="s">
         <v>27</v>
@@ -24189,13 +24189,13 @@
         <v>45409.375</v>
       </c>
       <c r="E276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -24204,43 +24204,43 @@
         <v>48</v>
       </c>
       <c r="J276">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="K276">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L276">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M276">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N276">
         <v>3.8</v>
       </c>
       <c r="O276">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="P276">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q276">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R276">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S276">
         <v>2.75</v>
       </c>
       <c r="T276">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>3.333</v>
+        <v>2.2</v>
       </c>
       <c r="W276">
         <v>-1</v>
@@ -24249,16 +24249,16 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:28">
@@ -24266,7 +24266,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7021656</v>
+        <v>7021657</v>
       </c>
       <c r="C277" t="s">
         <v>27</v>
@@ -24275,73 +24275,73 @@
         <v>45409.375</v>
       </c>
       <c r="E277" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F277" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J277">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="K277">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L277">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="M277">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N277">
         <v>3.8</v>
       </c>
       <c r="O277">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="P277">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q277">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R277">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S277">
         <v>2.75</v>
       </c>
       <c r="T277">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V277">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="W277">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z277">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB277">
         <v>-1</v>
@@ -24352,7 +24352,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7023669</v>
+        <v>7021656</v>
       </c>
       <c r="C278" t="s">
         <v>27</v>
@@ -24361,76 +24361,76 @@
         <v>45409.375</v>
       </c>
       <c r="E278" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G278">
         <v>2</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J278">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K278">
         <v>3.75</v>
       </c>
       <c r="L278">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="M278">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N278">
         <v>3.8</v>
       </c>
       <c r="O278">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="P278">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q278">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S278">
         <v>2.75</v>
       </c>
       <c r="T278">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA278">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -24447,7 +24447,7 @@
         <v>45409.375</v>
       </c>
       <c r="E279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F279" t="s">
         <v>31</v>
@@ -24696,7 +24696,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7060353</v>
+        <v>7054745</v>
       </c>
       <c r="C282" t="s">
         <v>27</v>
@@ -24705,55 +24705,55 @@
         <v>45416.375</v>
       </c>
       <c r="E282" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F282" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I282" t="s">
         <v>46</v>
       </c>
       <c r="J282">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K282">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L282">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M282">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="N282">
         <v>4.2</v>
       </c>
       <c r="O282">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q282">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R282">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S282">
         <v>3</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U282">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
         <v>-1</v>
@@ -24762,19 +24762,19 @@
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:28">
@@ -24782,7 +24782,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7054745</v>
+        <v>7060353</v>
       </c>
       <c r="C283" t="s">
         <v>27</v>
@@ -24791,55 +24791,55 @@
         <v>45416.375</v>
       </c>
       <c r="E283" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I283" t="s">
         <v>46</v>
       </c>
       <c r="J283">
+        <v>2.4</v>
+      </c>
+      <c r="K283">
+        <v>4</v>
+      </c>
+      <c r="L283">
         <v>2.25</v>
       </c>
-      <c r="K283">
-        <v>3.75</v>
-      </c>
-      <c r="L283">
-        <v>2.5</v>
-      </c>
       <c r="M283">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N283">
         <v>4.2</v>
       </c>
       <c r="O283">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="P283">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q283">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R283">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S283">
         <v>3</v>
       </c>
       <c r="T283">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V283">
         <v>-1</v>
@@ -24848,19 +24848,19 @@
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB283">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:28">
@@ -24966,7 +24966,7 @@
         <v>34</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -25126,7 +25126,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7060354</v>
+        <v>7074957</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -25135,76 +25135,76 @@
         <v>45417.375</v>
       </c>
       <c r="E287" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H287">
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J287">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="K287">
         <v>4</v>
       </c>
       <c r="L287">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="M287">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="N287">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O287">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="P287">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q287">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R287">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T287">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y287">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA287">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="288" spans="1:28">
@@ -25212,7 +25212,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7078571</v>
+        <v>7060354</v>
       </c>
       <c r="C288" t="s">
         <v>27</v>
@@ -25221,76 +25221,76 @@
         <v>45417.375</v>
       </c>
       <c r="E288" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F288" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J288">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="K288">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L288">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="M288">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N288">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O288">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P288">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q288">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R288">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S288">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T288">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U288">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V288">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:28">
@@ -25298,7 +25298,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7074957</v>
+        <v>7078571</v>
       </c>
       <c r="C289" t="s">
         <v>27</v>
@@ -25307,40 +25307,40 @@
         <v>45417.375</v>
       </c>
       <c r="E289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F289" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
         <v>1</v>
-      </c>
-      <c r="H289">
-        <v>2</v>
       </c>
       <c r="I289" t="s">
         <v>46</v>
       </c>
       <c r="J289">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="K289">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L289">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M289">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="N289">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O289">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P289">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q289">
         <v>1.875</v>
@@ -25349,7 +25349,7 @@
         <v>1.925</v>
       </c>
       <c r="S289">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T289">
         <v>1.975</v>
@@ -25364,7 +25364,7 @@
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
@@ -25373,10 +25373,10 @@
         <v>0.925</v>
       </c>
       <c r="AA289">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="290" spans="1:28">
@@ -25651,7 +25651,7 @@
         <v>45423.375</v>
       </c>
       <c r="E293" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F293" t="s">
         <v>34</v>
@@ -25728,7 +25728,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7096751</v>
+        <v>7096753</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25737,76 +25737,76 @@
         <v>45423.375</v>
       </c>
       <c r="E294" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G294">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J294">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K294">
         <v>3.75</v>
       </c>
       <c r="L294">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M294">
         <v>2.3</v>
       </c>
       <c r="N294">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O294">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="P294">
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S294">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T294">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V294">
         <v>-1</v>
       </c>
       <c r="W294">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB294">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -25814,7 +25814,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7091858</v>
+        <v>7096751</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -25823,76 +25823,76 @@
         <v>45423.375</v>
       </c>
       <c r="E295" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F295" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G295">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J295">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K295">
         <v>3.75</v>
       </c>
       <c r="L295">
+        <v>1.909</v>
+      </c>
+      <c r="M295">
+        <v>2.3</v>
+      </c>
+      <c r="N295">
+        <v>3.6</v>
+      </c>
+      <c r="O295">
+        <v>2.45</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+      <c r="Q295">
+        <v>1.825</v>
+      </c>
+      <c r="R295">
+        <v>1.975</v>
+      </c>
+      <c r="S295">
         <v>3</v>
       </c>
-      <c r="M295">
-        <v>1.8</v>
-      </c>
-      <c r="N295">
-        <v>4.2</v>
-      </c>
-      <c r="O295">
-        <v>3.2</v>
-      </c>
-      <c r="P295">
-        <v>-0.75</v>
-      </c>
-      <c r="Q295">
-        <v>1.925</v>
-      </c>
-      <c r="R295">
-        <v>1.775</v>
-      </c>
-      <c r="S295">
-        <v>3.75</v>
-      </c>
       <c r="T295">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA295">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -25900,7 +25900,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7096295</v>
+        <v>7091858</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
@@ -25909,13 +25909,13 @@
         <v>45423.375</v>
       </c>
       <c r="E296" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F296" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G296">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -25924,43 +25924,43 @@
         <v>48</v>
       </c>
       <c r="J296">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K296">
         <v>3.75</v>
       </c>
       <c r="L296">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M296">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N296">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O296">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P296">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q296">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R296">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S296">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T296">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V296">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -25969,16 +25969,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:28">
@@ -25986,7 +25986,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7096753</v>
+        <v>7096295</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -25995,40 +25995,40 @@
         <v>45423.375</v>
       </c>
       <c r="E297" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F297" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J297">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K297">
         <v>3.75</v>
       </c>
       <c r="L297">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="M297">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N297">
         <v>3.8</v>
       </c>
       <c r="O297">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P297">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q297">
         <v>1.9</v>
@@ -26040,31 +26040,31 @@
         <v>3.25</v>
       </c>
       <c r="T297">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U297">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V297">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
         <v>-0.5</v>
       </c>
       <c r="AB297">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26342,7 +26342,7 @@
         <v>35</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G301">
         <v>3</v>
@@ -26858,7 +26858,7 @@
         <v>28</v>
       </c>
       <c r="F307" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G307">
         <v>0</v>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -2100,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6898446</v>
+        <v>6898489</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2109,16 +2109,16 @@
         <v>45157.375</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2127,64 +2127,64 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q18">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2192,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6898489</v>
+        <v>6898446</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2201,16 +2201,16 @@
         <v>45157.375</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2219,64 +2219,64 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O19">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q19">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="R19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6907072</v>
+        <v>6898753</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2569,46 +2569,46 @@
         <v>45158.375</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23">
-        <v>3.5</v>
-      </c>
       <c r="M23">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P23">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S23">
         <v>1.875</v>
@@ -2620,31 +2620,31 @@
         <v>3</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X23">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2652,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6898060</v>
+        <v>6907072</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2661,82 +2661,82 @@
         <v>45158.375</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L24">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O24">
+        <v>3.2</v>
+      </c>
+      <c r="P24">
+        <v>3.8</v>
+      </c>
+      <c r="Q24">
+        <v>1.85</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>1.875</v>
+      </c>
+      <c r="T24">
+        <v>1.925</v>
+      </c>
+      <c r="U24">
         <v>3</v>
       </c>
-      <c r="P24">
-        <v>3.4</v>
-      </c>
-      <c r="Q24">
-        <v>2.05</v>
-      </c>
-      <c r="R24">
-        <v>0.25</v>
-      </c>
-      <c r="S24">
-        <v>1.975</v>
-      </c>
-      <c r="T24">
-        <v>1.875</v>
-      </c>
-      <c r="U24">
-        <v>2.5</v>
-      </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2744,7 +2744,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6898753</v>
+        <v>6898060</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2753,58 +2753,58 @@
         <v>45158.375</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M25">
         <v>3.6</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3.4</v>
+      </c>
+      <c r="Q25">
         <v>2.05</v>
       </c>
-      <c r="P25">
-        <v>3.6</v>
-      </c>
-      <c r="Q25">
-        <v>2.875</v>
-      </c>
       <c r="R25">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
         <v>1.875</v>
       </c>
-      <c r="T25">
-        <v>1.925</v>
-      </c>
       <c r="U25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
         <v>1.975</v>
@@ -2813,22 +2813,22 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3204,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6898447</v>
+        <v>6907482</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3213,82 +3213,82 @@
         <v>45164.375</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L30">
+        <v>2.25</v>
+      </c>
+      <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30">
+        <v>2.625</v>
+      </c>
+      <c r="O30">
         <v>2.1</v>
       </c>
-      <c r="M30">
-        <v>3.3</v>
-      </c>
-      <c r="N30">
+      <c r="P30">
+        <v>3.6</v>
+      </c>
+      <c r="Q30">
+        <v>2.75</v>
+      </c>
+      <c r="R30">
+        <v>-0.25</v>
+      </c>
+      <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>1.875</v>
+      </c>
+      <c r="U30">
         <v>3</v>
       </c>
-      <c r="O30">
-        <v>2.4</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
-      </c>
-      <c r="Q30">
-        <v>2.5</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>1.875</v>
-      </c>
-      <c r="T30">
-        <v>1.925</v>
-      </c>
-      <c r="U30">
-        <v>2.75</v>
-      </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6898448</v>
+        <v>6898447</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3305,16 +3305,16 @@
         <v>45164.375</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3323,64 +3323,64 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L31">
         <v>2.1</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="P31">
         <v>3.4</v>
       </c>
       <c r="Q31">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S31">
+        <v>1.875</v>
+      </c>
+      <c r="T31">
         <v>1.925</v>
-      </c>
-      <c r="T31">
-        <v>1.875</v>
       </c>
       <c r="U31">
         <v>2.75</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z31">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3388,7 +3388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6898490</v>
+        <v>6898448</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3397,16 +3397,16 @@
         <v>45164.375</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3415,61 +3415,61 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L32">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O32">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S32">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
+        <v>1.875</v>
+      </c>
+      <c r="U32">
+        <v>2.75</v>
+      </c>
+      <c r="V32">
+        <v>1.825</v>
+      </c>
+      <c r="W32">
         <v>1.975</v>
       </c>
-      <c r="U32">
-        <v>3</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
-      <c r="W32">
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>1.875</v>
       </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>2.6</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
       <c r="AA32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD32">
         <v>-1</v>
@@ -3480,7 +3480,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6898514</v>
+        <v>6898490</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3489,82 +3489,82 @@
         <v>45164.375</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L33">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M33">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AD33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3572,7 +3572,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6907482</v>
+        <v>6898514</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3581,61 +3581,61 @@
         <v>45164.375</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
         <v>48</v>
       </c>
       <c r="L34">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M34">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O34">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
+        <v>2.3</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1.95</v>
+      </c>
+      <c r="T34">
+        <v>1.85</v>
+      </c>
+      <c r="U34">
         <v>2.75</v>
       </c>
-      <c r="R34">
-        <v>-0.25</v>
-      </c>
-      <c r="S34">
-        <v>1.975</v>
-      </c>
-      <c r="T34">
-        <v>1.875</v>
-      </c>
-      <c r="U34">
-        <v>3</v>
-      </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3644,19 +3644,19 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AD34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -20684,7 +20684,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6898080</v>
+        <v>6898484</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20693,82 +20693,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L220">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="M220">
         <v>4</v>
       </c>
       <c r="N220">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q220">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="R220">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20776,7 +20776,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6899048</v>
+        <v>6898080</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20785,49 +20785,49 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <v>0</v>
       </c>
       <c r="J221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K221" t="s">
         <v>48</v>
       </c>
       <c r="L221">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="M221">
         <v>4</v>
       </c>
       <c r="N221">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="O221">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="R221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>1.925</v>
@@ -20836,10 +20836,10 @@
         <v>2.5</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20848,7 +20848,7 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>4.5</v>
+        <v>0.833</v>
       </c>
       <c r="AA221">
         <v>-1</v>
@@ -20857,10 +20857,10 @@
         <v>0.925</v>
       </c>
       <c r="AC221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -20868,7 +20868,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6898768</v>
+        <v>6899048</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20877,82 +20877,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L222">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="M222">
         <v>4</v>
       </c>
       <c r="N222">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O222">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="P222">
         <v>3.8</v>
       </c>
       <c r="Q222">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="R222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W222">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="AA222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:30">
@@ -20960,7 +20960,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6898483</v>
+        <v>6898768</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20969,82 +20969,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223">
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L223">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="M223">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N223">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O223">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q223">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="R223">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V223">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y223">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
         <v>-1</v>
       </c>
       <c r="AD223">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21052,7 +21052,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6898484</v>
+        <v>6898483</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21061,82 +21061,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
       <c r="K224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L224">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="M224">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N224">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="O224">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="P224">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="R224">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U224">
         <v>3</v>
       </c>
       <c r="V224">
+        <v>1.75</v>
+      </c>
+      <c r="W224">
         <v>1.95</v>
       </c>
-      <c r="W224">
-        <v>1.75</v>
-      </c>
       <c r="X224">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD224">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21236,7 +21236,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6907086</v>
+        <v>6898507</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21245,52 +21245,52 @@
         <v>45379.625</v>
       </c>
       <c r="E226" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G226">
         <v>2</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L226">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N226">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="O226">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="P226">
         <v>3.8</v>
       </c>
       <c r="Q226">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="R226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U226">
         <v>2.75</v>
@@ -21302,25 +21302,25 @@
         <v>1.85</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21328,7 +21328,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6898507</v>
+        <v>6907086</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21337,52 +21337,52 @@
         <v>45379.625</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G227">
         <v>2</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227">
         <v>0</v>
       </c>
       <c r="K227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="M227">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N227">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O227">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="P227">
         <v>3.8</v>
       </c>
       <c r="Q227">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="R227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U227">
         <v>2.75</v>
@@ -21394,25 +21394,25 @@
         <v>1.85</v>
       </c>
       <c r="X227">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -22064,7 +22064,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6898082</v>
+        <v>6898486</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22073,82 +22073,82 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L235">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="M235">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N235">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="O235">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="P235">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q235">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="R235">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
+        <v>1.85</v>
+      </c>
+      <c r="U235">
+        <v>2.5</v>
+      </c>
+      <c r="V235">
+        <v>1.85</v>
+      </c>
+      <c r="W235">
         <v>1.95</v>
       </c>
-      <c r="U235">
-        <v>3</v>
-      </c>
-      <c r="V235">
-        <v>2</v>
-      </c>
-      <c r="W235">
-        <v>1.85</v>
-      </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z235">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC235">
+        <v>-1</v>
+      </c>
+      <c r="AD235">
         <v>0.95</v>
-      </c>
-      <c r="AC235">
-        <v>1</v>
-      </c>
-      <c r="AD235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22156,7 +22156,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6898486</v>
+        <v>6898082</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22165,82 +22165,82 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K236" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L236">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="M236">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N236">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="O236">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q236">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="R236">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S236">
+        <v>1.9</v>
+      </c>
+      <c r="T236">
         <v>1.95</v>
       </c>
-      <c r="T236">
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2</v>
+      </c>
+      <c r="W236">
         <v>1.85</v>
       </c>
-      <c r="U236">
-        <v>2.5</v>
-      </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
-      <c r="W236">
-        <v>1.95</v>
-      </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22340,7 +22340,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6898769</v>
+        <v>6907469</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22349,19 +22349,19 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -22370,43 +22370,43 @@
         <v>49</v>
       </c>
       <c r="L238">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="M238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P238">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q238">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R238">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S238">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U238">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X238">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -22415,16 +22415,16 @@
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22432,7 +22432,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6907469</v>
+        <v>6898769</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22441,19 +22441,19 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -22462,43 +22462,43 @@
         <v>49</v>
       </c>
       <c r="L239">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="M239">
+        <v>4</v>
+      </c>
+      <c r="N239">
+        <v>4.2</v>
+      </c>
+      <c r="O239">
+        <v>1.4</v>
+      </c>
+      <c r="P239">
+        <v>4</v>
+      </c>
+      <c r="Q239">
+        <v>6</v>
+      </c>
+      <c r="R239">
+        <v>-1.25</v>
+      </c>
+      <c r="S239">
+        <v>1.975</v>
+      </c>
+      <c r="T239">
+        <v>1.825</v>
+      </c>
+      <c r="U239">
         <v>3</v>
       </c>
-      <c r="N239">
-        <v>3</v>
-      </c>
-      <c r="O239">
-        <v>2.1</v>
-      </c>
-      <c r="P239">
-        <v>3.1</v>
-      </c>
-      <c r="Q239">
-        <v>3.2</v>
-      </c>
-      <c r="R239">
-        <v>-0.25</v>
-      </c>
-      <c r="S239">
-        <v>1.875</v>
-      </c>
-      <c r="T239">
-        <v>1.925</v>
-      </c>
-      <c r="U239">
-        <v>2.5</v>
-      </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X239">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y239">
         <v>-1</v>
@@ -22507,16 +22507,16 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22708,7 +22708,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6907468</v>
+        <v>6899046</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22717,19 +22717,19 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H242">
         <v>3</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -22738,41 +22738,41 @@
         <v>48</v>
       </c>
       <c r="L242">
+        <v>3.25</v>
+      </c>
+      <c r="M242">
+        <v>3.8</v>
+      </c>
+      <c r="N242">
         <v>1.85</v>
       </c>
-      <c r="M242">
-        <v>3.6</v>
-      </c>
-      <c r="N242">
-        <v>3.4</v>
-      </c>
       <c r="O242">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="P242">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q242">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="R242">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S242">
+        <v>1.925</v>
+      </c>
+      <c r="T242">
+        <v>1.875</v>
+      </c>
+      <c r="U242">
+        <v>3</v>
+      </c>
+      <c r="V242">
+        <v>1.825</v>
+      </c>
+      <c r="W242">
         <v>1.975</v>
       </c>
-      <c r="T242">
-        <v>1.825</v>
-      </c>
-      <c r="U242">
-        <v>2.75</v>
-      </c>
-      <c r="V242">
-        <v>1.75</v>
-      </c>
-      <c r="W242">
-        <v>1.95</v>
-      </c>
       <c r="X242">
         <v>-1</v>
       </c>
@@ -22780,19 +22780,19 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AA242">
         <v>-1</v>
       </c>
       <c r="AB242">
+        <v>0.875</v>
+      </c>
+      <c r="AC242">
         <v>0.825</v>
       </c>
-      <c r="AC242">
-        <v>0.375</v>
-      </c>
       <c r="AD242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22800,7 +22800,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6899046</v>
+        <v>6907468</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22809,19 +22809,19 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F243" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H243">
         <v>3</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -22830,40 +22830,40 @@
         <v>48</v>
       </c>
       <c r="L243">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="M243">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N243">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O243">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="P243">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q243">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="R243">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T243">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U243">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V243">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W243">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22872,19 +22872,19 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC243">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AD243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -22892,7 +22892,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6907471</v>
+        <v>6907522</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22901,52 +22901,52 @@
         <v>45388.375</v>
       </c>
       <c r="E244" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G244">
         <v>2</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K244" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L244">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M244">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N244">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O244">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P244">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q244">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="R244">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U244">
         <v>2.75</v>
@@ -22961,16 +22961,16 @@
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z244">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC244">
         <v>0.95</v>
@@ -22984,7 +22984,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6907088</v>
+        <v>6907471</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -22993,79 +22993,79 @@
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G245">
         <v>2</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245">
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L245">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M245">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N245">
         <v>2.6</v>
       </c>
       <c r="O245">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="P245">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q245">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S245">
         <v>1.875</v>
       </c>
       <c r="T245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U245">
         <v>2.75</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC245">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD245">
         <v>-1</v>
@@ -23168,7 +23168,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6907522</v>
+        <v>6898487</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23177,46 +23177,46 @@
         <v>45388.375</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G247">
         <v>2</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K247" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L247">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="M247">
         <v>3.6</v>
       </c>
       <c r="N247">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O247">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="P247">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q247">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="R247">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S247">
         <v>1.825</v>
@@ -23228,16 +23228,16 @@
         <v>2.75</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
@@ -23249,10 +23249,10 @@
         <v>-0.5</v>
       </c>
       <c r="AC247">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AD247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23260,7 +23260,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6898487</v>
+        <v>6907088</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23269,49 +23269,49 @@
         <v>45388.375</v>
       </c>
       <c r="E248" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G248">
         <v>2</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L248">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="M248">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N248">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O248">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="P248">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q248">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R248">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
         <v>1.975</v>
@@ -23320,31 +23320,31 @@
         <v>2.75</v>
       </c>
       <c r="V248">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X248">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AB248">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AD248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -24088,7 +24088,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6898770</v>
+        <v>6899044</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24097,19 +24097,19 @@
         <v>45395.375</v>
       </c>
       <c r="E257" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H257">
         <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -24118,43 +24118,43 @@
         <v>49</v>
       </c>
       <c r="L257">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="M257">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N257">
         <v>3.6</v>
       </c>
       <c r="O257">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="P257">
+        <v>3.3</v>
+      </c>
+      <c r="Q257">
         <v>3.4</v>
-      </c>
-      <c r="Q257">
-        <v>3.8</v>
       </c>
       <c r="R257">
         <v>-0.5</v>
       </c>
       <c r="S257">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U257">
         <v>2.5</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W257">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X257">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="Y257">
         <v>-1</v>
@@ -24163,16 +24163,16 @@
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24272,7 +24272,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6899044</v>
+        <v>6898770</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24281,19 +24281,19 @@
         <v>45395.375</v>
       </c>
       <c r="E259" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G259">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H259">
         <v>0</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -24302,43 +24302,43 @@
         <v>49</v>
       </c>
       <c r="L259">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="M259">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N259">
         <v>3.6</v>
       </c>
       <c r="O259">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="P259">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q259">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="R259">
         <v>-0.5</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T259">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U259">
         <v>2.5</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X259">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="Y259">
         <v>-1</v>
@@ -24347,16 +24347,16 @@
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD259">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -25560,7 +25560,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7021657</v>
+        <v>7023671</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25569,19 +25569,19 @@
         <v>45409.375</v>
       </c>
       <c r="E273" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -25590,43 +25590,43 @@
         <v>49</v>
       </c>
       <c r="L273">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="M273">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N273">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O273">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="P273">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q273">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="R273">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S273">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T273">
+        <v>1.975</v>
+      </c>
+      <c r="U273">
+        <v>3</v>
+      </c>
+      <c r="V273">
+        <v>2</v>
+      </c>
+      <c r="W273">
         <v>1.8</v>
       </c>
-      <c r="U273">
-        <v>2.75</v>
-      </c>
-      <c r="V273">
-        <v>1.925</v>
-      </c>
-      <c r="W273">
-        <v>1.875</v>
-      </c>
       <c r="X273">
-        <v>3.333</v>
+        <v>0.615</v>
       </c>
       <c r="Y273">
         <v>-1</v>
@@ -25635,16 +25635,16 @@
         <v>-1</v>
       </c>
       <c r="AA273">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB273">
         <v>-1</v>
       </c>
       <c r="AC273">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD273">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25652,7 +25652,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7023667</v>
+        <v>7021657</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25661,19 +25661,19 @@
         <v>45409.375</v>
       </c>
       <c r="E274" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F274" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -25682,43 +25682,43 @@
         <v>49</v>
       </c>
       <c r="L274">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N274">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O274">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="P274">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q274">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="R274">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T274">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U274">
         <v>2.75</v>
       </c>
       <c r="V274">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W274">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X274">
-        <v>0.75</v>
+        <v>3.333</v>
       </c>
       <c r="Y274">
         <v>-1</v>
@@ -25727,16 +25727,16 @@
         <v>-1</v>
       </c>
       <c r="AA274">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB274">
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD274">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25836,7 +25836,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7023671</v>
+        <v>7023667</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25845,13 +25845,13 @@
         <v>45409.375</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -25866,43 +25866,43 @@
         <v>49</v>
       </c>
       <c r="L276">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="M276">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O276">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="P276">
         <v>4</v>
       </c>
       <c r="Q276">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R276">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S276">
         <v>1.825</v>
       </c>
       <c r="T276">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U276">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V276">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W276">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X276">
-        <v>0.615</v>
+        <v>0.75</v>
       </c>
       <c r="Y276">
         <v>-1</v>
@@ -25920,7 +25920,7 @@
         <v>-1</v>
       </c>
       <c r="AD276">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="277" spans="1:30">

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -148,10 +148,10 @@
     <t>Mainz II</t>
   </si>
   <si>
-    <t>SG Barockstadt</t>
+    <t>Bahlinger SC</t>
   </si>
   <si>
-    <t>Bahlinger SC</t>
+    <t>SG Barockstadt</t>
   </si>
   <si>
     <t>TSV Schott Mainz</t>
@@ -1100,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6898752</v>
+        <v>6898444</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1928,79 +1928,79 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
         <v>2.75</v>
       </c>
       <c r="O16">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R16">
         <v>-0.25</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>1.75</v>
+      </c>
+      <c r="W16">
+        <v>1.95</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
         <v>2.75</v>
       </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>1.9</v>
-      </c>
-      <c r="X16">
-        <v>1.2</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC16">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2008,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6898444</v>
+        <v>6898752</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2020,79 +2020,79 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L17">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
         <v>2.75</v>
       </c>
       <c r="O17">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R17">
         <v>-0.25</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V17">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y17">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
+        <v>0.45</v>
+      </c>
+      <c r="AD17">
         <v>-0.5</v>
-      </c>
-      <c r="AB17">
-        <v>0.4625</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
-      </c>
-      <c r="AD17">
-        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2296,7 +2296,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6898060</v>
+        <v>6898753</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,58 +2477,58 @@
         <v>45158.375</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <v>3.6</v>
       </c>
       <c r="N22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O22">
+        <v>2.05</v>
+      </c>
+      <c r="P22">
+        <v>3.6</v>
+      </c>
+      <c r="Q22">
+        <v>2.875</v>
+      </c>
+      <c r="R22">
+        <v>-0.25</v>
+      </c>
+      <c r="S22">
+        <v>1.875</v>
+      </c>
+      <c r="T22">
+        <v>1.925</v>
+      </c>
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="P22">
-        <v>3.4</v>
-      </c>
-      <c r="Q22">
-        <v>2.05</v>
-      </c>
-      <c r="R22">
-        <v>0.25</v>
-      </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
-      <c r="T22">
-        <v>1.875</v>
-      </c>
-      <c r="U22">
-        <v>2.5</v>
-      </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>1.975</v>
@@ -2537,22 +2537,22 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6898753</v>
+        <v>6898060</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2569,58 +2569,58 @@
         <v>45158.375</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M23">
         <v>3.6</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>3.4</v>
+      </c>
+      <c r="Q23">
         <v>2.05</v>
       </c>
-      <c r="P23">
-        <v>3.6</v>
-      </c>
-      <c r="Q23">
-        <v>2.875</v>
-      </c>
       <c r="R23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S23">
+        <v>1.975</v>
+      </c>
+      <c r="T23">
         <v>1.875</v>
       </c>
-      <c r="T23">
-        <v>1.925</v>
-      </c>
       <c r="U23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
         <v>1.975</v>
@@ -2629,22 +2629,22 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2756,7 +2756,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3572,7 +3572,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6898754</v>
+        <v>6898490</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3584,79 +3584,79 @@
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L34">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O34">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="P34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="R34">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S34">
+        <v>1.725</v>
+      </c>
+      <c r="T34">
+        <v>1.975</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
         <v>1.925</v>
       </c>
-      <c r="T34">
-        <v>1.925</v>
-      </c>
-      <c r="U34">
-        <v>3.25</v>
-      </c>
-      <c r="V34">
-        <v>2.05</v>
-      </c>
       <c r="W34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>0.925</v>
       </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>-0.5</v>
-      </c>
       <c r="AD34">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3664,7 +3664,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6898514</v>
+        <v>6898754</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3673,82 +3673,82 @@
         <v>45164.375</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L35">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N35">
         <v>3.4</v>
       </c>
       <c r="O35">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U35">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V35">
+        <v>2.05</v>
+      </c>
+      <c r="W35">
         <v>1.8</v>
       </c>
-      <c r="W35">
-        <v>2</v>
-      </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
+        <v>-0.5</v>
+      </c>
+      <c r="AD35">
         <v>0.4</v>
-      </c>
-      <c r="AD35">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3756,7 +3756,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6898490</v>
+        <v>6898514</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3765,82 +3765,82 @@
         <v>45164.375</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L36">
+        <v>1.727</v>
+      </c>
+      <c r="M36">
+        <v>4.2</v>
+      </c>
+      <c r="N36">
+        <v>3.4</v>
+      </c>
+      <c r="O36">
+        <v>2.4</v>
+      </c>
+      <c r="P36">
+        <v>3.75</v>
+      </c>
+      <c r="Q36">
+        <v>2.3</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>1.85</v>
+      </c>
+      <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="M36">
-        <v>3.6</v>
-      </c>
-      <c r="N36">
-        <v>3.6</v>
-      </c>
-      <c r="O36">
-        <v>2.25</v>
-      </c>
-      <c r="P36">
-        <v>3.6</v>
-      </c>
-      <c r="Q36">
-        <v>2.625</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>1.725</v>
-      </c>
-      <c r="T36">
-        <v>1.975</v>
-      </c>
-      <c r="U36">
-        <v>3</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
       <c r="W36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3952,7 +3952,7 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4032,7 +4032,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6907448</v>
+        <v>6898491</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4041,67 +4041,67 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="s">
         <v>49</v>
       </c>
       <c r="L39">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N39">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="O39">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R39">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
+        <v>1.9</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>1.75</v>
+      </c>
+      <c r="W39">
         <v>1.95</v>
       </c>
-      <c r="U39">
-        <v>2.75</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
-      <c r="W39">
-        <v>1.85</v>
-      </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -4110,13 +4110,13 @@
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4124,7 +4124,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6898491</v>
+        <v>6907074</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4133,79 +4133,79 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L40">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="M40">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="N40">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U40">
         <v>3</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AD40">
         <v>-1</v>
@@ -4216,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6907447</v>
+        <v>6907448</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4225,10 +4225,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4237,55 +4237,55 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>49</v>
       </c>
       <c r="L41">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="O41">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="P41">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R41">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
@@ -4294,13 +4294,13 @@
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
         <v>-1</v>
       </c>
       <c r="AD41">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6907483</v>
+        <v>6907447</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4317,16 +4317,16 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4335,64 +4335,64 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L42">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M42">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O42">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="P42">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q42">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R42">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>1.975</v>
+      </c>
+      <c r="W42">
+        <v>1.825</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>2.75</v>
       </c>
-      <c r="V42">
-        <v>1.825</v>
-      </c>
-      <c r="W42">
-        <v>2.025</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
       <c r="Z42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD42">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4400,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6907074</v>
+        <v>6907483</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4409,61 +4409,61 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
         <v>48</v>
       </c>
       <c r="L43">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="M43">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O43">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="R43">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
         <v>1.825</v>
       </c>
-      <c r="U43">
-        <v>3</v>
-      </c>
-      <c r="V43">
-        <v>1.925</v>
-      </c>
       <c r="W43">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4472,19 +4472,19 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AD43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -5053,7 +5053,7 @@
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
@@ -5237,7 +5237,7 @@
         <v>45171.375</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
         <v>31</v>
@@ -5320,7 +5320,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6898755</v>
+        <v>6898451</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5329,82 +5329,82 @@
         <v>45172.375</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L53">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O53">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="P53">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q53">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="R53">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5412,7 +5412,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6898451</v>
+        <v>6898755</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5421,82 +5421,82 @@
         <v>45172.375</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L54">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O54">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="P54">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q54">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="R54">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U54">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X54">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5792,7 +5792,7 @@
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -6252,7 +6252,7 @@
         <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -6525,7 +6525,7 @@
         <v>45185.375</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
@@ -6801,7 +6801,7 @@
         <v>45185.375</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
         <v>31</v>
@@ -7344,7 +7344,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6907076</v>
+        <v>6907492</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7353,79 +7353,79 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L75">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="M75">
         <v>3.8</v>
       </c>
       <c r="N75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O75">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q75">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="R75">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S75">
+        <v>1.85</v>
+      </c>
+      <c r="T75">
+        <v>1.95</v>
+      </c>
+      <c r="U75">
+        <v>3</v>
+      </c>
+      <c r="V75">
+        <v>1.975</v>
+      </c>
+      <c r="W75">
         <v>1.825</v>
       </c>
-      <c r="T75">
-        <v>1.975</v>
-      </c>
-      <c r="U75">
-        <v>3.25</v>
-      </c>
-      <c r="V75">
-        <v>1.925</v>
-      </c>
-      <c r="W75">
-        <v>1.875</v>
-      </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z75">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
+        <v>0.95</v>
+      </c>
+      <c r="AC75">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC75">
-        <v>0.925</v>
       </c>
       <c r="AD75">
         <v>-1</v>
@@ -7528,7 +7528,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6907492</v>
+        <v>6907076</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7537,79 +7537,79 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L77">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="M77">
         <v>3.8</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O77">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="R77">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -7804,7 +7804,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6907450</v>
+        <v>6899064</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7813,64 +7813,64 @@
         <v>45192.375</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G80">
         <v>3</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="s">
         <v>50</v>
       </c>
       <c r="L80">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="M80">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="N80">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="O80">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q80">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="R80">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S80">
+        <v>1.8</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
         <v>1.85</v>
       </c>
-      <c r="T80">
+      <c r="W80">
         <v>1.95</v>
       </c>
-      <c r="U80">
-        <v>3</v>
-      </c>
-      <c r="V80">
-        <v>1.875</v>
-      </c>
-      <c r="W80">
-        <v>1.925</v>
-      </c>
       <c r="X80">
-        <v>0.615</v>
+        <v>2.1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7879,16 +7879,16 @@
         <v>-1</v>
       </c>
       <c r="AA80">
+        <v>0.8</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB80">
-        <v>-1</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
       <c r="AD80">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7896,7 +7896,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6898456</v>
+        <v>6907450</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7905,82 +7905,82 @@
         <v>45192.375</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L81">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O81">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="P81">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="R81">
         <v>-0.75</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U81">
         <v>3</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD81">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7988,7 +7988,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6899064</v>
+        <v>6898456</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7997,82 +7997,82 @@
         <v>45192.375</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82">
+        <v>1.95</v>
+      </c>
+      <c r="M82">
+        <v>3.75</v>
+      </c>
+      <c r="N82">
         <v>3</v>
       </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" t="s">
-        <v>50</v>
-      </c>
-      <c r="L82">
-        <v>2.25</v>
-      </c>
-      <c r="M82">
-        <v>3.5</v>
-      </c>
-      <c r="N82">
-        <v>2.6</v>
-      </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="P82">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="R82">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>1.825</v>
+      </c>
+      <c r="W82">
+        <v>1.975</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
         <v>2.75</v>
       </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
-      <c r="W82">
-        <v>1.95</v>
-      </c>
-      <c r="X82">
-        <v>2.1</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
       <c r="AA82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8356,7 +8356,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6898457</v>
+        <v>6907452</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8365,82 +8365,82 @@
         <v>45199.375</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M86">
         <v>3.5</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O86">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P86">
         <v>3.4</v>
       </c>
       <c r="Q86">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U86">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X86">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
         <v>-1</v>
       </c>
       <c r="AD86">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8448,7 +8448,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6898495</v>
+        <v>6907451</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8457,10 +8457,10 @@
         <v>45199.375</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
         <v>50</v>
@@ -8487,34 +8487,34 @@
         <v>2.375</v>
       </c>
       <c r="O87">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="P87">
         <v>3.6</v>
       </c>
       <c r="Q87">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="R87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U87">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X87">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Y87">
         <v>-1</v>
@@ -8523,16 +8523,16 @@
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD87">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8632,7 +8632,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6907451</v>
+        <v>6898495</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8641,10 +8641,10 @@
         <v>45199.375</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="s">
         <v>50</v>
@@ -8671,34 +8671,34 @@
         <v>2.375</v>
       </c>
       <c r="O89">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="P89">
         <v>3.6</v>
       </c>
       <c r="Q89">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X89">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8707,16 +8707,16 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8724,7 +8724,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6907452</v>
+        <v>6898457</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8733,82 +8733,82 @@
         <v>45199.375</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L90">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M90">
         <v>3.5</v>
       </c>
       <c r="N90">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="P90">
         <v>3.4</v>
       </c>
       <c r="Q90">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R90">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
         <v>-1</v>
       </c>
       <c r="AD90">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8920,7 +8920,7 @@
         <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -9288,7 +9288,7 @@
         <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -9837,7 +9837,7 @@
         <v>45206.375</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
         <v>41</v>
@@ -10205,7 +10205,7 @@
         <v>45207.375</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
         <v>47</v>
@@ -10656,7 +10656,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6907498</v>
+        <v>6898462</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10665,61 +10665,61 @@
         <v>45213.375</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K111" t="s">
         <v>48</v>
       </c>
       <c r="L111">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
         <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="P111">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q111">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="R111">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10728,19 +10728,19 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
+        <v>0.925</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
       </c>
-      <c r="AB111">
-        <v>0.4875</v>
-      </c>
-      <c r="AC111">
-        <v>0.825</v>
-      </c>
       <c r="AD111">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10748,7 +10748,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6907497</v>
+        <v>6907498</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10757,61 +10757,61 @@
         <v>45213.375</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112" t="s">
         <v>48</v>
       </c>
       <c r="L112">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M112">
         <v>4</v>
       </c>
       <c r="N112">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="R112">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U112">
         <v>3</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10820,19 +10820,19 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>2.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10840,7 +10840,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6899060</v>
+        <v>6907497</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10849,82 +10849,82 @@
         <v>45213.375</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L113">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="O113">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="P113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="R113">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -10932,7 +10932,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6898759</v>
+        <v>6899060</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10941,82 +10941,82 @@
         <v>45213.375</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="O114">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="P114">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q114">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S114">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U114">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z114">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11024,7 +11024,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6898463</v>
+        <v>6898759</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11033,16 +11033,16 @@
         <v>45213.375</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -11051,64 +11051,64 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L115">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="O115">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q115">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="R115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U115">
         <v>2.75</v>
       </c>
       <c r="V115">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD115">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11116,7 +11116,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6898462</v>
+        <v>6898463</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11125,82 +11125,82 @@
         <v>45213.375</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L116">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="P116">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="R116">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V116">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z116">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD116">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11309,7 +11309,7 @@
         <v>45220.375</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
         <v>35</v>
@@ -11585,7 +11585,7 @@
         <v>45220.375</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
         <v>47</v>
@@ -12140,7 +12140,7 @@
         <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -12505,7 +12505,7 @@
         <v>45227.375</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
         <v>46</v>
@@ -12876,7 +12876,7 @@
         <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>4</v>
@@ -13149,10 +13149,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E138" t="s">
+        <v>44</v>
+      </c>
+      <c r="F138" t="s">
         <v>45</v>
-      </c>
-      <c r="F138" t="s">
-        <v>44</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -13416,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6907459</v>
+        <v>6907502</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13425,61 +13425,61 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
         <v>48</v>
       </c>
       <c r="L141">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="M141">
         <v>4</v>
       </c>
       <c r="N141">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O141">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q141">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S141">
         <v>1.95</v>
       </c>
       <c r="T141">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13488,19 +13488,19 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13508,7 +13508,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6898467</v>
+        <v>6907459</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13517,19 +13517,19 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -13538,34 +13538,34 @@
         <v>48</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="M142">
         <v>4</v>
       </c>
       <c r="N142">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q142">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="R142">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V142">
         <v>2</v>
@@ -13580,19 +13580,19 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.3999999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="AA142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13600,7 +13600,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6907502</v>
+        <v>6898467</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13609,61 +13609,61 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
         <v>48</v>
       </c>
       <c r="L143">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
         <v>4</v>
       </c>
       <c r="N143">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O143">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q143">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="R143">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U143">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13672,19 +13672,19 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB143">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
         <v>-1</v>
       </c>
       <c r="AD143">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13888,7 +13888,7 @@
         <v>46</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -14437,7 +14437,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F152" t="s">
         <v>38</v>
@@ -14989,7 +14989,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
         <v>35</v>
@@ -15452,7 +15452,7 @@
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -15728,7 +15728,7 @@
         <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -16277,7 +16277,7 @@
         <v>45259.65625</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
         <v>36</v>
@@ -16645,7 +16645,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
         <v>36</v>
@@ -16912,7 +16912,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16921,82 +16921,82 @@
         <v>45268.625</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L179">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <v>3.75</v>
       </c>
       <c r="N179">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O179">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q179">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="R179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S179">
+        <v>1.75</v>
+      </c>
+      <c r="T179">
+        <v>1.95</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="T179">
+      <c r="W179">
         <v>1.975</v>
       </c>
-      <c r="U179">
-        <v>3.5</v>
-      </c>
-      <c r="V179">
-        <v>1.925</v>
-      </c>
-      <c r="W179">
-        <v>1.875</v>
-      </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z179">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB179">
+        <v>0.475</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
+      </c>
+      <c r="AD179">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
-      </c>
-      <c r="AD179">
-        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17004,7 +17004,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17013,82 +17013,82 @@
         <v>45268.625</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L180">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="M180">
         <v>3.75</v>
       </c>
       <c r="N180">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O180">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P180">
+        <v>4.2</v>
+      </c>
+      <c r="Q180">
+        <v>4.75</v>
+      </c>
+      <c r="R180">
+        <v>-1</v>
+      </c>
+      <c r="S180">
+        <v>1.825</v>
+      </c>
+      <c r="T180">
+        <v>1.975</v>
+      </c>
+      <c r="U180">
         <v>3.5</v>
       </c>
-      <c r="Q180">
-        <v>3</v>
-      </c>
-      <c r="R180">
-        <v>-0.25</v>
-      </c>
-      <c r="S180">
-        <v>1.75</v>
-      </c>
-      <c r="T180">
-        <v>1.95</v>
-      </c>
-      <c r="U180">
-        <v>2.75</v>
-      </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
         <v>-1</v>
       </c>
       <c r="AD180">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17096,7 +17096,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6907510</v>
+        <v>6899052</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17105,73 +17105,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L181">
+        <v>3.75</v>
+      </c>
+      <c r="M181">
+        <v>4</v>
+      </c>
+      <c r="N181">
+        <v>1.666</v>
+      </c>
+      <c r="O181">
+        <v>3.75</v>
+      </c>
+      <c r="P181">
+        <v>4</v>
+      </c>
+      <c r="Q181">
+        <v>1.7</v>
+      </c>
+      <c r="R181">
+        <v>0.75</v>
+      </c>
+      <c r="S181">
+        <v>1.875</v>
+      </c>
+      <c r="T181">
+        <v>1.975</v>
+      </c>
+      <c r="U181">
+        <v>2.75</v>
+      </c>
+      <c r="V181">
+        <v>1.85</v>
+      </c>
+      <c r="W181">
+        <v>2</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
         <v>3</v>
       </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181" t="s">
-        <v>50</v>
-      </c>
-      <c r="L181">
-        <v>1.285</v>
-      </c>
-      <c r="M181">
-        <v>5</v>
-      </c>
-      <c r="N181">
-        <v>7.5</v>
-      </c>
-      <c r="O181">
-        <v>1.363</v>
-      </c>
-      <c r="P181">
-        <v>5.25</v>
-      </c>
-      <c r="Q181">
-        <v>5.5</v>
-      </c>
-      <c r="R181">
-        <v>-1.25</v>
-      </c>
-      <c r="S181">
-        <v>1.75</v>
-      </c>
-      <c r="T181">
-        <v>1.95</v>
-      </c>
-      <c r="U181">
-        <v>3.5</v>
-      </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
-      <c r="W181">
-        <v>1.825</v>
-      </c>
-      <c r="X181">
-        <v>0.363</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB181">
         <v>-1</v>
@@ -17180,7 +17180,7 @@
         <v>-1</v>
       </c>
       <c r="AD181">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17188,7 +17188,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6899052</v>
+        <v>6907510</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17197,74 +17197,74 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="M182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N182">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="P182">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q182">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="R182">
+        <v>-1.25</v>
+      </c>
+      <c r="S182">
+        <v>1.75</v>
+      </c>
+      <c r="T182">
+        <v>1.95</v>
+      </c>
+      <c r="U182">
+        <v>3.5</v>
+      </c>
+      <c r="V182">
+        <v>1.975</v>
+      </c>
+      <c r="W182">
+        <v>1.825</v>
+      </c>
+      <c r="X182">
+        <v>0.363</v>
+      </c>
+      <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>0.75</v>
       </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>1.975</v>
-      </c>
-      <c r="U182">
-        <v>2.75</v>
-      </c>
-      <c r="V182">
-        <v>1.85</v>
-      </c>
-      <c r="W182">
-        <v>2</v>
-      </c>
-      <c r="X182">
-        <v>-1</v>
-      </c>
-      <c r="Y182">
-        <v>3</v>
-      </c>
-      <c r="Z182">
-        <v>-1</v>
-      </c>
-      <c r="AA182">
-        <v>0.875</v>
-      </c>
       <c r="AB182">
         <v>-1</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>-1</v>
       </c>
       <c r="AD182">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17280,7 +17280,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6898526</v>
+        <v>6898476</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17289,82 +17289,82 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K183" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L183">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N183">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O183">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="P183">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q183">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R183">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V183">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17372,7 +17372,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6898476</v>
+        <v>6898526</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17381,82 +17381,82 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L184">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M184">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N184">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O184">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="P184">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q184">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R184">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD184">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17476,7 +17476,7 @@
         <v>37</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
         <v>32</v>
@@ -18025,7 +18025,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F191" t="s">
         <v>32</v>
@@ -18292,7 +18292,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6899051</v>
+        <v>6907464</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18301,67 +18301,67 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
         <v>49</v>
       </c>
       <c r="L194">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M194">
+        <v>3.75</v>
+      </c>
+      <c r="N194">
+        <v>2.25</v>
+      </c>
+      <c r="O194">
+        <v>2.4</v>
+      </c>
+      <c r="P194">
         <v>3.5</v>
       </c>
-      <c r="N194">
-        <v>2.8</v>
-      </c>
-      <c r="O194">
-        <v>2.3</v>
-      </c>
-      <c r="P194">
-        <v>3.4</v>
-      </c>
       <c r="Q194">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R194">
         <v>0</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U194">
         <v>2.75</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z194">
         <v>-1</v>
@@ -18373,10 +18373,10 @@
         <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18384,7 +18384,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6898504</v>
+        <v>6899051</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18393,82 +18393,82 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
         <v>2</v>
       </c>
       <c r="K195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L195">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O195">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="P195">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q195">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="R195">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T195">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U195">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z195">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC195">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD195">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18476,7 +18476,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6907464</v>
+        <v>6898504</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18485,82 +18485,82 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L196">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M196">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N196">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="P196">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q196">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="R196">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
         <v>1.9</v>
       </c>
       <c r="U196">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AB196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD196">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18669,7 +18669,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F198" t="s">
         <v>30</v>
@@ -19028,7 +19028,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6898078</v>
+        <v>6898505</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19037,19 +19037,19 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
         <v>44</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>2</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -19058,41 +19058,41 @@
         <v>48</v>
       </c>
       <c r="L202">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M202">
         <v>4</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="P202">
         <v>3.6</v>
       </c>
       <c r="Q202">
+        <v>4.75</v>
+      </c>
+      <c r="R202">
+        <v>-0.75</v>
+      </c>
+      <c r="S202">
+        <v>1.775</v>
+      </c>
+      <c r="T202">
+        <v>2.025</v>
+      </c>
+      <c r="U202">
+        <v>2.75</v>
+      </c>
+      <c r="V202">
         <v>1.85</v>
       </c>
-      <c r="R202">
-        <v>0.5</v>
-      </c>
-      <c r="S202">
-        <v>1.9</v>
-      </c>
-      <c r="T202">
+      <c r="W202">
         <v>1.95</v>
       </c>
-      <c r="U202">
-        <v>2.5</v>
-      </c>
-      <c r="V202">
-        <v>1.925</v>
-      </c>
-      <c r="W202">
-        <v>1.925</v>
-      </c>
       <c r="X202">
         <v>-1</v>
       </c>
@@ -19100,19 +19100,19 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8500000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
+        <v>1.025</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+      <c r="AD202">
         <v>0.95</v>
-      </c>
-      <c r="AC202">
-        <v>0.925</v>
-      </c>
-      <c r="AD202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19120,7 +19120,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6898505</v>
+        <v>6898766</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -19129,61 +19129,61 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" t="s">
         <v>48</v>
       </c>
       <c r="L203">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M203">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N203">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O203">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="P203">
         <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="R203">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U203">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -19192,19 +19192,19 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC203">
         <v>-1</v>
       </c>
       <c r="AD203">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19212,7 +19212,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6898766</v>
+        <v>6898078</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
@@ -19221,61 +19221,61 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204" t="s">
         <v>48</v>
       </c>
       <c r="L204">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N204">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O204">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P204">
         <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R204">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S204">
+        <v>1.9</v>
+      </c>
+      <c r="T204">
         <v>1.95</v>
       </c>
-      <c r="T204">
-        <v>1.85</v>
-      </c>
       <c r="U204">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -19284,19 +19284,19 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19304,7 +19304,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6907513</v>
+        <v>6899050</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19313,19 +19313,19 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -19334,40 +19334,40 @@
         <v>48</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="M205">
         <v>4</v>
       </c>
       <c r="N205">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O205">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="P205">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="R205">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U205">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V205">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -19376,19 +19376,19 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19396,7 +19396,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6907514</v>
+        <v>6907513</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -19405,79 +19405,79 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G206">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206" t="s">
+        <v>48</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
         <v>4</v>
       </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-      <c r="K206" t="s">
-        <v>50</v>
-      </c>
-      <c r="L206">
-        <v>1.3</v>
-      </c>
-      <c r="M206">
-        <v>5</v>
-      </c>
       <c r="N206">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="O206">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="P206">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q206">
-        <v>9.5</v>
+        <v>1.65</v>
       </c>
       <c r="R206">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U206">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V206">
+        <v>1.75</v>
+      </c>
+      <c r="W206">
         <v>1.95</v>
       </c>
-      <c r="W206">
-        <v>1.75</v>
-      </c>
       <c r="X206">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC206">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AD206">
         <v>-1</v>
@@ -19488,7 +19488,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6899050</v>
+        <v>6907514</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19497,82 +19497,82 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L207">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N207">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="O207">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="P207">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q207">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="R207">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U207">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V207">
         <v>1.95</v>
       </c>
       <c r="W207">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
         <v>0.95</v>
       </c>
-      <c r="AC207">
-        <v>-1</v>
-      </c>
       <c r="AD207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19672,7 +19672,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6907515</v>
+        <v>6898482</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19681,82 +19681,82 @@
         <v>45366.625</v>
       </c>
       <c r="E209" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209" t="s">
         <v>49</v>
       </c>
       <c r="L209">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="M209">
         <v>3.75</v>
       </c>
       <c r="N209">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O209">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q209">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="R209">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S209">
+        <v>1.95</v>
+      </c>
+      <c r="T209">
         <v>1.85</v>
-      </c>
-      <c r="T209">
-        <v>1.95</v>
       </c>
       <c r="U209">
         <v>2.5</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
+        <v>-0.5</v>
+      </c>
+      <c r="AB209">
+        <v>0.425</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+      <c r="AD209">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
-      </c>
-      <c r="AD209">
-        <v>0.8</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19764,7 +19764,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6898482</v>
+        <v>6907515</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19773,82 +19773,82 @@
         <v>45366.625</v>
       </c>
       <c r="E210" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="s">
         <v>49</v>
       </c>
       <c r="L210">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="M210">
         <v>3.75</v>
       </c>
       <c r="N210">
+        <v>1.615</v>
+      </c>
+      <c r="O210">
+        <v>3.75</v>
+      </c>
+      <c r="P210">
         <v>3.3</v>
       </c>
-      <c r="O210">
-        <v>2.2</v>
-      </c>
-      <c r="P210">
-        <v>3.4</v>
-      </c>
       <c r="Q210">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="R210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
         <v>1.95</v>
-      </c>
-      <c r="T210">
-        <v>1.85</v>
       </c>
       <c r="U210">
         <v>2.5</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB210">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
         <v>-1</v>
       </c>
       <c r="AD210">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20233,7 +20233,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F215" t="s">
         <v>30</v>
@@ -20788,7 +20788,7 @@
         <v>31</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -20972,7 +20972,7 @@
         <v>43</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -21245,7 +21245,7 @@
         <v>45379.625</v>
       </c>
       <c r="E226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F226" t="s">
         <v>40</v>
@@ -21521,7 +21521,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F229" t="s">
         <v>33</v>
@@ -22168,7 +22168,7 @@
         <v>43</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -22432,7 +22432,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6898082</v>
+        <v>6898486</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22441,82 +22441,82 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L239">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="M239">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N239">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="O239">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="P239">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q239">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="R239">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
+        <v>1.85</v>
+      </c>
+      <c r="U239">
+        <v>2.5</v>
+      </c>
+      <c r="V239">
+        <v>1.85</v>
+      </c>
+      <c r="W239">
         <v>1.95</v>
       </c>
-      <c r="U239">
-        <v>3</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
-      <c r="W239">
-        <v>1.85</v>
-      </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z239">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC239">
+        <v>-1</v>
+      </c>
+      <c r="AD239">
         <v>0.95</v>
-      </c>
-      <c r="AC239">
-        <v>1</v>
-      </c>
-      <c r="AD239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22524,7 +22524,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6898486</v>
+        <v>6898082</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22533,82 +22533,82 @@
         <v>45384.58333333334</v>
       </c>
       <c r="E240" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L240">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N240">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="O240">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="P240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q240">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="R240">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
         <v>1.95</v>
       </c>
-      <c r="T240">
+      <c r="U240">
+        <v>3</v>
+      </c>
+      <c r="V240">
+        <v>2</v>
+      </c>
+      <c r="W240">
         <v>1.85</v>
       </c>
-      <c r="U240">
-        <v>2.5</v>
-      </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
-      <c r="W240">
-        <v>1.95</v>
-      </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22616,7 +22616,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6907470</v>
+        <v>6899046</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22625,82 +22625,82 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
         <v>0</v>
       </c>
       <c r="K241" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L241">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="M241">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N241">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O241">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="P241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q241">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="R241">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U241">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V241">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X241">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD241">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22708,7 +22708,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6899046</v>
+        <v>6907468</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22717,19 +22717,19 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>3</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -22738,40 +22738,40 @@
         <v>48</v>
       </c>
       <c r="L242">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="M242">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N242">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="P242">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q242">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="R242">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T242">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U242">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W242">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22780,19 +22780,19 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="AA242">
         <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC242">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AD242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22800,7 +22800,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6907468</v>
+        <v>6907470</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22809,16 +22809,16 @@
         <v>45385.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -22827,64 +22827,64 @@
         <v>0</v>
       </c>
       <c r="K243" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L243">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="M243">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N243">
+        <v>4.5</v>
+      </c>
+      <c r="O243">
+        <v>1.75</v>
+      </c>
+      <c r="P243">
         <v>3.4</v>
       </c>
-      <c r="O243">
-        <v>1.95</v>
-      </c>
-      <c r="P243">
-        <v>3.6</v>
-      </c>
       <c r="Q243">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="R243">
         <v>-0.5</v>
       </c>
       <c r="S243">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T243">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U243">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V243">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD243">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -22984,7 +22984,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6907088</v>
+        <v>6907471</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -22993,79 +22993,79 @@
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G245">
         <v>2</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245">
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L245">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M245">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N245">
         <v>2.6</v>
       </c>
       <c r="O245">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="P245">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q245">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S245">
         <v>1.875</v>
       </c>
       <c r="T245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U245">
         <v>2.75</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC245">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD245">
         <v>-1</v>
@@ -23076,7 +23076,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6907522</v>
+        <v>6907088</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -23085,10 +23085,10 @@
         <v>45388.375</v>
       </c>
       <c r="E246" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F246" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -23097,10 +23097,10 @@
         <v>2</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K246" t="s">
         <v>49</v>
@@ -23109,25 +23109,25 @@
         <v>2.4</v>
       </c>
       <c r="M246">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N246">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O246">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="P246">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q246">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R246">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T246">
         <v>1.975</v>
@@ -23136,28 +23136,28 @@
         <v>2.75</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AB246">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD246">
         <v>-1</v>
@@ -23177,7 +23177,7 @@
         <v>45388.375</v>
       </c>
       <c r="E247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F247" t="s">
         <v>39</v>
@@ -23260,7 +23260,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6907471</v>
+        <v>6907522</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23269,52 +23269,52 @@
         <v>45388.375</v>
       </c>
       <c r="E248" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G248">
         <v>2</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L248">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M248">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N248">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O248">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P248">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q248">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="R248">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U248">
         <v>2.75</v>
@@ -23329,16 +23329,16 @@
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z248">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB248">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC248">
         <v>0.95</v>
@@ -23732,7 +23732,7 @@
         <v>41</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -24376,7 +24376,7 @@
         <v>47</v>
       </c>
       <c r="F260" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G260">
         <v>5</v>
@@ -24833,7 +24833,7 @@
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F265" t="s">
         <v>42</v>
@@ -25017,7 +25017,7 @@
         <v>45402.375</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F267" t="s">
         <v>39</v>
@@ -25192,7 +25192,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6907529</v>
+        <v>6916484</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25201,64 +25201,64 @@
         <v>45403.375</v>
       </c>
       <c r="E269" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F269" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="s">
         <v>50</v>
       </c>
       <c r="L269">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="M269">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N269">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O269">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="P269">
         <v>3.6</v>
       </c>
       <c r="Q269">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="R269">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S269">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U269">
         <v>2.75</v>
       </c>
       <c r="V269">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X269">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y269">
         <v>-1</v>
@@ -25267,13 +25267,13 @@
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD269">
         <v>-1</v>
@@ -25284,7 +25284,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6899043</v>
+        <v>6907529</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25293,64 +25293,64 @@
         <v>45403.375</v>
       </c>
       <c r="E270" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F270" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G270">
+        <v>4</v>
+      </c>
+      <c r="H270">
         <v>3</v>
       </c>
-      <c r="H270">
-        <v>0</v>
-      </c>
       <c r="I270">
         <v>0</v>
       </c>
       <c r="J270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K270" t="s">
         <v>50</v>
       </c>
       <c r="L270">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="M270">
+        <v>3.75</v>
+      </c>
+      <c r="N270">
+        <v>3.8</v>
+      </c>
+      <c r="O270">
+        <v>1.8</v>
+      </c>
+      <c r="P270">
+        <v>3.6</v>
+      </c>
+      <c r="Q270">
         <v>4</v>
       </c>
-      <c r="N270">
-        <v>1.571</v>
-      </c>
-      <c r="O270">
-        <v>5.5</v>
-      </c>
-      <c r="P270">
-        <v>4.5</v>
-      </c>
-      <c r="Q270">
-        <v>1.4</v>
-      </c>
       <c r="R270">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S270">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T270">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U270">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V270">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W270">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X270">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y270">
         <v>-1</v>
@@ -25359,16 +25359,16 @@
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB270">
         <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD270">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25376,7 +25376,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6916484</v>
+        <v>6899043</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25385,19 +25385,19 @@
         <v>45403.375</v>
       </c>
       <c r="E271" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G271">
         <v>3</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J271">
         <v>0</v>
@@ -25415,34 +25415,34 @@
         <v>1.571</v>
       </c>
       <c r="O271">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P271">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q271">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="R271">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U271">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V271">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W271">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X271">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y271">
         <v>-1</v>
@@ -25451,16 +25451,16 @@
         <v>-1</v>
       </c>
       <c r="AA271">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB271">
         <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD271">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25480,7 +25480,7 @@
         <v>35</v>
       </c>
       <c r="F272" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -25940,7 +25940,7 @@
         <v>47</v>
       </c>
       <c r="F277" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -26581,7 +26581,7 @@
         <v>45416.375</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F284" t="s">
         <v>42</v>
@@ -26676,7 +26676,7 @@
         <v>46</v>
       </c>
       <c r="F285" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G285">
         <v>3</v>
@@ -26848,7 +26848,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7074957</v>
+        <v>7054737</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26857,16 +26857,16 @@
         <v>45417.375</v>
       </c>
       <c r="E287" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F287" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G287">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287">
         <v>0</v>
@@ -26875,64 +26875,64 @@
         <v>0</v>
       </c>
       <c r="K287" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L287">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="M287">
+        <v>5</v>
+      </c>
+      <c r="N287">
+        <v>7.5</v>
+      </c>
+      <c r="O287">
+        <v>1.7</v>
+      </c>
+      <c r="P287">
         <v>4</v>
       </c>
-      <c r="N287">
-        <v>3.1</v>
-      </c>
-      <c r="O287">
-        <v>1.65</v>
-      </c>
-      <c r="P287">
-        <v>4.333</v>
-      </c>
       <c r="Q287">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R287">
         <v>-0.75</v>
       </c>
       <c r="S287">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T287">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U287">
         <v>3.25</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W287">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB287">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC287">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD287">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="288" spans="1:30">
@@ -27032,7 +27032,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7054737</v>
+        <v>7074957</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -27041,16 +27041,16 @@
         <v>45417.375</v>
       </c>
       <c r="E289" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G289">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -27059,64 +27059,64 @@
         <v>0</v>
       </c>
       <c r="K289" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L289">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="M289">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N289">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O289">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P289">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q289">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R289">
         <v>-0.75</v>
       </c>
       <c r="S289">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T289">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U289">
         <v>3.25</v>
       </c>
       <c r="V289">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W289">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X289">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA289">
+        <v>-1</v>
+      </c>
+      <c r="AB289">
+        <v>0.925</v>
+      </c>
+      <c r="AC289">
+        <v>-0.5</v>
+      </c>
+      <c r="AD289">
         <v>0.4125</v>
-      </c>
-      <c r="AB289">
-        <v>-0.5</v>
-      </c>
-      <c r="AC289">
-        <v>-1</v>
-      </c>
-      <c r="AD289">
-        <v>0.8</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -27124,7 +27124,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7091857</v>
+        <v>7091854</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -27133,16 +27133,16 @@
         <v>45423.375</v>
       </c>
       <c r="E290" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F290" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -27151,64 +27151,64 @@
         <v>0</v>
       </c>
       <c r="K290" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L290">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="M290">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N290">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O290">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="P290">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q290">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R290">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T290">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U290">
         <v>3</v>
       </c>
       <c r="V290">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W290">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB290">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD290">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:30">
@@ -27216,7 +27216,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7091858</v>
+        <v>7091857</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -27225,82 +27225,82 @@
         <v>45423.375</v>
       </c>
       <c r="E291" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G291">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291" t="s">
+        <v>48</v>
+      </c>
+      <c r="L291">
+        <v>1.333</v>
+      </c>
+      <c r="M291">
+        <v>5</v>
+      </c>
+      <c r="N291">
+        <v>6</v>
+      </c>
+      <c r="O291">
+        <v>1.444</v>
+      </c>
+      <c r="P291">
+        <v>4.333</v>
+      </c>
+      <c r="Q291">
+        <v>5</v>
+      </c>
+      <c r="R291">
+        <v>-1.25</v>
+      </c>
+      <c r="S291">
+        <v>1.975</v>
+      </c>
+      <c r="T291">
+        <v>1.825</v>
+      </c>
+      <c r="U291">
         <v>3</v>
       </c>
-      <c r="J291">
-        <v>0</v>
-      </c>
-      <c r="K291" t="s">
-        <v>50</v>
-      </c>
-      <c r="L291">
-        <v>1.95</v>
-      </c>
-      <c r="M291">
-        <v>3.75</v>
-      </c>
-      <c r="N291">
-        <v>3</v>
-      </c>
-      <c r="O291">
-        <v>1.8</v>
-      </c>
-      <c r="P291">
-        <v>4.2</v>
-      </c>
-      <c r="Q291">
-        <v>3.2</v>
-      </c>
-      <c r="R291">
-        <v>-0.75</v>
-      </c>
-      <c r="S291">
-        <v>1.925</v>
-      </c>
-      <c r="T291">
-        <v>1.775</v>
-      </c>
-      <c r="U291">
-        <v>3.75</v>
-      </c>
       <c r="V291">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X291">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA291">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC291">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD291">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:30">
@@ -27308,7 +27308,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7091854</v>
+        <v>7091858</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27317,19 +27317,19 @@
         <v>45423.375</v>
       </c>
       <c r="E292" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F292" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G292">
+        <v>7</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
         <v>3</v>
-      </c>
-      <c r="H292">
-        <v>0</v>
-      </c>
-      <c r="I292">
-        <v>0</v>
       </c>
       <c r="J292">
         <v>0</v>
@@ -27338,40 +27338,40 @@
         <v>50</v>
       </c>
       <c r="L292">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="M292">
         <v>3.75</v>
       </c>
       <c r="N292">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O292">
         <v>1.8</v>
       </c>
       <c r="P292">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q292">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R292">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S292">
+        <v>1.925</v>
+      </c>
+      <c r="T292">
+        <v>1.775</v>
+      </c>
+      <c r="U292">
+        <v>3.75</v>
+      </c>
+      <c r="V292">
+        <v>1.95</v>
+      </c>
+      <c r="W292">
         <v>1.85</v>
-      </c>
-      <c r="T292">
-        <v>1.95</v>
-      </c>
-      <c r="U292">
-        <v>3</v>
-      </c>
-      <c r="V292">
-        <v>1.875</v>
-      </c>
-      <c r="W292">
-        <v>1.925</v>
       </c>
       <c r="X292">
         <v>0.8</v>
@@ -27383,16 +27383,16 @@
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB292">
         <v>-1</v>
       </c>
       <c r="AC292">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD292">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -27400,7 +27400,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7096295</v>
+        <v>7091856</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27409,19 +27409,19 @@
         <v>45423.375</v>
       </c>
       <c r="E293" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H293">
         <v>0</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J293">
         <v>0</v>
@@ -27430,43 +27430,43 @@
         <v>50</v>
       </c>
       <c r="L293">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M293">
         <v>3.75</v>
       </c>
       <c r="N293">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O293">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="P293">
+        <v>4</v>
+      </c>
+      <c r="Q293">
         <v>3.8</v>
       </c>
-      <c r="Q293">
-        <v>2.05</v>
-      </c>
       <c r="R293">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S293">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T293">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U293">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W293">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X293">
-        <v>1.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y293">
         <v>-1</v>
@@ -27475,16 +27475,16 @@
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC293">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD293">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27492,7 +27492,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7091856</v>
+        <v>7096295</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27501,19 +27501,19 @@
         <v>45423.375</v>
       </c>
       <c r="E294" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F294" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H294">
         <v>0</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -27522,43 +27522,43 @@
         <v>50</v>
       </c>
       <c r="L294">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M294">
         <v>3.75</v>
       </c>
       <c r="N294">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O294">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q294">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="R294">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S294">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T294">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U294">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V294">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X294">
-        <v>0.6659999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Y294">
         <v>-1</v>
@@ -27567,16 +27567,16 @@
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB294">
+        <v>-1</v>
+      </c>
+      <c r="AC294">
         <v>-0.5</v>
       </c>
-      <c r="AC294">
-        <v>-1</v>
-      </c>
       <c r="AD294">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27676,7 +27676,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7091855</v>
+        <v>7111566</v>
       </c>
       <c r="C296" t="s">
         <v>29</v>
@@ -27685,82 +27685,82 @@
         <v>45423.375</v>
       </c>
       <c r="E296" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F296" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G296">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K296" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L296">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M296">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N296">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="O296">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="P296">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q296">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="R296">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U296">
         <v>3.25</v>
       </c>
       <c r="V296">
+        <v>1.95</v>
+      </c>
+      <c r="W296">
         <v>1.85</v>
       </c>
-      <c r="W296">
-        <v>1.95</v>
-      </c>
       <c r="X296">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA296">
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:30">
@@ -27768,7 +27768,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7111566</v>
+        <v>7091855</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -27777,82 +27777,82 @@
         <v>45423.375</v>
       </c>
       <c r="E297" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G297">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K297" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L297">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="M297">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="O297">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="P297">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q297">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="R297">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U297">
         <v>3.25</v>
       </c>
       <c r="V297">
+        <v>1.85</v>
+      </c>
+      <c r="W297">
         <v>1.95</v>
       </c>
-      <c r="W297">
-        <v>1.85</v>
-      </c>
       <c r="X297">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
         <v>-1</v>
       </c>
       <c r="AB297">
+        <v>0.825</v>
+      </c>
+      <c r="AC297">
+        <v>-1</v>
+      </c>
+      <c r="AD297">
         <v>0.95</v>
-      </c>
-      <c r="AC297">
-        <v>0.95</v>
-      </c>
-      <c r="AD297">
-        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:30">
@@ -28044,7 +28044,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7129154</v>
+        <v>7129152</v>
       </c>
       <c r="C300" t="s">
         <v>29</v>
@@ -28053,19 +28053,19 @@
         <v>45430.375</v>
       </c>
       <c r="E300" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F300" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G300">
         <v>4</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J300">
         <v>0</v>
@@ -28074,43 +28074,43 @@
         <v>50</v>
       </c>
       <c r="L300">
+        <v>2.875</v>
+      </c>
+      <c r="M300">
+        <v>4</v>
+      </c>
+      <c r="N300">
         <v>1.95</v>
       </c>
-      <c r="M300">
-        <v>3.75</v>
-      </c>
-      <c r="N300">
-        <v>3</v>
-      </c>
       <c r="O300">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="P300">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q300">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="R300">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S300">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T300">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U300">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V300">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W300">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X300">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y300">
         <v>-1</v>
@@ -28119,13 +28119,13 @@
         <v>-1</v>
       </c>
       <c r="AA300">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB300">
         <v>-1</v>
       </c>
       <c r="AC300">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD300">
         <v>-1</v>
@@ -28136,7 +28136,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7129152</v>
+        <v>7129153</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -28145,19 +28145,19 @@
         <v>45430.375</v>
       </c>
       <c r="E301" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F301" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G301">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H301">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -28166,43 +28166,43 @@
         <v>50</v>
       </c>
       <c r="L301">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M301">
         <v>4</v>
       </c>
       <c r="N301">
+        <v>1.833</v>
+      </c>
+      <c r="O301">
+        <v>3.1</v>
+      </c>
+      <c r="P301">
+        <v>4</v>
+      </c>
+      <c r="Q301">
+        <v>1.9</v>
+      </c>
+      <c r="R301">
+        <v>0.5</v>
+      </c>
+      <c r="S301">
+        <v>1.85</v>
+      </c>
+      <c r="T301">
         <v>1.95</v>
       </c>
-      <c r="O301">
-        <v>3.4</v>
-      </c>
-      <c r="P301">
-        <v>4.75</v>
-      </c>
-      <c r="Q301">
-        <v>1.666</v>
-      </c>
-      <c r="R301">
-        <v>0.75</v>
-      </c>
-      <c r="S301">
+      <c r="U301">
+        <v>3</v>
+      </c>
+      <c r="V301">
         <v>1.95</v>
       </c>
-      <c r="T301">
-        <v>1.9</v>
-      </c>
-      <c r="U301">
-        <v>3.25</v>
-      </c>
-      <c r="V301">
-        <v>1.825</v>
-      </c>
       <c r="W301">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X301">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y301">
         <v>-1</v>
@@ -28211,16 +28211,16 @@
         <v>-1</v>
       </c>
       <c r="AA301">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD301">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:30">
@@ -28228,7 +28228,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7129153</v>
+        <v>7129154</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28237,19 +28237,19 @@
         <v>45430.375</v>
       </c>
       <c r="E302" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G302">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H302">
         <v>0</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -28258,43 +28258,43 @@
         <v>50</v>
       </c>
       <c r="L302">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="M302">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N302">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O302">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P302">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q302">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="R302">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S302">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T302">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U302">
         <v>3</v>
       </c>
       <c r="V302">
+        <v>1.85</v>
+      </c>
+      <c r="W302">
         <v>1.95</v>
       </c>
-      <c r="W302">
-        <v>1.85</v>
-      </c>
       <c r="X302">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y302">
         <v>-1</v>
@@ -28303,16 +28303,16 @@
         <v>-1</v>
       </c>
       <c r="AA302">
+        <v>1</v>
+      </c>
+      <c r="AB302">
+        <v>-1</v>
+      </c>
+      <c r="AC302">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB302">
-        <v>-1</v>
-      </c>
-      <c r="AC302">
-        <v>0</v>
-      </c>
       <c r="AD302">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28513,7 +28513,7 @@
         <v>45430.375</v>
       </c>
       <c r="E305" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F305" t="s">
         <v>46</v>

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -112,13 +112,13 @@
     <t>TSG Balingen</t>
   </si>
   <si>
+    <t>SGV Freiberg</t>
+  </si>
+  <si>
     <t>VfB Stuttgart II</t>
   </si>
   <si>
     <t>FC Astoria Walldorf</t>
-  </si>
-  <si>
-    <t>SGV Freiberg</t>
   </si>
   <si>
     <t>Hessen Kassel</t>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6907443</v>
+        <v>6899072</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -824,79 +824,79 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N4">
         <v>3.1</v>
       </c>
       <c r="O4">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="R4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1.8</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
         <v>1.95</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>1.85</v>
       </c>
-      <c r="U4">
-        <v>2.75</v>
-      </c>
-      <c r="V4">
-        <v>1.975</v>
-      </c>
-      <c r="W4">
-        <v>1.825</v>
-      </c>
       <c r="X4">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AD4">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6898512</v>
+        <v>6907443</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -916,10 +916,10 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -928,31 +928,31 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
         <v>3.1</v>
       </c>
-      <c r="M5">
-        <v>3.75</v>
-      </c>
-      <c r="N5">
-        <v>1.909</v>
-      </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="R5">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S5">
         <v>1.95</v>
@@ -961,19 +961,19 @@
         <v>1.85</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -985,10 +985,10 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD5">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6899072</v>
+        <v>6898512</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1008,16 +1008,16 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1026,61 +1026,61 @@
         <v>49</v>
       </c>
       <c r="L6">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
         <v>3.75</v>
       </c>
       <c r="N6">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U6">
         <v>3</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
         <v>-1</v>
       </c>
       <c r="AD6">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1744,7 +1744,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2293,7 +2293,7 @@
         <v>45157.375</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6898060</v>
+        <v>6907481</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,79 +2477,79 @@
         <v>45158.375</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
+        <v>3.25</v>
+      </c>
+      <c r="O22">
+        <v>2.1</v>
+      </c>
+      <c r="P22">
         <v>3.6</v>
       </c>
-      <c r="N22">
-        <v>2.5</v>
-      </c>
-      <c r="O22">
+      <c r="Q22">
+        <v>2.7</v>
+      </c>
+      <c r="R22">
+        <v>-0.25</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>1.85</v>
+      </c>
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="P22">
-        <v>3.4</v>
-      </c>
-      <c r="Q22">
-        <v>2.05</v>
-      </c>
-      <c r="R22">
-        <v>0.25</v>
-      </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
-      <c r="T22">
+      <c r="V22">
+        <v>1.925</v>
+      </c>
+      <c r="W22">
         <v>1.875</v>
       </c>
-      <c r="U22">
-        <v>2.5</v>
-      </c>
-      <c r="V22">
-        <v>1.875</v>
-      </c>
-      <c r="W22">
-        <v>1.975</v>
-      </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6907481</v>
+        <v>6907072</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2569,64 +2569,64 @@
         <v>45158.375</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>50</v>
       </c>
       <c r="L23">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>1.727</v>
+      </c>
+      <c r="O23">
+        <v>3.2</v>
+      </c>
+      <c r="P23">
         <v>3.8</v>
       </c>
-      <c r="N23">
-        <v>3.25</v>
-      </c>
-      <c r="O23">
-        <v>2.1</v>
-      </c>
-      <c r="P23">
-        <v>3.6</v>
-      </c>
       <c r="Q23">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="R23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
         <v>3</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X23">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2635,16 +2635,16 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2652,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6907072</v>
+        <v>6898753</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2661,46 +2661,46 @@
         <v>45158.375</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24">
-        <v>3.5</v>
-      </c>
       <c r="M24">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P24">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q24">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="R24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S24">
         <v>1.875</v>
@@ -2712,31 +2712,31 @@
         <v>3</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X24">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2744,7 +2744,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6898753</v>
+        <v>6898060</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2753,58 +2753,58 @@
         <v>45158.375</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M25">
         <v>3.6</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3.4</v>
+      </c>
+      <c r="Q25">
         <v>2.05</v>
       </c>
-      <c r="P25">
-        <v>3.6</v>
-      </c>
-      <c r="Q25">
-        <v>2.875</v>
-      </c>
       <c r="R25">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
         <v>1.875</v>
       </c>
-      <c r="T25">
-        <v>1.925</v>
-      </c>
       <c r="U25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
         <v>1.975</v>
@@ -2813,22 +2813,22 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2940,7 +2940,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6898490</v>
+        <v>6907446</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3213,79 +3213,79 @@
         <v>45164.375</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L30">
+        <v>2.1</v>
+      </c>
+      <c r="M30">
+        <v>3.4</v>
+      </c>
+      <c r="N30">
+        <v>2.875</v>
+      </c>
+      <c r="O30">
+        <v>2.15</v>
+      </c>
+      <c r="P30">
+        <v>3.4</v>
+      </c>
+      <c r="Q30">
+        <v>2.8</v>
+      </c>
+      <c r="R30">
+        <v>-0.25</v>
+      </c>
+      <c r="S30">
+        <v>2.05</v>
+      </c>
+      <c r="T30">
         <v>1.8</v>
       </c>
-      <c r="M30">
-        <v>3.6</v>
-      </c>
-      <c r="N30">
-        <v>3.6</v>
-      </c>
-      <c r="O30">
-        <v>2.25</v>
-      </c>
-      <c r="P30">
-        <v>3.6</v>
-      </c>
-      <c r="Q30">
-        <v>2.625</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>1.725</v>
-      </c>
-      <c r="T30">
-        <v>1.975</v>
-      </c>
       <c r="U30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD30">
         <v>-1</v>
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6907446</v>
+        <v>6898754</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3305,64 +3305,64 @@
         <v>45164.375</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>50</v>
       </c>
       <c r="L31">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M31">
         <v>3.4</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O31">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="R31">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>1.925</v>
+      </c>
+      <c r="U31">
+        <v>3.25</v>
+      </c>
+      <c r="V31">
         <v>2.05</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>1.8</v>
       </c>
-      <c r="U31">
-        <v>2.75</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>1.85</v>
-      </c>
       <c r="X31">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3371,16 +3371,16 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD31">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3388,7 +3388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6898754</v>
+        <v>6898514</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3397,82 +3397,82 @@
         <v>45164.375</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L32">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
         <v>3.4</v>
       </c>
       <c r="O32">
+        <v>2.4</v>
+      </c>
+      <c r="P32">
+        <v>3.75</v>
+      </c>
+      <c r="Q32">
+        <v>2.3</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
         <v>1.85</v>
       </c>
-      <c r="P32">
-        <v>3.5</v>
-      </c>
-      <c r="Q32">
-        <v>3.5</v>
-      </c>
-      <c r="R32">
+      <c r="U32">
+        <v>2.75</v>
+      </c>
+      <c r="V32">
+        <v>1.8</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
+        <v>1.3</v>
+      </c>
+      <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC32">
+        <v>0.4</v>
+      </c>
+      <c r="AD32">
         <v>-0.5</v>
-      </c>
-      <c r="S32">
-        <v>1.925</v>
-      </c>
-      <c r="T32">
-        <v>1.925</v>
-      </c>
-      <c r="U32">
-        <v>3.25</v>
-      </c>
-      <c r="V32">
-        <v>2.05</v>
-      </c>
-      <c r="W32">
-        <v>1.8</v>
-      </c>
-      <c r="X32">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
-      <c r="AA32">
-        <v>0.925</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
-      <c r="AC32">
-        <v>-0.5</v>
-      </c>
-      <c r="AD32">
-        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3480,7 +3480,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6898514</v>
+        <v>6907482</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3489,61 +3489,61 @@
         <v>45164.375</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
         <v>48</v>
       </c>
       <c r="L33">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M33">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N33">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3552,19 +3552,19 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AD33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3572,7 +3572,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6907482</v>
+        <v>6898490</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3581,79 +3581,79 @@
         <v>45164.375</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L34">
+        <v>1.8</v>
+      </c>
+      <c r="M34">
+        <v>3.6</v>
+      </c>
+      <c r="N34">
+        <v>3.6</v>
+      </c>
+      <c r="O34">
         <v>2.25</v>
-      </c>
-      <c r="M34">
-        <v>3.5</v>
-      </c>
-      <c r="N34">
-        <v>2.625</v>
-      </c>
-      <c r="O34">
-        <v>2.1</v>
       </c>
       <c r="P34">
         <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="R34">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S34">
+        <v>1.725</v>
+      </c>
+      <c r="T34">
         <v>1.975</v>
-      </c>
-      <c r="T34">
-        <v>1.875</v>
       </c>
       <c r="U34">
         <v>3</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z34">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AD34">
         <v>-1</v>
@@ -3664,7 +3664,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6898447</v>
+        <v>6898448</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3673,16 +3673,16 @@
         <v>45164.375</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3691,64 +3691,64 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L35">
         <v>2.1</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O35">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P35">
         <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S35">
+        <v>1.925</v>
+      </c>
+      <c r="T35">
         <v>1.875</v>
-      </c>
-      <c r="T35">
-        <v>1.925</v>
       </c>
       <c r="U35">
         <v>2.75</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3756,7 +3756,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6898448</v>
+        <v>6898447</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3765,16 +3765,16 @@
         <v>45164.375</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3783,64 +3783,64 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L36">
         <v>2.1</v>
       </c>
       <c r="M36">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="P36">
         <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="R36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
         <v>1.925</v>
-      </c>
-      <c r="T36">
-        <v>1.875</v>
       </c>
       <c r="U36">
         <v>2.75</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z36">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3949,7 +3949,7 @@
         <v>45167.52083333334</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -4044,7 +4044,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4124,7 +4124,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6907448</v>
+        <v>6898491</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4133,67 +4133,67 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="s">
         <v>49</v>
       </c>
       <c r="L40">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N40">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="O40">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R40">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
+        <v>1.9</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>1.75</v>
+      </c>
+      <c r="W40">
         <v>1.95</v>
       </c>
-      <c r="U40">
-        <v>2.75</v>
-      </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
-      <c r="W40">
-        <v>1.85</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z40">
         <v>-1</v>
@@ -4202,13 +4202,13 @@
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4216,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6907447</v>
+        <v>6907074</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4225,82 +4225,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L41">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="N41">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="O41">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R41">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S41">
+        <v>1.975</v>
+      </c>
+      <c r="T41">
         <v>1.825</v>
-      </c>
-      <c r="T41">
-        <v>1.975</v>
       </c>
       <c r="U41">
         <v>3</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6898491</v>
+        <v>6907447</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4317,67 +4317,67 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="s">
         <v>49</v>
       </c>
       <c r="L42">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="M42">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="O42">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q42">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="R42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U42">
         <v>3</v>
       </c>
       <c r="V42">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>3.333</v>
+        <v>2.75</v>
       </c>
       <c r="Z42">
         <v>-1</v>
@@ -4386,13 +4386,13 @@
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4400,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6907074</v>
+        <v>6907448</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4409,82 +4409,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="M43">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="O43">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P43">
+        <v>3.8</v>
+      </c>
+      <c r="Q43">
         <v>4</v>
-      </c>
-      <c r="Q43">
-        <v>3.6</v>
       </c>
       <c r="R43">
         <v>-0.75</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4501,7 +4501,7 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
         <v>38</v>
@@ -4584,7 +4584,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6898061</v>
+        <v>6899068</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4593,79 +4593,79 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="M45">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="P45">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="R45">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z45">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AD45">
         <v>-1</v>
@@ -4676,7 +4676,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6899068</v>
+        <v>6898061</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4685,79 +4685,79 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L46">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="O46">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="P46">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q46">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="R46">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
+        <v>1.975</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
         <v>1.8</v>
       </c>
-      <c r="U46">
-        <v>2.75</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD46">
         <v>-1</v>
@@ -4860,7 +4860,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6907075</v>
+        <v>6907485</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4869,52 +4869,52 @@
         <v>45171.375</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L48">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
         <v>3.75</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="R48">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S48">
+        <v>1.875</v>
+      </c>
+      <c r="T48">
         <v>1.925</v>
-      </c>
-      <c r="T48">
-        <v>1.875</v>
       </c>
       <c r="U48">
         <v>2.75</v>
@@ -4926,19 +4926,19 @@
         <v>1.975</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
         <v>0.4125</v>
@@ -4952,7 +4952,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6898492</v>
+        <v>6907075</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4961,62 +4961,62 @@
         <v>45171.375</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
         <v>48</v>
       </c>
       <c r="L49">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q49">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
         <v>1.875</v>
       </c>
-      <c r="T49">
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>1.825</v>
+      </c>
+      <c r="W49">
         <v>1.975</v>
       </c>
-      <c r="U49">
-        <v>3.25</v>
-      </c>
-      <c r="V49">
-        <v>2</v>
-      </c>
-      <c r="W49">
-        <v>1.85</v>
-      </c>
       <c r="X49">
         <v>-1</v>
       </c>
@@ -5024,19 +5024,19 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6898450</v>
+        <v>6898492</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5053,46 +5053,46 @@
         <v>45171.375</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" t="s">
         <v>48</v>
       </c>
       <c r="L50">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M50">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N50">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O50">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="P50">
         <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="R50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <v>1.875</v>
@@ -5104,10 +5104,10 @@
         <v>3.25</v>
       </c>
       <c r="V50">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -5116,7 +5116,7 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="AA50">
         <v>-1</v>
@@ -5125,10 +5125,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5136,7 +5136,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6907485</v>
+        <v>6898450</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5145,82 +5145,82 @@
         <v>45171.375</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="M51">
         <v>3.75</v>
       </c>
       <c r="N51">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
+        <v>2.15</v>
+      </c>
+      <c r="P51">
         <v>3.6</v>
       </c>
-      <c r="P51">
-        <v>4</v>
-      </c>
       <c r="Q51">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="R51">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S51">
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U51">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V51">
+        <v>2.025</v>
+      </c>
+      <c r="W51">
         <v>1.825</v>
       </c>
-      <c r="W51">
-        <v>1.975</v>
-      </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AD51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5421,10 +5421,10 @@
         <v>45172.375</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5976,7 +5976,7 @@
         <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -6157,10 +6157,10 @@
         <v>45178.375</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -6617,10 +6617,10 @@
         <v>45185.375</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6709,7 +6709,7 @@
         <v>45185.375</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -7264,7 +7264,7 @@
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7448,7 +7448,7 @@
         <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>4</v>
@@ -7540,7 +7540,7 @@
         <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -7712,7 +7712,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6898456</v>
+        <v>6898065</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7721,61 +7721,61 @@
         <v>45192.375</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" t="s">
         <v>48</v>
       </c>
       <c r="L79">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="M79">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O79">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q79">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="R79">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U79">
         <v>3</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7784,19 +7784,19 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -7804,7 +7804,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6898517</v>
+        <v>6898456</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7813,82 +7813,82 @@
         <v>45192.375</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M80">
         <v>3.75</v>
       </c>
       <c r="N80">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q80">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U80">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X80">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
         <v>-1</v>
       </c>
       <c r="AD80">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7896,7 +7896,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6899064</v>
+        <v>6898517</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7905,64 +7905,64 @@
         <v>45192.375</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="s">
         <v>50</v>
       </c>
       <c r="L81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M81">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P81">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="R81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S81">
+        <v>2.025</v>
+      </c>
+      <c r="T81">
+        <v>1.775</v>
+      </c>
+      <c r="U81">
+        <v>2.5</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
         <v>1.8</v>
       </c>
-      <c r="T81">
-        <v>2</v>
-      </c>
-      <c r="U81">
-        <v>2.75</v>
-      </c>
-      <c r="V81">
-        <v>1.85</v>
-      </c>
-      <c r="W81">
-        <v>1.95</v>
-      </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7971,16 +7971,16 @@
         <v>-1</v>
       </c>
       <c r="AA81">
+        <v>1.025</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
+        <v>-1</v>
+      </c>
+      <c r="AD81">
         <v>0.8</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
-      </c>
-      <c r="AC81">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AD81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7988,7 +7988,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6898065</v>
+        <v>6899064</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7997,55 +7997,55 @@
         <v>45192.375</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L82">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M82">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N82">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O82">
+        <v>3.1</v>
+      </c>
+      <c r="P82">
         <v>3.6</v>
       </c>
-      <c r="P82">
-        <v>4.333</v>
-      </c>
       <c r="Q82">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="R82">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V82">
         <v>1.85</v>
@@ -8054,19 +8054,19 @@
         <v>1.95</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
         <v>0.8500000000000001</v>
@@ -8089,7 +8089,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
         <v>30</v>
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6898495</v>
+        <v>6907452</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8273,40 +8273,40 @@
         <v>45199.375</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L85">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="M85">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N85">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O85">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P85">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -8318,37 +8318,37 @@
         <v>1.9</v>
       </c>
       <c r="T85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U85">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X85">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD85">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8356,7 +8356,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6907452</v>
+        <v>6907451</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8365,82 +8365,82 @@
         <v>45199.375</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L86">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="M86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O86">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="R86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U86">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8448,7 +8448,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6907451</v>
+        <v>6907077</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8457,82 +8457,82 @@
         <v>45199.375</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L87">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O87">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X87">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8540,7 +8540,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6907077</v>
+        <v>6898518</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8549,79 +8549,79 @@
         <v>45199.375</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="P88">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>1.65</v>
+        <v>5</v>
       </c>
       <c r="R88">
+        <v>-1</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>1.875</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>1.75</v>
+      </c>
+      <c r="W88">
+        <v>1.95</v>
+      </c>
+      <c r="X88">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>0.925</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.75</v>
-      </c>
-      <c r="S88">
-        <v>1.975</v>
-      </c>
-      <c r="T88">
-        <v>1.825</v>
-      </c>
-      <c r="U88">
-        <v>3.25</v>
-      </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
-      <c r="W88">
-        <v>1.825</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.825</v>
-      </c>
-      <c r="AC88">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD88">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6898518</v>
+        <v>6898457</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8641,19 +8641,19 @@
         <v>45199.375</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -8662,43 +8662,43 @@
         <v>50</v>
       </c>
       <c r="L89">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M89">
         <v>3.5</v>
       </c>
       <c r="N89">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="P89">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q89">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="R89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S89">
+        <v>2.025</v>
+      </c>
+      <c r="T89">
+        <v>1.775</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
         <v>1.925</v>
       </c>
-      <c r="T89">
+      <c r="W89">
         <v>1.875</v>
       </c>
-      <c r="U89">
-        <v>2.75</v>
-      </c>
-      <c r="V89">
-        <v>1.75</v>
-      </c>
-      <c r="W89">
-        <v>1.95</v>
-      </c>
       <c r="X89">
-        <v>0.5329999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8707,16 +8707,16 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8724,7 +8724,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6898457</v>
+        <v>6898066</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8733,55 +8733,55 @@
         <v>45199.375</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
         <v>50</v>
       </c>
       <c r="L90">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="M90">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="O90">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="P90">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V90">
         <v>1.925</v>
@@ -8790,7 +8790,7 @@
         <v>1.875</v>
       </c>
       <c r="X90">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8799,16 +8799,16 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8816,7 +8816,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6898066</v>
+        <v>6898495</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8828,16 +8828,16 @@
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -8846,43 +8846,43 @@
         <v>50</v>
       </c>
       <c r="L91">
-        <v>1.45</v>
+        <v>2.375</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>4.8</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="R91">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U91">
         <v>3.25</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X91">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8891,16 +8891,16 @@
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD91">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8908,7 +8908,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6907078</v>
+        <v>6898496</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8917,82 +8917,82 @@
         <v>45202.375</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L92">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="M92">
+        <v>3.8</v>
+      </c>
+      <c r="N92">
+        <v>2.4</v>
+      </c>
+      <c r="O92">
+        <v>3.2</v>
+      </c>
+      <c r="P92">
         <v>4.2</v>
       </c>
-      <c r="N92">
-        <v>3.75</v>
-      </c>
-      <c r="O92">
-        <v>1.6</v>
-      </c>
-      <c r="P92">
-        <v>4.333</v>
-      </c>
       <c r="Q92">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="R92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U92">
         <v>3.25</v>
       </c>
       <c r="V92">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X92">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD92">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6898458</v>
+        <v>6907078</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,82 +9009,82 @@
         <v>45202.375</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L93">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="M93">
+        <v>4.2</v>
+      </c>
+      <c r="N93">
+        <v>3.75</v>
+      </c>
+      <c r="O93">
+        <v>1.6</v>
+      </c>
+      <c r="P93">
         <v>4.333</v>
       </c>
-      <c r="N93">
-        <v>2.15</v>
-      </c>
-      <c r="O93">
-        <v>2</v>
-      </c>
-      <c r="P93">
-        <v>4.2</v>
-      </c>
       <c r="Q93">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="R93">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9092,7 +9092,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6898496</v>
+        <v>6898458</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9101,61 +9101,61 @@
         <v>45202.375</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <v>3</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>2</v>
       </c>
       <c r="K94" t="s">
         <v>48</v>
       </c>
       <c r="L94">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M94">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="P94">
         <v>4.2</v>
       </c>
       <c r="Q94">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="R94">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U94">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -9164,19 +9164,19 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD94">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9288,7 +9288,7 @@
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -9472,7 +9472,7 @@
         <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6898460</v>
+        <v>6898068</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9745,82 +9745,82 @@
         <v>45206.375</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L101">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="R101">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U101">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6898068</v>
+        <v>6898461</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9840,13 +9840,13 @@
         <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9855,64 +9855,64 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L102">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="M102">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="O102">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q102">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="R102">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T102">
         <v>1.95</v>
       </c>
       <c r="U102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X102">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
         <v>-1</v>
       </c>
       <c r="AD102">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6898461</v>
+        <v>6898460</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,61 +9929,61 @@
         <v>45206.375</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
         <v>48</v>
       </c>
       <c r="L103">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O103">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
         <v>4</v>
       </c>
       <c r="Q103">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U103">
         <v>3</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9992,19 +9992,19 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD103">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10205,7 +10205,7 @@
         <v>45207.375</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
         <v>43</v>
@@ -10944,7 +10944,7 @@
         <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11036,7 +11036,7 @@
         <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11401,7 +11401,7 @@
         <v>45220.375</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
         <v>41</v>
@@ -11585,7 +11585,7 @@
         <v>45220.375</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
         <v>40</v>
@@ -11953,7 +11953,7 @@
         <v>45220.375</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
         <v>43</v>
@@ -12048,7 +12048,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -12508,7 +12508,7 @@
         <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -12600,7 +12600,7 @@
         <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -13149,7 +13149,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
         <v>41</v>
@@ -13609,7 +13609,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
         <v>47</v>
@@ -13793,7 +13793,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
         <v>39</v>
@@ -13888,7 +13888,7 @@
         <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -14256,7 +14256,7 @@
         <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14900,7 +14900,7 @@
         <v>47</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -15541,7 +15541,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
         <v>42</v>
@@ -15633,7 +15633,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
         <v>45</v>
@@ -16001,7 +16001,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
         <v>46</v>
@@ -16188,7 +16188,7 @@
         <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -16280,7 +16280,7 @@
         <v>45</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -16556,7 +16556,7 @@
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -16740,7 +16740,7 @@
         <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -16921,7 +16921,7 @@
         <v>45268.625</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
         <v>38</v>
@@ -17013,7 +17013,7 @@
         <v>45268.625</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F180" t="s">
         <v>44</v>
@@ -17289,7 +17289,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
         <v>46</v>
@@ -17648,7 +17648,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7557018</v>
+        <v>7556542</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17657,82 +17657,82 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L187">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N187">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="O187">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q187">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="R187">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S187">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
         <v>1.925</v>
       </c>
       <c r="U187">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y187">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC187">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AD187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17740,7 +17740,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7556542</v>
+        <v>7557018</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17749,82 +17749,82 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L188">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="M188">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N188">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O188">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="P188">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="R188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>1.925</v>
       </c>
       <c r="U188">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X188">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC188">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AD188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17844,7 +17844,7 @@
         <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -18120,7 +18120,7 @@
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -18476,7 +18476,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6907464</v>
+        <v>6907512</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18485,10 +18485,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -18506,22 +18506,22 @@
         <v>49</v>
       </c>
       <c r="L196">
+        <v>2.4</v>
+      </c>
+      <c r="M196">
+        <v>3.4</v>
+      </c>
+      <c r="N196">
         <v>2.5</v>
       </c>
-      <c r="M196">
-        <v>3.75</v>
-      </c>
-      <c r="N196">
-        <v>2.25</v>
-      </c>
       <c r="O196">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P196">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -18536,16 +18536,16 @@
         <v>2.75</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z196">
         <v>-1</v>
@@ -18560,7 +18560,7 @@
         <v>-1</v>
       </c>
       <c r="AD196">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18568,7 +18568,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6907512</v>
+        <v>6907464</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18577,10 +18577,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -18598,22 +18598,22 @@
         <v>49</v>
       </c>
       <c r="L197">
+        <v>2.5</v>
+      </c>
+      <c r="M197">
+        <v>3.75</v>
+      </c>
+      <c r="N197">
+        <v>2.25</v>
+      </c>
+      <c r="O197">
         <v>2.4</v>
       </c>
-      <c r="M197">
-        <v>3.4</v>
-      </c>
-      <c r="N197">
-        <v>2.5</v>
-      </c>
-      <c r="O197">
-        <v>2.5</v>
-      </c>
       <c r="P197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R197">
         <v>0</v>
@@ -18628,16 +18628,16 @@
         <v>2.75</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z197">
         <v>-1</v>
@@ -18652,7 +18652,7 @@
         <v>-1</v>
       </c>
       <c r="AD197">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18761,7 +18761,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
         <v>31</v>
@@ -19221,10 +19221,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E204" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" t="s">
         <v>33</v>
-      </c>
-      <c r="F204" t="s">
-        <v>32</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -19304,7 +19304,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6898078</v>
+        <v>6898479</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19313,82 +19313,82 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="M205">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q205">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="R205">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U205">
         <v>2.5</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
+        <v>0.4875</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
+      </c>
+      <c r="AD205">
         <v>0.95</v>
-      </c>
-      <c r="AC205">
-        <v>0.925</v>
-      </c>
-      <c r="AD205">
-        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19396,7 +19396,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6898479</v>
+        <v>6898480</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -19405,82 +19405,82 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
       <c r="K206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L206">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N206">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O206">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q206">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="R206">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>2.75</v>
+      </c>
+      <c r="V206">
         <v>1.825</v>
       </c>
-      <c r="T206">
+      <c r="W206">
         <v>1.975</v>
       </c>
-      <c r="U206">
+      <c r="X206">
         <v>2.5</v>
       </c>
-      <c r="V206">
-        <v>1.75</v>
-      </c>
-      <c r="W206">
-        <v>1.95</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB206">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
         <v>-1</v>
       </c>
       <c r="AD206">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19488,7 +19488,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6898480</v>
+        <v>6898505</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19497,82 +19497,82 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L207">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="M207">
         <v>4</v>
       </c>
       <c r="N207">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O207">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="P207">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q207">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="R207">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U207">
         <v>2.75</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X207">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC207">
         <v>-1</v>
       </c>
       <c r="AD207">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19580,7 +19580,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6898505</v>
+        <v>6898078</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19589,19 +19589,19 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208">
         <v>1</v>
@@ -19610,40 +19610,40 @@
         <v>48</v>
       </c>
       <c r="L208">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M208">
         <v>4</v>
       </c>
       <c r="N208">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="O208">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
         <v>3.6</v>
       </c>
       <c r="Q208">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="R208">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19652,19 +19652,19 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>3.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -20049,10 +20049,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E213" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213" t="s">
         <v>32</v>
-      </c>
-      <c r="F213" t="s">
-        <v>34</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -20233,7 +20233,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
         <v>31</v>
@@ -20512,7 +20512,7 @@
         <v>37</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -20592,7 +20592,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6907518</v>
+        <v>6907466</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20601,79 +20601,79 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G219">
         <v>2</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219">
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L219">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O219">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q219">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="R219">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S219">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W219">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA219">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC219">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD219">
         <v>-1</v>
@@ -20684,7 +20684,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6907466</v>
+        <v>6907518</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20693,79 +20693,79 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G220">
         <v>2</v>
       </c>
       <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220" t="s">
+        <v>49</v>
+      </c>
+      <c r="L220">
+        <v>1.95</v>
+      </c>
+      <c r="M220">
+        <v>3.75</v>
+      </c>
+      <c r="N220">
         <v>3</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
-      <c r="J220">
-        <v>1</v>
-      </c>
-      <c r="K220" t="s">
-        <v>48</v>
-      </c>
-      <c r="L220">
-        <v>3</v>
-      </c>
-      <c r="M220">
-        <v>3.6</v>
-      </c>
-      <c r="N220">
-        <v>2</v>
-      </c>
       <c r="O220">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="P220">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="R220">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U220">
+        <v>2.75</v>
+      </c>
+      <c r="V220">
+        <v>1.85</v>
+      </c>
+      <c r="W220">
+        <v>1.95</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
         <v>2.5</v>
       </c>
-      <c r="V220">
-        <v>2</v>
-      </c>
-      <c r="W220">
-        <v>1.8</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
       <c r="Z220">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB220">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD220">
         <v>-1</v>
@@ -20960,7 +20960,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6898484</v>
+        <v>6898768</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20969,19 +20969,19 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -20990,43 +20990,43 @@
         <v>50</v>
       </c>
       <c r="L223">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="M223">
         <v>4</v>
       </c>
       <c r="N223">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O223">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q223">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="R223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="X223">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="Y223">
         <v>-1</v>
@@ -21035,16 +21035,16 @@
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD223">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21052,7 +21052,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6898768</v>
+        <v>6899048</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21061,82 +21061,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K224" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L224">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="M224">
         <v>4</v>
       </c>
       <c r="N224">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O224">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="P224">
         <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="R224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="AA224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD224">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21144,7 +21144,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6899048</v>
+        <v>6898484</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21153,82 +21153,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L225">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M225">
         <v>4</v>
       </c>
       <c r="N225">
+        <v>3.25</v>
+      </c>
+      <c r="O225">
+        <v>1.571</v>
+      </c>
+      <c r="P225">
+        <v>4.2</v>
+      </c>
+      <c r="Q225">
         <v>4.5</v>
       </c>
-      <c r="O225">
-        <v>1.5</v>
-      </c>
-      <c r="P225">
-        <v>3.8</v>
-      </c>
-      <c r="Q225">
-        <v>5.5</v>
-      </c>
       <c r="R225">
         <v>-1</v>
       </c>
       <c r="S225">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U225">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD225">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21429,7 +21429,7 @@
         <v>45379.625</v>
       </c>
       <c r="E228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F228" t="s">
         <v>37</v>
@@ -21521,7 +21521,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F229" t="s">
         <v>31</v>
@@ -21613,7 +21613,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F230" t="s">
         <v>30</v>
@@ -22168,7 +22168,7 @@
         <v>30</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G236">
         <v>5</v>
@@ -22352,7 +22352,7 @@
         <v>36</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22628,7 +22628,7 @@
         <v>37</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>45388.375</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F245" t="s">
         <v>30</v>
@@ -23085,7 +23085,7 @@
         <v>45388.375</v>
       </c>
       <c r="E246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F246" t="s">
         <v>35</v>
@@ -23545,7 +23545,7 @@
         <v>45389.375</v>
       </c>
       <c r="E251" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F251" t="s">
         <v>36</v>
@@ -23916,7 +23916,7 @@
         <v>35</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -24376,7 +24376,7 @@
         <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -24468,7 +24468,7 @@
         <v>43</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -24833,7 +24833,7 @@
         <v>45402.375</v>
       </c>
       <c r="E265" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F265" t="s">
         <v>35</v>
@@ -25017,7 +25017,7 @@
         <v>45402.375</v>
       </c>
       <c r="E267" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F267" t="s">
         <v>43</v>
@@ -25192,7 +25192,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6899043</v>
+        <v>6916484</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25201,19 +25201,19 @@
         <v>45403.375</v>
       </c>
       <c r="E269" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F269" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G269">
         <v>3</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -25231,34 +25231,34 @@
         <v>1.571</v>
       </c>
       <c r="O269">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P269">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q269">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R269">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U269">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X269">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y269">
         <v>-1</v>
@@ -25267,16 +25267,16 @@
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD269">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25284,7 +25284,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6916484</v>
+        <v>6899043</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25293,19 +25293,19 @@
         <v>45403.375</v>
       </c>
       <c r="E270" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F270" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G270">
         <v>3</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -25323,34 +25323,34 @@
         <v>1.571</v>
       </c>
       <c r="O270">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P270">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q270">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="R270">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S270">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T270">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U270">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V270">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W270">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X270">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y270">
         <v>-1</v>
@@ -25359,16 +25359,16 @@
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB270">
         <v>-1</v>
       </c>
       <c r="AC270">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD270">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25385,7 +25385,7 @@
         <v>45403.375</v>
       </c>
       <c r="E271" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F271" t="s">
         <v>40</v>
@@ -25560,7 +25560,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7023667</v>
+        <v>7023668</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25569,82 +25569,82 @@
         <v>45409.375</v>
       </c>
       <c r="E273" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F273" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G273">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273">
         <v>0</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K273" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L273">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="M273">
+        <v>5</v>
+      </c>
+      <c r="N273">
+        <v>9</v>
+      </c>
+      <c r="O273">
+        <v>1.25</v>
+      </c>
+      <c r="P273">
+        <v>5</v>
+      </c>
+      <c r="Q273">
+        <v>9.5</v>
+      </c>
+      <c r="R273">
+        <v>-1.75</v>
+      </c>
+      <c r="S273">
+        <v>1.9</v>
+      </c>
+      <c r="T273">
+        <v>1.9</v>
+      </c>
+      <c r="U273">
+        <v>3.25</v>
+      </c>
+      <c r="V273">
+        <v>1.85</v>
+      </c>
+      <c r="W273">
+        <v>1.95</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
         <v>4</v>
       </c>
-      <c r="N273">
-        <v>3.5</v>
-      </c>
-      <c r="O273">
-        <v>1.75</v>
-      </c>
-      <c r="P273">
-        <v>4</v>
-      </c>
-      <c r="Q273">
-        <v>3.4</v>
-      </c>
-      <c r="R273">
-        <v>-0.5</v>
-      </c>
-      <c r="S273">
-        <v>1.825</v>
-      </c>
-      <c r="T273">
-        <v>2.025</v>
-      </c>
-      <c r="U273">
-        <v>2.75</v>
-      </c>
-      <c r="V273">
-        <v>1.825</v>
-      </c>
-      <c r="W273">
-        <v>2.025</v>
-      </c>
-      <c r="X273">
-        <v>0.75</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
       <c r="Z273">
         <v>-1</v>
       </c>
       <c r="AA273">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC273">
         <v>-1</v>
       </c>
       <c r="AD273">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25652,7 +25652,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7023668</v>
+        <v>7023667</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25661,82 +25661,82 @@
         <v>45409.375</v>
       </c>
       <c r="E274" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F274" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G274">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K274" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L274">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="M274">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N274">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="O274">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="P274">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q274">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="R274">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S274">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T274">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U274">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W274">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y274">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
         <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB274">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
         <v>-1</v>
       </c>
       <c r="AD274">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25756,7 +25756,7 @@
         <v>41</v>
       </c>
       <c r="F275" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G275">
         <v>2</v>
@@ -25848,7 +25848,7 @@
         <v>43</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -26124,7 +26124,7 @@
         <v>40</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -26296,7 +26296,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7078620</v>
+        <v>7060353</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26305,79 +26305,79 @@
         <v>45416.375</v>
       </c>
       <c r="E281" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G281">
+        <v>2</v>
+      </c>
+      <c r="H281">
+        <v>5</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
         <v>3</v>
       </c>
-      <c r="H281">
-        <v>1</v>
-      </c>
-      <c r="I281">
-        <v>2</v>
-      </c>
-      <c r="J281">
-        <v>0</v>
-      </c>
       <c r="K281" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L281">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="M281">
         <v>4</v>
       </c>
       <c r="N281">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O281">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="P281">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q281">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="R281">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U281">
         <v>3</v>
       </c>
       <c r="V281">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X281">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC281">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD281">
         <v>-1</v>
@@ -26388,7 +26388,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7060353</v>
+        <v>7063416</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26397,79 +26397,79 @@
         <v>45416.375</v>
       </c>
       <c r="E282" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H282">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>49</v>
+      </c>
+      <c r="L282">
+        <v>3.4</v>
+      </c>
+      <c r="M282">
+        <v>3.75</v>
+      </c>
+      <c r="N282">
+        <v>1.8</v>
+      </c>
+      <c r="O282">
+        <v>4</v>
+      </c>
+      <c r="P282">
+        <v>4</v>
+      </c>
+      <c r="Q282">
+        <v>1.6</v>
+      </c>
+      <c r="R282">
+        <v>1</v>
+      </c>
+      <c r="S282">
+        <v>1.725</v>
+      </c>
+      <c r="T282">
+        <v>1.975</v>
+      </c>
+      <c r="U282">
+        <v>2.75</v>
+      </c>
+      <c r="V282">
+        <v>1.85</v>
+      </c>
+      <c r="W282">
+        <v>1.95</v>
+      </c>
+      <c r="X282">
+        <v>-1</v>
+      </c>
+      <c r="Y282">
         <v>3</v>
       </c>
-      <c r="K282" t="s">
-        <v>48</v>
-      </c>
-      <c r="L282">
-        <v>2.4</v>
-      </c>
-      <c r="M282">
-        <v>4</v>
-      </c>
-      <c r="N282">
-        <v>2.25</v>
-      </c>
-      <c r="O282">
-        <v>2.45</v>
-      </c>
-      <c r="P282">
-        <v>4.2</v>
-      </c>
-      <c r="Q282">
-        <v>2.2</v>
-      </c>
-      <c r="R282">
-        <v>0</v>
-      </c>
-      <c r="S282">
-        <v>1.95</v>
-      </c>
-      <c r="T282">
-        <v>1.75</v>
-      </c>
-      <c r="U282">
-        <v>3</v>
-      </c>
-      <c r="V282">
-        <v>2</v>
-      </c>
-      <c r="W282">
-        <v>1.8</v>
-      </c>
-      <c r="X282">
-        <v>-1</v>
-      </c>
-      <c r="Y282">
-        <v>-1</v>
-      </c>
       <c r="Z282">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB282">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD282">
         <v>-1</v>
@@ -26480,7 +26480,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7063416</v>
+        <v>7078620</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26489,79 +26489,79 @@
         <v>45416.375</v>
       </c>
       <c r="E283" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G283">
         <v>3</v>
       </c>
       <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>50</v>
+      </c>
+      <c r="L283">
+        <v>2.75</v>
+      </c>
+      <c r="M283">
+        <v>4</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283">
+        <v>3.1</v>
+      </c>
+      <c r="P283">
+        <v>4.333</v>
+      </c>
+      <c r="Q283">
+        <v>1.8</v>
+      </c>
+      <c r="R283">
+        <v>0.5</v>
+      </c>
+      <c r="S283">
+        <v>1.975</v>
+      </c>
+      <c r="T283">
+        <v>1.825</v>
+      </c>
+      <c r="U283">
         <v>3</v>
       </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
-      <c r="J283">
-        <v>0</v>
-      </c>
-      <c r="K283" t="s">
-        <v>49</v>
-      </c>
-      <c r="L283">
-        <v>3.4</v>
-      </c>
-      <c r="M283">
-        <v>3.75</v>
-      </c>
-      <c r="N283">
-        <v>1.8</v>
-      </c>
-      <c r="O283">
-        <v>4</v>
-      </c>
-      <c r="P283">
-        <v>4</v>
-      </c>
-      <c r="Q283">
-        <v>1.6</v>
-      </c>
-      <c r="R283">
-        <v>1</v>
-      </c>
-      <c r="S283">
-        <v>1.725</v>
-      </c>
-      <c r="T283">
-        <v>1.975</v>
-      </c>
-      <c r="U283">
-        <v>2.75</v>
-      </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W283">
         <v>1.95</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y283">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB283">
         <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AD283">
         <v>-1</v>
@@ -26581,7 +26581,7 @@
         <v>45416.375</v>
       </c>
       <c r="E284" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F284" t="s">
         <v>40</v>
@@ -26756,7 +26756,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7054737</v>
+        <v>7060354</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26765,19 +26765,19 @@
         <v>45417.375</v>
       </c>
       <c r="E286" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F286" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J286">
         <v>0</v>
@@ -26786,43 +26786,43 @@
         <v>50</v>
       </c>
       <c r="L286">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="M286">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N286">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="O286">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="P286">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q286">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="R286">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S286">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T286">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U286">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V286">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W286">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X286">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="Y286">
         <v>-1</v>
@@ -26831,16 +26831,16 @@
         <v>-1</v>
       </c>
       <c r="AA286">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD286">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26848,7 +26848,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7060354</v>
+        <v>7054737</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26860,16 +26860,16 @@
         <v>33</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287">
         <v>0</v>
@@ -26878,43 +26878,43 @@
         <v>50</v>
       </c>
       <c r="L287">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="M287">
+        <v>5</v>
+      </c>
+      <c r="N287">
+        <v>7.5</v>
+      </c>
+      <c r="O287">
+        <v>1.7</v>
+      </c>
+      <c r="P287">
         <v>4</v>
       </c>
-      <c r="N287">
-        <v>1.6</v>
-      </c>
-      <c r="O287">
-        <v>4.2</v>
-      </c>
-      <c r="P287">
-        <v>3.8</v>
-      </c>
       <c r="Q287">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="R287">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S287">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T287">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U287">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W287">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X287">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="Y287">
         <v>-1</v>
@@ -26923,16 +26923,16 @@
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD287">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="288" spans="1:30">
@@ -27124,7 +27124,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7096753</v>
+        <v>7111566</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -27133,16 +27133,16 @@
         <v>45423.375</v>
       </c>
       <c r="E290" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G290">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -27154,31 +27154,31 @@
         <v>48</v>
       </c>
       <c r="L290">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M290">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N290">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O290">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P290">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q290">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="R290">
         <v>0</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T290">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U290">
         <v>3.25</v>
@@ -27196,19 +27196,19 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AA290">
         <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC290">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD290">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:30">
@@ -27216,7 +27216,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7096295</v>
+        <v>7096753</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -27225,46 +27225,46 @@
         <v>45423.375</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K291" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L291">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M291">
         <v>3.75</v>
       </c>
       <c r="N291">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O291">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P291">
         <v>3.8</v>
       </c>
       <c r="Q291">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R291">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S291">
         <v>1.9</v>
@@ -27276,31 +27276,31 @@
         <v>3.25</v>
       </c>
       <c r="V291">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W291">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X291">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA291">
+        <v>-1</v>
+      </c>
+      <c r="AB291">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB291">
-        <v>-1</v>
       </c>
       <c r="AC291">
         <v>-0.5</v>
       </c>
       <c r="AD291">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="292" spans="1:30">
@@ -27308,7 +27308,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7111566</v>
+        <v>7096295</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27317,82 +27317,82 @@
         <v>45423.375</v>
       </c>
       <c r="E292" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F292" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K292" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L292">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M292">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N292">
+        <v>2.875</v>
+      </c>
+      <c r="O292">
         <v>2.8</v>
       </c>
-      <c r="O292">
-        <v>2.375</v>
-      </c>
       <c r="P292">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q292">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="R292">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S292">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T292">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U292">
         <v>3.25</v>
       </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W292">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y292">
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB292">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD292">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -27412,7 +27412,7 @@
         <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -27492,7 +27492,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7091858</v>
+        <v>7096751</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27501,82 +27501,82 @@
         <v>45423.375</v>
       </c>
       <c r="E294" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G294">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K294" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L294">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="M294">
         <v>3.75</v>
       </c>
       <c r="N294">
+        <v>1.909</v>
+      </c>
+      <c r="O294">
+        <v>2.3</v>
+      </c>
+      <c r="P294">
+        <v>3.6</v>
+      </c>
+      <c r="Q294">
+        <v>2.45</v>
+      </c>
+      <c r="R294">
+        <v>0</v>
+      </c>
+      <c r="S294">
+        <v>1.825</v>
+      </c>
+      <c r="T294">
+        <v>1.975</v>
+      </c>
+      <c r="U294">
         <v>3</v>
       </c>
-      <c r="O294">
-        <v>1.8</v>
-      </c>
-      <c r="P294">
-        <v>4.2</v>
-      </c>
-      <c r="Q294">
-        <v>3.2</v>
-      </c>
-      <c r="R294">
-        <v>-0.75</v>
-      </c>
-      <c r="S294">
-        <v>1.925</v>
-      </c>
-      <c r="T294">
-        <v>1.775</v>
-      </c>
-      <c r="U294">
-        <v>3.75</v>
-      </c>
       <c r="V294">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X294">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC294">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD294">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27584,7 +27584,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7096751</v>
+        <v>7091858</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27593,82 +27593,82 @@
         <v>45423.375</v>
       </c>
       <c r="E295" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K295" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L295">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="M295">
         <v>3.75</v>
       </c>
       <c r="N295">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O295">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P295">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q295">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R295">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T295">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U295">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V295">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W295">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y295">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -28053,7 +28053,7 @@
         <v>45430.375</v>
       </c>
       <c r="E300" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F300" t="s">
         <v>42</v>
@@ -28145,7 +28145,7 @@
         <v>45430.375</v>
       </c>
       <c r="E301" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F301" t="s">
         <v>47</v>
@@ -28228,7 +28228,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7128506</v>
+        <v>7129153</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28237,19 +28237,19 @@
         <v>45430.375</v>
       </c>
       <c r="E302" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G302">
         <v>3</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -28258,43 +28258,43 @@
         <v>50</v>
       </c>
       <c r="L302">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="M302">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N302">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="O302">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P302">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q302">
-        <v>4.75</v>
+        <v>1.9</v>
       </c>
       <c r="R302">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S302">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T302">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U302">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V302">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W302">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X302">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
@@ -28303,16 +28303,16 @@
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB302">
         <v>-1</v>
       </c>
       <c r="AC302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD302">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28320,7 +28320,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7128507</v>
+        <v>7128506</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28329,79 +28329,79 @@
         <v>45430.375</v>
       </c>
       <c r="E303" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F303" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
         <v>3</v>
       </c>
-      <c r="I303">
-        <v>1</v>
-      </c>
       <c r="J303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L303">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="M303">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N303">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O303">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="P303">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q303">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="R303">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S303">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U303">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V303">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W303">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB303">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD303">
         <v>-1</v>
@@ -28412,7 +28412,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7128685</v>
+        <v>7129152</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28421,79 +28421,79 @@
         <v>45430.375</v>
       </c>
       <c r="E304" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F304" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L304">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="M304">
         <v>4</v>
       </c>
       <c r="N304">
+        <v>1.95</v>
+      </c>
+      <c r="O304">
         <v>3.4</v>
       </c>
-      <c r="O304">
-        <v>1.85</v>
-      </c>
       <c r="P304">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q304">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="R304">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S304">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T304">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U304">
         <v>3.25</v>
       </c>
       <c r="V304">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y304">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
         <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB304">
+        <v>-1</v>
+      </c>
+      <c r="AC304">
         <v>0.825</v>
-      </c>
-      <c r="AC304">
-        <v>0.8</v>
       </c>
       <c r="AD304">
         <v>-1</v>
@@ -28504,7 +28504,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7129152</v>
+        <v>7128507</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28513,79 +28513,79 @@
         <v>45430.375</v>
       </c>
       <c r="E305" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F305" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G305">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H305">
         <v>3</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L305">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M305">
         <v>4</v>
       </c>
       <c r="N305">
+        <v>1.727</v>
+      </c>
+      <c r="O305">
+        <v>2.75</v>
+      </c>
+      <c r="P305">
+        <v>4.2</v>
+      </c>
+      <c r="Q305">
         <v>1.95</v>
       </c>
-      <c r="O305">
-        <v>3.4</v>
-      </c>
-      <c r="P305">
-        <v>4.75</v>
-      </c>
-      <c r="Q305">
-        <v>1.666</v>
-      </c>
       <c r="R305">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S305">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T305">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U305">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X305">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA305">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC305">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD305">
         <v>-1</v>
@@ -28596,7 +28596,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7129153</v>
+        <v>7128685</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28605,82 +28605,82 @@
         <v>45430.375</v>
       </c>
       <c r="E306" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
         <v>1</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L306">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="M306">
         <v>4</v>
       </c>
       <c r="N306">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O306">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="P306">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q306">
-        <v>1.9</v>
+        <v>2.875</v>
       </c>
       <c r="R306">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S306">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U306">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V306">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W306">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X306">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC306">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD306">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:30">

--- a/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
+++ b/Germany Regionalliga South West/Germany Regionalliga South West.xlsx
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6898491</v>
+        <v>6907074</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4317,79 +4317,79 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="M42">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="N42">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="R42">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U42">
         <v>3</v>
       </c>
       <c r="V42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AD42">
         <v>-1</v>
@@ -4400,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6907074</v>
+        <v>6898491</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4409,79 +4409,79 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="M43">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O43">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q43">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="R43">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U43">
         <v>3</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AD43">
         <v>-1</v>
@@ -4584,7 +4584,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6899068</v>
+        <v>6898449</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4593,16 +4593,16 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4611,25 +4611,25 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L45">
-        <v>2.1</v>
+        <v>4.25</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O45">
         <v>2.2</v>
       </c>
       <c r="P45">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="R45">
         <v>-0.25</v>
@@ -4641,34 +4641,34 @@
         <v>1.8</v>
       </c>
       <c r="U45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4676,7 +4676,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6898449</v>
+        <v>6899068</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4685,16 +4685,16 @@
         <v>45168.58333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4703,25 +4703,25 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L46">
-        <v>4.25</v>
+        <v>2.1</v>
       </c>
       <c r="M46">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N46">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
         <v>2.2</v>
       </c>
       <c r="P46">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="R46">
         <v>-0.25</v>
@@ -4733,34 +4733,34 @@
         <v>1.8</v>
       </c>
       <c r="U46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X46">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -7620,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6907450</v>
+        <v>6898517</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7629,13 +7629,13 @@
         <v>45192.375</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7650,43 +7650,43 @@
         <v>50</v>
       </c>
       <c r="L78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="M78">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O78">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q78">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="R78">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X78">
-        <v>0.615</v>
+        <v>1.5</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7695,16 +7695,16 @@
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7712,7 +7712,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6899064</v>
+        <v>6907450</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7721,64 +7721,64 @@
         <v>45192.375</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>3</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
         <v>50</v>
       </c>
       <c r="L79">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="M79">
+        <v>3.9</v>
+      </c>
+      <c r="N79">
         <v>3.5</v>
       </c>
-      <c r="N79">
-        <v>2.6</v>
-      </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q79">
+        <v>4.2</v>
+      </c>
+      <c r="R79">
+        <v>-0.75</v>
+      </c>
+      <c r="S79">
+        <v>1.85</v>
+      </c>
+      <c r="T79">
         <v>1.95</v>
       </c>
-      <c r="R79">
-        <v>0.5</v>
-      </c>
-      <c r="S79">
-        <v>1.8</v>
-      </c>
-      <c r="T79">
-        <v>2</v>
-      </c>
       <c r="U79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X79">
-        <v>2.1</v>
+        <v>0.615</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7787,16 +7787,16 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD79">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -7804,7 +7804,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6898456</v>
+        <v>6899064</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7813,82 +7813,82 @@
         <v>45192.375</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L80">
+        <v>2.25</v>
+      </c>
+      <c r="M80">
+        <v>3.5</v>
+      </c>
+      <c r="N80">
+        <v>2.6</v>
+      </c>
+      <c r="O80">
+        <v>3.1</v>
+      </c>
+      <c r="P80">
+        <v>3.6</v>
+      </c>
+      <c r="Q80">
         <v>1.95</v>
       </c>
-      <c r="M80">
-        <v>3.75</v>
-      </c>
-      <c r="N80">
-        <v>3</v>
-      </c>
-      <c r="O80">
-        <v>1.7</v>
-      </c>
-      <c r="P80">
-        <v>4</v>
-      </c>
-      <c r="Q80">
-        <v>3.75</v>
-      </c>
       <c r="R80">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7896,7 +7896,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6898517</v>
+        <v>6898456</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7905,82 +7905,82 @@
         <v>45192.375</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M81">
         <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U81">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X81">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
       </c>
       <c r="AD81">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6898457</v>
+        <v>6907452</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8273,82 +8273,82 @@
         <v>45199.375</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M85">
         <v>3.5</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O85">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P85">
         <v>3.4</v>
       </c>
       <c r="Q85">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U85">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X85">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
         <v>-1</v>
       </c>
       <c r="AD85">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8356,7 +8356,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6907077</v>
+        <v>6898457</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8365,82 +8365,82 @@
         <v>45199.375</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N86">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="P86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q86">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="R86">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8448,7 +8448,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6907452</v>
+        <v>6907077</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8457,61 +8457,61 @@
         <v>45199.375</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
         <v>48</v>
       </c>
       <c r="L87">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="O87">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R87">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U87">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8520,19 +8520,19 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD87">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8908,7 +8908,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6907453</v>
+        <v>6907493</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8917,10 +8917,10 @@
         <v>45202.375</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8938,43 +8938,43 @@
         <v>50</v>
       </c>
       <c r="L92">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N92">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q92">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="R92">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X92">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y92">
         <v>-1</v>
@@ -8983,7 +8983,7 @@
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8992,7 +8992,7 @@
         <v>-1</v>
       </c>
       <c r="AD92">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6907493</v>
+        <v>6907453</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,10 +9009,10 @@
         <v>45202.375</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9030,43 +9030,43 @@
         <v>50</v>
       </c>
       <c r="L93">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="M93">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O93">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="P93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="R93">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S93">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X93">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Y93">
         <v>-1</v>
@@ -9075,7 +9075,7 @@
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -9084,7 +9084,7 @@
         <v>-1</v>
       </c>
       <c r="AD93">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9460,7 +9460,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6899062</v>
+        <v>6907494</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9469,64 +9469,64 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="s">
         <v>50</v>
       </c>
       <c r="L98">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="M98">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N98">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="O98">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="R98">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U98">
         <v>3</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="X98">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9535,7 +9535,7 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9552,7 +9552,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6907494</v>
+        <v>6899062</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9561,64 +9561,64 @@
         <v>45203.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="s">
         <v>50</v>
       </c>
       <c r="L99">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="M99">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N99">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="O99">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="P99">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="R99">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U99">
         <v>3</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="X99">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="Y99">
         <v>-1</v>
@@ -9627,7 +9627,7 @@
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -13140,7 +13140,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6907458</v>
+        <v>6907502</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13149,82 +13149,82 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L138">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="M138">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O138">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q138">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R138">
         <v>0</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U138">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X138">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC138">
         <v>-1</v>
       </c>
       <c r="AD138">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13232,7 +13232,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6907502</v>
+        <v>6907501</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13241,82 +13241,82 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L139">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O139">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="P139">
         <v>3.8</v>
       </c>
       <c r="Q139">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S139">
+        <v>1.75</v>
+      </c>
+      <c r="T139">
         <v>1.95</v>
       </c>
-      <c r="T139">
-        <v>1.75</v>
-      </c>
       <c r="U139">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z139">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13324,7 +13324,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6907459</v>
+        <v>6898499</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13333,46 +13333,46 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L140">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M140">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O140">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="P140">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S140">
         <v>1.95</v>
@@ -13384,31 +13384,31 @@
         <v>3</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13416,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6898499</v>
+        <v>6898467</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13425,16 +13425,16 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13443,64 +13443,64 @@
         <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L141">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O141">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="R141">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X141">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13508,7 +13508,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6898467</v>
+        <v>6907458</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13517,16 +13517,16 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13535,64 +13535,64 @@
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
+        <v>2.4</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>1.925</v>
+      </c>
+      <c r="T142">
+        <v>1.875</v>
+      </c>
+      <c r="U142">
+        <v>2.75</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>2</v>
+      </c>
+      <c r="X142">
         <v>1.4</v>
       </c>
-      <c r="R142">
-        <v>1.25</v>
-      </c>
-      <c r="S142">
-        <v>1.9</v>
-      </c>
-      <c r="T142">
-        <v>1.9</v>
-      </c>
-      <c r="U142">
-        <v>3.25</v>
-      </c>
-      <c r="V142">
-        <v>2</v>
-      </c>
-      <c r="W142">
-        <v>1.8</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
       </c>
       <c r="AD142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13600,7 +13600,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6907501</v>
+        <v>6907459</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13609,79 +13609,79 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L143">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O143">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q143">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R143">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U143">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD143">
         <v>-1</v>
@@ -16912,7 +16912,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6898477</v>
+        <v>6898765</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16921,82 +16921,82 @@
         <v>45268.625</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L179">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <v>3.75</v>
       </c>
       <c r="N179">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O179">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q179">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="R179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S179">
+        <v>1.75</v>
+      </c>
+      <c r="T179">
+        <v>1.95</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="T179">
+      <c r="W179">
         <v>1.975</v>
       </c>
-      <c r="U179">
-        <v>3.5</v>
-      </c>
-      <c r="V179">
-        <v>1.925</v>
-      </c>
-      <c r="W179">
-        <v>1.875</v>
-      </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z179">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB179">
+        <v>0.475</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
+      </c>
+      <c r="AD179">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
-      </c>
-      <c r="AD179">
-        <v>0.875</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17004,7 +17004,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6898765</v>
+        <v>6898477</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17013,82 +17013,82 @@
         <v>45268.625</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L180">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="M180">
         <v>3.75</v>
       </c>
       <c r="N180">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O180">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P180">
+        <v>4.2</v>
+      </c>
+      <c r="Q180">
+        <v>4.75</v>
+      </c>
+      <c r="R180">
+        <v>-1</v>
+      </c>
+      <c r="S180">
+        <v>1.825</v>
+      </c>
+      <c r="T180">
+        <v>1.975</v>
+      </c>
+      <c r="U180">
         <v>3.5</v>
       </c>
-      <c r="Q180">
-        <v>3</v>
-      </c>
-      <c r="R180">
-        <v>-0.25</v>
-      </c>
-      <c r="S180">
-        <v>1.75</v>
-      </c>
-      <c r="T180">
-        <v>1.95</v>
-      </c>
-      <c r="U180">
-        <v>2.75</v>
-      </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
         <v>-1</v>
       </c>
       <c r="AD180">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -18384,7 +18384,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6899051</v>
+        <v>6907084</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18393,79 +18393,79 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L195">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M195">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N195">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O195">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="P195">
         <v>3.4</v>
       </c>
       <c r="Q195">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="R195">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W195">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD195">
         <v>-1</v>
@@ -18476,7 +18476,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6898504</v>
+        <v>6899051</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18485,82 +18485,82 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <v>2</v>
       </c>
       <c r="K196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L196">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O196">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="P196">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q196">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="R196">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U196">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z196">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC196">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD196">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18568,7 +18568,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6907084</v>
+        <v>6898504</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18577,82 +18577,82 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197" t="s">
+        <v>48</v>
+      </c>
+      <c r="L197">
+        <v>5</v>
+      </c>
+      <c r="M197">
         <v>4</v>
       </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>2</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
-      <c r="K197" t="s">
-        <v>50</v>
-      </c>
-      <c r="L197">
-        <v>1.8</v>
-      </c>
-      <c r="M197">
-        <v>3.6</v>
-      </c>
       <c r="N197">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O197">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="P197">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q197">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="R197">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U197">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V197">
         <v>1.85</v>
       </c>
       <c r="W197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X197">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA197">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC197">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD197">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18936,7 +18936,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6898480</v>
+        <v>6898479</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18945,82 +18945,82 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L201">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="M201">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O201">
+        <v>2</v>
+      </c>
+      <c r="P201">
         <v>3.5</v>
       </c>
-      <c r="P201">
-        <v>4</v>
-      </c>
       <c r="Q201">
+        <v>3.2</v>
+      </c>
+      <c r="R201">
+        <v>-0.25</v>
+      </c>
+      <c r="S201">
+        <v>1.825</v>
+      </c>
+      <c r="T201">
+        <v>1.975</v>
+      </c>
+      <c r="U201">
+        <v>2.5</v>
+      </c>
+      <c r="V201">
         <v>1.75</v>
       </c>
-      <c r="R201">
-        <v>0.75</v>
-      </c>
-      <c r="S201">
-        <v>1.8</v>
-      </c>
-      <c r="T201">
-        <v>2</v>
-      </c>
-      <c r="U201">
-        <v>2.75</v>
-      </c>
-      <c r="V201">
-        <v>1.825</v>
-      </c>
       <c r="W201">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
         <v>2.5</v>
       </c>
-      <c r="Y201">
-        <v>-1</v>
-      </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
       </c>
       <c r="AD201">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19028,7 +19028,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6898505</v>
+        <v>6898480</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19037,82 +19037,82 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L202">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="M202">
         <v>4</v>
       </c>
       <c r="N202">
-        <v>5</v>
+    